--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4561,10 +4594,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4671,10 +4704,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4687,84 +4720,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>3140043239</v>
+        <v>7588795550.375</v>
       </c>
       <c r="AA2" t="n">
-        <v>4201842517.24</v>
+        <v>7772239695.2188</v>
       </c>
       <c r="AB2" t="n">
-        <v>6906249606.6484</v>
+        <v>10170421178.6875</v>
       </c>
       <c r="AC2" t="n">
-        <v>6554613572.8096</v>
+        <v>11041052637</v>
       </c>
       <c r="AD2" t="n">
-        <v>7542935888.7852</v>
+        <v>10841503364.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>8065828322.8784</v>
+        <v>11068721928.7004</v>
       </c>
       <c r="AF2" t="n">
-        <v>8945938179.3539</v>
+        <v>11064334234.028</v>
       </c>
       <c r="AG2" t="n">
-        <v>10480041815.8173</v>
+        <v>12969824699.2898</v>
       </c>
       <c r="AH2" t="n">
-        <v>12891702943.184</v>
+        <v>13107247265.5501</v>
       </c>
       <c r="AI2" t="n">
-        <v>11228379316.9394</v>
+        <v>12896073312.036</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10150811886.1512</v>
+        <v>12691711812.4849</v>
       </c>
       <c r="AK2" t="n">
-        <v>9223565415.3386</v>
+        <v>11502735931.9326</v>
       </c>
       <c r="AL2" t="n">
-        <v>8701955622.324</v>
+        <v>12254561110.1042</v>
       </c>
       <c r="AM2" t="n">
-        <v>7452142339.902</v>
+        <v>10206640078.3461</v>
       </c>
       <c r="AN2" t="n">
-        <v>6711117831.7237</v>
+        <v>9434454301.3604</v>
       </c>
       <c r="AO2" t="n">
-        <v>6839610509.5987</v>
+        <v>9794237411.2593</v>
       </c>
       <c r="AP2" t="n">
-        <v>7560792264.686</v>
+        <v>11169942905.4976</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8784997403.6141</v>
+        <v>12612544608.3637</v>
       </c>
       <c r="AR2" t="n">
-        <v>9249124906.0079</v>
+        <v>14017682682.7061</v>
       </c>
       <c r="AS2" t="n">
-        <v>9751300208.1095</v>
+        <v>14723221525.3396</v>
       </c>
       <c r="AT2" t="n">
-        <v>10921196830.372</v>
+        <v>16582819977.4707</v>
       </c>
       <c r="AU2" t="n">
-        <v>10061930650.5822</v>
+        <v>14295607926.2467</v>
       </c>
       <c r="AV2" t="n">
-        <v>10547189343.4427</v>
+        <v>12238337982.7075</v>
       </c>
       <c r="AW2" t="n">
-        <v>7513222430.9844</v>
+        <v>10072188278.8664</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4777,84 +4810,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>243308654</v>
+        <v>33918970</v>
       </c>
       <c r="AA3" t="n">
-        <v>291318567</v>
+        <v>51684911</v>
       </c>
       <c r="AB3" t="n">
-        <v>169640369</v>
+        <v>69744466.3984</v>
       </c>
       <c r="AC3" t="n">
-        <v>140427185</v>
+        <v>98349101</v>
       </c>
       <c r="AD3" t="n">
-        <v>339189597</v>
+        <v>138093134</v>
       </c>
       <c r="AE3" t="n">
-        <v>301198254.6587</v>
+        <v>186222464.9014</v>
       </c>
       <c r="AF3" t="n">
-        <v>420823299.6473</v>
+        <v>146298587.2001</v>
       </c>
       <c r="AG3" t="n">
-        <v>404555833.0535</v>
+        <v>146100577.7703</v>
       </c>
       <c r="AH3" t="n">
-        <v>464221392.1764</v>
+        <v>167476260.9888</v>
       </c>
       <c r="AI3" t="n">
-        <v>1134434106.4638</v>
+        <v>156928915.4697</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1134217345.713</v>
+        <v>163778516.5801</v>
       </c>
       <c r="AK3" t="n">
-        <v>944939774.3347</v>
+        <v>177866732.5146</v>
       </c>
       <c r="AL3" t="n">
-        <v>1215854579.8417</v>
+        <v>114722512.7351</v>
       </c>
       <c r="AM3" t="n">
-        <v>974383093.81</v>
+        <v>121974942.8232</v>
       </c>
       <c r="AN3" t="n">
-        <v>489522688.06</v>
+        <v>104650683.3693</v>
       </c>
       <c r="AO3" t="n">
-        <v>498305939.2271</v>
+        <v>109841050.8865</v>
       </c>
       <c r="AP3" t="n">
-        <v>498483386.2324</v>
+        <v>121319280.6812</v>
       </c>
       <c r="AQ3" t="n">
-        <v>476897525.5534</v>
+        <v>123684673.179</v>
       </c>
       <c r="AR3" t="n">
-        <v>606038775.4084</v>
+        <v>184217737.3251</v>
       </c>
       <c r="AS3" t="n">
-        <v>380975668.1635</v>
+        <v>189976927.6257</v>
       </c>
       <c r="AT3" t="n">
-        <v>399848951.506</v>
+        <v>178339958.3847</v>
       </c>
       <c r="AU3" t="n">
-        <v>544037931.4568</v>
+        <v>129027682.5932</v>
       </c>
       <c r="AV3" t="n">
-        <v>485660871.5053</v>
+        <v>123254801.0254</v>
       </c>
       <c r="AW3" t="n">
-        <v>54933350.8032</v>
+        <v>65288540.8935</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4867,84 +4900,78 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>85991847</v>
+        <v>-201219</v>
       </c>
       <c r="AA4" t="n">
-        <v>51375522</v>
+        <v>109645</v>
       </c>
       <c r="AB4" t="n">
-        <v>86996030</v>
+        <v>-140884</v>
       </c>
       <c r="AC4" t="n">
-        <v>57538828</v>
+        <v>-353647</v>
       </c>
       <c r="AD4" t="n">
-        <v>91668428</v>
+        <v>-6216</v>
       </c>
       <c r="AE4" t="n">
-        <v>90291331.4375</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>124552842.7969</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>120471078.7933</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>104147609.3629</v>
-      </c>
+        <v>491260</v>
+      </c>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
       <c r="AI4" t="n">
-        <v>90614598.6009</v>
+        <v>20152.6498</v>
       </c>
       <c r="AJ4" t="n">
-        <v>124597994.3127</v>
+        <v>39025476.8882</v>
       </c>
       <c r="AK4" t="n">
-        <v>544336276.3709</v>
+        <v>150607691.6996</v>
       </c>
       <c r="AL4" t="n">
-        <v>513247921.9585</v>
+        <v>325852361.4715</v>
       </c>
       <c r="AM4" t="n">
-        <v>49840782.2019</v>
+        <v>131029685.097</v>
       </c>
       <c r="AN4" t="n">
-        <v>81774892.7838</v>
+        <v>200532766.6948</v>
       </c>
       <c r="AO4" t="n">
-        <v>125096728.956</v>
+        <v>228807160.3187</v>
       </c>
       <c r="AP4" t="n">
-        <v>131702863.8702</v>
+        <v>412893152.2807</v>
       </c>
       <c r="AQ4" t="n">
-        <v>143739130.0055</v>
+        <v>687174965.0435</v>
       </c>
       <c r="AR4" t="n">
-        <v>184328152.3825</v>
+        <v>606764807.6964</v>
       </c>
       <c r="AS4" t="n">
-        <v>168844940.915</v>
+        <v>615122908.5129</v>
       </c>
       <c r="AT4" t="n">
-        <v>178341984.6682</v>
+        <v>478746904.0682</v>
       </c>
       <c r="AU4" t="n">
-        <v>186023807.7479</v>
+        <v>363048406.2975</v>
       </c>
       <c r="AV4" t="n">
-        <v>198001000.2346</v>
+        <v>379493430.4499</v>
       </c>
       <c r="AW4" t="n">
-        <v>361697052.9354</v>
+        <v>162956724.9372</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4957,84 +4984,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>1347721151</v>
+        <v>11661688</v>
       </c>
       <c r="AA5" t="n">
-        <v>1316111608</v>
+        <v>10360917</v>
       </c>
       <c r="AB5" t="n">
-        <v>1630834274</v>
+        <v>33432153</v>
       </c>
       <c r="AC5" t="n">
-        <v>2168931643</v>
+        <v>37119127</v>
       </c>
       <c r="AD5" t="n">
-        <v>1387107713</v>
+        <v>62334535.5625</v>
       </c>
       <c r="AE5" t="n">
-        <v>1465344953</v>
+        <v>71569695.6672</v>
       </c>
       <c r="AF5" t="n">
-        <v>1758595351</v>
+        <v>67522411.1997</v>
       </c>
       <c r="AG5" t="n">
-        <v>2184704912.8867</v>
+        <v>44314739.6548</v>
       </c>
       <c r="AH5" t="n">
-        <v>1998198608.9448</v>
+        <v>37164453.4433</v>
       </c>
       <c r="AI5" t="n">
-        <v>1110007994.597</v>
+        <v>42515330.4629</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1258453770.7495</v>
+        <v>42618719.3412</v>
       </c>
       <c r="AK5" t="n">
-        <v>1254027140.1484</v>
+        <v>39808827.8382</v>
       </c>
       <c r="AL5" t="n">
-        <v>1620729916.701</v>
+        <v>28663356.7869</v>
       </c>
       <c r="AM5" t="n">
-        <v>2156750833.495</v>
+        <v>20917404.7667</v>
       </c>
       <c r="AN5" t="n">
-        <v>2452088850.8275</v>
+        <v>27197305.0131</v>
       </c>
       <c r="AO5" t="n">
-        <v>3102874745.4956</v>
+        <v>33695818.4207</v>
       </c>
       <c r="AP5" t="n">
-        <v>3326671265.044</v>
+        <v>25149752.2436</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4062354945.6279</v>
+        <v>16287046.9756</v>
       </c>
       <c r="AR5" t="n">
-        <v>5586764507.9499</v>
+        <v>26203533.2169</v>
       </c>
       <c r="AS5" t="n">
-        <v>7646849912.6752</v>
+        <v>13237733.1167</v>
       </c>
       <c r="AT5" t="n">
-        <v>7266363992.2005</v>
+        <v>19916283.1098</v>
       </c>
       <c r="AU5" t="n">
-        <v>6435793243.0658</v>
+        <v>14919908.3793</v>
       </c>
       <c r="AV5" t="n">
-        <v>4852503484.7871</v>
+        <v>17049798.0441</v>
       </c>
       <c r="AW5" t="n">
-        <v>2960825801.9075</v>
+        <v>4269534.0136</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -5047,84 +5074,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>2795926985.375</v>
+        <v>32824492</v>
       </c>
       <c r="AA6" t="n">
-        <v>2796157381.2188</v>
+        <v>173986168</v>
       </c>
       <c r="AB6" t="n">
-        <v>3282611241.5859</v>
+        <v>140200642</v>
       </c>
       <c r="AC6" t="n">
-        <v>3852412548.4102</v>
+        <v>456724619.1094</v>
       </c>
       <c r="AD6" t="n">
-        <v>3045985592.375</v>
+        <v>447009338</v>
       </c>
       <c r="AE6" t="n">
-        <v>2999908419.2031</v>
+        <v>447783742</v>
       </c>
       <c r="AF6" t="n">
-        <v>2789079776.7198</v>
+        <v>428190219.1465</v>
       </c>
       <c r="AG6" t="n">
-        <v>3535252956.1705</v>
+        <v>591233238.3485</v>
       </c>
       <c r="AH6" t="n">
-        <v>2275036551.4739</v>
+        <v>650952124.7076</v>
       </c>
       <c r="AI6" t="n">
-        <v>2079536007.436</v>
+        <v>521230082.034</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2279444999.8507</v>
+        <v>338051119.3968</v>
       </c>
       <c r="AK6" t="n">
-        <v>2203933568.99</v>
+        <v>623163194.4216</v>
       </c>
       <c r="AL6" t="n">
-        <v>2330897469.2119</v>
+        <v>349894573.1401</v>
       </c>
       <c r="AM6" t="n">
-        <v>2051997608.9233</v>
+        <v>560146468.1549</v>
       </c>
       <c r="AN6" t="n">
-        <v>2487580121.9208</v>
+        <v>900212494.0676</v>
       </c>
       <c r="AO6" t="n">
-        <v>2526669998.6822</v>
+        <v>747157481.1944</v>
       </c>
       <c r="AP6" t="n">
-        <v>2640395378.7156</v>
+        <v>1275229971.4006</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2629351175.7988</v>
+        <v>1240266279.4841</v>
       </c>
       <c r="AR6" t="n">
-        <v>3255666918.1855</v>
+        <v>1375054737.5779</v>
       </c>
       <c r="AS6" t="n">
-        <v>3214395561.8443</v>
+        <v>1398673021.7542</v>
       </c>
       <c r="AT6" t="n">
-        <v>3199090831.8449</v>
+        <v>1199620685.386</v>
       </c>
       <c r="AU6" t="n">
-        <v>3037362587.6587</v>
+        <v>1045964382.978</v>
       </c>
       <c r="AV6" t="n">
-        <v>2823137497.5384</v>
+        <v>1621609208.7029</v>
       </c>
       <c r="AW6" t="n">
-        <v>1665758909.8611</v>
+        <v>1228242313.759</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -5137,84 +5164,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>225135523</v>
+        <v>1012019738.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>447692754</v>
+        <v>1111864187.1795</v>
       </c>
       <c r="AB7" t="n">
-        <v>246831216</v>
+        <v>1940057452.2734</v>
       </c>
       <c r="AC7" t="n">
-        <v>755204057.25</v>
+        <v>1930730159.9405</v>
       </c>
       <c r="AD7" t="n">
-        <v>1614643024</v>
+        <v>2604595794.0977</v>
       </c>
       <c r="AE7" t="n">
-        <v>1673662914</v>
+        <v>3067349593.9087</v>
       </c>
       <c r="AF7" t="n">
-        <v>860491200.8594</v>
+        <v>3319450007.6839</v>
       </c>
       <c r="AG7" t="n">
-        <v>726343565.1504</v>
+        <v>4195186541.2768</v>
       </c>
       <c r="AH7" t="n">
-        <v>651681537.0876</v>
+        <v>5243126765.2241</v>
       </c>
       <c r="AI7" t="n">
-        <v>699221803.3827</v>
+        <v>4302950517.9654</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1736977845.217</v>
+        <v>3411480804.1811</v>
       </c>
       <c r="AK7" t="n">
-        <v>1255951571.2465</v>
+        <v>2931303479.1549</v>
       </c>
       <c r="AL7" t="n">
-        <v>1287154104.6418</v>
+        <v>2605827148.2912</v>
       </c>
       <c r="AM7" t="n">
-        <v>356226972.0625</v>
+        <v>1999108549.0568</v>
       </c>
       <c r="AN7" t="n">
-        <v>345046632.1605</v>
+        <v>1909797163.0671</v>
       </c>
       <c r="AO7" t="n">
-        <v>155057056.77</v>
+        <v>2336432018.5044</v>
       </c>
       <c r="AP7" t="n">
-        <v>2317662899.218</v>
+        <v>3471514050.7446</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1914361156.6814</v>
+        <v>3364169213.8802</v>
       </c>
       <c r="AR7" t="n">
-        <v>2790183121.6122</v>
+        <v>5462182883.024</v>
       </c>
       <c r="AS7" t="n">
-        <v>1982248508.6542</v>
+        <v>6204382684.0126</v>
       </c>
       <c r="AT7" t="n">
-        <v>1898728139.1465</v>
+        <v>5404191971.7406</v>
       </c>
       <c r="AU7" t="n">
-        <v>1705788877.246</v>
+        <v>6122368791.2627</v>
       </c>
       <c r="AV7" t="n">
-        <v>1573458292.8082</v>
+        <v>6100205269.3865</v>
       </c>
       <c r="AW7" t="n">
-        <v>2602349630.0032</v>
+        <v>3625841784.0251</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5226,67 +5253,65 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
+      <c r="Z8" t="n">
+        <v>2383016</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>527961</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5305172</v>
+      </c>
       <c r="AC8" t="n">
-        <v>24429.5801</v>
-      </c>
-      <c r="AD8"/>
+        <v>4214181</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-37361</v>
+      </c>
       <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>33531281</v>
-      </c>
+        <v>-3502467</v>
+      </c>
+      <c r="AF8"/>
       <c r="AG8" t="n">
-        <v>492856836.4531</v>
+        <v>4384</v>
       </c>
       <c r="AH8" t="n">
-        <v>621569325.3688</v>
+        <v>80932</v>
       </c>
       <c r="AI8" t="n">
-        <v>1441905486.7423</v>
+        <v>-4177369.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1203725.9902</v>
+        <v>229144.2507</v>
       </c>
       <c r="AK8" t="n">
-        <v>-631696.42</v>
+        <v>636192.4476</v>
       </c>
       <c r="AL8" t="n">
-        <v>-591936.2749</v>
+        <v>413115.4258</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1068232.85</v>
+        <v>795469.3</v>
       </c>
       <c r="AN8" t="n">
-        <v>-1066664.4</v>
+        <v>1258556.88</v>
       </c>
       <c r="AO8" t="n">
-        <v>-252</v>
+        <v>685789.7406</v>
       </c>
       <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>65050.4219</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ8" t="n">
+        <v>585814.6167</v>
+      </c>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>11331278000</v>
@@ -5319,84 +5344,74 @@
         <v>9161817835</v>
       </c>
       <c r="Z9" t="n">
-        <v>843274836.9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>16275134.9395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9" t="n">
-        <v>35857443.125</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>38683914</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>71962346</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>242402023</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>92783527.8809</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>2437182.0154</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>199489834.3155</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>131441626.7057</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1188025.1387</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>10686499.5508</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>339200</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>12038917.376</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>3242003.595</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>341055.0821</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>33011264.2617</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR9"/>
+      <c r="AS9"/>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5503,10 +5518,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5519,84 +5534,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>5073462218.82682</v>
+        <v>12261445012.2955</v>
       </c>
       <c r="AA14" t="n">
-        <v>6628310515.98886</v>
+        <v>12260530444.2595</v>
       </c>
       <c r="AB14" t="n">
-        <v>10725169724.5272</v>
+        <v>15794316673.1683</v>
       </c>
       <c r="AC14" t="n">
-        <v>9988171437.77646</v>
+        <v>16824779274.4552</v>
       </c>
       <c r="AD14" t="n">
-        <v>11219961212.1695</v>
+        <v>16126512146.5703</v>
       </c>
       <c r="AE14" t="n">
-        <v>11644271017.1629</v>
+        <v>15979412503.2165</v>
       </c>
       <c r="AF14" t="n">
-        <v>12507627338.1543</v>
+        <v>15469430547.0821</v>
       </c>
       <c r="AG14" t="n">
-        <v>14261418475.9245</v>
+        <v>17649557210.4287</v>
       </c>
       <c r="AH14" t="n">
-        <v>17184843346.7179</v>
+        <v>17472167327.9219</v>
       </c>
       <c r="AI14" t="n">
-        <v>14817036657.7815</v>
+        <v>17017735651.093</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13279573450.2485</v>
+        <v>16603649157.6817</v>
       </c>
       <c r="AK14" t="n">
-        <v>11828142486.9873</v>
+        <v>14750911764.2109</v>
       </c>
       <c r="AL14" t="n">
-        <v>10958372713.1018</v>
+        <v>15432168803.0098</v>
       </c>
       <c r="AM14" t="n">
-        <v>9215833098.75929</v>
+        <v>12622234945.4455</v>
       </c>
       <c r="AN14" t="n">
-        <v>8141917810.44332</v>
+        <v>11445865418.2698</v>
       </c>
       <c r="AO14" t="n">
-        <v>8203754185.48272</v>
+        <v>11747674234.2956</v>
       </c>
       <c r="AP14" t="n">
-        <v>8994243060.78116</v>
+        <v>13287652662.5832</v>
       </c>
       <c r="AQ14" t="n">
-        <v>10267236413.818</v>
+        <v>14740582304.6255</v>
       </c>
       <c r="AR14" t="n">
-        <v>10561682075.5666</v>
+        <v>16006953029.1184</v>
       </c>
       <c r="AS14" t="n">
-        <v>10921213406.4553</v>
+        <v>16489641471.096</v>
       </c>
       <c r="AT14" t="n">
-        <v>12070443370.1886</v>
+        <v>18327843785.3476</v>
       </c>
       <c r="AU14" t="n">
-        <v>10759097625.6561</v>
+        <v>15286116217.437</v>
       </c>
       <c r="AV14" t="n">
-        <v>10547189343.4427</v>
+        <v>12238337982.7075</v>
       </c>
       <c r="AW14" t="n">
-        <v>7166099379.01001</v>
+        <v>9606836857.75019</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5609,84 +5624,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>393121103.63669</v>
+        <v>54803899.086219</v>
       </c>
       <c r="AA15" t="n">
-        <v>459548379.842008</v>
+        <v>81531765.5751354</v>
       </c>
       <c r="AB15" t="n">
-        <v>263445698.212953</v>
+        <v>108310773.874916</v>
       </c>
       <c r="AC15" t="n">
-        <v>213988327.873786</v>
+        <v>149868130.382875</v>
       </c>
       <c r="AD15" t="n">
-        <v>504537514.042735</v>
+        <v>205410682.258425</v>
       </c>
       <c r="AE15" t="n">
-        <v>434826277.816279</v>
+        <v>268840937.8421</v>
       </c>
       <c r="AF15" t="n">
-        <v>588367692.876346</v>
+        <v>204545143.517801</v>
       </c>
       <c r="AG15" t="n">
-        <v>550526432.379721</v>
+        <v>198816141.74591</v>
       </c>
       <c r="AH15" t="n">
-        <v>618814437.309429</v>
+        <v>223248497.275391</v>
       </c>
       <c r="AI15" t="n">
-        <v>1497006047.52044</v>
+        <v>207084337.600935</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1483814567.72839</v>
+        <v>214259594.689703</v>
       </c>
       <c r="AK15" t="n">
-        <v>1211774600.07662</v>
+        <v>228093254.738445</v>
       </c>
       <c r="AL15" t="n">
-        <v>1531125672.10251</v>
+        <v>144470060.259747</v>
       </c>
       <c r="AM15" t="n">
-        <v>1204989324.84477</v>
+        <v>150842625.384434</v>
       </c>
       <c r="AN15" t="n">
-        <v>593888170.714493</v>
+        <v>126962047.778667</v>
       </c>
       <c r="AO15" t="n">
-        <v>597691846.465256</v>
+        <v>131748581.250837</v>
       </c>
       <c r="AP15" t="n">
-        <v>592990863.996666</v>
+        <v>144320206.164421</v>
       </c>
       <c r="AQ15" t="n">
-        <v>557361535.24726</v>
+        <v>144553233.421808</v>
       </c>
       <c r="AR15" t="n">
-        <v>692042645.804419</v>
+        <v>210360352.366322</v>
       </c>
       <c r="AS15" t="n">
-        <v>426683261.296815</v>
+        <v>212769428.140211</v>
       </c>
       <c r="AT15" t="n">
-        <v>441925386.085918</v>
+        <v>197106819.129729</v>
       </c>
       <c r="AU15" t="n">
-        <v>581733011.27503</v>
+        <v>137967700.398738</v>
       </c>
       <c r="AV15" t="n">
-        <v>485660871.5053</v>
+        <v>123254801.0254</v>
       </c>
       <c r="AW15" t="n">
-        <v>52395340.9730441</v>
+        <v>62272104.4999169</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5699,84 +5714,78 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>138939611.233053</v>
+        <v>-325115.584884503</v>
       </c>
       <c r="AA16" t="n">
-        <v>81043711.5003295</v>
+        <v>172962.480993451</v>
       </c>
       <c r="AB16" t="n">
-        <v>135101862.842004</v>
+        <v>-218788.039461489</v>
       </c>
       <c r="AC16" t="n">
-        <v>87679871.8961531</v>
+        <v>-538900.855896107</v>
       </c>
       <c r="AD16" t="n">
-        <v>136354891.743114</v>
+        <v>-9246.17150711034</v>
       </c>
       <c r="AE16" t="n">
-        <v>130349505.552522</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>174141661.87809</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>163939085.273901</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>138830405.860606</v>
-      </c>
+        <v>709209.810933595</v>
+      </c>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
       <c r="AI16" t="n">
-        <v>119575567.524171</v>
+        <v>26593.5574858567</v>
       </c>
       <c r="AJ16" t="n">
-        <v>163002549.528726</v>
+        <v>51054210.4986564</v>
       </c>
       <c r="AK16" t="n">
-        <v>698047528.024686</v>
+        <v>193136727.159399</v>
       </c>
       <c r="AL16" t="n">
-        <v>646333107.999019</v>
+        <v>410345878.722766</v>
       </c>
       <c r="AM16" t="n">
-        <v>61636548.1674848</v>
+        <v>162040344.072765</v>
       </c>
       <c r="AN16" t="n">
-        <v>99209173.8959242</v>
+        <v>243286043.498139</v>
       </c>
       <c r="AO16" t="n">
-        <v>150046967.195387</v>
+        <v>274442191.773737</v>
       </c>
       <c r="AP16" t="n">
-        <v>156672413.152029</v>
+        <v>491173575.432041</v>
       </c>
       <c r="AQ16" t="n">
-        <v>167991356.386269</v>
+        <v>803117804.093619</v>
       </c>
       <c r="AR16" t="n">
-        <v>210486436.589907</v>
+        <v>692871710.421923</v>
       </c>
       <c r="AS16" t="n">
-        <v>189102129.252417</v>
+        <v>688922339.759577</v>
       </c>
       <c r="AT16" t="n">
-        <v>197109058.640711</v>
+        <v>529125835.1958</v>
       </c>
       <c r="AU16" t="n">
-        <v>198912949.985411</v>
+        <v>388203157.210952</v>
       </c>
       <c r="AV16" t="n">
-        <v>198001000.2346</v>
+        <v>379493430.4499</v>
       </c>
       <c r="AW16" t="n">
-        <v>344986062.936315</v>
+        <v>155427860.163188</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5789,84 +5798,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>2177553562.38019</v>
+        <v>18842139.7326325</v>
       </c>
       <c r="AA17" t="n">
-        <v>2076135975.04638</v>
+        <v>16344109.7148728</v>
       </c>
       <c r="AB17" t="n">
-        <v>2532629918.90535</v>
+        <v>51918991.5806376</v>
       </c>
       <c r="AC17" t="n">
-        <v>3305101185.05982</v>
+        <v>56563548.7093522</v>
       </c>
       <c r="AD17" t="n">
-        <v>2063294049.748</v>
+        <v>92721333.1124427</v>
       </c>
       <c r="AE17" t="n">
-        <v>2115452137.5028</v>
+        <v>103321927.96627</v>
       </c>
       <c r="AF17" t="n">
-        <v>2458753330.05121</v>
+        <v>94405431.7532138</v>
       </c>
       <c r="AG17" t="n">
-        <v>2972983462.91527</v>
+        <v>60304248.5875292</v>
       </c>
       <c r="AH17" t="n">
-        <v>2663630260.61667</v>
+        <v>49540802.5847485</v>
       </c>
       <c r="AI17" t="n">
-        <v>1464773203.87297</v>
+        <v>56103484.9469437</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1646344102.30871</v>
+        <v>55754989.8662915</v>
       </c>
       <c r="AK17" t="n">
-        <v>1608142949.96572</v>
+        <v>51050159.7491939</v>
       </c>
       <c r="AL17" t="n">
-        <v>2040985183.71215</v>
+        <v>36095765.1948561</v>
       </c>
       <c r="AM17" t="n">
-        <v>2667186804.88345</v>
+        <v>25867905.1468083</v>
       </c>
       <c r="AN17" t="n">
-        <v>2974870414.72704</v>
+        <v>32995728.5260991</v>
       </c>
       <c r="AO17" t="n">
-        <v>3721735564.42495</v>
+        <v>40416367.4253291</v>
       </c>
       <c r="AP17" t="n">
-        <v>3957374954.06041</v>
+        <v>29917894.4055751</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4747771309.12359</v>
+        <v>19035061.03629</v>
       </c>
       <c r="AR17" t="n">
-        <v>6379590627.61693</v>
+        <v>29922115.8656511</v>
       </c>
       <c r="AS17" t="n">
-        <v>8564281480.53607</v>
+        <v>14825931.4450139</v>
       </c>
       <c r="AT17" t="n">
-        <v>8031009461.44617</v>
+        <v>22012089.9893437</v>
       </c>
       <c r="AU17" t="n">
-        <v>6881713878.30786</v>
+        <v>15953672.9473925</v>
       </c>
       <c r="AV17" t="n">
-        <v>4852503484.7871</v>
+        <v>17049798.0441</v>
       </c>
       <c r="AW17" t="n">
-        <v>2824030851.64965</v>
+        <v>4072274.62311566</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5879,84 +5888,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>4517463247.23092</v>
+        <v>53035518.0928078</v>
       </c>
       <c r="AA18" t="n">
-        <v>4410874348.15774</v>
+        <v>274459202.66153</v>
       </c>
       <c r="AB18" t="n">
-        <v>5097783125.55595</v>
+        <v>217726807.830713</v>
       </c>
       <c r="AC18" t="n">
-        <v>5870453926.09907</v>
+        <v>695974483.445014</v>
       </c>
       <c r="AD18" t="n">
-        <v>4530840604.13229</v>
+        <v>664917150.004481</v>
       </c>
       <c r="AE18" t="n">
-        <v>4330831907.34261</v>
+        <v>646445106.466958</v>
       </c>
       <c r="AF18" t="n">
-        <v>3899509449.33909</v>
+        <v>598667639.274235</v>
       </c>
       <c r="AG18" t="n">
-        <v>4810832123.79002</v>
+        <v>804560208.551647</v>
       </c>
       <c r="AH18" t="n">
-        <v>3032659604.19968</v>
+        <v>867729448.825665</v>
       </c>
       <c r="AI18" t="n">
-        <v>2744168181.67794</v>
+        <v>687818340.887807</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2982033126.10064</v>
+        <v>442247843.849134</v>
       </c>
       <c r="AK18" t="n">
-        <v>2826286702.80983</v>
+        <v>799133819.120234</v>
       </c>
       <c r="AL18" t="n">
-        <v>2935299182.41849</v>
+        <v>440622235.871257</v>
       </c>
       <c r="AM18" t="n">
-        <v>2537641743.85576</v>
+        <v>692715748.830279</v>
       </c>
       <c r="AN18" t="n">
-        <v>3017928370.11919</v>
+        <v>1092136410.41824</v>
       </c>
       <c r="AO18" t="n">
-        <v>3030608182.72222</v>
+        <v>896176223.040941</v>
       </c>
       <c r="AP18" t="n">
-        <v>3140988005.13966</v>
+        <v>1517000853.83133</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3072985556.69128</v>
+        <v>1449528841.33021</v>
       </c>
       <c r="AR18" t="n">
-        <v>3717683487.16748</v>
+        <v>1570190815.06467</v>
       </c>
       <c r="AS18" t="n">
-        <v>3600042984.46988</v>
+        <v>1566478954.64504</v>
       </c>
       <c r="AT18" t="n">
-        <v>3535733795.62998</v>
+        <v>1325857758.40882</v>
       </c>
       <c r="AU18" t="n">
-        <v>3247814136.27061</v>
+        <v>1118436739.45102</v>
       </c>
       <c r="AV18" t="n">
-        <v>2823137497.5384</v>
+        <v>1621609208.7029</v>
       </c>
       <c r="AW18" t="n">
-        <v>1588798148.75546</v>
+        <v>1171495528.41722</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5969,84 +5978,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>363758229.781598</v>
+        <v>1635150703.10028</v>
       </c>
       <c r="AA19" t="n">
-        <v>706225085.089432</v>
+        <v>1753940337.83878</v>
       </c>
       <c r="AB19" t="n">
-        <v>383320446.796907</v>
+        <v>3012842951.82951</v>
       </c>
       <c r="AC19" t="n">
-        <v>1150808893.6941</v>
+        <v>2942120633.55935</v>
       </c>
       <c r="AD19" t="n">
-        <v>2401748121.40658</v>
+        <v>3874282403.30206</v>
       </c>
       <c r="AE19" t="n">
-        <v>2416191342.27193</v>
+        <v>4428193676.59331</v>
       </c>
       <c r="AF19" t="n">
-        <v>1203082678.6786</v>
+        <v>4641038517.2975</v>
       </c>
       <c r="AG19" t="n">
-        <v>988420630.561856</v>
+        <v>5708880928.26266</v>
       </c>
       <c r="AH19" t="n">
-        <v>868701767.032243</v>
+        <v>6989170670.8149</v>
       </c>
       <c r="AI19" t="n">
-        <v>922697283.392591</v>
+        <v>5678199298.55129</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2272362559.34198</v>
+        <v>4462993740.92853</v>
       </c>
       <c r="AK19" t="n">
-        <v>1610610807.48174</v>
+        <v>3759053431.37558</v>
       </c>
       <c r="AL19" t="n">
-        <v>1620913163.66615</v>
+        <v>3281518127.21699</v>
       </c>
       <c r="AM19" t="n">
-        <v>440534838.180179</v>
+        <v>2472235485.32657</v>
       </c>
       <c r="AN19" t="n">
-        <v>418610042.360037</v>
+        <v>2316962974.90226</v>
       </c>
       <c r="AO19" t="n">
-        <v>185982809.500676</v>
+        <v>2802427700.23259</v>
       </c>
       <c r="AP19" t="n">
-        <v>2757068666.71692</v>
+        <v>4129678487.15397</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2237359634.16357</v>
+        <v>3931784958.84202</v>
       </c>
       <c r="AR19" t="n">
-        <v>3186142187.78018</v>
+        <v>6237329437.68855</v>
       </c>
       <c r="AS19" t="n">
-        <v>2220068967.79125</v>
+        <v>6948754104.71585</v>
       </c>
       <c r="AT19" t="n">
-        <v>2098532865.48364</v>
+        <v>5972879545.13505</v>
       </c>
       <c r="AU19" t="n">
-        <v>1823978885.99899</v>
+        <v>6546573000.04886</v>
       </c>
       <c r="AV19" t="n">
-        <v>1573458292.8082</v>
+        <v>6100205269.3865</v>
       </c>
       <c r="AW19" t="n">
-        <v>2482116859.82116</v>
+        <v>3458322017.69201</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -6058,67 +6067,65 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
+      <c r="Z20" t="n">
+        <v>3850310.56028073</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>832846.408206334</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8238750.89354354</v>
+      </c>
       <c r="AC20" t="n">
-        <v>37226.7306807989</v>
-      </c>
-      <c r="AD20"/>
+        <v>6421730.56126903</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>-55573.7151990266</v>
+      </c>
       <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>46881250.2960113</v>
-      </c>
+        <v>-5056352.96761624</v>
+      </c>
+      <c r="AF20"/>
       <c r="AG20" t="n">
-        <v>670687933.970783</v>
+        <v>5965.82148213279</v>
       </c>
       <c r="AH20" t="n">
-        <v>828561713.891756</v>
+        <v>107883.632431346</v>
       </c>
       <c r="AI20" t="n">
-        <v>1902747124.14511</v>
+        <v>-5512482.16432084</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1574747.70295392</v>
+        <v>299772.859747731</v>
       </c>
       <c r="AK20" t="n">
-        <v>-810076.681611031</v>
+        <v>815842.310484849</v>
       </c>
       <c r="AL20" t="n">
-        <v>-745425.350839343</v>
+        <v>520236.255610679</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1321050.40499554</v>
+        <v>983732.189968246</v>
       </c>
       <c r="AN20" t="n">
-        <v>-1294075.60616399</v>
+        <v>1526879.26716019</v>
       </c>
       <c r="AO20" t="n">
-        <v>-302.260786903046</v>
+        <v>822568.835888062</v>
       </c>
       <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>71895.7313879013</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ20" t="n">
+        <v>684655.54262482</v>
+      </c>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
       <c r="AV20"/>
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>22521272714.3281</v>
@@ -6151,74 +6158,64 @@
         <v>15111299548.3172</v>
       </c>
       <c r="Z21" t="n">
-        <v>1362504494.19353</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>25673653.3142334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21" t="n">
-        <v>55685384.2978664</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>58948031.1271165</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>107042502.118728</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>349944821.279467</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>129723877.651182</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>3316558.58196647</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>265923095.426823</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>173451158.558442</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1554207.41385546</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>13457508.8817547</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>419478.110389966</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>14605596.0064904</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>3888613.32447303</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>405715.7237145</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>38581053.4621738</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR21"/>
+      <c r="AS21"/>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -235,14 +236,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2980,88 +2993,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>3140043239</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>4201842517.24</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>6906249606.6484</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>6554613572.8096</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>7542935888.7852</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>8065828322.8784</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>8945938179.3539</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>10480041815.8173</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>12891702943.184</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>11228379316.9394</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>10150811886.1512</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>9223565415.3386</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>8701955622.324</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>7452142339.902</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>6711117831.7237</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>6839610509.5987</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>7560792264.686</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>8784997403.6141</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>9249124906.0079</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>9751300208.1095</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>10921196830.372</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>10061930650.5822</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>10547189343.4427</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>7513222430.9844</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -3073,88 +3087,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>243308654</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>291318567</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>169640369</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>140427185</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>339189597</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>301198254.6587</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>420823299.6473</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>404555833.0535</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>464221392.1764</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>1134434106.4638</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>1134217345.713</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>944939774.3347</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>1215854579.8417</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>974383093.81</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>489522688.06</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>498305939.2271</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>498483386.2324</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>476897525.5534</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>606038775.4084</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>380975668.1635</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>399848951.506</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>544037931.4568</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>485660871.5053</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>54933350.8032</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3166,88 +3181,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>85991847</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>51375522</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>86996030</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>57538828</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>91668428</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>90291331.4375</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>124552842.7969</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>120471078.7933</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>104147609.3629</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>90614598.6009</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>124597994.3127</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>544336276.3709</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>513247921.9585</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>49840782.2019</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>81774892.7838</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>125096728.956</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>131702863.8702</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>143739130.0055</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>184328152.3825</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>168844940.915</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>178341984.6682</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>186023807.7479</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>198001000.2346</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>361697052.9354</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3259,88 +3275,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>1347721151</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>1316111608</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>1630834274</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>2168931643</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>1387107713</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>1465344953</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>1758595351</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>2184704912.8867</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>1998198608.9448</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>1110007994.597</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>1258453770.7495</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>1254027140.1484</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>1620729916.701</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>2156750833.495</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>2452088850.8275</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>3102874745.4956</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>3326671265.044</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>4062354945.6279</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>5586764507.9499</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>7646849912.6752</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>7266363992.2005</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>6435793243.0658</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>4852503484.7871</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>2960825801.9075</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3352,88 +3369,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>2795926985.375</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>2796157381.2188</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>3282611241.5859</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>3852412548.4102</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>3045985592.375</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>2999908419.2031</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>2789079776.7198</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>3535252956.1705</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>2275036551.4739</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>2079536007.436</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>2279444999.8507</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>2203933568.99</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>2330897469.2119</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>2051997608.9233</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>2487580121.9208</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>2526669998.6822</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>2640395378.7156</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>2629351175.7988</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>3255666918.1855</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>3214395561.8443</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>3199090831.8449</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>3037362587.6587</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>2823137497.5384</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>1665758909.8611</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3445,88 +3463,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>225135523</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>447692754</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>246831216</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>755204057.25</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>1614643024</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>1673662914</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>860491200.8594</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>726343565.1504</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>651681537.0876</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>699221803.3827</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1736977845.217</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>1255951571.2465</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>1287154104.6418</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>356226972.0625</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>345046632.1605</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>155057056.77</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>2317662899.218</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>1914361156.6814</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>2790183121.6122</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>1982248508.6542</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>1898728139.1465</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>1705788877.246</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>1573458292.8082</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>2602349630.0032</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3538,72 +3557,73 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="n">
         <v>24429.5801</v>
       </c>
-      <c r="AD8"/>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="n">
         <v>33531281</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>492856836.4531</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>621569325.3688</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>1441905486.7423</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>1203725.9902</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>-631696.42</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-591936.2749</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-1068232.85</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-1066664.4</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="1" t="n">
         <v>-252</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="n">
         <v>65050.4219</v>
       </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AU8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3613,108 +3633,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>11331278000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>14834080775</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>13464555013</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>11175370345</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>8533017359</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>8543659793</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>8817441132</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>8032566815</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>8630834203</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>9161817835</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>843274836.9</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>16275134.9395</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>35857443.125</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>38683914</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>71962346</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>242402023</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>92783527.8809</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>2437182.0154</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>199489834.3155</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>131441626.7057</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>1188025.1387</v>
       </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
         <v>10686499.5508</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>339200</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>12038917.376</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>3242003.595</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>341055.0821</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>33011264.2617</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3839,88 +3860,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>5073462218.82682</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>6628310515.98886</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>10725169724.5272</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>9988171437.77646</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>11219961212.1695</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>11644271017.1629</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>12507627338.1543</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>14261418475.9245</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>17184843346.7179</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>14817036657.7815</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>13279573450.2485</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>11828142486.9873</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>10958372713.1018</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>9215833098.75929</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>8141917810.44332</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>8203754185.48272</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>8994243060.78116</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>10267236413.818</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>10561682075.5666</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>10921213406.4553</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>12070443370.1886</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>10759097625.6561</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>10547189343.4427</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>7166099379.01001</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3932,88 +3954,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>393121103.63669</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>459548379.842008</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>263445698.212953</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>213988327.873786</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>504537514.042735</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>434826277.816279</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>588367692.876346</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>550526432.379721</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>618814437.309429</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>1497006047.52044</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>1483814567.72839</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>1211774600.07662</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>1531125672.10251</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>1204989324.84477</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>593888170.714493</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>597691846.465256</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>592990863.996666</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>557361535.24726</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>692042645.804419</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>426683261.296815</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>441925386.085918</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>581733011.27503</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>485660871.5053</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>52395340.9730441</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -4025,88 +4048,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>138939611.233053</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>81043711.5003295</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>135101862.842004</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>87679871.8961531</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>136354891.743114</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>130349505.552522</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>174141661.87809</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>163939085.273901</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>138830405.860606</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>119575567.524171</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>163002549.528726</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>698047528.024686</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>646333107.999019</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>61636548.1674848</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>99209173.8959242</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>150046967.195387</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>156672413.152029</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>167991356.386269</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>210486436.589907</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>189102129.252417</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>197109058.640711</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>198912949.985411</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>198001000.2346</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>344986062.936315</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -4118,88 +4142,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>2177553562.38019</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>2076135975.04638</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>2532629918.90535</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>3305101185.05982</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>2063294049.748</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>2115452137.5028</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>2458753330.05121</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>2972983462.91527</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>2663630260.61667</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>1464773203.87297</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>1646344102.30871</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>1608142949.96572</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>2040985183.71215</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>2667186804.88345</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>2974870414.72704</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>3721735564.42495</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>3957374954.06041</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>4747771309.12359</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>6379590627.61693</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>8564281480.53607</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>8031009461.44617</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>6881713878.30786</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>4852503484.7871</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>2824030851.64965</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4211,88 +4236,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>4517463247.23092</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>4410874348.15774</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>5097783125.55595</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>5870453926.09907</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>4530840604.13229</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>4330831907.34261</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>3899509449.33909</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>4810832123.79002</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>3032659604.19968</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>2744168181.67794</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>2982033126.10064</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>2826286702.80983</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>2935299182.41849</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>2537641743.85576</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>3017928370.11919</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>3030608182.72222</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>3140988005.13966</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>3072985556.69128</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>3717683487.16748</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>3600042984.46988</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>3535733795.62998</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>3247814136.27061</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>2823137497.5384</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>1588798148.75546</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4304,88 +4330,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>363758229.781598</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>706225085.089432</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>383320446.796907</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>1150808893.6941</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>2401748121.40658</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>2416191342.27193</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>1203082678.6786</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>988420630.561856</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>868701767.032243</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>922697283.392591</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>2272362559.34198</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>1610610807.48174</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>1620913163.66615</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>440534838.180179</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>418610042.360037</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>185982809.500676</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>2757068666.71692</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>2237359634.16357</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>3186142187.78018</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>2220068967.79125</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>2098532865.48364</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>1823978885.99899</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>1573458292.8082</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>2482116859.82116</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4397,72 +4424,73 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="n">
         <v>37226.7306807989</v>
       </c>
-      <c r="AD20"/>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1" t="n">
         <v>46881250.2960113</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>670687933.970783</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>828561713.891756</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>1902747124.14511</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>1574747.70295392</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>-810076.681611031</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-745425.350839343</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-1321050.40499554</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-1294075.60616399</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="1" t="n">
         <v>-302.260786903046</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1" t="n">
         <v>71895.7313879013</v>
       </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AU20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4472,108 +4500,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>22521272714.3281</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>28467781065.6707</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>25209506559.7903</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>20443265377.5613</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>15276697121.4962</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>14978464116.9066</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>15173276336.5228</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>13581379410.9445</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>14412955191.7781</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>15111299548.3172</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>1362504494.19353</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>25673653.3142334</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>55685384.2978664</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>58948031.1271165</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>107042502.118728</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>349944821.279467</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>129723877.651182</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>3316558.58196647</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>265923095.426823</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>173451158.558442</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>1554207.41385546</v>
       </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="n">
         <v>13457508.8817547</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>419478.110389966</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>14605596.0064904</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>3888613.32447303</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>405715.7237145</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>38581053.4621738</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4709,88 +4738,89 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>7588795550.375</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>7772239695.2188</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>10170421178.6875</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>11041052637</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>10841503364.5</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>11068721928.7004</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>11064334234.028</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>12969824699.2898</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>13107247265.5501</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>12896073312.036</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>12691711812.4849</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>11502735931.9326</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>12254561110.1042</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>10206640078.3461</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>9434454301.3604</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>9794237411.2593</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>11169942905.4976</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>12612544608.3637</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>14017682682.7061</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>14723221525.3396</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>16582819977.4707</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>14295607926.2467</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>12238337982.7075</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>10072188278.8664</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4799,88 +4829,89 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>33918970</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>51684911</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>69744466.3984</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>98349101</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>138093134</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>186222464.9014</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>146298587.2001</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>146100577.7703</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>167476260.9888</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>156928915.4697</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>163778516.5801</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>177866732.5146</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>114722512.7351</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>121974942.8232</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>104650683.3693</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>109841050.8865</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>121319280.6812</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>123684673.179</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>184217737.3251</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>189976927.6257</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>178339958.3847</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>129027682.5932</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>123254801.0254</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>65288540.8935</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4889,82 +4920,83 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>-201219</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>109645</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>-140884</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>-353647</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>-6216</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>491260</v>
       </c>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4" t="n">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2" t="n">
         <v>20152.6498</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>39025476.8882</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>150607691.6996</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>325852361.4715</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>131029685.097</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>200532766.6948</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>228807160.3187</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>412893152.2807</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>687174965.0435</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>606764807.6964</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>615122908.5129</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>478746904.0682</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>363048406.2975</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>379493430.4499</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>162956724.9372</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4973,88 +5005,89 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>11661688</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>10360917</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>33432153</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>37119127</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>62334535.5625</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>71569695.6672</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>67522411.1997</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>44314739.6548</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>37164453.4433</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>42515330.4629</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>42618719.3412</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>39808827.8382</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>28663356.7869</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>20917404.7667</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>27197305.0131</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>33695818.4207</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>25149752.2436</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>16287046.9756</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>26203533.2169</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>13237733.1167</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>19916283.1098</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>14919908.3793</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>17049798.0441</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>4269534.0136</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -5063,88 +5096,89 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>32824492</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>173986168</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>140200642</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>456724619.1094</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>447009338</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>447783742</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>428190219.1465</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>591233238.3485</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>650952124.7076</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>521230082.034</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>338051119.3968</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>623163194.4216</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>349894573.1401</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>560146468.1549</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>900212494.0676</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>747157481.1944</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>1275229971.4006</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>1240266279.4841</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>1375054737.5779</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>1398673021.7542</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>1199620685.386</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>1045964382.978</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>1621609208.7029</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>1228242313.759</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -5153,88 +5187,89 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>1012019738.9</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>1111864187.1795</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>1940057452.2734</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>1930730159.9405</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>2604595794.0977</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>3067349593.9087</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>3319450007.6839</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>4195186541.2768</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>5243126765.2241</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>4302950517.9654</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>3411480804.1811</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>2931303479.1549</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>2605827148.2912</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>1999108549.0568</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>1909797163.0671</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>2336432018.5044</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>3471514050.7446</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>3364169213.8802</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>5462182883.024</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>6204382684.0126</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>5404191971.7406</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>6122368791.2627</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>6100205269.3865</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>3625841784.0251</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5243,168 +5278,170 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>2383016</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>527961</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>5305172</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>4214181</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>-37361</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>-3502467</v>
       </c>
-      <c r="AF8"/>
-      <c r="AG8" t="n">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2" t="n">
         <v>4384</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>80932</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>-4177369.75</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>229144.2507</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>636192.4476</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>413115.4258</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>795469.3</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>1258556.88</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>685789.7406</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8" t="n">
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2" t="n">
         <v>585814.6167</v>
       </c>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>11331278000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>14834080775</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>13464555013</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>11175370345</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>8533017359</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>8543659793</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>8817441132</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>8032566815</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>8630834203</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>9161817835</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9"/>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5523,88 +5560,89 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>12261445012.2955</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>12260530444.2595</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>15794316673.1683</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>16824779274.4552</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>16126512146.5703</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>15979412503.2165</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>15469430547.0821</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>17649557210.4287</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>17472167327.9219</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>17017735651.093</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>16603649157.6817</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>14750911764.2109</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>15432168803.0098</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>12622234945.4455</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>11445865418.2698</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>11747674234.2956</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>13287652662.5832</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>14740582304.6255</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>16006953029.1184</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>16489641471.096</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>18327843785.3476</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>15286116217.437</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>12238337982.7075</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>9606836857.75019</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5613,88 +5651,89 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>54803899.086219</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>81531765.5751354</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>108310773.874916</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>149868130.382875</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>205410682.258425</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>268840937.8421</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>204545143.517801</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>198816141.74591</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>223248497.275391</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>207084337.600935</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>214259594.689703</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>228093254.738445</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>144470060.259747</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>150842625.384434</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>126962047.778667</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>131748581.250837</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>144320206.164421</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>144553233.421808</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>210360352.366322</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>212769428.140211</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>197106819.129729</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>137967700.398738</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>123254801.0254</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>62272104.4999169</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5703,82 +5742,83 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>-325115.584884503</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>172962.480993451</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>-218788.039461489</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="2" t="n">
         <v>-538900.855896107</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="2" t="n">
         <v>-9246.17150711034</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="2" t="n">
         <v>709209.810933595</v>
       </c>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16" t="n">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2" t="n">
         <v>26593.5574858567</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>51054210.4986564</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>193136727.159399</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>410345878.722766</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>162040344.072765</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>243286043.498139</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>274442191.773737</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>491173575.432041</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>803117804.093619</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>692871710.421923</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>688922339.759577</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>529125835.1958</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>388203157.210952</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>379493430.4499</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>155427860.163188</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5787,88 +5827,89 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>18842139.7326325</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>16344109.7148728</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>51918991.5806376</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>56563548.7093522</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>92721333.1124427</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>103321927.96627</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>94405431.7532138</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>60304248.5875292</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>49540802.5847485</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>56103484.9469437</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>55754989.8662915</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>51050159.7491939</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>36095765.1948561</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>25867905.1468083</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>32995728.5260991</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>40416367.4253291</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>29917894.4055751</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>19035061.03629</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>29922115.8656511</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>14825931.4450139</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>22012089.9893437</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>15953672.9473925</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>17049798.0441</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>4072274.62311566</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5877,88 +5918,89 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>53035518.0928078</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>274459202.66153</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>217726807.830713</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>695974483.445014</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>664917150.004481</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>646445106.466958</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>598667639.274235</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>804560208.551647</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>867729448.825665</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>687818340.887807</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>442247843.849134</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>799133819.120234</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>440622235.871257</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>692715748.830279</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1092136410.41824</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>896176223.040941</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>1517000853.83133</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>1449528841.33021</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>1570190815.06467</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>1566478954.64504</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>1325857758.40882</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>1118436739.45102</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>1621609208.7029</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>1171495528.41722</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5967,88 +6009,89 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>1635150703.10028</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>1753940337.83878</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>3012842951.82951</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>2942120633.55935</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>3874282403.30206</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>4428193676.59331</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>4641038517.2975</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>5708880928.26266</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>6989170670.8149</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>5678199298.55129</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>4462993740.92853</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>3759053431.37558</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>3281518127.21699</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>2472235485.32657</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>2316962974.90226</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>2802427700.23259</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>4129678487.15397</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>3931784958.84202</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>6237329437.68855</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>6948754104.71585</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>5972879545.13505</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>6546573000.04886</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>6100205269.3865</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>3458322017.69201</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -6057,168 +6100,1831 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>3850310.56028073</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>832846.408206334</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>8238750.89354354</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>6421730.56126903</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>-55573.7151990266</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>-5056352.96761624</v>
       </c>
-      <c r="AF20"/>
-      <c r="AG20" t="n">
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2" t="n">
         <v>5965.82148213279</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>107883.632431346</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="2" t="n">
         <v>-5512482.16432084</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>299772.859747731</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>815842.310484849</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>520236.255610679</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>983732.189968246</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>1526879.26716019</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>822568.835888062</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20" t="n">
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2" t="n">
         <v>684655.54262482</v>
       </c>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>22521272714.3281</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>28467781065.6707</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>25209506559.7903</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>20443265377.5613</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>15276697121.4962</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>14978464116.9066</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>15173276336.5228</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>13581379410.9445</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>14412955191.7781</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>15111299548.3172</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21"/>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>7588795550.375</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>7772239695.2188</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>10170421178.6875</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>11041052637</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>10841503364.5</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>11068721928.7004</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>11064334234.028</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>12969824699.2898</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>13107247265.5501</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>12896073312.036</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>12691711812.4849</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>11502735931.9326</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>12254561110.1042</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>10206640078.3461</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>9434454301.3604</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>9794237411.2593</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>11169942905.4976</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>12612544608.3637</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>14017682682.7061</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>14723221525.3396</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>16582819977.4707</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>14295607926.2467</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>12238337982.7075</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>10072188278.8664</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>33918970</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>51684911</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>69744466.3984</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>98349101</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>138093134</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>186222464.9014</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>146298587.2001</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>146100577.7703</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>167476260.9888</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>156928915.4697</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>163778516.5801</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>177866732.5146</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>114722512.7351</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>121974942.8232</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>104650683.3693</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>109841050.8865</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>121319280.6812</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>123684673.179</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>184217737.3251</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>189976927.6257</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>178339958.3847</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>129027682.5932</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>123254801.0254</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>65288540.8935</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>-201219</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>109645</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>-140884</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>-353647</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>-6216</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>491260</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="n">
+        <v>20152.6498</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>39025476.8882</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>150607691.6996</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>325852361.4715</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>131029685.097</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>200532766.6948</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>228807160.3187</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>412893152.2807</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>687174965.0435</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>606764807.6964</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>615122908.5129</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>478746904.0682</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>363048406.2975</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>379493430.4499</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>162956724.9372</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>11661688</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>10360917</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>33432153</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>37119127</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>62334535.5625</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>71569695.6672</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>67522411.1997</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>44314739.6548</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>37164453.4433</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>42515330.4629</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>42618719.3412</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>39808827.8382</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>28663356.7869</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>20917404.7667</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>27197305.0131</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>33695818.4207</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>25149752.2436</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>16287046.9756</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>26203533.2169</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>13237733.1167</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>19916283.1098</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>14919908.3793</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>17049798.0441</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>4269534.0136</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>32824492</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>173986168</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>140200642</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>456724619.1094</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>447009338</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>447783742</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>428190219.1465</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>591233238.3485</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>650952124.7076</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>521230082.034</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>338051119.3968</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>623163194.4216</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>349894573.1401</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>560146468.1549</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>900212494.0676</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>747157481.1944</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>1275229971.4006</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>1240266279.4841</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>1375054737.5779</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>1398673021.7542</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>1199620685.386</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>1045964382.978</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>1621609208.7029</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>1228242313.759</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>1012019738.9</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>1111864187.1795</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1940057452.2734</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>1930730159.9405</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>2604595794.0977</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>3067349593.9087</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>3319450007.6839</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>4195186541.2768</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>5243126765.2241</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>4302950517.9654</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>3411480804.1811</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>2931303479.1549</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>2605827148.2912</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1999108549.0568</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>1909797163.0671</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>2336432018.5044</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>3471514050.7446</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>3364169213.8802</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>5462182883.024</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>6204382684.0126</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>5404191971.7406</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>6122368791.2627</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>6100205269.3865</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>3625841784.0251</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>2383016</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>527961</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>5305172</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>4214181</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>-37361</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>-3502467</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3" t="n">
+        <v>4384</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>80932</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>-4177369.75</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>229144.2507</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>636192.4476</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>413115.4258</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>795469.3</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>1258556.88</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>685789.7406</v>
+      </c>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3" t="n">
+        <v>585814.6167</v>
+      </c>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>11331278000</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>14834080775</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>13464555013</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>11175370345</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>8533017359</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>8543659793</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>8817441132</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>8032566815</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>8630834203</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>9161817835</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>12261445012.2955</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>12260530444.2595</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>15794316673.1683</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>16824779274.4552</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>16126512146.5703</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>15979412503.2165</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>15469430547.0821</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>17649557210.4287</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>17472167327.9219</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>17017735651.093</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>16603649157.6817</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>14750911764.2109</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>15432168803.0098</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>12622234945.4455</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>11445865418.2698</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>11747674234.2956</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>13287652662.5832</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>14740582304.6255</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>16006953029.1184</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>16489641471.096</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>18327843785.3476</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>15286116217.437</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>12238337982.7075</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>9606836857.75019</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>54803899.086219</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>81531765.5751354</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>108310773.874916</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>149868130.382875</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>205410682.258425</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>268840937.8421</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>204545143.517801</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>198816141.74591</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>223248497.275391</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>207084337.600935</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>214259594.689703</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>228093254.738445</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>144470060.259747</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>150842625.384434</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>126962047.778667</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>131748581.250837</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>144320206.164421</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>144553233.421808</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>210360352.366322</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>212769428.140211</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>197106819.129729</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>137967700.398738</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>123254801.0254</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>62272104.4999169</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>-325115.584884503</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>172962.480993451</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>-218788.039461489</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>-538900.855896107</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>-9246.17150711034</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>709209.810933595</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3" t="n">
+        <v>26593.5574858567</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>51054210.4986564</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>193136727.159399</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>410345878.722766</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>162040344.072765</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>243286043.498139</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>274442191.773737</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>491173575.432041</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>803117804.093619</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>692871710.421923</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>688922339.759577</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>529125835.1958</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>388203157.210952</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>379493430.4499</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>155427860.163188</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>18842139.7326325</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>16344109.7148728</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>51918991.5806376</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>56563548.7093522</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>92721333.1124427</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>103321927.96627</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>94405431.7532138</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>60304248.5875292</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>49540802.5847485</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>56103484.9469437</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>55754989.8662915</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>51050159.7491939</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>36095765.1948561</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>25867905.1468083</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>32995728.5260991</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>40416367.4253291</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>29917894.4055751</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>19035061.03629</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>29922115.8656511</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>14825931.4450139</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>22012089.9893437</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>15953672.9473925</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>17049798.0441</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>4072274.62311566</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>53035518.0928078</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>274459202.66153</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>217726807.830713</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>695974483.445014</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>664917150.004481</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>646445106.466958</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>598667639.274235</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>804560208.551647</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>867729448.825665</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>687818340.887807</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>442247843.849134</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>799133819.120234</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>440622235.871257</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>692715748.830279</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>1092136410.41824</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>896176223.040941</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>1517000853.83133</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>1449528841.33021</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>1570190815.06467</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>1566478954.64504</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>1325857758.40882</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>1118436739.45102</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>1621609208.7029</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>1171495528.41722</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>1635150703.10028</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>1753940337.83878</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>3012842951.82951</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>2942120633.55935</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>3874282403.30206</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>4428193676.59331</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>4641038517.2975</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>5708880928.26266</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>6989170670.8149</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>5678199298.55129</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>4462993740.92853</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>3759053431.37558</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>3281518127.21699</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>2472235485.32657</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>2316962974.90226</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>2802427700.23259</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>4129678487.15397</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>3931784958.84202</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>6237329437.68855</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>6948754104.71585</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>5972879545.13505</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>6546573000.04886</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>6100205269.3865</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>3458322017.69201</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>3850310.56028073</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>832846.408206334</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>8238750.89354354</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>6421730.56126903</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>-55573.7151990266</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>-5056352.96761624</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3" t="n">
+        <v>5965.82148213279</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>107883.632431346</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>-5512482.16432084</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>299772.859747731</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>815842.310484849</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>520236.255610679</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>983732.189968246</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>1526879.26716019</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>822568.835888062</v>
+      </c>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3" t="n">
+        <v>684655.54262482</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>22521272714.3281</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>28467781065.6707</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>25209506559.7903</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>20443265377.5613</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>15276697121.4962</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>14978464116.9066</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>15173276336.5228</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>13581379410.9445</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>14412955191.7781</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>15111299548.3172</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -231,15 +233,91 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMRAAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM-109 TOMAHAWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMLRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACTICAL TOMAHAWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIDENT II MISSILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGM-96 TRIDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMMUNITION, THROUGH
+30 MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDED MISSILE
+COMPONENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDED MISSILE
+SUBSYSTEMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDED MISSILE
+SYSTEMS, COMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDED MISSILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUNS, THROUGH 30 MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAUNCHERS, GUIDED
+MISSILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISCELLANEOUS
+WEAPONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECH REP
+SVCS/GUIDED
+MISSILES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,11 +353,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7930,4 +8010,3598 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>227204986</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>265222633</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>371688688</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>188449669</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>186542528</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>255518619</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>348027385.2969</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>235005312.3621</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>584446944.0464</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>964723666.6323</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>750619203.3908</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>665539056.1739</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>657097142.959</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>626008193.05</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>244174115.14</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1145311289.2346</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>876137237.5587</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>178742604.4728</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>1339375965.5562</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>254437890.6445</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>1014132781.6739</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>1377963869.0045</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>1189368825.4702</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>86859964.8472</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>69929743</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>101192081</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>354927912</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>124613995</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="n">
+        <v>-7050.5898</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4" t="n">
+        <v>-80370.5</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
+        <v>69354488</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="n">
+        <v>7698750</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>169579393</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>167419060</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>306149822.6854</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>362758251.627</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>651835831.7774</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2773765.1288</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>-8190264.2382</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>353053872.539</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>191653274.43</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>-6803874.97</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>92023294.6241</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>350207773.0199</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>495339070.4143</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1333936322.3755</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>1835352827.6092</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>1853962304.2309</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>1692885664.7789</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>1267113243.3921</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>2288141505.3184</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="n">
+        <v>112007225</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>145884790</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>197420097</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>161612871.5727</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>171290769.9577</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>55772029.9823</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>172477825.8203</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>257669710.7012</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>263783134.5523</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>86098968.07</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>521613267.44</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>84058772.4325</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>834237926.1737</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>654747930.265</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>161796003.9948</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>774606176.2531</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1304657812.0403</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>1082046283.9197</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>980912151.5704</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>96161665.3725</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="n">
+        <v>84665834</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>816795816</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>401493724</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>370590250.7399</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>248295571.4073</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>234651142.6542</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>372143703.4234</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>254644104.8478</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>311364143.5745</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>320720211.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>33129911.3</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>266874105.9019</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>878989166.5156</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>857339875.4366</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1271501869.2469</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>971018270.8506</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>37126918.5418</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>436239651.0009</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>283583798.2964</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>391022049.3446</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>1116910968</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>1446188830</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>2153309849</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>2014400454.2002</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>1365986634</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>1628620877.2969</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1809455421.3539</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2487426976.0432</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>3452005864.7497</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>2781452932.8145</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>3735175695.5027</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>2716313430.1361</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>3065535001.5802</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>2313742035.8318</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>2065881793.7685</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1764346708.9108</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1346561982.3478</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>1143117711.8813</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>1475014641.7747</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>1981101682.0373</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>1289809219.4984</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>1459853063.2554</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>1021941736.6932</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>1382090185.0078</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="n">
+        <v>480325042</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>311883468</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>442054866</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>366216982</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>463786392.9688</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>267953170.1032</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>335251815.6815</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>287042643.1909</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>41559121.5458</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>41512579.48</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>290988693.79</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>309549907.404</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>52112236.607</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>366859047.6828</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>544807464.5676</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>245010202.8149</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>536516484.3626</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>491653535.7788</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>596305484.4285</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>284173830.0402</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>15220416</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>527767997</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>101339351</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>3758648</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>677563676</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>1346729316</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>1580781998</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1785059373.2257</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>1786137093.5755</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1820844410.4926</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>1737796437.1912</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>1674685637.8225</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1886000696.0013</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>1925814966.3037</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>2329221894.3024</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>2261565782.6405</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>2321100790.17</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>2328499402.9938</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2112124483.615</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>3707266810.1221</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>1543152856.8135</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>2924739638.5857</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>2517048390.0236</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>2210084115.8194</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>1013764994</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>487938615</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>493741458</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>1508036605</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>19937500</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>4936401</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>4140268</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>5571685</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>149199</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>-2600008.6993</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>-302665.1043</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>-80408.3198</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>460774.7096</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>-1620976.02</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>-3240481.09</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>-693845.553</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>-72407.2891</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>-3742459.1408</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>-376693</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>-6124535.1719</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="M11"/>
+      <c r="N11" s="4" t="n">
+        <v>6238371129.275</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>6292463328.3983</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>8814658434.3593</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>9728576806.8497</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>11158765400.1602</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>10158687537.8808</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>10075002639.6074</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>12229030906.7112</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>12137177714.5815</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>11140907765.1106</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>9580966862.6784</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>9578498139.6947</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>9101080290.4931</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>7536683345.0392</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>7103137950.7714</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>7327820714.7292</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>9816774407.7447</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>12023889788.037</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>13433926323.4157</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>13381945475.2019</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>16284277402.9986</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>12505555391.4335</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <v>12623676860.4419</v>
+      </c>
+      <c r="AK11" s="4" t="n">
+        <v>11534691021.5379</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>367101923.337584</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>418382640.515259</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>577219835.733889</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>287166829.967278</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>277478154.320774</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>368880656.823277</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>486589192.938091</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>319799210.972889</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>779076994.107714</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>1273055133.74983</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>981980846.103</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>853475899.242694</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>827482431.970385</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>774164899.496613</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>296231660.172921</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>1373740839.41664</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>1042244118.51786</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>208900753.526552</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>1529448815.06259</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>284964101.516021</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>1120850809.7761</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>1473439671.3804</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>1189368825.4702</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>82846893.7090682</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>112987587.137735</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>159628194.506364</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>551190923.146986</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>189891582.742489</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4" t="n">
+        <v>-9223.77699112039</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="n">
+        <v>-93930.9240839707</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="n">
+        <v>107705150.7437</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="n">
+        <v>11451731.4817191</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>244814088.767178</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>234074411.179905</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>416613866.087524</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>483562470.715726</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>860166471.195938</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>3628716.41941182</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>-10503054.7356886</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>444600741.603533</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>237011655.09418</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>-8254450.62764519</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>110377116.851156</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>416603673.536674</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>578914609.451357</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>1523237223.97014</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>2055549463.01332</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>2049056284.87983</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>1810181640.97325</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>1267113243.3921</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>2182425659.69138</v>
+      </c>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="n">
+        <v>166608431.850949</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>210607263.636338</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>276019904.545843</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>219925533.991237</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>228333297.892043</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>73597105.1031324</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>225640272.148545</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>330431228.653318</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>332182101.278331</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>106475921.086467</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>632820412.161126</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>100824090.085522</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>992401115.630953</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>765219553.590667</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>184756717.273889</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>867539628.180363</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>1441948028.4351</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>1157018668.52927</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>980912151.5704</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>91718840.596092</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="n">
+        <v>125938677.920935</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>1179171123.71598</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>561342340.816675</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>504305492.457362</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>330981912.717297</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>309647054.517686</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>486848707.185757</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>326551243.470586</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>392100865.928555</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>396624729.437392</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>40193157.3301845</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>320101497.039504</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>1045636744.75761</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>1001993601.55525</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>1451942604.07829</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>1087516283.08063</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>41033814.7667225</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>466465647.229366</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>283583798.2964</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>372956196.988357</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>1804626613.91437</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>2281329819.16017</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>3344016639.33325</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>3069620635.5094</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>2031876881.33596</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>2351166194.01181</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>2529862563.49606</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>3384932775.75619</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>4601578261.54684</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>3670421964.21273</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>4886460369.31122</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>3483353870.67752</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>3860428226.75338</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>2861332951.41673</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>2506324608.31554</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>2116241367.48086</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>1601856702.53254</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>1335988988.66829</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>1684336178.99471</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>2218784550.53857</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>1425536906.2671</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>1561002770.95123</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>1021941736.6932</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>1318235378.6939</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4" t="n">
+        <v>714473571.025093</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>450252036.342454</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>618052284.298824</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <v>498354274.255803</v>
+      </c>
+      <c r="V22" s="4" t="n">
+        <v>618234576.505042</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>353592609.576186</v>
+      </c>
+      <c r="X22" s="4" t="n">
+        <v>438585717.143033</v>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>368098574.750421</v>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>52335401.7526403</v>
+      </c>
+      <c r="AA22" s="4" t="n">
+        <v>51337318.3893976</v>
+      </c>
+      <c r="AB22" s="4" t="n">
+        <v>353027034.841665</v>
+      </c>
+      <c r="AC22" s="4" t="n">
+        <v>371288883.324199</v>
+      </c>
+      <c r="AD22" s="4" t="n">
+        <v>61992196.8592482</v>
+      </c>
+      <c r="AE22" s="4" t="n">
+        <v>428756936.405906</v>
+      </c>
+      <c r="AF22" s="4" t="n">
+        <v>622121907.924595</v>
+      </c>
+      <c r="AG22" s="4" t="n">
+        <v>274405325.914909</v>
+      </c>
+      <c r="AH22" s="4" t="n">
+        <v>592974556.017671</v>
+      </c>
+      <c r="AI22" s="4" t="n">
+        <v>525719026.808939</v>
+      </c>
+      <c r="AJ22" s="4" t="n">
+        <v>596305484.4285</v>
+      </c>
+      <c r="AK22" s="4" t="n">
+        <v>271044538.570271</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>24592083.5011875</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>832541950.385921</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>157376550.393158</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>5727571.91270445</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>1007861961.9183</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>1944212114.9271</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>2210146296.27979</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v>2429139040.98366</v>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v>2380948916.06896</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>2402797199.56409</v>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v>2273433464.05079</v>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v>2147588210.53459</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>2375040676.02128</v>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v>2381595586.75057</v>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v>2825808412.43021</v>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v>2712629575.76953</v>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v>2761158347.50119</v>
+      </c>
+      <c r="AE23" s="4" t="n">
+        <v>2721372899.90957</v>
+      </c>
+      <c r="AF23" s="4" t="n">
+        <v>2411859232.80934</v>
+      </c>
+      <c r="AG23" s="4" t="n">
+        <v>4152046509.07385</v>
+      </c>
+      <c r="AH23" s="4" t="n">
+        <v>1705540103.25237</v>
+      </c>
+      <c r="AI23" s="4" t="n">
+        <v>3127387813.92306</v>
+      </c>
+      <c r="AJ23" s="4" t="n">
+        <v>2517048390.0236</v>
+      </c>
+      <c r="AK23" s="4" t="n">
+        <v>2107974648.08428</v>
+      </c>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>1637970564.20986</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>769712010.78853</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>766763618.272318</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>2298003990.29868</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>29656619.1156712</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>7126458.53499656</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <v>5788652.70314505</v>
+      </c>
+      <c r="U24" s="4" t="n">
+        <v>7582043.35416904</v>
+      </c>
+      <c r="V24" s="4" t="n">
+        <v>198884.620114719</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>-3430987.06595706</v>
+      </c>
+      <c r="X24" s="4" t="n">
+        <v>-395954.878137627</v>
+      </c>
+      <c r="Y24" s="4" t="n">
+        <v>-103114.253643392</v>
+      </c>
+      <c r="Z24" s="4" t="n">
+        <v>580253.591688568</v>
+      </c>
+      <c r="AA24" s="4" t="n">
+        <v>-2004610.72481441</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <v>-3931346.66424108</v>
+      </c>
+      <c r="AC24" s="4" t="n">
+        <v>-832231.360472059</v>
+      </c>
+      <c r="AD24" s="4" t="n">
+        <v>-86134.9888661035</v>
+      </c>
+      <c r="AE24" s="4" t="n">
+        <v>-4373901.43699302</v>
+      </c>
+      <c r="AF24" s="4" t="n">
+        <v>-430150.067873678</v>
+      </c>
+      <c r="AG24" s="4" t="n">
+        <v>-6859326.87951043</v>
+      </c>
+      <c r="AH24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="M25"/>
+      <c r="N25" s="4" t="n">
+        <v>10079523695.1821</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>9926217053.58274</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>13688863443.5149</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <v>14824778289.8266</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <v>16598432866.3916</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <v>14665637072.1693</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <v>14086211632.6665</v>
+      </c>
+      <c r="U25" s="4" t="n">
+        <v>16641472465.5391</v>
+      </c>
+      <c r="V25" s="4" t="n">
+        <v>16179049316.8813</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>14701608673.6195</v>
+      </c>
+      <c r="X25" s="4" t="n">
+        <v>12534086396.6671</v>
+      </c>
+      <c r="Y25" s="4" t="n">
+        <v>12283302140.3245</v>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v>11460990407.6312</v>
+      </c>
+      <c r="AA25" s="4" t="n">
+        <v>9320382335.4498</v>
+      </c>
+      <c r="AB25" s="4" t="n">
+        <v>8617516014.70057</v>
+      </c>
+      <c r="AC25" s="4" t="n">
+        <v>8789336728.24797</v>
+      </c>
+      <c r="AD25" s="4" t="n">
+        <v>11677936915.2234</v>
+      </c>
+      <c r="AE25" s="4" t="n">
+        <v>14052607348.1456</v>
+      </c>
+      <c r="AF25" s="4" t="n">
+        <v>15340354930.4799</v>
+      </c>
+      <c r="AG25" s="4" t="n">
+        <v>14987445695.3636</v>
+      </c>
+      <c r="AH25" s="4" t="n">
+        <v>17997885329.8115</v>
+      </c>
+      <c r="AI25" s="4" t="n">
+        <v>13372035247.6985</v>
+      </c>
+      <c r="AJ25" s="4" t="n">
+        <v>12623676860.4419</v>
+      </c>
+      <c r="AK25" s="4" t="n">
+        <v>11001769603.63</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>196263432</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>331896930</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>314882702</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>465299869.5801</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>454129362</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>991827979.5938</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>895250637.3071</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>1059113946.3024</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>1338782226.9272</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>1170973745.6478</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>1218003384.7141</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>1175956748.3221</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>977972546.655</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>749460986.96</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>619445316.9008</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>664351566.2657</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>599686877.799</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>738326545.0207</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>882531556.9003</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>759444011.4204</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>815456262.8909</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>666494945.4918</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>723887533.9983</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>141627736.9812</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>294336329</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>325601759</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>1091903778.5625</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>1315460307</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>1216249000</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>1073382273.7031</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>606857786.625</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>874930949.3687</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>598526269.3017</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>436463504.1961</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>742903995.2851</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>881349462.015</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>1101121190.405</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>998866181.7738</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>679548443.9419</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>615328806.632</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>2065165885.9818</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>1684985515.7993</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>2778066825.824</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>2503793597.12</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>1491611854.0351</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>1814080239.398</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>1273626107.9995</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>1087874619.5281</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>183603397</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>695747982</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>282214598.2734</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>1006769889.3008</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>1201046796</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>1578768207</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1391034289</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>1136341989.5759</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>1593667526.0376</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>385376136.4994</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>1134178952.4335</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>1112599999.143</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>1323645201.0231</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>1286227356.4951</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>1286011873.4177</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>1012341914.1274</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>273846652.3947</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>941041565.9813</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>1512117954.8325</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>2994476652.3364</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>659612283.142</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>1577088381.6556</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>1503699709.4323</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>1116327658.1715</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>361696304</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>478522002</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>545974333</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>404384734</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>483362616</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>143883138</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>163098535</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>72816198.8203</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>361508881.418</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>189911849.0176</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>474729726.1854</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>414773007.9726</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>615103243.846</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>552202922.14</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>1053763696.92</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>730543962.7554</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>656057384.6236</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>771913297.3846</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>727342792.4067</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>717317271.8494</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>735869237.1834</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>653426928.3164</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>1027089280.2831</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>316545590.4179</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>281042451</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>280381397</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>348855505</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>175162355</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>220115450</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>154357328</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>421934999</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>217812568.238</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>462674349.0078</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>172576262.1468</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>349136748.789</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>317466476.7275</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>334543306.6851</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>173190059.94</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>555392329.67</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>197515638.7</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>995739376.4862</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>758382508.5989</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>556059823.4909</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>1540326663.4515</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>2399696915.17</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>1749753901.7881</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>1672750360.2051</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>2045264846.4038</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1677509152</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>1249205774</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>1885985007</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1932910798.25</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>2347909116</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>1956221018</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>2523356070.5</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>2734511091.5447</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>3552881537.6913</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>3679936652.7801</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>2982444224.8423</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>1958523098.9324</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>3268020374.961</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>3321041097.01</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>2485286480.3</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>3824839258.9675</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>3527944963.4114</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>4462222898.8479</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>6241020808.5142</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>5334703479.3155</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>8680472224.381</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>6132730020.7532</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>5058661429.5676</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>4835366982.6555</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>154753059</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>181609024</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>201070310</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>335080437</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>784462751.1016</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>871209052.5195</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>673142048.9876</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>1188530239.3364</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>1273051384.8403</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>1240667825.5328</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>602685403.8439</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>440939963.5552</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>379841357.4655</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>377514729.4265</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>274118472.8718</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>274929691.6488</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>336064991.5274</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>369054948.1073</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>338216731.4194</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>591322850.0247</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>319956209.836</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>299630724.802</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>449297694.7926</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>172568841.9513</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>252409387</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>178726570</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>312881558</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>259196694</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>380395970</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>214900911</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>300244550</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>360058032.1441</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>482222564.932</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>363328360.7828</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>440736920.2797</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>467786807.683</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>230869266.4039</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>168776885.69</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>137491495.6063</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>498324650.9743</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>196826945.5101</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>189426568.3623</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>159252187.1609</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>271349725.4267</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>536368595.3712</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>657393238.719</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>349836741.5932</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>1184494554.2659</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>259607187</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>254573120</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>282728244</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>267883176</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>383238485</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>560448213</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>506559090.7824</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>465036778.4925</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>803996648.4887</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>748517973.6138</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>485881702.4526</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>476782357.7626</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>596304727.5618</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>584797302.1844</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>464059311.9794</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>522000232.8912</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>629084034.5396</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>454772220.5762</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>902714155.7047</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>660570283.6386</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>511703058.3823</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>370716536.5153</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>519969539.8337</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>373107992.3298</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>4222671102.275</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>4465556873.3983</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>6190149655.5234</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>6313005100.919</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>5817713735.0586</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>6454023100.3613</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>6537273899.0561</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>7838326879.0486</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>7994991970.7644</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>8972205789.9634</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>7668229849.1989</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>7660388358.0521</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>6245483354.3782</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>4500737583.1449</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>4577869682.5844</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>4625728489.0834</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>6862620704.2616</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>7238830098.1298</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>7160680251.9792</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>7344394130.2314</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>7320181209.6185</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>7556247581.7626</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>7397840950.116</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>6740177906.8425</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>797510436</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>678952053</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>902374489</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1092682817</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>804869308</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>839614997</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>1007043553</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>1999185507.4686</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>743744442.5049</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>555582840.6872</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>587964685.0985</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>519555769.8436</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>607029608.5702</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>327797492.78</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>445116166.26</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>284952518.2789</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>333011296.3129</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>435756434.7345</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>414103293.3136</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>426916135.5471</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>392707930.1496</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>493374598.5554</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>503291142.4949</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>259867607.7405</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>317108724.753228</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>523559819.845044</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>489002079.94461</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>709041778.850273</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>675508038.524227</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>1431857130.41234</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>1251681055.82539</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>1441260203.66727</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>1784617823.30146</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>1545223974.43307</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>1593425786.17078</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>1508026815.1573</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>1231560827.76766</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>926835137.443926</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>751510103.790705</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>796854869.840244</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>713381528.081062</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>862899878.058738</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>1007772932.07287</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>850558381.135579</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>901267397.243214</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>712674777.294126</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>723887533.9983</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>135084306.01576</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>475568051.504045</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>513629331.501407</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>1695689269.13121</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>2004548844.8641</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>1809145246.03466</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>1549593370.90837</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>848468980.020479</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>1190620860.65845</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>797844956.727249</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>575959856.619821</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>971887597.023744</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>1130227471.49458</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>1386641914.81245</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>1235266799.71378</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>824427124.887559</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>738054640.066272</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>2456700738.37496</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>1969282840.93211</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>3172306450.30783</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>2804186479.37054</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>1648575398.28988</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>1939773496.18558</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>1273626107.9995</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>1037613049.13472</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>296653525.772599</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>1097526536.66749</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>438269630.785959</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>1534154552.51884</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>1786532281.8342</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>2279196151.92452</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>1944853424.26802</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>1546353433.49941</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>2124383946.97788</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>508544659.952071</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>1483764340.57604</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>1426779203.95084</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>1666866401.33035</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>1590637444.0874</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>1560187622.86161</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>1214251045.94874</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>325765246.126819</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>1099817767.63925</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>1726704878.78513</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>3353739282.23607</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>729023827.114295</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>1686361042.60357</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>1503699709.4323</v>
+      </c>
+      <c r="AK20" s="5" t="n">
+        <v>1064751511.2828</v>
+      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>584403587.263245</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>754857519.04668</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>847879488.894157</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>616216960.030537</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>718991899.559446</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>207717569.306502</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>228033734.89512</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>99089517.1463044</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>481897040.522497</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>250608814.43466</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>621054585.446139</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>531897809.267733</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>774599514.827474</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>682892212.06104</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>1278424493.06957</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>876249178.768717</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>780439320.715831</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>902153518.219252</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>830561097.554699</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>803377481.855045</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>813305363.253264</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>698701308.638213</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>1027089280.2831</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>301920671.157989</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>454088733.34148</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>442295244.192893</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>541760682.50687</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>266919111.51594</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>327417181.799352</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>222838682.992906</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>589921998.409971</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>296403033.456381</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>616752204.366258</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>227732670.077719</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>456750371.470279</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>407113578.370697</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>421290386.028164</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>214178770.878408</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>673801118.399131</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>236909652.298094</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>1184521629.9802</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>886339761.99992</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>634971105.957467</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>1725127505.89066</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>2652218998.52794</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>1870990141.3524</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>1672750360.2051</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>1950770296.01597</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>2710401945.6492</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>1970593551.39208</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>2928870291.41204</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>2945443573.8116</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>3492466275.68273</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>2824107678.8668</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>3527991892.91546</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>3721169026.70341</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>4736047124.55401</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>4856066467.25032</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>3901716196.62235</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>2511576514.62029</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>4115418057.40317</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>4107028431.31242</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>3015145727.63974</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>4587694143.62373</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>4196808137.97608</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>5215106542.29398</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>7126693419.79654</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>5974735052.18432</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>9593925467.90284</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>6557652134.21121</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>5058661429.5676</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>4611965192.03187</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>250039167.720001</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>286484083.741522</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>312255322.952315</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>510608415.435</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>1166872126.38755</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1257725048.69314</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>941143312.817593</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>1617372088.04688</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>1696997574.11565</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>1637192700.04679</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>788449749.389685</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>565453865.428722</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>478334221.365038</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>466860746.887404</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>332560108.823659</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>329763749.764992</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>399779561.744424</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>431323337.710734</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>386213574.385689</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>662266866.921238</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>353625465.390872</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>320391417.088954</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>449297694.7926</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>164595881.79418</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>407825431.419716</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>281937078.449995</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>485894371.670852</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>394973858.797166</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>565831142.090347</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>310242711.516849</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>419782348.862941</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>489973070.935158</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>642810284.500877</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>479450282.945893</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>576584254.612736</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>599881799.028182</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>290733667.126959</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>208721135.279317</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>166804470.571172</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>597714290.224911</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>234143371.072038</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>221387357.454866</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>181851903.582739</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>303904935.33401</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>592811104.545868</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>702942435.149333</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>349836741.5932</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>1129768986.30878</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>419455133.171944</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>401583277.207748</v>
+      </c>
+      <c r="P26" s="5" t="n">
+        <v>439067305.053445</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>408210653.070908</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>570059324.394326</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>809093700.239794</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>708237884.63941</v>
+      </c>
+      <c r="U26" s="5" t="n">
+        <v>632829927.717241</v>
+      </c>
+      <c r="V26" s="5" t="n">
+        <v>1071740212.79085</v>
+      </c>
+      <c r="W26" s="5" t="n">
+        <v>987748805.146983</v>
+      </c>
+      <c r="X26" s="5" t="n">
+        <v>635643909.888035</v>
+      </c>
+      <c r="Y26" s="5" t="n">
+        <v>611417538.549626</v>
+      </c>
+      <c r="Z26" s="5" t="n">
+        <v>750926543.275298</v>
+      </c>
+      <c r="AA26" s="5" t="n">
+        <v>723200670.05148</v>
+      </c>
+      <c r="AB26" s="5" t="n">
+        <v>562996042.097016</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <v>626111909.354235</v>
+      </c>
+      <c r="AD26" s="5" t="n">
+        <v>748352092.509315</v>
+      </c>
+      <c r="AE26" s="5" t="n">
+        <v>531503162.558922</v>
+      </c>
+      <c r="AF26" s="5" t="n">
+        <v>1030819673.70486</v>
+      </c>
+      <c r="AG26" s="5" t="n">
+        <v>739822268.170993</v>
+      </c>
+      <c r="AH26" s="5" t="n">
+        <v>565549992.779085</v>
+      </c>
+      <c r="AI26" s="5" t="n">
+        <v>396402593.72911</v>
+      </c>
+      <c r="AJ26" s="5" t="n">
+        <v>519969539.8337</v>
+      </c>
+      <c r="AK26" s="5" t="n">
+        <v>355869798.438529</v>
+      </c>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>6822696590.23763</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>7044313884.26585</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>9613090962.10484</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>9619999186.08595</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>8653728921.11057</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>9317380822.31057</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>9139990026.48396</v>
+      </c>
+      <c r="U27" s="5" t="n">
+        <v>10666528028.9706</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>10657450391.2607</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>11839776546.4236</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>10031790822.0477</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>9823550972.3842</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <v>7864937186.66784</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>5565922455.00803</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>5553864443.61524</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <v>5548318782.18328</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>8163705136.61261</v>
+      </c>
+      <c r="AE27" s="5" t="n">
+        <v>8460193732.82725</v>
+      </c>
+      <c r="AF27" s="5" t="n">
+        <v>8176863112.4299</v>
+      </c>
+      <c r="AG27" s="5" t="n">
+        <v>8225538535.94514</v>
+      </c>
+      <c r="AH27" s="5" t="n">
+        <v>8090489908.99003</v>
+      </c>
+      <c r="AI27" s="5" t="n">
+        <v>8079801803.35545</v>
+      </c>
+      <c r="AJ27" s="5" t="n">
+        <v>7397840950.116</v>
+      </c>
+      <c r="AK27" s="5" t="n">
+        <v>6428770764.65212</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>1288561576.44971</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>1071031342.62827</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>1401356756.6819</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>1665071965.27687</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>1197226457.94357</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <v>1212114141.75667</v>
+      </c>
+      <c r="T28" s="5" t="n">
+        <v>1407982619.78651</v>
+      </c>
+      <c r="U28" s="5" t="n">
+        <v>2720525512.59688</v>
+      </c>
+      <c r="V28" s="5" t="n">
+        <v>991423071.937618</v>
+      </c>
+      <c r="W28" s="5" t="n">
+        <v>733150447.142223</v>
+      </c>
+      <c r="X28" s="5" t="n">
+        <v>769191697.126231</v>
+      </c>
+      <c r="Y28" s="5" t="n">
+        <v>666269430.412109</v>
+      </c>
+      <c r="Z28" s="5" t="n">
+        <v>764432385.926599</v>
+      </c>
+      <c r="AA28" s="5" t="n">
+        <v>405376983.673122</v>
+      </c>
+      <c r="AB28" s="5" t="n">
+        <v>540014246.904934</v>
+      </c>
+      <c r="AC28" s="5" t="n">
+        <v>341785604.781686</v>
+      </c>
+      <c r="AD28" s="5" t="n">
+        <v>396146916.377212</v>
+      </c>
+      <c r="AE28" s="5" t="n">
+        <v>509278959.197069</v>
+      </c>
+      <c r="AF28" s="5" t="n">
+        <v>472869311.947816</v>
+      </c>
+      <c r="AG28" s="5" t="n">
+        <v>478135440.758108</v>
+      </c>
+      <c r="AH28" s="5" t="n">
+        <v>434032909.1691</v>
+      </c>
+      <c r="AI28" s="5" t="n">
+        <v>527559337.886043</v>
+      </c>
+      <c r="AJ28" s="5" t="n">
+        <v>503291142.4949</v>
+      </c>
+      <c r="AK28" s="5" t="n">
+        <v>247861303.130622</v>
+      </c>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="M29"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -970,14 +970,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1016,7 +1016,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1024,7 +1024,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2476,11 +2476,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>39</v>
       </c>
@@ -2591,556 +2600,712 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="10" t="n">
         <v>3002082000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="10" t="n">
         <v>2953319000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="10" t="n">
         <v>2122935963</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>2415777815</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="10" t="n">
         <v>2148994656</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="10" t="n">
         <v>1534704890</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="10" t="n">
         <v>1662965505</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="10" t="n">
         <v>1663203398</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="10" t="n">
         <v>1674051122</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="10" t="n">
         <v>1825333019</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="10" t="n">
         <v>2326050045</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="10" t="n">
         <v>2442446384</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="10" t="n">
         <v>3747183656</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="10" t="n">
         <v>3443369642.1094</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="10" t="n">
         <v>3519570083</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="10" t="n">
         <v>3572906289.1954</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="10" t="n">
         <v>3196191988.1407</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="10" t="n">
         <v>4616007564.7889</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="10" t="n">
         <v>3134716316.0061</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="10" t="n">
         <v>3320684876.3367</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="10" t="n">
         <v>3472097891.013</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>3166322163.6878</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="10" t="n">
         <v>3250496361.0675</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="10" t="n">
         <v>3098309641.9292</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="10" t="n">
         <v>2489754350.0121</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="10" t="n">
         <v>2896844490.0329</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="10" t="n">
         <v>4636803254.6567</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="10" t="n">
         <v>3278078082.739</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="10" t="n">
         <v>5664534254.9595</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="10" t="n">
         <v>4726264507.9939</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="10" t="n">
         <v>5554087256.8614</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="10" t="n">
         <v>5635270163.8798</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="10" t="n">
         <v>4850965005.4584</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="10" t="n">
         <v>2192669299.7077</v>
       </c>
+      <c r="AW2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>1875929000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>5724307000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>5408245502</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>3836481421</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>1534992742</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>3117275635</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>3512257509</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="10" t="n">
         <v>3287359149</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="10" t="n">
         <v>3332777588</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="10" t="n">
         <v>3729919098</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="10" t="n">
         <v>3164886780.9</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="10" t="n">
         <v>3790427842.1795</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="10" t="n">
         <v>4991019383.375</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="10" t="n">
         <v>5147669364.3897</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="10" t="n">
         <v>5561606614.2227</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="10" t="n">
         <v>6751623928.0659</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="10" t="n">
         <v>6088258236.635</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="10" t="n">
         <v>7497062736.7916</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="10" t="n">
         <v>10320162710.2859</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="10" t="n">
         <v>9256329937.5148</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="10" t="n">
         <v>8033368824.9356</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>7242877611.9457</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="10" t="n">
         <v>6784074169.2561</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="10" t="n">
         <v>4540381153.8469</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="10" t="n">
         <v>4251446011.2755</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="10" t="n">
         <v>4211841837.9123</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="10" t="n">
         <v>5630615191.9496</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="10" t="n">
         <v>7806440708.3097</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>8169778688.7127</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="10" t="n">
         <v>8844716617.2865</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="10" t="n">
         <v>8500035221.6734</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="10" t="n">
         <v>8372029645.043</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="10" t="n">
         <v>7846864812.5085</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="10" t="n">
         <v>6580123423.9674</v>
       </c>
+      <c r="AW3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="10" t="n">
         <v>5220000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="10" t="n">
         <v>48903000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="10" t="n">
         <v>8849003</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="10" t="n">
         <v>8415801</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="10" t="n">
         <v>10230324</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="10" t="n">
         <v>17010707</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="10" t="n">
         <v>14148246</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="10" t="n">
         <v>16446431</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="10" t="n">
         <v>18967382</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="10" t="n">
         <v>16956537</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="10" t="n">
         <v>24454737</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="10" t="n">
         <v>28897408</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="10" t="n">
         <v>44042612</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="10" t="n">
         <v>56370201</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="10" t="n">
         <v>68584504</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="10" t="n">
         <v>63157766</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="10" t="n">
         <v>94406671</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="10" t="n">
         <v>111300429.5509</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="10" t="n">
         <v>160710067.92</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="10" t="n">
         <v>133992386.0758</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="10" t="n">
         <v>181353540.2585</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="10" t="n">
         <v>186169564.1688</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="10" t="n">
         <v>201810265.9937</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="10" t="n">
         <v>163522038.8573</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="10" t="n">
         <v>125773946.5869</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="10" t="n">
         <v>143347601.5093</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="10" t="n">
         <v>147858299.3796</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="10" t="n">
         <v>222256376.4783</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="10" t="n">
         <v>312453271.48</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="10" t="n">
         <v>339966647.2801</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="10" t="n">
         <v>330581559.889</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="10" t="n">
         <v>258404520.9018</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="10" t="n">
         <v>366645955.5422</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="10" t="n">
         <v>589716021.0213</v>
       </c>
+      <c r="AW4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="10" t="n">
         <v>6446972000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="10" t="n">
         <v>6104762775</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="10" t="n">
         <v>5920871462</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="10" t="n">
         <v>4830077969</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="10" t="n">
         <v>4603271857</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="10" t="n">
         <v>3873563560</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="10" t="n">
         <v>3576651597</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="10" t="n">
         <v>3048709858</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="10" t="n">
         <v>3599015956</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="10" t="n">
         <v>3585558759</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="10" t="n">
         <v>3151114616.375</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="10" t="n">
         <v>2817171117.2188</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="10" t="n">
         <v>3440061119.9843</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="10" t="n">
         <v>4812344701.5508</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="10" t="n">
         <v>4749731174.9375</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="10" t="n">
         <v>4369279592.2758</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="10" t="n">
         <v>5503843412.9825</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="10" t="n">
         <v>5637306312.0507</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="10" t="n">
         <v>5535600452.7471</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="10" t="n">
         <v>5148302087.1776</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="10" t="n">
         <v>4986179184.9521</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>4789600996.432</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="10" t="n">
         <v>5412112363.2901</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="10" t="n">
         <v>5231884529.5285</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="10" t="n">
         <v>5673631079.4002</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="10" t="n">
         <v>5933409132.3237</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="10" t="n">
         <v>5923354299.2556</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="10" t="n">
         <v>6654119566.8199</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="10" t="n">
         <v>7505187361.7916</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="10" t="n">
         <v>9120467584.1708</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="10" t="n">
         <v>9433039452.5749</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="10" t="n">
         <v>7649507762.7225</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="10" t="n">
         <v>7401616398.4085</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="10" t="n">
         <v>5783194207.686</v>
       </c>
+      <c r="AW5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>44</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="10" t="n">
         <v>1075000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="10" t="n">
         <v>2789000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="10" t="n">
         <v>3653083</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="10" t="n">
         <v>84617339</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="10" t="n">
         <v>235527780</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="10" t="n">
         <v>1105001</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="10" t="n">
         <v>51418275</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="10" t="n">
         <v>16847979</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="10" t="n">
         <v>6022155</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="10" t="n">
         <v>4050422</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="10" t="n">
         <v>14896057</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="10" t="n">
         <v>41830733</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="10" t="n">
         <v>136713409</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="10" t="n">
         <v>108082269</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="10" t="n">
         <v>194000213</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="10" t="n">
         <v>81668642.6406</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="10" t="n">
         <v>143095150.5</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="10" t="n">
         <v>84987137.1581</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="10" t="n">
         <v>54858254.9548</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="10" t="n">
         <v>56231653.7629</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="10" t="n">
         <v>13896151.9638</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="10" t="n">
         <v>41151713.7748</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="10" t="n">
         <v>31441018.3474</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="10" t="n">
         <v>6515233.3828</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="10" t="n">
         <v>37497883.1776</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="10" t="n">
         <v>65413668.5464</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="10" t="n">
         <v>137418067.6068</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="10" t="n">
         <v>83817867.1959</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="10" t="n">
         <v>20152804.6026</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="10" t="n">
         <v>113199443.6304</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="10" t="n">
         <v>45892289.1613</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="10" t="n">
         <v>55725005.2103</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="10" t="n">
         <v>13858318.3987</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="10" t="n">
         <v>13084224.1124</v>
       </c>
+      <c r="AW6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>309</v>
+      </c>
+      <c r="N7" t="s">
+        <v>310</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="10" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="10" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="10" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="10" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="10" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="10" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="10" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="10" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="10" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="10" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="10" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="10" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="10" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="10" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="10" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="10" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="10" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="10" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="10" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="10" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="10" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>39</v>
       </c>
@@ -3251,554 +3416,632 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>41</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="10" t="n">
         <v>5966732740.36482</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="10" t="n">
         <v>5667654098.98379</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="10" t="n">
         <v>3974744656.14286</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="10" t="n">
         <v>4419217031.79763</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="10" t="n">
         <v>3847354235.22838</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="10" t="n">
         <v>2690594274.80249</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="10" t="n">
         <v>2861673218.76373</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="10" t="n">
         <v>2812126796.58365</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="10" t="n">
         <v>2795561036.46913</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="10" t="n">
         <v>3010663879.4072</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="10" t="n">
         <v>3758268954.97343</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="10" t="n">
         <v>3852903335.94896</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="10" t="n">
         <v>5819248215.54169</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="10" t="n">
         <v>5247138664.5424</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="10" t="n">
         <v>5235287744.32313</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="10" t="n">
         <v>5158042978.95966</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="10" t="n">
         <v>4468707192.84868</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="10" t="n">
         <v>6281541307.41449</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="10" t="n">
         <v>4178626288.89125</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="10" t="n">
         <v>4381995669.43674</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="10" t="n">
         <v>4542294693.99047</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="10" t="n">
         <v>4060437371.59643</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="10" t="n">
         <v>4093350066.71129</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="10" t="n">
         <v>3831583354.95128</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="10" t="n">
         <v>3020566140.28869</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="10" t="n">
         <v>3474613075.76626</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="10" t="n">
         <v>5515894900.61668</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="10" t="n">
         <v>3831168196.42886</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="10" t="n">
         <v>6468396795.91498</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="10" t="n">
         <v>5293298555.63576</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="10" t="n">
         <v>6138548434.59936</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="10" t="n">
         <v>6025724480.28367</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="10" t="n">
         <v>4850965005.4584</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="10" t="n">
         <v>2091364424.69878</v>
       </c>
+      <c r="AW11" s="10"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>42</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="10" t="n">
         <v>3728468104.10236</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="10" t="n">
         <v>10985400504.4466</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="10" t="n">
         <v>10125785837.5557</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="10" t="n">
         <v>7018130530.29397</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="10" t="n">
         <v>2748104007.83916</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="10" t="n">
         <v>5465105396.59016</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="10" t="n">
         <v>6043981802.8018</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="10" t="n">
         <v>5558232242.67927</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="10" t="n">
         <v>5565530852.54607</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="10" t="n">
         <v>6152046001.78204</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="10" t="n">
         <v>5113602676.01735</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="10" t="n">
         <v>5979313271.10238</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="10" t="n">
         <v>7750882611.2469</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="10" t="n">
         <v>7844215916.83169</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="10" t="n">
         <v>8272774872.93795</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="10" t="n">
         <v>9747013657.7746</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="10" t="n">
         <v>8512205610.58905</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="10" t="n">
         <v>10202130001.8359</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="10" t="n">
         <v>13756939658.8268</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="10" t="n">
         <v>12214708474.7811</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="10" t="n">
         <v>10509475750.3301</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="10" t="n">
         <v>9288142334.57236</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="10" t="n">
         <v>8543184599.71417</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="10" t="n">
         <v>5614948428.26035</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="10" t="n">
         <v>5157847748.65913</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="10" t="n">
         <v>5051883445.39104</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="10" t="n">
         <v>6698123668.15832</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="10" t="n">
         <v>9123573817.98368</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="10" t="n">
         <v>9329164219.83603</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="10" t="n">
         <v>9905862360.45481</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="10" t="n">
         <v>9394500930.74848</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="10" t="n">
         <v>8952107443.78293</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="10" t="n">
         <v>7846864812.5085</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="10" t="n">
         <v>6276111058.26449</v>
       </c>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>43</v>
       </c>
       <c r="N13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="10" t="n">
         <v>10374914.7773793</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="10" t="n">
         <v>93848747.2577817</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="10" t="n">
         <v>16567870.156921</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="10" t="n">
         <v>15395145.5653299</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="10" t="n">
         <v>18315392.3902352</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="10" t="n">
         <v>29822613.560932</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="10" t="n">
         <v>24346660.5584708</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="10" t="n">
         <v>27807452.4011188</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="10" t="n">
         <v>31674345.7748633</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="10" t="n">
         <v>27967736.8098559</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="10" t="n">
         <v>39512253.430102</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="10" t="n">
         <v>45585000.5194948</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="10" t="n">
         <v>68396671.9587964</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="10" t="n">
         <v>85899073.2734494</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="10" t="n">
         <v>102018031.968162</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="10" t="n">
         <v>91178006.1145793</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="10" t="n">
         <v>131993250.504333</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="10" t="n">
         <v>151459510.398122</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="10" t="n">
         <v>214229055.200638</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="10" t="n">
         <v>176817155.91435</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="10" t="n">
         <v>237251727.776672</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="10" t="n">
         <v>238740664.00255</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="10" t="n">
         <v>254139667.917377</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="10" t="n">
         <v>202222629.324808</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="10" t="n">
         <v>152588758.159624</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="10" t="n">
         <v>171937931.876449</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="10" t="n">
         <v>175890758.08699</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="10" t="n">
         <v>259756338.783031</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="10" t="n">
         <v>356793983.255528</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="10" t="n">
         <v>380754179.112992</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="10" t="n">
         <v>365368929.783574</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="10" t="n">
         <v>276308748.672651</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="10" t="n">
         <v>366645955.5422</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="10" t="n">
         <v>562470185.177161</v>
       </c>
+      <c r="AW13" s="10"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>45</v>
       </c>
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="10" t="n">
         <v>12813560358.6495</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="10" t="n">
         <v>11715525402.1162</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="10" t="n">
         <v>11085568577.4132</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="10" t="n">
         <v>8835730957.11838</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="10" t="n">
         <v>8241257103.86902</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="10" t="n">
         <v>6791004580.44384</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="10" t="n">
         <v>6154792782.65812</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="10" t="n">
         <v>5154726533.74806</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="10" t="n">
         <v>6010132333.47619</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="10" t="n">
         <v>5913941253.92382</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="10" t="n">
         <v>5091350575.94394</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="10" t="n">
         <v>4444023036.31954</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="10" t="n">
         <v>5342297408.28668</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="10" t="n">
         <v>7333235340.70081</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="10" t="n">
         <v>7065126939.53359</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="10" t="n">
         <v>6307731045.78825</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="10" t="n">
         <v>7695114917.74161</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="10" t="n">
         <v>7671341947.4897</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="10" t="n">
         <v>7379042709.0763</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="10" t="n">
         <v>6793730296.94158</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="10" t="n">
         <v>6523057807.13049</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>6142102374.79345</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="10" t="n">
         <v>6815473097.79083</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="10" t="n">
         <v>6470109186.98441</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="10" t="n">
         <v>6883240481.47261</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="10" t="n">
         <v>7116813148.22968</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="10" t="n">
         <v>7046363190.19942</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="10" t="n">
         <v>7776828561.18382</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="10" t="n">
         <v>8570259742.22862</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="10" t="n">
         <v>10214696576.6217</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="10" t="n">
         <v>10425685965.5172</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="10" t="n">
         <v>8179523757.95627</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="10" t="n">
         <v>7401616398.4085</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="10" t="n">
         <v>5516001263.25063</v>
       </c>
+      <c r="AW14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="10" t="n">
         <v>2136596.43403884</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="10" t="n">
         <v>5352312.86632626</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="10" t="n">
         <v>6839618.52159566</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="10" t="n">
         <v>154791712.785968</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="10" t="n">
         <v>421666382.169421</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="10" t="n">
         <v>1937251.50914912</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="10" t="n">
         <v>88481871.740646</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="10" t="n">
         <v>28486385.5323717</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="10" t="n">
         <v>10056623.5118701</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="10" t="n">
         <v>6680676.39429267</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="10" t="n">
         <v>24068006.9179744</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="10" t="n">
         <v>65987025.0486081</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="10" t="n">
         <v>212311254.104133</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="10" t="n">
         <v>164699904.908831</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="10" t="n">
         <v>288571306.598124</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="10" t="n">
         <v>117901320.29138</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>200066307.241167</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="10" t="n">
         <v>115651936.259753</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="10" t="n">
         <v>73126919.0600595</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="10" t="n">
         <v>74203627.3993345</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="10" t="n">
         <v>18179331.1460001</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="10" t="n">
         <v>52772253.6994858</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="10" t="n">
         <v>39593674.3973263</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="10" t="n">
         <v>8057186.87549106</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="10" t="n">
         <v>45492374.0802818</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="10" t="n">
         <v>78460265.5914678</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="10" t="n">
         <v>163471162.509151</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="10" t="n">
         <v>97959944.5127058</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="10" t="n">
         <v>23012719.290386</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="10" t="n">
         <v>126780557.97641</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="10" t="n">
         <v>50721572.5578056</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="10" t="n">
         <v>59586056.7984655</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="10" t="n">
         <v>13858318.3987</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="10" t="n">
         <v>12479711.7545757</v>
       </c>
+      <c r="AW15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3952,89 +4195,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>3140043239</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="2" t="n">
         <v>4201842517.24</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="2" t="n">
         <v>6906249606.6484</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="2" t="n">
         <v>6554613572.8096</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="2" t="n">
         <v>7542935888.7852</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="2" t="n">
         <v>8065828322.8784</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="2" t="n">
         <v>8945938179.3539</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="2" t="n">
         <v>10480041815.8173</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="2" t="n">
         <v>12891702943.184</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="2" t="n">
         <v>11228379316.9394</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>10150811886.1512</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="2" t="n">
         <v>9223565415.3386</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="2" t="n">
         <v>8701955622.324</v>
       </c>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="2" t="n">
         <v>7452142339.902</v>
       </c>
-      <c r="AN2" s="10" t="n">
+      <c r="AN2" s="2" t="n">
         <v>6711117831.7237</v>
       </c>
-      <c r="AO2" s="10" t="n">
+      <c r="AO2" s="2" t="n">
         <v>6839610509.5987</v>
       </c>
-      <c r="AP2" s="10" t="n">
+      <c r="AP2" s="2" t="n">
         <v>7560792264.686</v>
       </c>
-      <c r="AQ2" s="10" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>8784997403.6141</v>
       </c>
-      <c r="AR2" s="10" t="n">
+      <c r="AR2" s="2" t="n">
         <v>9249124906.0079</v>
       </c>
-      <c r="AS2" s="10" t="n">
+      <c r="AS2" s="2" t="n">
         <v>9751300208.1095</v>
       </c>
-      <c r="AT2" s="10" t="n">
+      <c r="AT2" s="2" t="n">
         <v>10921196830.372</v>
       </c>
-      <c r="AU2" s="10" t="n">
+      <c r="AU2" s="2" t="n">
         <v>10061930650.5822</v>
       </c>
-      <c r="AV2" s="10" t="n">
+      <c r="AV2" s="2" t="n">
         <v>10547189343.4427</v>
       </c>
-      <c r="AW2" s="10" t="n">
+      <c r="AW2" s="2" t="n">
         <v>7513222430.9844</v>
       </c>
-      <c r="AX2" s="10"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4052,89 +4295,89 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>243308654</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="2" t="n">
         <v>291318567</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="2" t="n">
         <v>169640369</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="2" t="n">
         <v>140427185</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="2" t="n">
         <v>339189597</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="2" t="n">
         <v>301198254.6587</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="2" t="n">
         <v>420823299.6473</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="2" t="n">
         <v>404555833.0535</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="2" t="n">
         <v>464221392.1764</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="2" t="n">
         <v>1134434106.4638</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>1134217345.713</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="2" t="n">
         <v>944939774.3347</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="2" t="n">
         <v>1215854579.8417</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="2" t="n">
         <v>974383093.81</v>
       </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AN3" s="2" t="n">
         <v>489522688.06</v>
       </c>
-      <c r="AO3" s="10" t="n">
+      <c r="AO3" s="2" t="n">
         <v>498305939.2271</v>
       </c>
-      <c r="AP3" s="10" t="n">
+      <c r="AP3" s="2" t="n">
         <v>498483386.2324</v>
       </c>
-      <c r="AQ3" s="10" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>476897525.5534</v>
       </c>
-      <c r="AR3" s="10" t="n">
+      <c r="AR3" s="2" t="n">
         <v>606038775.4084</v>
       </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AS3" s="2" t="n">
         <v>380975668.1635</v>
       </c>
-      <c r="AT3" s="10" t="n">
+      <c r="AT3" s="2" t="n">
         <v>399848951.506</v>
       </c>
-      <c r="AU3" s="10" t="n">
+      <c r="AU3" s="2" t="n">
         <v>544037931.4568</v>
       </c>
-      <c r="AV3" s="10" t="n">
+      <c r="AV3" s="2" t="n">
         <v>485660871.5053</v>
       </c>
-      <c r="AW3" s="10" t="n">
+      <c r="AW3" s="2" t="n">
         <v>54933350.8032</v>
       </c>
-      <c r="AX3" s="10"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4152,89 +4395,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>85991847</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="2" t="n">
         <v>51375522</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="2" t="n">
         <v>86996030</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="2" t="n">
         <v>57538828</v>
       </c>
-      <c r="AD4" s="10" t="n">
+      <c r="AD4" s="2" t="n">
         <v>91668428</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="2" t="n">
         <v>90291331.4375</v>
       </c>
-      <c r="AF4" s="10" t="n">
+      <c r="AF4" s="2" t="n">
         <v>124552842.7969</v>
       </c>
-      <c r="AG4" s="10" t="n">
+      <c r="AG4" s="2" t="n">
         <v>120471078.7933</v>
       </c>
-      <c r="AH4" s="10" t="n">
+      <c r="AH4" s="2" t="n">
         <v>104147609.3629</v>
       </c>
-      <c r="AI4" s="10" t="n">
+      <c r="AI4" s="2" t="n">
         <v>90614598.6009</v>
       </c>
-      <c r="AJ4" s="10" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>124597994.3127</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="2" t="n">
         <v>544336276.3709</v>
       </c>
-      <c r="AL4" s="10" t="n">
+      <c r="AL4" s="2" t="n">
         <v>513247921.9585</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="2" t="n">
         <v>49840782.2019</v>
       </c>
-      <c r="AN4" s="10" t="n">
+      <c r="AN4" s="2" t="n">
         <v>81774892.7838</v>
       </c>
-      <c r="AO4" s="10" t="n">
+      <c r="AO4" s="2" t="n">
         <v>125096728.956</v>
       </c>
-      <c r="AP4" s="10" t="n">
+      <c r="AP4" s="2" t="n">
         <v>131702863.8702</v>
       </c>
-      <c r="AQ4" s="10" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>143739130.0055</v>
       </c>
-      <c r="AR4" s="10" t="n">
+      <c r="AR4" s="2" t="n">
         <v>184328152.3825</v>
       </c>
-      <c r="AS4" s="10" t="n">
+      <c r="AS4" s="2" t="n">
         <v>168844940.915</v>
       </c>
-      <c r="AT4" s="10" t="n">
+      <c r="AT4" s="2" t="n">
         <v>178341984.6682</v>
       </c>
-      <c r="AU4" s="10" t="n">
+      <c r="AU4" s="2" t="n">
         <v>186023807.7479</v>
       </c>
-      <c r="AV4" s="10" t="n">
+      <c r="AV4" s="2" t="n">
         <v>198001000.2346</v>
       </c>
-      <c r="AW4" s="10" t="n">
+      <c r="AW4" s="2" t="n">
         <v>361697052.9354</v>
       </c>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4252,89 +4495,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>1347721151</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="2" t="n">
         <v>1316111608</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="2" t="n">
         <v>1630834274</v>
       </c>
-      <c r="AC5" s="10" t="n">
+      <c r="AC5" s="2" t="n">
         <v>2168931643</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="2" t="n">
         <v>1387107713</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="2" t="n">
         <v>1465344953</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="2" t="n">
         <v>1758595351</v>
       </c>
-      <c r="AG5" s="10" t="n">
+      <c r="AG5" s="2" t="n">
         <v>2184704912.8867</v>
       </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AH5" s="2" t="n">
         <v>1998198608.9448</v>
       </c>
-      <c r="AI5" s="10" t="n">
+      <c r="AI5" s="2" t="n">
         <v>1110007994.597</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>1258453770.7495</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="2" t="n">
         <v>1254027140.1484</v>
       </c>
-      <c r="AL5" s="10" t="n">
+      <c r="AL5" s="2" t="n">
         <v>1620729916.701</v>
       </c>
-      <c r="AM5" s="10" t="n">
+      <c r="AM5" s="2" t="n">
         <v>2156750833.495</v>
       </c>
-      <c r="AN5" s="10" t="n">
+      <c r="AN5" s="2" t="n">
         <v>2452088850.8275</v>
       </c>
-      <c r="AO5" s="10" t="n">
+      <c r="AO5" s="2" t="n">
         <v>3102874745.4956</v>
       </c>
-      <c r="AP5" s="10" t="n">
+      <c r="AP5" s="2" t="n">
         <v>3326671265.044</v>
       </c>
-      <c r="AQ5" s="10" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>4062354945.6279</v>
       </c>
-      <c r="AR5" s="10" t="n">
+      <c r="AR5" s="2" t="n">
         <v>5586764507.9499</v>
       </c>
-      <c r="AS5" s="10" t="n">
+      <c r="AS5" s="2" t="n">
         <v>7646849912.6752</v>
       </c>
-      <c r="AT5" s="10" t="n">
+      <c r="AT5" s="2" t="n">
         <v>7266363992.2005</v>
       </c>
-      <c r="AU5" s="10" t="n">
+      <c r="AU5" s="2" t="n">
         <v>6435793243.0658</v>
       </c>
-      <c r="AV5" s="10" t="n">
+      <c r="AV5" s="2" t="n">
         <v>4852503484.7871</v>
       </c>
-      <c r="AW5" s="10" t="n">
+      <c r="AW5" s="2" t="n">
         <v>2960825801.9075</v>
       </c>
-      <c r="AX5" s="10"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4352,89 +4595,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>2795926985.375</v>
       </c>
-      <c r="AA6" s="10" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2796157381.2188</v>
       </c>
-      <c r="AB6" s="10" t="n">
+      <c r="AB6" s="2" t="n">
         <v>3282611241.5859</v>
       </c>
-      <c r="AC6" s="10" t="n">
+      <c r="AC6" s="2" t="n">
         <v>3852412548.4102</v>
       </c>
-      <c r="AD6" s="10" t="n">
+      <c r="AD6" s="2" t="n">
         <v>3045985592.375</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="2" t="n">
         <v>2999908419.2031</v>
       </c>
-      <c r="AF6" s="10" t="n">
+      <c r="AF6" s="2" t="n">
         <v>2789079776.7198</v>
       </c>
-      <c r="AG6" s="10" t="n">
+      <c r="AG6" s="2" t="n">
         <v>3535252956.1705</v>
       </c>
-      <c r="AH6" s="10" t="n">
+      <c r="AH6" s="2" t="n">
         <v>2275036551.4739</v>
       </c>
-      <c r="AI6" s="10" t="n">
+      <c r="AI6" s="2" t="n">
         <v>2079536007.436</v>
       </c>
-      <c r="AJ6" s="10" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>2279444999.8507</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="2" t="n">
         <v>2203933568.99</v>
       </c>
-      <c r="AL6" s="10" t="n">
+      <c r="AL6" s="2" t="n">
         <v>2330897469.2119</v>
       </c>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="2" t="n">
         <v>2051997608.9233</v>
       </c>
-      <c r="AN6" s="10" t="n">
+      <c r="AN6" s="2" t="n">
         <v>2487580121.9208</v>
       </c>
-      <c r="AO6" s="10" t="n">
+      <c r="AO6" s="2" t="n">
         <v>2526669998.6822</v>
       </c>
-      <c r="AP6" s="10" t="n">
+      <c r="AP6" s="2" t="n">
         <v>2640395378.7156</v>
       </c>
-      <c r="AQ6" s="10" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>2629351175.7988</v>
       </c>
-      <c r="AR6" s="10" t="n">
+      <c r="AR6" s="2" t="n">
         <v>3255666918.1855</v>
       </c>
-      <c r="AS6" s="10" t="n">
+      <c r="AS6" s="2" t="n">
         <v>3214395561.8443</v>
       </c>
-      <c r="AT6" s="10" t="n">
+      <c r="AT6" s="2" t="n">
         <v>3199090831.8449</v>
       </c>
-      <c r="AU6" s="10" t="n">
+      <c r="AU6" s="2" t="n">
         <v>3037362587.6587</v>
       </c>
-      <c r="AV6" s="10" t="n">
+      <c r="AV6" s="2" t="n">
         <v>2823137497.5384</v>
       </c>
-      <c r="AW6" s="10" t="n">
+      <c r="AW6" s="2" t="n">
         <v>1665758909.8611</v>
       </c>
-      <c r="AX6" s="10"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4452,89 +4695,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>225135523</v>
       </c>
-      <c r="AA7" s="10" t="n">
+      <c r="AA7" s="2" t="n">
         <v>447692754</v>
       </c>
-      <c r="AB7" s="10" t="n">
+      <c r="AB7" s="2" t="n">
         <v>246831216</v>
       </c>
-      <c r="AC7" s="10" t="n">
+      <c r="AC7" s="2" t="n">
         <v>755204057.25</v>
       </c>
-      <c r="AD7" s="10" t="n">
+      <c r="AD7" s="2" t="n">
         <v>1614643024</v>
       </c>
-      <c r="AE7" s="10" t="n">
+      <c r="AE7" s="2" t="n">
         <v>1673662914</v>
       </c>
-      <c r="AF7" s="10" t="n">
+      <c r="AF7" s="2" t="n">
         <v>860491200.8594</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AG7" s="2" t="n">
         <v>726343565.1504</v>
       </c>
-      <c r="AH7" s="10" t="n">
+      <c r="AH7" s="2" t="n">
         <v>651681537.0876</v>
       </c>
-      <c r="AI7" s="10" t="n">
+      <c r="AI7" s="2" t="n">
         <v>699221803.3827</v>
       </c>
-      <c r="AJ7" s="10" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>1736977845.217</v>
       </c>
-      <c r="AK7" s="10" t="n">
+      <c r="AK7" s="2" t="n">
         <v>1255951571.2465</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="2" t="n">
         <v>1287154104.6418</v>
       </c>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="2" t="n">
         <v>356226972.0625</v>
       </c>
-      <c r="AN7" s="10" t="n">
+      <c r="AN7" s="2" t="n">
         <v>345046632.1605</v>
       </c>
-      <c r="AO7" s="10" t="n">
+      <c r="AO7" s="2" t="n">
         <v>155057056.77</v>
       </c>
-      <c r="AP7" s="10" t="n">
+      <c r="AP7" s="2" t="n">
         <v>2317662899.218</v>
       </c>
-      <c r="AQ7" s="10" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>1914361156.6814</v>
       </c>
-      <c r="AR7" s="10" t="n">
+      <c r="AR7" s="2" t="n">
         <v>2790183121.6122</v>
       </c>
-      <c r="AS7" s="10" t="n">
+      <c r="AS7" s="2" t="n">
         <v>1982248508.6542</v>
       </c>
-      <c r="AT7" s="10" t="n">
+      <c r="AT7" s="2" t="n">
         <v>1898728139.1465</v>
       </c>
-      <c r="AU7" s="10" t="n">
+      <c r="AU7" s="2" t="n">
         <v>1705788877.246</v>
       </c>
-      <c r="AV7" s="10" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1573458292.8082</v>
       </c>
-      <c r="AW7" s="10" t="n">
+      <c r="AW7" s="2" t="n">
         <v>2602349630.0032</v>
       </c>
-      <c r="AX7" s="10"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4552,73 +4795,73 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2" t="n">
         <v>24429.5801</v>
       </c>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10" t="n">
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF8" s="10" t="n">
+      <c r="AF8" s="2" t="n">
         <v>33531281</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AG8" s="2" t="n">
         <v>492856836.4531</v>
       </c>
-      <c r="AH8" s="10" t="n">
+      <c r="AH8" s="2" t="n">
         <v>621569325.3688</v>
       </c>
-      <c r="AI8" s="10" t="n">
+      <c r="AI8" s="2" t="n">
         <v>1441905486.7423</v>
       </c>
-      <c r="AJ8" s="10" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>1203725.9902</v>
       </c>
-      <c r="AK8" s="10" t="n">
+      <c r="AK8" s="2" t="n">
         <v>-631696.42</v>
       </c>
-      <c r="AL8" s="10" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-591936.2749</v>
       </c>
-      <c r="AM8" s="10" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-1068232.85</v>
       </c>
-      <c r="AN8" s="10" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-1066664.4</v>
       </c>
-      <c r="AO8" s="10" t="n">
+      <c r="AO8" s="2" t="n">
         <v>-252</v>
       </c>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10" t="n">
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS8" s="10" t="n">
+      <c r="AS8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" s="10" t="n">
+      <c r="AT8" s="2" t="n">
         <v>65050.4219</v>
       </c>
-      <c r="AU8" s="10" t="n">
+      <c r="AU8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4634,109 +4877,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="2" t="n">
         <v>11331278000</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="2" t="n">
         <v>14834080775</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="2" t="n">
         <v>13464555013</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="2" t="n">
         <v>11175370345</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="T9" s="2" t="n">
         <v>8533017359</v>
       </c>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="2" t="n">
         <v>8543659793</v>
       </c>
-      <c r="V9" s="10" t="n">
+      <c r="V9" s="2" t="n">
         <v>8817441132</v>
       </c>
-      <c r="W9" s="10" t="n">
+      <c r="W9" s="2" t="n">
         <v>8032566815</v>
       </c>
-      <c r="X9" s="10" t="n">
+      <c r="X9" s="2" t="n">
         <v>8630834203</v>
       </c>
-      <c r="Y9" s="10" t="n">
+      <c r="Y9" s="2" t="n">
         <v>9161817835</v>
       </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Z9" s="2" t="n">
         <v>843274836.9</v>
       </c>
-      <c r="AA9" s="10" t="n">
+      <c r="AA9" s="2" t="n">
         <v>16275134.9395</v>
       </c>
-      <c r="AB9" s="10" t="n">
+      <c r="AB9" s="2" t="n">
         <v>35857443.125</v>
       </c>
-      <c r="AC9" s="10" t="n">
+      <c r="AC9" s="2" t="n">
         <v>38683914</v>
       </c>
-      <c r="AD9" s="10" t="n">
+      <c r="AD9" s="2" t="n">
         <v>71962346</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="2" t="n">
         <v>242402023</v>
       </c>
-      <c r="AF9" s="10" t="n">
+      <c r="AF9" s="2" t="n">
         <v>92783527.8809</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AG9" s="2" t="n">
         <v>2437182.0154</v>
       </c>
-      <c r="AH9" s="10" t="n">
+      <c r="AH9" s="2" t="n">
         <v>199489834.3155</v>
       </c>
-      <c r="AI9" s="10" t="n">
+      <c r="AI9" s="2" t="n">
         <v>131441626.7057</v>
       </c>
-      <c r="AJ9" s="10" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>1188025.1387</v>
       </c>
-      <c r="AK9" s="10" t="n">
+      <c r="AK9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="10" t="n">
+      <c r="AL9" s="2" t="n">
         <v>10686499.5508</v>
       </c>
-      <c r="AM9" s="10" t="n">
+      <c r="AM9" s="2" t="n">
         <v>339200</v>
       </c>
-      <c r="AN9" s="10" t="n">
+      <c r="AN9" s="2" t="n">
         <v>12038917.376</v>
       </c>
-      <c r="AO9" s="10" t="n">
+      <c r="AO9" s="2" t="n">
         <v>3242003.595</v>
       </c>
-      <c r="AP9" s="10" t="n">
+      <c r="AP9" s="2" t="n">
         <v>341055.0821</v>
       </c>
-      <c r="AQ9" s="10" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>33011264.2617</v>
       </c>
-      <c r="AR9" s="10" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="10" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="10" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="10" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="10" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="10" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="10"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4751,107 +4994,107 @@
       <c r="O10" t="s">
         <v>310</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="10" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="10" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="10" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="10" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="10" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="10" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="10" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="10" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="10" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="10" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="10" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="10" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="10" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="10" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="10" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="10" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4988,89 +5231,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>5073462218.82682</v>
       </c>
-      <c r="AA14" s="10" t="n">
+      <c r="AA14" s="2" t="n">
         <v>6628310515.98886</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="2" t="n">
         <v>10725169724.5272</v>
       </c>
-      <c r="AC14" s="10" t="n">
+      <c r="AC14" s="2" t="n">
         <v>9988171437.77646</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AD14" s="2" t="n">
         <v>11219961212.1695</v>
       </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AE14" s="2" t="n">
         <v>11644271017.1629</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>12507627338.1543</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
         <v>14261418475.9245</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="2" t="n">
         <v>17184843346.7179</v>
       </c>
-      <c r="AI14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
         <v>14817036657.7815</v>
       </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>13279573450.2485</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>11828142486.9873</v>
       </c>
-      <c r="AL14" s="10" t="n">
+      <c r="AL14" s="2" t="n">
         <v>10958372713.1018</v>
       </c>
-      <c r="AM14" s="10" t="n">
+      <c r="AM14" s="2" t="n">
         <v>9215833098.75929</v>
       </c>
-      <c r="AN14" s="10" t="n">
+      <c r="AN14" s="2" t="n">
         <v>8141917810.44332</v>
       </c>
-      <c r="AO14" s="10" t="n">
+      <c r="AO14" s="2" t="n">
         <v>8203754185.48272</v>
       </c>
-      <c r="AP14" s="10" t="n">
+      <c r="AP14" s="2" t="n">
         <v>8994243060.78116</v>
       </c>
-      <c r="AQ14" s="10" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>10267236413.818</v>
       </c>
-      <c r="AR14" s="10" t="n">
+      <c r="AR14" s="2" t="n">
         <v>10561682075.5666</v>
       </c>
-      <c r="AS14" s="10" t="n">
+      <c r="AS14" s="2" t="n">
         <v>10921213406.4553</v>
       </c>
-      <c r="AT14" s="10" t="n">
+      <c r="AT14" s="2" t="n">
         <v>12070443370.1886</v>
       </c>
-      <c r="AU14" s="10" t="n">
+      <c r="AU14" s="2" t="n">
         <v>10759097625.6561</v>
       </c>
-      <c r="AV14" s="10" t="n">
+      <c r="AV14" s="2" t="n">
         <v>10547189343.4427</v>
       </c>
-      <c r="AW14" s="10" t="n">
+      <c r="AW14" s="2" t="n">
         <v>7166099379.01001</v>
       </c>
-      <c r="AX14" s="10"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5088,89 +5331,89 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>393121103.63669</v>
       </c>
-      <c r="AA15" s="10" t="n">
+      <c r="AA15" s="2" t="n">
         <v>459548379.842008</v>
       </c>
-      <c r="AB15" s="10" t="n">
+      <c r="AB15" s="2" t="n">
         <v>263445698.212953</v>
       </c>
-      <c r="AC15" s="10" t="n">
+      <c r="AC15" s="2" t="n">
         <v>213988327.873786</v>
       </c>
-      <c r="AD15" s="10" t="n">
+      <c r="AD15" s="2" t="n">
         <v>504537514.042735</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="2" t="n">
         <v>434826277.816279</v>
       </c>
-      <c r="AF15" s="10" t="n">
+      <c r="AF15" s="2" t="n">
         <v>588367692.876346</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AG15" s="2" t="n">
         <v>550526432.379721</v>
       </c>
-      <c r="AH15" s="10" t="n">
+      <c r="AH15" s="2" t="n">
         <v>618814437.309429</v>
       </c>
-      <c r="AI15" s="10" t="n">
+      <c r="AI15" s="2" t="n">
         <v>1497006047.52044</v>
       </c>
-      <c r="AJ15" s="10" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>1483814567.72839</v>
       </c>
-      <c r="AK15" s="10" t="n">
+      <c r="AK15" s="2" t="n">
         <v>1211774600.07662</v>
       </c>
-      <c r="AL15" s="10" t="n">
+      <c r="AL15" s="2" t="n">
         <v>1531125672.10251</v>
       </c>
-      <c r="AM15" s="10" t="n">
+      <c r="AM15" s="2" t="n">
         <v>1204989324.84477</v>
       </c>
-      <c r="AN15" s="10" t="n">
+      <c r="AN15" s="2" t="n">
         <v>593888170.714493</v>
       </c>
-      <c r="AO15" s="10" t="n">
+      <c r="AO15" s="2" t="n">
         <v>597691846.465256</v>
       </c>
-      <c r="AP15" s="10" t="n">
+      <c r="AP15" s="2" t="n">
         <v>592990863.996666</v>
       </c>
-      <c r="AQ15" s="10" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>557361535.24726</v>
       </c>
-      <c r="AR15" s="10" t="n">
+      <c r="AR15" s="2" t="n">
         <v>692042645.804419</v>
       </c>
-      <c r="AS15" s="10" t="n">
+      <c r="AS15" s="2" t="n">
         <v>426683261.296815</v>
       </c>
-      <c r="AT15" s="10" t="n">
+      <c r="AT15" s="2" t="n">
         <v>441925386.085918</v>
       </c>
-      <c r="AU15" s="10" t="n">
+      <c r="AU15" s="2" t="n">
         <v>581733011.27503</v>
       </c>
-      <c r="AV15" s="10" t="n">
+      <c r="AV15" s="2" t="n">
         <v>485660871.5053</v>
       </c>
-      <c r="AW15" s="10" t="n">
+      <c r="AW15" s="2" t="n">
         <v>52395340.9730441</v>
       </c>
-      <c r="AX15" s="10"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5188,89 +5431,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>138939611.233053</v>
       </c>
-      <c r="AA16" s="10" t="n">
+      <c r="AA16" s="2" t="n">
         <v>81043711.5003295</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="2" t="n">
         <v>135101862.842004</v>
       </c>
-      <c r="AC16" s="10" t="n">
+      <c r="AC16" s="2" t="n">
         <v>87679871.8961531</v>
       </c>
-      <c r="AD16" s="10" t="n">
+      <c r="AD16" s="2" t="n">
         <v>136354891.743114</v>
       </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AE16" s="2" t="n">
         <v>130349505.552522</v>
       </c>
-      <c r="AF16" s="10" t="n">
+      <c r="AF16" s="2" t="n">
         <v>174141661.87809</v>
       </c>
-      <c r="AG16" s="10" t="n">
+      <c r="AG16" s="2" t="n">
         <v>163939085.273901</v>
       </c>
-      <c r="AH16" s="10" t="n">
+      <c r="AH16" s="2" t="n">
         <v>138830405.860606</v>
       </c>
-      <c r="AI16" s="10" t="n">
+      <c r="AI16" s="2" t="n">
         <v>119575567.524171</v>
       </c>
-      <c r="AJ16" s="10" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>163002549.528726</v>
       </c>
-      <c r="AK16" s="10" t="n">
+      <c r="AK16" s="2" t="n">
         <v>698047528.024686</v>
       </c>
-      <c r="AL16" s="10" t="n">
+      <c r="AL16" s="2" t="n">
         <v>646333107.999019</v>
       </c>
-      <c r="AM16" s="10" t="n">
+      <c r="AM16" s="2" t="n">
         <v>61636548.1674848</v>
       </c>
-      <c r="AN16" s="10" t="n">
+      <c r="AN16" s="2" t="n">
         <v>99209173.8959242</v>
       </c>
-      <c r="AO16" s="10" t="n">
+      <c r="AO16" s="2" t="n">
         <v>150046967.195387</v>
       </c>
-      <c r="AP16" s="10" t="n">
+      <c r="AP16" s="2" t="n">
         <v>156672413.152029</v>
       </c>
-      <c r="AQ16" s="10" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>167991356.386269</v>
       </c>
-      <c r="AR16" s="10" t="n">
+      <c r="AR16" s="2" t="n">
         <v>210486436.589907</v>
       </c>
-      <c r="AS16" s="10" t="n">
+      <c r="AS16" s="2" t="n">
         <v>189102129.252417</v>
       </c>
-      <c r="AT16" s="10" t="n">
+      <c r="AT16" s="2" t="n">
         <v>197109058.640711</v>
       </c>
-      <c r="AU16" s="10" t="n">
+      <c r="AU16" s="2" t="n">
         <v>198912949.985411</v>
       </c>
-      <c r="AV16" s="10" t="n">
+      <c r="AV16" s="2" t="n">
         <v>198001000.2346</v>
       </c>
-      <c r="AW16" s="10" t="n">
+      <c r="AW16" s="2" t="n">
         <v>344986062.936315</v>
       </c>
-      <c r="AX16" s="10"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5288,89 +5531,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>2177553562.38019</v>
       </c>
-      <c r="AA17" s="10" t="n">
+      <c r="AA17" s="2" t="n">
         <v>2076135975.04638</v>
       </c>
-      <c r="AB17" s="10" t="n">
+      <c r="AB17" s="2" t="n">
         <v>2532629918.90535</v>
       </c>
-      <c r="AC17" s="10" t="n">
+      <c r="AC17" s="2" t="n">
         <v>3305101185.05982</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AD17" s="2" t="n">
         <v>2063294049.748</v>
       </c>
-      <c r="AE17" s="10" t="n">
+      <c r="AE17" s="2" t="n">
         <v>2115452137.5028</v>
       </c>
-      <c r="AF17" s="10" t="n">
+      <c r="AF17" s="2" t="n">
         <v>2458753330.05121</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AG17" s="2" t="n">
         <v>2972983462.91527</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AH17" s="2" t="n">
         <v>2663630260.61667</v>
       </c>
-      <c r="AI17" s="10" t="n">
+      <c r="AI17" s="2" t="n">
         <v>1464773203.87297</v>
       </c>
-      <c r="AJ17" s="10" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>1646344102.30871</v>
       </c>
-      <c r="AK17" s="10" t="n">
+      <c r="AK17" s="2" t="n">
         <v>1608142949.96572</v>
       </c>
-      <c r="AL17" s="10" t="n">
+      <c r="AL17" s="2" t="n">
         <v>2040985183.71215</v>
       </c>
-      <c r="AM17" s="10" t="n">
+      <c r="AM17" s="2" t="n">
         <v>2667186804.88345</v>
       </c>
-      <c r="AN17" s="10" t="n">
+      <c r="AN17" s="2" t="n">
         <v>2974870414.72704</v>
       </c>
-      <c r="AO17" s="10" t="n">
+      <c r="AO17" s="2" t="n">
         <v>3721735564.42495</v>
       </c>
-      <c r="AP17" s="10" t="n">
+      <c r="AP17" s="2" t="n">
         <v>3957374954.06041</v>
       </c>
-      <c r="AQ17" s="10" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>4747771309.12359</v>
       </c>
-      <c r="AR17" s="10" t="n">
+      <c r="AR17" s="2" t="n">
         <v>6379590627.61693</v>
       </c>
-      <c r="AS17" s="10" t="n">
+      <c r="AS17" s="2" t="n">
         <v>8564281480.53607</v>
       </c>
-      <c r="AT17" s="10" t="n">
+      <c r="AT17" s="2" t="n">
         <v>8031009461.44617</v>
       </c>
-      <c r="AU17" s="10" t="n">
+      <c r="AU17" s="2" t="n">
         <v>6881713878.30786</v>
       </c>
-      <c r="AV17" s="10" t="n">
+      <c r="AV17" s="2" t="n">
         <v>4852503484.7871</v>
       </c>
-      <c r="AW17" s="10" t="n">
+      <c r="AW17" s="2" t="n">
         <v>2824030851.64965</v>
       </c>
-      <c r="AX17" s="10"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5388,89 +5631,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>4517463247.23092</v>
       </c>
-      <c r="AA18" s="10" t="n">
+      <c r="AA18" s="2" t="n">
         <v>4410874348.15774</v>
       </c>
-      <c r="AB18" s="10" t="n">
+      <c r="AB18" s="2" t="n">
         <v>5097783125.55595</v>
       </c>
-      <c r="AC18" s="10" t="n">
+      <c r="AC18" s="2" t="n">
         <v>5870453926.09907</v>
       </c>
-      <c r="AD18" s="10" t="n">
+      <c r="AD18" s="2" t="n">
         <v>4530840604.13229</v>
       </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AE18" s="2" t="n">
         <v>4330831907.34261</v>
       </c>
-      <c r="AF18" s="10" t="n">
+      <c r="AF18" s="2" t="n">
         <v>3899509449.33909</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AG18" s="2" t="n">
         <v>4810832123.79002</v>
       </c>
-      <c r="AH18" s="10" t="n">
+      <c r="AH18" s="2" t="n">
         <v>3032659604.19968</v>
       </c>
-      <c r="AI18" s="10" t="n">
+      <c r="AI18" s="2" t="n">
         <v>2744168181.67794</v>
       </c>
-      <c r="AJ18" s="10" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>2982033126.10064</v>
       </c>
-      <c r="AK18" s="10" t="n">
+      <c r="AK18" s="2" t="n">
         <v>2826286702.80983</v>
       </c>
-      <c r="AL18" s="10" t="n">
+      <c r="AL18" s="2" t="n">
         <v>2935299182.41849</v>
       </c>
-      <c r="AM18" s="10" t="n">
+      <c r="AM18" s="2" t="n">
         <v>2537641743.85576</v>
       </c>
-      <c r="AN18" s="10" t="n">
+      <c r="AN18" s="2" t="n">
         <v>3017928370.11919</v>
       </c>
-      <c r="AO18" s="10" t="n">
+      <c r="AO18" s="2" t="n">
         <v>3030608182.72222</v>
       </c>
-      <c r="AP18" s="10" t="n">
+      <c r="AP18" s="2" t="n">
         <v>3140988005.13966</v>
       </c>
-      <c r="AQ18" s="10" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>3072985556.69128</v>
       </c>
-      <c r="AR18" s="10" t="n">
+      <c r="AR18" s="2" t="n">
         <v>3717683487.16748</v>
       </c>
-      <c r="AS18" s="10" t="n">
+      <c r="AS18" s="2" t="n">
         <v>3600042984.46988</v>
       </c>
-      <c r="AT18" s="10" t="n">
+      <c r="AT18" s="2" t="n">
         <v>3535733795.62998</v>
       </c>
-      <c r="AU18" s="10" t="n">
+      <c r="AU18" s="2" t="n">
         <v>3247814136.27061</v>
       </c>
-      <c r="AV18" s="10" t="n">
+      <c r="AV18" s="2" t="n">
         <v>2823137497.5384</v>
       </c>
-      <c r="AW18" s="10" t="n">
+      <c r="AW18" s="2" t="n">
         <v>1588798148.75546</v>
       </c>
-      <c r="AX18" s="10"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5488,89 +5731,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>363758229.781598</v>
       </c>
-      <c r="AA19" s="10" t="n">
+      <c r="AA19" s="2" t="n">
         <v>706225085.089432</v>
       </c>
-      <c r="AB19" s="10" t="n">
+      <c r="AB19" s="2" t="n">
         <v>383320446.796907</v>
       </c>
-      <c r="AC19" s="10" t="n">
+      <c r="AC19" s="2" t="n">
         <v>1150808893.6941</v>
       </c>
-      <c r="AD19" s="10" t="n">
+      <c r="AD19" s="2" t="n">
         <v>2401748121.40658</v>
       </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AE19" s="2" t="n">
         <v>2416191342.27193</v>
       </c>
-      <c r="AF19" s="10" t="n">
+      <c r="AF19" s="2" t="n">
         <v>1203082678.6786</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="2" t="n">
         <v>988420630.561856</v>
       </c>
-      <c r="AH19" s="10" t="n">
+      <c r="AH19" s="2" t="n">
         <v>868701767.032243</v>
       </c>
-      <c r="AI19" s="10" t="n">
+      <c r="AI19" s="2" t="n">
         <v>922697283.392591</v>
       </c>
-      <c r="AJ19" s="10" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>2272362559.34198</v>
       </c>
-      <c r="AK19" s="10" t="n">
+      <c r="AK19" s="2" t="n">
         <v>1610610807.48174</v>
       </c>
-      <c r="AL19" s="10" t="n">
+      <c r="AL19" s="2" t="n">
         <v>1620913163.66615</v>
       </c>
-      <c r="AM19" s="10" t="n">
+      <c r="AM19" s="2" t="n">
         <v>440534838.180179</v>
       </c>
-      <c r="AN19" s="10" t="n">
+      <c r="AN19" s="2" t="n">
         <v>418610042.360037</v>
       </c>
-      <c r="AO19" s="10" t="n">
+      <c r="AO19" s="2" t="n">
         <v>185982809.500676</v>
       </c>
-      <c r="AP19" s="10" t="n">
+      <c r="AP19" s="2" t="n">
         <v>2757068666.71692</v>
       </c>
-      <c r="AQ19" s="10" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>2237359634.16357</v>
       </c>
-      <c r="AR19" s="10" t="n">
+      <c r="AR19" s="2" t="n">
         <v>3186142187.78018</v>
       </c>
-      <c r="AS19" s="10" t="n">
+      <c r="AS19" s="2" t="n">
         <v>2220068967.79125</v>
       </c>
-      <c r="AT19" s="10" t="n">
+      <c r="AT19" s="2" t="n">
         <v>2098532865.48364</v>
       </c>
-      <c r="AU19" s="10" t="n">
+      <c r="AU19" s="2" t="n">
         <v>1823978885.99899</v>
       </c>
-      <c r="AV19" s="10" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1573458292.8082</v>
       </c>
-      <c r="AW19" s="10" t="n">
+      <c r="AW19" s="2" t="n">
         <v>2482116859.82116</v>
       </c>
-      <c r="AX19" s="10"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5588,73 +5831,73 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2" t="n">
         <v>37226.7306807989</v>
       </c>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10" t="n">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="10" t="n">
+      <c r="AF20" s="2" t="n">
         <v>46881250.2960113</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AG20" s="2" t="n">
         <v>670687933.970783</v>
       </c>
-      <c r="AH20" s="10" t="n">
+      <c r="AH20" s="2" t="n">
         <v>828561713.891756</v>
       </c>
-      <c r="AI20" s="10" t="n">
+      <c r="AI20" s="2" t="n">
         <v>1902747124.14511</v>
       </c>
-      <c r="AJ20" s="10" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>1574747.70295392</v>
       </c>
-      <c r="AK20" s="10" t="n">
+      <c r="AK20" s="2" t="n">
         <v>-810076.681611031</v>
       </c>
-      <c r="AL20" s="10" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-745425.350839343</v>
       </c>
-      <c r="AM20" s="10" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-1321050.40499554</v>
       </c>
-      <c r="AN20" s="10" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-1294075.60616399</v>
       </c>
-      <c r="AO20" s="10" t="n">
+      <c r="AO20" s="2" t="n">
         <v>-302.260786903046</v>
       </c>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10" t="n">
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS20" s="10" t="n">
+      <c r="AS20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT20" s="10" t="n">
+      <c r="AT20" s="2" t="n">
         <v>71895.7313879013</v>
       </c>
-      <c r="AU20" s="10" t="n">
+      <c r="AU20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5670,109 +5913,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="2" t="n">
         <v>22521272714.3281</v>
       </c>
-      <c r="Q21" s="10" t="n">
+      <c r="Q21" s="2" t="n">
         <v>28467781065.6707</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="2" t="n">
         <v>25209506559.7903</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="2" t="n">
         <v>20443265377.5613</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="2" t="n">
         <v>15276697121.4962</v>
       </c>
-      <c r="U21" s="10" t="n">
+      <c r="U21" s="2" t="n">
         <v>14978464116.9066</v>
       </c>
-      <c r="V21" s="10" t="n">
+      <c r="V21" s="2" t="n">
         <v>15173276336.5228</v>
       </c>
-      <c r="W21" s="10" t="n">
+      <c r="W21" s="2" t="n">
         <v>13581379410.9445</v>
       </c>
-      <c r="X21" s="10" t="n">
+      <c r="X21" s="2" t="n">
         <v>14412955191.7781</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="2" t="n">
         <v>15111299548.3172</v>
       </c>
-      <c r="Z21" s="10" t="n">
+      <c r="Z21" s="2" t="n">
         <v>1362504494.19353</v>
       </c>
-      <c r="AA21" s="10" t="n">
+      <c r="AA21" s="2" t="n">
         <v>25673653.3142334</v>
       </c>
-      <c r="AB21" s="10" t="n">
+      <c r="AB21" s="2" t="n">
         <v>55685384.2978664</v>
       </c>
-      <c r="AC21" s="10" t="n">
+      <c r="AC21" s="2" t="n">
         <v>58948031.1271165</v>
       </c>
-      <c r="AD21" s="10" t="n">
+      <c r="AD21" s="2" t="n">
         <v>107042502.118728</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="2" t="n">
         <v>349944821.279467</v>
       </c>
-      <c r="AF21" s="10" t="n">
+      <c r="AF21" s="2" t="n">
         <v>129723877.651182</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="2" t="n">
         <v>3316558.58196647</v>
       </c>
-      <c r="AH21" s="10" t="n">
+      <c r="AH21" s="2" t="n">
         <v>265923095.426823</v>
       </c>
-      <c r="AI21" s="10" t="n">
+      <c r="AI21" s="2" t="n">
         <v>173451158.558442</v>
       </c>
-      <c r="AJ21" s="10" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>1554207.41385546</v>
       </c>
-      <c r="AK21" s="10" t="n">
+      <c r="AK21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" s="10" t="n">
+      <c r="AL21" s="2" t="n">
         <v>13457508.8817547</v>
       </c>
-      <c r="AM21" s="10" t="n">
+      <c r="AM21" s="2" t="n">
         <v>419478.110389966</v>
       </c>
-      <c r="AN21" s="10" t="n">
+      <c r="AN21" s="2" t="n">
         <v>14605596.0064904</v>
       </c>
-      <c r="AO21" s="10" t="n">
+      <c r="AO21" s="2" t="n">
         <v>3888613.32447303</v>
       </c>
-      <c r="AP21" s="10" t="n">
+      <c r="AP21" s="2" t="n">
         <v>405715.7237145</v>
       </c>
-      <c r="AQ21" s="10" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>38581053.4621738</v>
       </c>
-      <c r="AR21" s="10" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="10" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="10" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="10" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="10" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="10" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="10"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5781,41 +6024,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Greg\Repositories\Vendor\Output\AcqTrends\Platform\Ordnance_and_Missiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755E0B7-435C-4873-A710-3E4909172BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B4E39-7EF7-4806-8646-5D134B594E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,8 +992,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1035,11 +1036,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9602,7 +9605,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10678,15 +10681,15 @@
         <f t="shared" si="2"/>
         <v>AMRAAM</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <f t="shared" si="3"/>
         <v>1373740839.41664</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <f t="shared" si="4"/>
         <v>1473439671.3803999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <f t="shared" si="5"/>
         <v>1189368825.4702001</v>
       </c>
@@ -10797,15 +10800,15 @@
         <f t="shared" si="2"/>
         <v>BGM-109 TOMAHAWK</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10882,19 +10885,19 @@
         <f t="shared" si="2"/>
         <v>GMLRS</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <f t="shared" si="3"/>
         <v>110377116.851156</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <f t="shared" si="4"/>
         <v>1810181640.9732499</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <f t="shared" si="5"/>
         <v>1267113243.3921001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <f t="shared" si="6"/>
         <v>2182425659.69138</v>
       </c>
@@ -10998,15 +11001,15 @@
         <f t="shared" si="2"/>
         <v>JASSM</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <f t="shared" si="3"/>
         <v>100824090.085522</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <f t="shared" si="4"/>
         <v>1157018668.5292699</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <f t="shared" si="5"/>
         <v>980912151.5704</v>
       </c>
@@ -11109,15 +11112,15 @@
         <f t="shared" si="2"/>
         <v>JDAM</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <f t="shared" si="3"/>
         <v>320101497.03950399</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <f t="shared" si="4"/>
         <v>466465647.229366</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <f t="shared" si="5"/>
         <v>283583798.29640001</v>
       </c>
@@ -11220,15 +11223,15 @@
         <f t="shared" si="2"/>
         <v>Other Labeled Project</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <f t="shared" si="3"/>
         <v>2116241367.48086</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <f t="shared" si="4"/>
         <v>1561002770.95123</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <f t="shared" si="5"/>
         <v>1021941736.6932</v>
       </c>
@@ -11339,15 +11342,15 @@
         <f t="shared" si="2"/>
         <v>TACTICAL TOMAHAWK</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <f t="shared" si="3"/>
         <v>371288883.32419902</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <f t="shared" si="4"/>
         <v>525719026.80893898</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <f t="shared" si="5"/>
         <v>596305484.42850006</v>
       </c>
@@ -11450,15 +11453,15 @@
         <f t="shared" si="2"/>
         <v>TRIDENT II MISSILE</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <f t="shared" si="3"/>
         <v>2712629575.7695298</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f t="shared" si="4"/>
         <v>3127387813.9230599</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="5"/>
         <v>2517048390.0236001</v>
       </c>
@@ -11569,15 +11572,15 @@
         <f t="shared" si="2"/>
         <v>UGM-96 TRIDENT</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <f t="shared" si="3"/>
         <v>-832231.36047205899</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -11686,15 +11689,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <f t="shared" si="3"/>
         <v>8789336728.2479706</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <f t="shared" si="4"/>
         <v>13372035247.6985</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <f t="shared" si="5"/>
         <v>12623676860.4419</v>
       </c>
@@ -11802,15 +11805,15 @@
         <f t="shared" si="2"/>
         <v>Grand Total</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <f t="shared" si="3"/>
         <v>15893707866.85491</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <f t="shared" si="4"/>
         <v>23493250487.494015</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <f t="shared" si="5"/>
         <v>20479950490.316299</v>
       </c>
@@ -11954,7 +11957,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23:D23"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13232,19 +13235,19 @@
         <v>AMMUNITION, THROUGH
 30 MM</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <f t="shared" si="3"/>
         <v>796854869.84024405</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <f t="shared" si="4"/>
         <v>712674777.29412603</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <f t="shared" si="5"/>
         <v>723887533.99829996</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <f t="shared" si="6"/>
         <v>135084306.01576</v>
       </c>
@@ -13351,19 +13354,19 @@
         <f t="shared" si="2"/>
         <v>BOMBS</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <f t="shared" si="3"/>
         <v>738054640.06627202</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <f t="shared" si="4"/>
         <v>1939773496.18558</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <f t="shared" si="5"/>
         <v>1273626107.9995</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <f t="shared" si="6"/>
         <v>1037613049.13472</v>
       </c>
@@ -13471,19 +13474,19 @@
         <v>GUIDED MISSILE
 COMPONENTS</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <f t="shared" si="3"/>
         <v>1214251045.94874</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <f t="shared" si="4"/>
         <v>1686361042.60357</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <f t="shared" si="5"/>
         <v>1503699709.4323001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="5">
         <f t="shared" si="6"/>
         <v>1064751511.2828</v>
       </c>
@@ -13591,19 +13594,19 @@
         <v>GUIDED MISSILE
 SUBSYSTEMS</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <f t="shared" si="3"/>
         <v>876249178.76871705</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <f t="shared" si="4"/>
         <v>698701308.63821304</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <f t="shared" si="5"/>
         <v>1027089280.2831</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="5">
         <f t="shared" si="6"/>
         <v>301920671.15798903</v>
       </c>
@@ -13711,19 +13714,19 @@
         <v>GUIDED MISSILE
 SYSTEMS, COMPLETE</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <f t="shared" si="3"/>
         <v>236909652.298094</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <f t="shared" si="4"/>
         <v>1870990141.3524001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <f t="shared" si="5"/>
         <v>1672750360.2051001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
         <f t="shared" si="6"/>
         <v>1950770296.01597</v>
       </c>
@@ -13830,19 +13833,19 @@
         <f t="shared" si="2"/>
         <v>GUIDED MISSILES</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <f t="shared" si="3"/>
         <v>4587694143.6237297</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f t="shared" si="4"/>
         <v>6557652134.2112103</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="5"/>
         <v>5058661429.5676003</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
         <f t="shared" si="6"/>
         <v>4611965192.0318699</v>
       </c>
@@ -13949,19 +13952,19 @@
         <f t="shared" si="2"/>
         <v>GUNS, THROUGH 30 MM</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <f t="shared" si="3"/>
         <v>329763749.764992</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <f t="shared" si="4"/>
         <v>320391417.08895397</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <f t="shared" si="5"/>
         <v>449297694.79259998</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <f t="shared" si="6"/>
         <v>164595881.79418001</v>
       </c>
@@ -14069,19 +14072,19 @@
         <v>LAUNCHERS, GUIDED
 MISSILE</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <f t="shared" si="3"/>
         <v>597714290.22491097</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <f t="shared" si="4"/>
         <v>702942435.149333</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <f t="shared" si="5"/>
         <v>349836741.59320003</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="5">
         <f t="shared" si="6"/>
         <v>1129768986.30878</v>
       </c>
@@ -14189,19 +14192,19 @@
         <v>MISCELLANEOUS
 WEAPONS</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <f t="shared" si="3"/>
         <v>626111909.35423505</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <f t="shared" si="4"/>
         <v>396402593.72911</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <f t="shared" si="5"/>
         <v>519969539.8337</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <f t="shared" si="6"/>
         <v>355869798.43852901</v>
       </c>
@@ -14308,19 +14311,19 @@
         <f t="shared" si="2"/>
         <v>Other Labeled PSC</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <f t="shared" si="3"/>
         <v>5548318782.18328</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <f t="shared" si="4"/>
         <v>8079801803.3554497</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <f t="shared" si="5"/>
         <v>7397840950.1160002</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <f t="shared" si="6"/>
         <v>6428770764.6521196</v>
       </c>
@@ -14429,19 +14432,19 @@
 SVCS/GUIDED
 MISSILES</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <f t="shared" si="3"/>
         <v>341785604.78168601</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <f t="shared" si="4"/>
         <v>527559337.88604301</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <f t="shared" si="5"/>
         <v>503291142.49489999</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <f t="shared" si="6"/>
         <v>247861303.130622</v>
       </c>
@@ -14548,19 +14551,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -14622,19 +14625,19 @@
         <f t="shared" si="2"/>
         <v>Grand Total</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <f t="shared" si="3"/>
         <v>15893707866.854902</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <f t="shared" si="4"/>
         <v>23493250487.493992</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <f t="shared" si="5"/>
         <v>20479950490.316303</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
         <f t="shared" si="6"/>
         <v>17428971759.963341</v>
       </c>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -1109,10 +1109,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0,,,&quot;B&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1154,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1162,6 +1163,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2794,106 +2796,106 @@
       <c r="K2" t="s">
         <v>347</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <v>3928427000</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <v>3880817932</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="7" t="n">
         <v>4189728212</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>3193849879</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <v>2712126020</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="7" t="n">
         <v>2832930616</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="7" t="n">
         <v>3007183405</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="7" t="n">
         <v>3702777562</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="7" t="n">
         <v>4711606539</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="7" t="n">
         <v>5409460014</v>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="V2" s="7" t="n">
         <v>5060678585.375</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="W2" s="7" t="n">
         <v>5182316294.2188</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="7" t="n">
         <v>7371743686.3125</v>
       </c>
-      <c r="Y2" s="6" t="n">
+      <c r="Y2" s="7" t="n">
         <v>9187448984.25</v>
       </c>
-      <c r="Z2" s="6" t="n">
+      <c r="Z2" s="7" t="n">
         <v>8891101399.0391</v>
       </c>
-      <c r="AA2" s="6" t="n">
+      <c r="AA2" s="7" t="n">
         <v>8429949379.3565</v>
       </c>
-      <c r="AB2" s="6" t="n">
+      <c r="AB2" s="7" t="n">
         <v>9293006714.9361</v>
       </c>
-      <c r="AC2" s="6" t="n">
+      <c r="AC2" s="7" t="n">
         <v>10277447067.992</v>
       </c>
-      <c r="AD2" s="6" t="n">
+      <c r="AD2" s="7" t="n">
         <v>10582674622.4702</v>
       </c>
-      <c r="AE2" s="6" t="n">
+      <c r="AE2" s="7" t="n">
         <v>10224136516.3421</v>
       </c>
-      <c r="AF2" s="6" t="n">
+      <c r="AF2" s="7" t="n">
         <v>9700490148.777</v>
       </c>
-      <c r="AG2" s="6" t="n">
+      <c r="AG2" s="7" t="n">
         <v>8442849041.1724</v>
       </c>
-      <c r="AH2" s="6" t="n">
+      <c r="AH2" s="7" t="n">
         <v>9075204540.5251</v>
       </c>
-      <c r="AI2" s="6" t="n">
+      <c r="AI2" s="7" t="n">
         <v>8147831143.9527</v>
       </c>
-      <c r="AJ2" s="6" t="n">
+      <c r="AJ2" s="7" t="n">
         <v>7740477811.4253</v>
       </c>
-      <c r="AK2" s="6" t="n">
+      <c r="AK2" s="7" t="n">
         <v>8454934115.0982</v>
       </c>
-      <c r="AL2" s="6" t="n">
+      <c r="AL2" s="7" t="n">
         <v>10989490727.1027</v>
       </c>
-      <c r="AM2" s="6" t="n">
+      <c r="AM2" s="7" t="n">
         <v>11148978640.6116</v>
       </c>
-      <c r="AN2" s="6" t="n">
+      <c r="AN2" s="7" t="n">
         <v>14026158606.0369</v>
       </c>
-      <c r="AO2" s="6" t="n">
+      <c r="AO2" s="7" t="n">
         <v>16349835579.8639</v>
       </c>
-      <c r="AP2" s="6" t="n">
+      <c r="AP2" s="7" t="n">
         <v>16934051335.8886</v>
       </c>
-      <c r="AQ2" s="6" t="n">
+      <c r="AQ2" s="7" t="n">
         <v>15558424176.1807</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2902,106 +2904,106 @@
       <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <v>4585820000</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <v>5253860838</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="7" t="n">
         <v>4465039299</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>4214735031</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="7" t="n">
         <v>3111640076</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="7" t="n">
         <v>3018202339</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="R3" s="7" t="n">
         <v>2879990051</v>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="7" t="n">
         <v>2010192718</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="T3" s="7" t="n">
         <v>1388231382</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="7" t="n">
         <v>1361309097</v>
       </c>
-      <c r="V3" s="6" t="n">
+      <c r="V3" s="7" t="n">
         <v>2279425395</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="7" t="n">
         <v>2084108106</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="X3" s="7" t="n">
         <v>2490929070</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="7" t="n">
         <v>1798274587.9102</v>
       </c>
-      <c r="Z3" s="6" t="n">
+      <c r="Z3" s="7" t="n">
         <v>2313146109</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="7" t="n">
         <v>2591889203</v>
       </c>
-      <c r="AB3" s="6" t="n">
+      <c r="AB3" s="7" t="n">
         <v>2183931454.8658</v>
       </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="7" t="n">
         <v>2816007293.474</v>
       </c>
-      <c r="AD3" s="6" t="n">
+      <c r="AD3" s="7" t="n">
         <v>3515236125.6688</v>
       </c>
-      <c r="AE3" s="6" t="n">
+      <c r="AE3" s="7" t="n">
         <v>2859056161.6979</v>
       </c>
-      <c r="AF3" s="6" t="n">
+      <c r="AF3" s="7" t="n">
         <v>2756817052.7581</v>
       </c>
-      <c r="AG3" s="6" t="n">
+      <c r="AG3" s="7" t="n">
         <v>3017895520.2508</v>
       </c>
-      <c r="AH3" s="6" t="n">
+      <c r="AH3" s="7" t="n">
         <v>2662324808.3055</v>
       </c>
-      <c r="AI3" s="6" t="n">
+      <c r="AI3" s="7" t="n">
         <v>2368756707.4425</v>
       </c>
-      <c r="AJ3" s="6" t="n">
+      <c r="AJ3" s="7" t="n">
         <v>2176977172.891</v>
       </c>
-      <c r="AK3" s="6" t="n">
+      <c r="AK3" s="7" t="n">
         <v>2112478920.8437</v>
       </c>
-      <c r="AL3" s="6" t="n">
+      <c r="AL3" s="7" t="n">
         <v>2363869167.2898</v>
       </c>
-      <c r="AM3" s="6" t="n">
+      <c r="AM3" s="7" t="n">
         <v>3348920052.5188</v>
       </c>
-      <c r="AN3" s="6" t="n">
+      <c r="AN3" s="7" t="n">
         <v>3296321707.7258</v>
       </c>
-      <c r="AO3" s="6" t="n">
+      <c r="AO3" s="7" t="n">
         <v>1993707012.5916</v>
       </c>
-      <c r="AP3" s="6" t="n">
+      <c r="AP3" s="7" t="n">
         <v>2340120099.1963</v>
       </c>
-      <c r="AQ3" s="6" t="n">
+      <c r="AQ3" s="7" t="n">
         <v>1838821926.1049</v>
       </c>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3010,110 +3012,110 @@
       <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <v>1884246000</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="7" t="n">
         <v>4687641024</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="7" t="n">
         <v>3901835307</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>2925317493</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="7" t="n">
         <v>2154202459</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="7" t="n">
         <v>2138489732</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="R4" s="7" t="n">
         <v>2164606365</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="7" t="n">
         <v>1850340632</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="7" t="n">
         <v>2077517407</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="U4" s="7" t="n">
         <v>1883587254</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="V4" s="7" t="n">
         <v>839083699.9</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="W4" s="7" t="n">
         <v>1246341175.9395</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="X4" s="7" t="n">
         <v>1776585132.6484</v>
       </c>
-      <c r="Y4" s="6" t="n">
+      <c r="Y4" s="7" t="n">
         <v>1757923016.7803</v>
       </c>
-      <c r="Z4" s="6" t="n">
+      <c r="Z4" s="7" t="n">
         <v>1719613875.2305</v>
       </c>
-      <c r="AA4" s="6" t="n">
+      <c r="AA4" s="7" t="n">
         <v>2140226704.1423</v>
       </c>
-      <c r="AB4" s="6" t="n">
+      <c r="AB4" s="7" t="n">
         <v>1934182131.8494</v>
       </c>
-      <c r="AC4" s="6" t="n">
+      <c r="AC4" s="7" t="n">
         <v>2822049598.9794</v>
       </c>
-      <c r="AD4" s="6" t="n">
+      <c r="AD4" s="7" t="n">
         <v>3116685997.6243</v>
       </c>
-      <c r="AE4" s="6" t="n">
+      <c r="AE4" s="7" t="n">
         <v>2803657625.4453</v>
       </c>
-      <c r="AF4" s="6" t="n">
+      <c r="AF4" s="7" t="n">
         <v>2600394622.4069</v>
       </c>
-      <c r="AG4" s="6" t="n">
+      <c r="AG4" s="7" t="n">
         <v>2565633844.2452</v>
       </c>
-      <c r="AH4" s="6" t="n">
+      <c r="AH4" s="7" t="n">
         <v>2608726763.9021</v>
       </c>
-      <c r="AI4" s="6" t="n">
+      <c r="AI4" s="7" t="n">
         <v>1670148088.7178</v>
       </c>
-      <c r="AJ4" s="6" t="n">
+      <c r="AJ4" s="7" t="n">
         <v>1763568436.3835</v>
       </c>
-      <c r="AK4" s="6" t="n">
+      <c r="AK4" s="7" t="n">
         <v>1851844581.9546</v>
       </c>
-      <c r="AL4" s="6" t="n">
+      <c r="AL4" s="7" t="n">
         <v>1810666984.0447</v>
       </c>
-      <c r="AM4" s="6" t="n">
+      <c r="AM4" s="7" t="n">
         <v>2456588673.797</v>
       </c>
-      <c r="AN4" s="6" t="n">
+      <c r="AN4" s="7" t="n">
         <v>2991254851.429</v>
       </c>
-      <c r="AO4" s="6" t="n">
+      <c r="AO4" s="7" t="n">
         <v>3296824556.0388</v>
       </c>
-      <c r="AP4" s="6" t="n">
+      <c r="AP4" s="7" t="n">
         <v>3373225814.3896</v>
       </c>
-      <c r="AQ4" s="6" t="n">
+      <c r="AQ4" s="7" t="n">
         <v>3153342978.1056</v>
       </c>
-      <c r="AR4" s="6" t="n">
+      <c r="AR4" s="7" t="n">
         <v>18840618496.3263</v>
       </c>
-      <c r="AS4" s="6" t="n">
+      <c r="AS4" s="7" t="n">
         <v>13933969675.3196</v>
       </c>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3122,110 +3124,110 @@
       <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <v>331519000</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>734543981</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>741372384</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>662424812</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>445666759</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>465344299</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="7" t="n">
         <v>585430387</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="7" t="n">
         <v>465319283</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="7" t="n">
         <v>447456690</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="7" t="n">
         <v>502898479</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="7" t="n">
         <v>502214556</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="7" t="n">
         <v>607955501.24</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="7" t="n">
         <v>718608344.8359</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="7" t="n">
         <v>824160484.1094</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="7" t="n">
         <v>1169334177.8906</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="7" t="n">
         <v>1676204742.6789</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="7" t="n">
         <v>1614361575.6069</v>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="7" t="n">
         <v>2030563759.946</v>
       </c>
-      <c r="AD5" s="6" t="n">
+      <c r="AD5" s="7" t="n">
         <v>1989814176.1506</v>
       </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="7" t="n">
         <v>1935767020.7658</v>
       </c>
-      <c r="AF5" s="6" t="n">
+      <c r="AF5" s="7" t="n">
         <v>1573529044.4037</v>
       </c>
-      <c r="AG5" s="6" t="n">
+      <c r="AG5" s="7" t="n">
         <v>1272263116.0617</v>
       </c>
-      <c r="AH5" s="6" t="n">
+      <c r="AH5" s="7" t="n">
         <v>1306791361.9686</v>
       </c>
-      <c r="AI5" s="6" t="n">
+      <c r="AI5" s="7" t="n">
         <v>842499427.8217</v>
       </c>
-      <c r="AJ5" s="6" t="n">
+      <c r="AJ5" s="7" t="n">
         <v>899154855.6525</v>
       </c>
-      <c r="AK5" s="6" t="n">
+      <c r="AK5" s="7" t="n">
         <v>827739777.4789</v>
       </c>
-      <c r="AL5" s="6" t="n">
+      <c r="AL5" s="7" t="n">
         <v>1312506665.2578</v>
       </c>
-      <c r="AM5" s="6" t="n">
+      <c r="AM5" s="7" t="n">
         <v>1089618122.1955</v>
       </c>
-      <c r="AN5" s="6" t="n">
+      <c r="AN5" s="7" t="n">
         <v>1358328612.8838</v>
       </c>
-      <c r="AO5" s="6" t="n">
+      <c r="AO5" s="7" t="n">
         <v>1504037741.9543</v>
       </c>
-      <c r="AP5" s="6" t="n">
+      <c r="AP5" s="7" t="n">
         <v>1215603452.0156</v>
       </c>
-      <c r="AQ5" s="6" t="n">
+      <c r="AQ5" s="7" t="n">
         <v>1420088474.7177</v>
       </c>
-      <c r="AR5" s="6" t="n">
+      <c r="AR5" s="7" t="n">
         <v>1639331993.99</v>
       </c>
-      <c r="AS5" s="6" t="n">
+      <c r="AS5" s="7" t="n">
         <v>1224817501.1752</v>
       </c>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3234,104 +3236,104 @@
       <c r="K6" t="s">
         <v>351</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="7" t="n">
         <v>601266000</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="7" t="n">
         <v>277217000</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="7" t="n">
         <v>166579811</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <v>179043130</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="7" t="n">
         <v>109382045</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="7" t="n">
         <v>88692807</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="7" t="n">
         <v>180230924</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="7" t="n">
         <v>3936620</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="7" t="n">
         <v>6022185</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="7" t="n">
         <v>4562991</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6" t="n">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7" t="n">
         <v>52407</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="7" t="n">
         <v>1153946.5625</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Y6" s="7" t="n">
         <v>29105</v>
       </c>
-      <c r="Z6" s="6" t="n">
+      <c r="Z6" s="7" t="n">
         <v>297028</v>
       </c>
-      <c r="AA6" s="6" t="n">
+      <c r="AA6" s="7" t="n">
         <v>366189</v>
       </c>
-      <c r="AB6" s="6" t="n">
+      <c r="AB6" s="7" t="n">
         <v>313582</v>
       </c>
-      <c r="AC6" s="6" t="n">
+      <c r="AC6" s="7" t="n">
         <v>596459.9488</v>
       </c>
-      <c r="AD6" s="6" t="n">
+      <c r="AD6" s="7" t="n">
         <v>1636880</v>
       </c>
-      <c r="AE6" s="6" t="n">
+      <c r="AE6" s="7" t="n">
         <v>92923616.6167</v>
       </c>
-      <c r="AF6" s="6" t="n">
+      <c r="AF6" s="7" t="n">
         <v>55664724.7773</v>
       </c>
-      <c r="AG6" s="6" t="n">
+      <c r="AG6" s="7" t="n">
         <v>127480528.279</v>
       </c>
-      <c r="AH6" s="6" t="n">
+      <c r="AH6" s="7" t="n">
         <v>26886703.2535</v>
       </c>
-      <c r="AI6" s="6" t="n">
+      <c r="AI6" s="7" t="n">
         <v>11377229.61</v>
       </c>
-      <c r="AJ6" s="6" t="n">
+      <c r="AJ6" s="7" t="n">
         <v>-2075005.9</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AK6" s="7" t="n">
         <v>3859334.9492</v>
       </c>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="7" t="n">
         <v>-484430.8467</v>
       </c>
-      <c r="AM6" s="6" t="n">
+      <c r="AM6" s="7" t="n">
         <v>607112.4199</v>
       </c>
-      <c r="AN6" s="6" t="n">
+      <c r="AN6" s="7" t="n">
         <v>42603.4709</v>
       </c>
-      <c r="AO6" s="6" t="n">
+      <c r="AO6" s="7" t="n">
         <v>209909.9131</v>
       </c>
-      <c r="AP6" s="6" t="n">
+      <c r="AP6" s="7" t="n">
         <v>635078.6699</v>
       </c>
-      <c r="AQ6" s="6" t="n">
+      <c r="AQ6" s="7" t="n">
         <v>259542.6485</v>
       </c>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3340,110 +3342,110 @@
       <c r="K7" t="s">
         <v>352</v>
       </c>
-      <c r="L7" s="6" t="str">
+      <c r="L7" s="7" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="6" t="str">
+      <c r="M7" s="7" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="6" t="str">
+      <c r="N7" s="7" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="6" t="str">
+      <c r="O7" s="7" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="6" t="str">
+      <c r="P7" s="7" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="6" t="str">
+      <c r="Q7" s="7" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="6" t="str">
+      <c r="R7" s="7" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="6" t="str">
+      <c r="S7" s="7" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="6" t="str">
+      <c r="T7" s="7" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="6" t="str">
+      <c r="U7" s="7" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="6" t="str">
+      <c r="V7" s="7" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="6" t="str">
+      <c r="W7" s="7" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="6" t="str">
+      <c r="X7" s="7" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="6" t="str">
+      <c r="Y7" s="7" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="6" t="str">
+      <c r="Z7" s="7" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="6" t="str">
+      <c r="AA7" s="7" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="6" t="str">
+      <c r="AB7" s="7" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="6" t="str">
+      <c r="AC7" s="7" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="6" t="str">
+      <c r="AD7" s="7" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="6" t="str">
+      <c r="AE7" s="7" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="6" t="str">
+      <c r="AF7" s="7" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="6" t="str">
+      <c r="AG7" s="7" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="6" t="str">
+      <c r="AH7" s="7" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="6" t="str">
+      <c r="AI7" s="7" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="6" t="str">
+      <c r="AJ7" s="7" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="6" t="str">
+      <c r="AK7" s="7" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="6" t="str">
+      <c r="AL7" s="7" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="6" t="str">
+      <c r="AM7" s="7" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="6" t="str">
+      <c r="AN7" s="7" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="6" t="str">
+      <c r="AO7" s="7" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="6" t="str">
+      <c r="AP7" s="7" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="6" t="str">
+      <c r="AQ7" s="7" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="6" t="str">
+      <c r="AR7" s="7" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="6" t="str">
+      <c r="AS7" s="7" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3562,106 +3564,106 @@
       <c r="K11" t="s">
         <v>347</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="7" t="n">
         <v>7807872669.3785</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="7" t="n">
         <v>7447598332.48952</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="7" t="n">
         <v>7844372186.24571</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <v>5842555426.5145</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="7" t="n">
         <v>4855530701.47797</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="7" t="n">
         <v>4966601035.80064</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="7" t="n">
         <v>5174837474.45454</v>
       </c>
-      <c r="S11" s="6" t="n">
+      <c r="S11" s="7" t="n">
         <v>6260617322.21694</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="T11" s="7" t="n">
         <v>7868089263.52582</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="U11" s="7" t="n">
         <v>8922243613.48025</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="V11" s="7" t="n">
         <v>8176690462.61373</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="W11" s="7" t="n">
         <v>8174985485.347</v>
       </c>
-      <c r="X11" s="6" t="n">
+      <c r="X11" s="7" t="n">
         <v>11448066129.1625</v>
       </c>
-      <c r="Y11" s="6" t="n">
+      <c r="Y11" s="7" t="n">
         <v>14000186969.2494</v>
       </c>
-      <c r="Z11" s="6" t="n">
+      <c r="Z11" s="7" t="n">
         <v>13225329540.3192</v>
       </c>
-      <c r="AA11" s="6" t="n">
+      <c r="AA11" s="7" t="n">
         <v>12169936093.9486</v>
       </c>
-      <c r="AB11" s="6" t="n">
+      <c r="AB11" s="7" t="n">
         <v>12992875929.9543</v>
       </c>
-      <c r="AC11" s="6" t="n">
+      <c r="AC11" s="7" t="n">
         <v>13985724110.3352</v>
       </c>
-      <c r="AD11" s="6" t="n">
+      <c r="AD11" s="7" t="n">
         <v>14106872178.015</v>
       </c>
-      <c r="AE11" s="6" t="n">
+      <c r="AE11" s="7" t="n">
         <v>13491831837.9447</v>
       </c>
-      <c r="AF11" s="6" t="n">
+      <c r="AF11" s="7" t="n">
         <v>12690450072.2591</v>
       </c>
-      <c r="AG11" s="6" t="n">
+      <c r="AG11" s="7" t="n">
         <v>10826965165.6658</v>
       </c>
-      <c r="AH11" s="6" t="n">
+      <c r="AH11" s="7" t="n">
         <v>11428405075.7027</v>
       </c>
-      <c r="AI11" s="6" t="n">
+      <c r="AI11" s="7" t="n">
         <v>10076169846.8213</v>
       </c>
-      <c r="AJ11" s="6" t="n">
+      <c r="AJ11" s="7" t="n">
         <v>9390735751.39392</v>
       </c>
-      <c r="AK11" s="6" t="n">
+      <c r="AK11" s="7" t="n">
         <v>10141250154.1388</v>
       </c>
-      <c r="AL11" s="6" t="n">
+      <c r="AL11" s="7" t="n">
         <v>13072988551.1366</v>
       </c>
-      <c r="AM11" s="6" t="n">
+      <c r="AM11" s="7" t="n">
         <v>13030077781.0901</v>
       </c>
-      <c r="AN11" s="6" t="n">
+      <c r="AN11" s="7" t="n">
         <v>16016631783.4251</v>
       </c>
-      <c r="AO11" s="6" t="n">
+      <c r="AO11" s="7" t="n">
         <v>18311408706.2618</v>
       </c>
-      <c r="AP11" s="6" t="n">
+      <c r="AP11" s="7" t="n">
         <v>18716035508.9715</v>
       </c>
-      <c r="AQ11" s="6" t="n">
+      <c r="AQ11" s="7" t="n">
         <v>16636429968.1603</v>
       </c>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3670,106 +3672,106 @@
       <c r="K12" t="s">
         <v>348</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="7" t="n">
         <v>9114462008.50603</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="7" t="n">
         <v>10082576895.3442</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="7" t="n">
         <v>8359833458.23046</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>7710075288.32253</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="7" t="n">
         <v>5570782408.17411</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="7" t="n">
         <v>5291413343.64869</v>
       </c>
-      <c r="R12" s="6" t="n">
+      <c r="R12" s="7" t="n">
         <v>4955959924.88893</v>
       </c>
-      <c r="S12" s="6" t="n">
+      <c r="S12" s="7" t="n">
         <v>3398812686.03873</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="7" t="n">
         <v>2318259884.73182</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="U12" s="7" t="n">
         <v>2245313093.21937</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="V12" s="7" t="n">
         <v>3682936106.90846</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="W12" s="7" t="n">
         <v>3287632894.0884</v>
       </c>
-      <c r="X12" s="6" t="n">
+      <c r="X12" s="7" t="n">
         <v>3868327756.61488</v>
       </c>
-      <c r="Y12" s="6" t="n">
+      <c r="Y12" s="7" t="n">
         <v>2740279755.12595</v>
       </c>
-      <c r="Z12" s="6" t="n">
+      <c r="Z12" s="7" t="n">
         <v>3440757021.36727</v>
       </c>
-      <c r="AA12" s="6" t="n">
+      <c r="AA12" s="7" t="n">
         <v>3741793045.67939</v>
       </c>
-      <c r="AB12" s="6" t="n">
+      <c r="AB12" s="7" t="n">
         <v>3053430531.47584</v>
       </c>
-      <c r="AC12" s="6" t="n">
+      <c r="AC12" s="7" t="n">
         <v>3832070439.1537</v>
       </c>
-      <c r="AD12" s="6" t="n">
+      <c r="AD12" s="7" t="n">
         <v>4685865196.59768</v>
       </c>
-      <c r="AE12" s="6" t="n">
+      <c r="AE12" s="7" t="n">
         <v>3772827650.25798</v>
       </c>
-      <c r="AF12" s="6" t="n">
+      <c r="AF12" s="7" t="n">
         <v>3606544476.59946</v>
       </c>
-      <c r="AG12" s="6" t="n">
+      <c r="AG12" s="7" t="n">
         <v>3870097583.41446</v>
       </c>
-      <c r="AH12" s="6" t="n">
+      <c r="AH12" s="7" t="n">
         <v>3352665630.45943</v>
       </c>
-      <c r="AI12" s="6" t="n">
+      <c r="AI12" s="7" t="n">
         <v>2929367888.00571</v>
       </c>
-      <c r="AJ12" s="6" t="n">
+      <c r="AJ12" s="7" t="n">
         <v>2641105351.04959</v>
       </c>
-      <c r="AK12" s="6" t="n">
+      <c r="AK12" s="7" t="n">
         <v>2533807702.10442</v>
       </c>
-      <c r="AL12" s="6" t="n">
+      <c r="AL12" s="7" t="n">
         <v>2812035182.31747</v>
       </c>
-      <c r="AM12" s="6" t="n">
+      <c r="AM12" s="7" t="n">
         <v>3913962899.52695</v>
       </c>
-      <c r="AN12" s="6" t="n">
+      <c r="AN12" s="7" t="n">
         <v>3764107658.78774</v>
       </c>
-      <c r="AO12" s="6" t="n">
+      <c r="AO12" s="7" t="n">
         <v>2232902206.86176</v>
       </c>
-      <c r="AP12" s="6" t="n">
+      <c r="AP12" s="7" t="n">
         <v>2586372865.12735</v>
       </c>
-      <c r="AQ12" s="6" t="n">
+      <c r="AQ12" s="7" t="n">
         <v>1966229474.85877</v>
       </c>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3778,110 +3780,110 @@
       <c r="K13" t="s">
         <v>349</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="7" t="n">
         <v>3744998404.14134</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="7" t="n">
         <v>8995956029.21262</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="7" t="n">
         <v>7305354144.42351</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>5351325278.43052</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="7" t="n">
         <v>3856677786.9982</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="7" t="n">
         <v>3749130055.64419</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" s="7" t="n">
         <v>3724909533.75849</v>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="S13" s="7" t="n">
         <v>3128536461.81327</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="7" t="n">
         <v>3469324585.89253</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="7" t="n">
         <v>3106747125.21025</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="V13" s="7" t="n">
         <v>1355732748.19993</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="W13" s="7" t="n">
         <v>1966074713.43692</v>
       </c>
-      <c r="X13" s="6" t="n">
+      <c r="X13" s="7" t="n">
         <v>2758976023.59795</v>
       </c>
-      <c r="Y13" s="6" t="n">
+      <c r="Y13" s="7" t="n">
         <v>2678790484.13353</v>
       </c>
-      <c r="Z13" s="6" t="n">
+      <c r="Z13" s="7" t="n">
         <v>2557890092.72649</v>
       </c>
-      <c r="AA13" s="6" t="n">
+      <c r="AA13" s="7" t="n">
         <v>3089748353.62088</v>
       </c>
-      <c r="AB13" s="6" t="n">
+      <c r="AB13" s="7" t="n">
         <v>2704247315.85127</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="7" t="n">
         <v>3840292910.86577</v>
       </c>
-      <c r="AD13" s="6" t="n">
+      <c r="AD13" s="7" t="n">
         <v>4154591590.1204</v>
       </c>
-      <c r="AE13" s="6" t="n">
+      <c r="AE13" s="7" t="n">
         <v>3699723409.71956</v>
       </c>
-      <c r="AF13" s="6" t="n">
+      <c r="AF13" s="7" t="n">
         <v>3401908317.79633</v>
       </c>
-      <c r="AG13" s="6" t="n">
+      <c r="AG13" s="7" t="n">
         <v>3290124947.6372</v>
       </c>
-      <c r="AH13" s="6" t="n">
+      <c r="AH13" s="7" t="n">
         <v>3285169613.1551</v>
       </c>
-      <c r="AI13" s="6" t="n">
+      <c r="AI13" s="7" t="n">
         <v>2065420295.77463</v>
       </c>
-      <c r="AJ13" s="6" t="n">
+      <c r="AJ13" s="7" t="n">
         <v>2139558509.05371</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="7" t="n">
         <v>2221190478.42754</v>
       </c>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="7" t="n">
         <v>2153951383.20282</v>
       </c>
-      <c r="AM13" s="6" t="n">
+      <c r="AM13" s="7" t="n">
         <v>2871073891.83803</v>
       </c>
-      <c r="AN13" s="6" t="n">
+      <c r="AN13" s="7" t="n">
         <v>3415748307.95808</v>
       </c>
-      <c r="AO13" s="6" t="n">
+      <c r="AO13" s="7" t="n">
         <v>3692361405.32303</v>
       </c>
-      <c r="AP13" s="6" t="n">
+      <c r="AP13" s="7" t="n">
         <v>3728193145.84783</v>
       </c>
-      <c r="AQ13" s="6" t="n">
+      <c r="AQ13" s="7" t="n">
         <v>3371830529.02995</v>
       </c>
-      <c r="AR13" s="6" t="n">
+      <c r="AR13" s="7" t="n">
         <v>18840618496.3263</v>
       </c>
-      <c r="AS13" s="6" t="n">
+      <c r="AS13" s="7" t="n">
         <v>13290197695.4207</v>
       </c>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3890,110 +3892,110 @@
       <c r="K14" t="s">
         <v>350</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="7" t="n">
         <v>658904477.410345</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <v>1409648332.87516</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="7" t="n">
         <v>1388061615.08127</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>1211783216.69277</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="7" t="n">
         <v>797879086.368075</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="7" t="n">
         <v>815826361.706178</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="7" t="n">
         <v>1007423458.2084</v>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="S14" s="7" t="n">
         <v>786756945.220834</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="7" t="n">
         <v>747224784.017943</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="U14" s="7" t="n">
         <v>829469620.049711</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="V14" s="7" t="n">
         <v>811443149.560682</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="W14" s="7" t="n">
         <v>959035905.222195</v>
       </c>
-      <c r="X14" s="6" t="n">
+      <c r="X14" s="7" t="n">
         <v>1115974212.16967</v>
       </c>
-      <c r="Y14" s="6" t="n">
+      <c r="Y14" s="7" t="n">
         <v>1255887340.43355</v>
       </c>
-      <c r="Z14" s="6" t="n">
+      <c r="Z14" s="7" t="n">
         <v>1739360417.93796</v>
       </c>
-      <c r="AA14" s="6" t="n">
+      <c r="AA14" s="7" t="n">
         <v>2419860865.2064</v>
       </c>
-      <c r="AB14" s="6" t="n">
+      <c r="AB14" s="7" t="n">
         <v>2257095071.74183</v>
       </c>
-      <c r="AC14" s="6" t="n">
+      <c r="AC14" s="7" t="n">
         <v>2763225570.23864</v>
       </c>
-      <c r="AD14" s="6" t="n">
+      <c r="AD14" s="7" t="n">
         <v>2652453679.46565</v>
       </c>
-      <c r="AE14" s="6" t="n">
+      <c r="AE14" s="7" t="n">
         <v>2554449765.0111</v>
       </c>
-      <c r="AF14" s="6" t="n">
+      <c r="AF14" s="7" t="n">
         <v>2058534307.95683</v>
       </c>
-      <c r="AG14" s="6" t="n">
+      <c r="AG14" s="7" t="n">
         <v>1631528453.4862</v>
       </c>
-      <c r="AH14" s="6" t="n">
+      <c r="AH14" s="7" t="n">
         <v>1645642361.81307</v>
       </c>
-      <c r="AI14" s="6" t="n">
+      <c r="AI14" s="7" t="n">
         <v>1041892889.11343</v>
       </c>
-      <c r="AJ14" s="6" t="n">
+      <c r="AJ14" s="7" t="n">
         <v>1090853285.12305</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="7" t="n">
         <v>992830462.268748</v>
       </c>
-      <c r="AL14" s="6" t="n">
+      <c r="AL14" s="7" t="n">
         <v>1561344837.01679</v>
       </c>
-      <c r="AM14" s="6" t="n">
+      <c r="AM14" s="7" t="n">
         <v>1273462739.64283</v>
       </c>
-      <c r="AN14" s="6" t="n">
+      <c r="AN14" s="7" t="n">
         <v>1551091060.96138</v>
       </c>
-      <c r="AO14" s="6" t="n">
+      <c r="AO14" s="7" t="n">
         <v>1684484817.47959</v>
       </c>
-      <c r="AP14" s="6" t="n">
+      <c r="AP14" s="7" t="n">
         <v>1343522404.73815</v>
       </c>
-      <c r="AQ14" s="6" t="n">
+      <c r="AQ14" s="7" t="n">
         <v>1518482989.7106</v>
       </c>
-      <c r="AR14" s="6" t="n">
+      <c r="AR14" s="7" t="n">
         <v>1639331993.99</v>
       </c>
-      <c r="AS14" s="6" t="n">
+      <c r="AS14" s="7" t="n">
         <v>1168228947.72492</v>
       </c>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4002,145 +4004,145 @@
       <c r="K15" t="s">
         <v>351</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <v>1195035154.8919</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <v>532001475.749145</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="7" t="n">
         <v>311885155.809354</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>327526167.600954</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="7" t="n">
         <v>195827138.477859</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="7" t="n">
         <v>155493320.106879</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="7" t="n">
         <v>310145945.2124</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="7" t="n">
         <v>6655995.65469811</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="7" t="n">
         <v>10056673.6100003</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="7" t="n">
         <v>7526096.35763136</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6" t="n">
+      <c r="V15" s="7"/>
+      <c r="W15" s="7" t="n">
         <v>82670.8444655369</v>
       </c>
-      <c r="X15" s="6" t="n">
+      <c r="X15" s="7" t="n">
         <v>1792039.5932306</v>
       </c>
-      <c r="Y15" s="6" t="n">
+      <c r="Y15" s="7" t="n">
         <v>44351.3147597921</v>
       </c>
-      <c r="Z15" s="6" t="n">
+      <c r="Z15" s="7" t="n">
         <v>441823.010040857</v>
       </c>
-      <c r="AA15" s="6" t="n">
+      <c r="AA15" s="7" t="n">
         <v>528650.473183166</v>
       </c>
-      <c r="AB15" s="6" t="n">
+      <c r="AB15" s="7" t="n">
         <v>438429.901628984</v>
       </c>
-      <c r="AC15" s="6" t="n">
+      <c r="AC15" s="7" t="n">
         <v>811672.804694997</v>
       </c>
-      <c r="AD15" s="6" t="n">
+      <c r="AD15" s="7" t="n">
         <v>2181986.85630186</v>
       </c>
-      <c r="AE15" s="6" t="n">
+      <c r="AE15" s="7" t="n">
         <v>122622561.539769</v>
       </c>
-      <c r="AF15" s="6" t="n">
+      <c r="AF15" s="7" t="n">
         <v>72822135.7620194</v>
       </c>
-      <c r="AG15" s="6" t="n">
+      <c r="AG15" s="7" t="n">
         <v>163478848.460584</v>
       </c>
-      <c r="AH15" s="6" t="n">
+      <c r="AH15" s="7" t="n">
         <v>33858425.4006724</v>
       </c>
-      <c r="AI15" s="6" t="n">
+      <c r="AI15" s="7" t="n">
         <v>14069866.6812369</v>
       </c>
-      <c r="AJ15" s="6" t="n">
+      <c r="AJ15" s="7" t="n">
         <v>-2517393.95993376</v>
       </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AK15" s="7" t="n">
         <v>4629069.91534769</v>
       </c>
-      <c r="AL15" s="6" t="n">
+      <c r="AL15" s="7" t="n">
         <v>-576274.103140006</v>
       </c>
-      <c r="AM15" s="6" t="n">
+      <c r="AM15" s="7" t="n">
         <v>709546.794210098</v>
       </c>
-      <c r="AN15" s="6" t="n">
+      <c r="AN15" s="7" t="n">
         <v>48649.3932706189</v>
       </c>
-      <c r="AO15" s="6" t="n">
+      <c r="AO15" s="7" t="n">
         <v>235093.875500735</v>
       </c>
-      <c r="AP15" s="6" t="n">
+      <c r="AP15" s="7" t="n">
         <v>701908.521538983</v>
       </c>
-      <c r="AQ15" s="6" t="n">
+      <c r="AQ15" s="7" t="n">
         <v>277525.734394847</v>
       </c>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -1112,8 +1112,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0,,,&quot;B&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1162,8 +1162,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2887,13 +2887,17 @@
         <v>16349835579.8639</v>
       </c>
       <c r="AP2" s="7" t="n">
-        <v>16934051335.8886</v>
+        <v>16934347933.8886</v>
       </c>
       <c r="AQ2" s="7" t="n">
-        <v>15558424176.1807</v>
-      </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
+        <v>15562788792.1807</v>
+      </c>
+      <c r="AR2" s="7" t="n">
+        <v>13539272278.6027</v>
+      </c>
+      <c r="AS2" s="7" t="n">
+        <v>10475423886.0073</v>
+      </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
     </row>
@@ -2941,7 +2945,7 @@
         <v>2084108106</v>
       </c>
       <c r="X3" s="7" t="n">
-        <v>2490929070</v>
+        <v>2490121917</v>
       </c>
       <c r="Y3" s="7" t="n">
         <v>1798274587.9102</v>
@@ -2950,19 +2954,19 @@
         <v>2313146109</v>
       </c>
       <c r="AA3" s="7" t="n">
-        <v>2591889203</v>
+        <v>2591854203</v>
       </c>
       <c r="AB3" s="7" t="n">
-        <v>2183931454.8658</v>
+        <v>2178529556.8658</v>
       </c>
       <c r="AC3" s="7" t="n">
-        <v>2816007293.474</v>
+        <v>2809451072.474</v>
       </c>
       <c r="AD3" s="7" t="n">
-        <v>3515236125.6688</v>
+        <v>3508969959.7988</v>
       </c>
       <c r="AE3" s="7" t="n">
-        <v>2859056161.6979</v>
+        <v>2849459657.6979</v>
       </c>
       <c r="AF3" s="7" t="n">
         <v>2756817052.7581</v>
@@ -2980,7 +2984,7 @@
         <v>2176977172.891</v>
       </c>
       <c r="AK3" s="7" t="n">
-        <v>2112478920.8437</v>
+        <v>2112616420.8437</v>
       </c>
       <c r="AL3" s="7" t="n">
         <v>2363869167.2898</v>
@@ -3000,8 +3004,12 @@
       <c r="AQ3" s="7" t="n">
         <v>1838821926.1049</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
+      <c r="AR3" s="7" t="n">
+        <v>1713306558.897</v>
+      </c>
+      <c r="AS3" s="7" t="n">
+        <v>892376898.1294</v>
+      </c>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
     </row>
@@ -3049,7 +3057,7 @@
         <v>1246341175.9395</v>
       </c>
       <c r="X4" s="7" t="n">
-        <v>1776585132.6484</v>
+        <v>1777392285.6484</v>
       </c>
       <c r="Y4" s="7" t="n">
         <v>1757923016.7803</v>
@@ -3058,19 +3066,19 @@
         <v>1719613875.2305</v>
       </c>
       <c r="AA4" s="7" t="n">
-        <v>2140226704.1423</v>
+        <v>2140261704.1423</v>
       </c>
       <c r="AB4" s="7" t="n">
-        <v>1934182131.8494</v>
+        <v>1939584029.8494</v>
       </c>
       <c r="AC4" s="7" t="n">
-        <v>2822049598.9794</v>
+        <v>2828605819.9794</v>
       </c>
       <c r="AD4" s="7" t="n">
-        <v>3116685997.6243</v>
+        <v>3122952163.4943</v>
       </c>
       <c r="AE4" s="7" t="n">
-        <v>2803657625.4453</v>
+        <v>2813254129.4453</v>
       </c>
       <c r="AF4" s="7" t="n">
         <v>2600394622.4069</v>
@@ -3103,16 +3111,16 @@
         <v>3296824556.0388</v>
       </c>
       <c r="AP4" s="7" t="n">
-        <v>3373225814.3896</v>
+        <v>3372929216.3896</v>
       </c>
       <c r="AQ4" s="7" t="n">
-        <v>3153342978.1056</v>
+        <v>3148978362.1056</v>
       </c>
       <c r="AR4" s="7" t="n">
-        <v>18840618496.3263</v>
+        <v>3650924951.5715</v>
       </c>
       <c r="AS4" s="7" t="n">
-        <v>13933969675.3196</v>
+        <v>2642877948.3943</v>
       </c>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
@@ -3209,22 +3217,22 @@
         <v>1089618122.1955</v>
       </c>
       <c r="AN5" s="7" t="n">
-        <v>1358328612.8838</v>
+        <v>1358565914.8838</v>
       </c>
       <c r="AO5" s="7" t="n">
-        <v>1504037741.9543</v>
+        <v>1503974143.9543</v>
       </c>
       <c r="AP5" s="7" t="n">
-        <v>1215603452.0156</v>
+        <v>1215736290.1054</v>
       </c>
       <c r="AQ5" s="7" t="n">
-        <v>1420088474.7177</v>
+        <v>1420162060.8661</v>
       </c>
       <c r="AR5" s="7" t="n">
-        <v>1639331993.99</v>
+        <v>1576402107.8467</v>
       </c>
       <c r="AS5" s="7" t="n">
-        <v>1224817501.1752</v>
+        <v>1148006821.1669</v>
       </c>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
@@ -3330,7 +3338,9 @@
       <c r="AQ6" s="7" t="n">
         <v>259542.6485</v>
       </c>
-      <c r="AR6" s="7"/>
+      <c r="AR6" s="7" t="n">
+        <v>120085</v>
+      </c>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
       <c r="AU6" s="7"/>
@@ -3655,13 +3665,17 @@
         <v>18311408706.2618</v>
       </c>
       <c r="AP11" s="7" t="n">
-        <v>18716035508.9715</v>
+        <v>18716363318.2234</v>
       </c>
       <c r="AQ11" s="7" t="n">
-        <v>16636429968.1603</v>
-      </c>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
+        <v>16641096997.9057</v>
+      </c>
+      <c r="AR11" s="7" t="n">
+        <v>13539272278.6027</v>
+      </c>
+      <c r="AS11" s="7" t="n">
+        <v>9991442326.3718</v>
+      </c>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
     </row>
@@ -3709,7 +3723,7 @@
         <v>3287632894.0884</v>
       </c>
       <c r="X12" s="7" t="n">
-        <v>3868327756.61488</v>
+        <v>3867074275.57789</v>
       </c>
       <c r="Y12" s="7" t="n">
         <v>2740279755.12595</v>
@@ -3718,19 +3732,19 @@
         <v>3440757021.36727</v>
       </c>
       <c r="AA12" s="7" t="n">
-        <v>3741793045.67939</v>
+        <v>3741742517.76467</v>
       </c>
       <c r="AB12" s="7" t="n">
-        <v>3053430531.47584</v>
+        <v>3045877949.98599</v>
       </c>
       <c r="AC12" s="7" t="n">
-        <v>3832070439.1537</v>
+        <v>3823148622.52883</v>
       </c>
       <c r="AD12" s="7" t="n">
-        <v>4685865196.59768</v>
+        <v>4677512298.66518</v>
       </c>
       <c r="AE12" s="7" t="n">
-        <v>3772827650.25798</v>
+        <v>3760164046.05109</v>
       </c>
       <c r="AF12" s="7" t="n">
         <v>3606544476.59946</v>
@@ -3748,7 +3762,7 @@
         <v>2641105351.04959</v>
       </c>
       <c r="AK12" s="7" t="n">
-        <v>2533807702.10442</v>
+        <v>2533972626.14489</v>
       </c>
       <c r="AL12" s="7" t="n">
         <v>2812035182.31747</v>
@@ -3768,8 +3782,12 @@
       <c r="AQ12" s="7" t="n">
         <v>1966229474.85877</v>
       </c>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
+      <c r="AR12" s="7" t="n">
+        <v>1713306558.897</v>
+      </c>
+      <c r="AS12" s="7" t="n">
+        <v>851147639.281339</v>
+      </c>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
     </row>
@@ -3817,7 +3835,7 @@
         <v>1966074713.43692</v>
       </c>
       <c r="X13" s="7" t="n">
-        <v>2758976023.59795</v>
+        <v>2760229504.63494</v>
       </c>
       <c r="Y13" s="7" t="n">
         <v>2678790484.13353</v>
@@ -3826,19 +3844,19 @@
         <v>2557890092.72649</v>
       </c>
       <c r="AA13" s="7" t="n">
-        <v>3089748353.62088</v>
+        <v>3089798881.53559</v>
       </c>
       <c r="AB13" s="7" t="n">
-        <v>2704247315.85127</v>
+        <v>2711799897.34111</v>
       </c>
       <c r="AC13" s="7" t="n">
-        <v>3840292910.86577</v>
+        <v>3849214727.49064</v>
       </c>
       <c r="AD13" s="7" t="n">
-        <v>4154591590.1204</v>
+        <v>4162944488.0529</v>
       </c>
       <c r="AE13" s="7" t="n">
-        <v>3699723409.71956</v>
+        <v>3712387013.92645</v>
       </c>
       <c r="AF13" s="7" t="n">
         <v>3401908317.79633</v>
@@ -3871,16 +3889,16 @@
         <v>3692361405.32303</v>
       </c>
       <c r="AP13" s="7" t="n">
-        <v>3728193145.84783</v>
+        <v>3727865336.59594</v>
       </c>
       <c r="AQ13" s="7" t="n">
-        <v>3371830529.02995</v>
+        <v>3367163499.28454</v>
       </c>
       <c r="AR13" s="7" t="n">
-        <v>18840618496.3263</v>
+        <v>3650924951.5715</v>
       </c>
       <c r="AS13" s="7" t="n">
-        <v>13290197695.4207</v>
+        <v>2520772704.22382</v>
       </c>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
@@ -3977,22 +3995,22 @@
         <v>1273462739.64283</v>
       </c>
       <c r="AN14" s="7" t="n">
-        <v>1551091060.96138</v>
+        <v>1551362038.84365</v>
       </c>
       <c r="AO14" s="7" t="n">
-        <v>1684484817.47959</v>
+        <v>1684413589.30331</v>
       </c>
       <c r="AP14" s="7" t="n">
-        <v>1343522404.73815</v>
+        <v>1343669221.48958</v>
       </c>
       <c r="AQ14" s="7" t="n">
-        <v>1518482989.7106</v>
+        <v>1518561674.46624</v>
       </c>
       <c r="AR14" s="7" t="n">
-        <v>1639331993.99</v>
+        <v>1576402107.8467</v>
       </c>
       <c r="AS14" s="7" t="n">
-        <v>1168228947.72492</v>
+        <v>1094967045.60968</v>
       </c>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
@@ -4098,7 +4116,9 @@
       <c r="AQ15" s="7" t="n">
         <v>277525.734394847</v>
       </c>
-      <c r="AR15" s="7"/>
+      <c r="AR15" s="7" t="n">
+        <v>120085</v>
+      </c>
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="367">
   <si>
     <t>SimpleArea</t>
   </si>
@@ -1104,6 +1104,52 @@
   <si>
     <t xml:space="preserve">Grand Total</t>
   </si>
+  <si>
+    <t xml:space="preserve">PricingUCA.sumlong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PricingUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less Common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;M/LH/FPLOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Cost-Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undefinitized
+Contract Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
 </sst>
 </file>
 
@@ -1112,8 +1158,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1162,8 +1208,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2796,110 +2842,110 @@
       <c r="K2" t="s">
         <v>347</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="6" t="n">
         <v>3928427000</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="6" t="n">
         <v>3880817932</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="6" t="n">
         <v>4189728212</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="6" t="n">
         <v>3193849879</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="6" t="n">
         <v>2712126020</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="6" t="n">
         <v>2832930616</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="6" t="n">
         <v>3007183405</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="6" t="n">
         <v>3702777562</v>
       </c>
-      <c r="T2" s="7" t="n">
+      <c r="T2" s="6" t="n">
         <v>4711606539</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="6" t="n">
         <v>5409460014</v>
       </c>
-      <c r="V2" s="7" t="n">
+      <c r="V2" s="6" t="n">
         <v>5060678585.375</v>
       </c>
-      <c r="W2" s="7" t="n">
+      <c r="W2" s="6" t="n">
         <v>5182316294.2188</v>
       </c>
-      <c r="X2" s="7" t="n">
+      <c r="X2" s="6" t="n">
         <v>7371743686.3125</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Y2" s="6" t="n">
         <v>9187448984.25</v>
       </c>
-      <c r="Z2" s="7" t="n">
+      <c r="Z2" s="6" t="n">
         <v>8891101399.0391</v>
       </c>
-      <c r="AA2" s="7" t="n">
+      <c r="AA2" s="6" t="n">
         <v>8429949379.3565</v>
       </c>
-      <c r="AB2" s="7" t="n">
+      <c r="AB2" s="6" t="n">
         <v>9293006714.9361</v>
       </c>
-      <c r="AC2" s="7" t="n">
+      <c r="AC2" s="6" t="n">
         <v>10277447067.992</v>
       </c>
-      <c r="AD2" s="7" t="n">
+      <c r="AD2" s="6" t="n">
         <v>10582674622.4702</v>
       </c>
-      <c r="AE2" s="7" t="n">
+      <c r="AE2" s="6" t="n">
         <v>10224136516.3421</v>
       </c>
-      <c r="AF2" s="7" t="n">
+      <c r="AF2" s="6" t="n">
         <v>9700490148.777</v>
       </c>
-      <c r="AG2" s="7" t="n">
+      <c r="AG2" s="6" t="n">
         <v>8442849041.1724</v>
       </c>
-      <c r="AH2" s="7" t="n">
+      <c r="AH2" s="6" t="n">
         <v>9075204540.5251</v>
       </c>
-      <c r="AI2" s="7" t="n">
+      <c r="AI2" s="6" t="n">
         <v>8147831143.9527</v>
       </c>
-      <c r="AJ2" s="7" t="n">
+      <c r="AJ2" s="6" t="n">
         <v>7740477811.4253</v>
       </c>
-      <c r="AK2" s="7" t="n">
+      <c r="AK2" s="6" t="n">
         <v>8454934115.0982</v>
       </c>
-      <c r="AL2" s="7" t="n">
+      <c r="AL2" s="6" t="n">
         <v>10989490727.1027</v>
       </c>
-      <c r="AM2" s="7" t="n">
+      <c r="AM2" s="6" t="n">
         <v>11148978640.6116</v>
       </c>
-      <c r="AN2" s="7" t="n">
+      <c r="AN2" s="6" t="n">
         <v>14026158606.0369</v>
       </c>
-      <c r="AO2" s="7" t="n">
+      <c r="AO2" s="6" t="n">
         <v>16349835579.8639</v>
       </c>
-      <c r="AP2" s="7" t="n">
+      <c r="AP2" s="6" t="n">
         <v>16934347933.8886</v>
       </c>
-      <c r="AQ2" s="7" t="n">
+      <c r="AQ2" s="6" t="n">
         <v>15562788792.1807</v>
       </c>
-      <c r="AR2" s="7" t="n">
+      <c r="AR2" s="6" t="n">
         <v>13539272278.6027</v>
       </c>
-      <c r="AS2" s="7" t="n">
+      <c r="AS2" s="6" t="n">
         <v>10475423886.0073</v>
       </c>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2908,110 +2954,110 @@
       <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="6" t="n">
         <v>4585820000</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="M3" s="6" t="n">
         <v>5253860838</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="6" t="n">
         <v>4465039299</v>
       </c>
-      <c r="O3" s="7" t="n">
+      <c r="O3" s="6" t="n">
         <v>4214735031</v>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="P3" s="6" t="n">
         <v>3111640076</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="6" t="n">
         <v>3018202339</v>
       </c>
-      <c r="R3" s="7" t="n">
+      <c r="R3" s="6" t="n">
         <v>2879990051</v>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="6" t="n">
         <v>2010192718</v>
       </c>
-      <c r="T3" s="7" t="n">
+      <c r="T3" s="6" t="n">
         <v>1388231382</v>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="6" t="n">
         <v>1361309097</v>
       </c>
-      <c r="V3" s="7" t="n">
+      <c r="V3" s="6" t="n">
         <v>2279425395</v>
       </c>
-      <c r="W3" s="7" t="n">
+      <c r="W3" s="6" t="n">
         <v>2084108106</v>
       </c>
-      <c r="X3" s="7" t="n">
+      <c r="X3" s="6" t="n">
         <v>2490121917</v>
       </c>
-      <c r="Y3" s="7" t="n">
+      <c r="Y3" s="6" t="n">
         <v>1798274587.9102</v>
       </c>
-      <c r="Z3" s="7" t="n">
+      <c r="Z3" s="6" t="n">
         <v>2313146109</v>
       </c>
-      <c r="AA3" s="7" t="n">
+      <c r="AA3" s="6" t="n">
         <v>2591854203</v>
       </c>
-      <c r="AB3" s="7" t="n">
+      <c r="AB3" s="6" t="n">
         <v>2178529556.8658</v>
       </c>
-      <c r="AC3" s="7" t="n">
+      <c r="AC3" s="6" t="n">
         <v>2809451072.474</v>
       </c>
-      <c r="AD3" s="7" t="n">
+      <c r="AD3" s="6" t="n">
         <v>3508969959.7988</v>
       </c>
-      <c r="AE3" s="7" t="n">
+      <c r="AE3" s="6" t="n">
         <v>2849459657.6979</v>
       </c>
-      <c r="AF3" s="7" t="n">
+      <c r="AF3" s="6" t="n">
         <v>2756817052.7581</v>
       </c>
-      <c r="AG3" s="7" t="n">
+      <c r="AG3" s="6" t="n">
         <v>3017895520.2508</v>
       </c>
-      <c r="AH3" s="7" t="n">
+      <c r="AH3" s="6" t="n">
         <v>2662324808.3055</v>
       </c>
-      <c r="AI3" s="7" t="n">
+      <c r="AI3" s="6" t="n">
         <v>2368756707.4425</v>
       </c>
-      <c r="AJ3" s="7" t="n">
+      <c r="AJ3" s="6" t="n">
         <v>2176977172.891</v>
       </c>
-      <c r="AK3" s="7" t="n">
+      <c r="AK3" s="6" t="n">
         <v>2112616420.8437</v>
       </c>
-      <c r="AL3" s="7" t="n">
+      <c r="AL3" s="6" t="n">
         <v>2363869167.2898</v>
       </c>
-      <c r="AM3" s="7" t="n">
+      <c r="AM3" s="6" t="n">
         <v>3348920052.5188</v>
       </c>
-      <c r="AN3" s="7" t="n">
+      <c r="AN3" s="6" t="n">
         <v>3296321707.7258</v>
       </c>
-      <c r="AO3" s="7" t="n">
+      <c r="AO3" s="6" t="n">
         <v>1993707012.5916</v>
       </c>
-      <c r="AP3" s="7" t="n">
+      <c r="AP3" s="6" t="n">
         <v>2340120099.1963</v>
       </c>
-      <c r="AQ3" s="7" t="n">
+      <c r="AQ3" s="6" t="n">
         <v>1838821926.1049</v>
       </c>
-      <c r="AR3" s="7" t="n">
+      <c r="AR3" s="6" t="n">
         <v>1713306558.897</v>
       </c>
-      <c r="AS3" s="7" t="n">
+      <c r="AS3" s="6" t="n">
         <v>892376898.1294</v>
       </c>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3020,110 +3066,110 @@
       <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="6" t="n">
         <v>1884246000</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="M4" s="6" t="n">
         <v>4687641024</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="N4" s="6" t="n">
         <v>3901835307</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="6" t="n">
         <v>2925317493</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="P4" s="6" t="n">
         <v>2154202459</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="6" t="n">
         <v>2138489732</v>
       </c>
-      <c r="R4" s="7" t="n">
+      <c r="R4" s="6" t="n">
         <v>2164606365</v>
       </c>
-      <c r="S4" s="7" t="n">
+      <c r="S4" s="6" t="n">
         <v>1850340632</v>
       </c>
-      <c r="T4" s="7" t="n">
+      <c r="T4" s="6" t="n">
         <v>2077517407</v>
       </c>
-      <c r="U4" s="7" t="n">
+      <c r="U4" s="6" t="n">
         <v>1883587254</v>
       </c>
-      <c r="V4" s="7" t="n">
+      <c r="V4" s="6" t="n">
         <v>839083699.9</v>
       </c>
-      <c r="W4" s="7" t="n">
+      <c r="W4" s="6" t="n">
         <v>1246341175.9395</v>
       </c>
-      <c r="X4" s="7" t="n">
+      <c r="X4" s="6" t="n">
         <v>1777392285.6484</v>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Y4" s="6" t="n">
         <v>1757923016.7803</v>
       </c>
-      <c r="Z4" s="7" t="n">
+      <c r="Z4" s="6" t="n">
         <v>1719613875.2305</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AA4" s="6" t="n">
         <v>2140261704.1423</v>
       </c>
-      <c r="AB4" s="7" t="n">
+      <c r="AB4" s="6" t="n">
         <v>1939584029.8494</v>
       </c>
-      <c r="AC4" s="7" t="n">
+      <c r="AC4" s="6" t="n">
         <v>2828605819.9794</v>
       </c>
-      <c r="AD4" s="7" t="n">
+      <c r="AD4" s="6" t="n">
         <v>3122952163.4943</v>
       </c>
-      <c r="AE4" s="7" t="n">
+      <c r="AE4" s="6" t="n">
         <v>2813254129.4453</v>
       </c>
-      <c r="AF4" s="7" t="n">
+      <c r="AF4" s="6" t="n">
         <v>2600394622.4069</v>
       </c>
-      <c r="AG4" s="7" t="n">
+      <c r="AG4" s="6" t="n">
         <v>2565633844.2452</v>
       </c>
-      <c r="AH4" s="7" t="n">
+      <c r="AH4" s="6" t="n">
         <v>2608726763.9021</v>
       </c>
-      <c r="AI4" s="7" t="n">
+      <c r="AI4" s="6" t="n">
         <v>1670148088.7178</v>
       </c>
-      <c r="AJ4" s="7" t="n">
+      <c r="AJ4" s="6" t="n">
         <v>1763568436.3835</v>
       </c>
-      <c r="AK4" s="7" t="n">
+      <c r="AK4" s="6" t="n">
         <v>1851844581.9546</v>
       </c>
-      <c r="AL4" s="7" t="n">
+      <c r="AL4" s="6" t="n">
         <v>1810666984.0447</v>
       </c>
-      <c r="AM4" s="7" t="n">
+      <c r="AM4" s="6" t="n">
         <v>2456588673.797</v>
       </c>
-      <c r="AN4" s="7" t="n">
+      <c r="AN4" s="6" t="n">
         <v>2991254851.429</v>
       </c>
-      <c r="AO4" s="7" t="n">
+      <c r="AO4" s="6" t="n">
         <v>3296824556.0388</v>
       </c>
-      <c r="AP4" s="7" t="n">
+      <c r="AP4" s="6" t="n">
         <v>3372929216.3896</v>
       </c>
-      <c r="AQ4" s="7" t="n">
+      <c r="AQ4" s="6" t="n">
         <v>3148978362.1056</v>
       </c>
-      <c r="AR4" s="7" t="n">
+      <c r="AR4" s="6" t="n">
         <v>3650924951.5715</v>
       </c>
-      <c r="AS4" s="7" t="n">
+      <c r="AS4" s="6" t="n">
         <v>2642877948.3943</v>
       </c>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3132,110 +3178,110 @@
       <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="6" t="n">
         <v>331519000</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>734543981</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>741372384</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>662424812</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>445666759</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>465344299</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="R5" s="6" t="n">
         <v>585430387</v>
       </c>
-      <c r="S5" s="7" t="n">
+      <c r="S5" s="6" t="n">
         <v>465319283</v>
       </c>
-      <c r="T5" s="7" t="n">
+      <c r="T5" s="6" t="n">
         <v>447456690</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="U5" s="6" t="n">
         <v>502898479</v>
       </c>
-      <c r="V5" s="7" t="n">
+      <c r="V5" s="6" t="n">
         <v>502214556</v>
       </c>
-      <c r="W5" s="7" t="n">
+      <c r="W5" s="6" t="n">
         <v>607955501.24</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="X5" s="6" t="n">
         <v>718608344.8359</v>
       </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Y5" s="6" t="n">
         <v>824160484.1094</v>
       </c>
-      <c r="Z5" s="7" t="n">
+      <c r="Z5" s="6" t="n">
         <v>1169334177.8906</v>
       </c>
-      <c r="AA5" s="7" t="n">
+      <c r="AA5" s="6" t="n">
         <v>1676204742.6789</v>
       </c>
-      <c r="AB5" s="7" t="n">
+      <c r="AB5" s="6" t="n">
         <v>1614361575.6069</v>
       </c>
-      <c r="AC5" s="7" t="n">
+      <c r="AC5" s="6" t="n">
         <v>2030563759.946</v>
       </c>
-      <c r="AD5" s="7" t="n">
+      <c r="AD5" s="6" t="n">
         <v>1989814176.1506</v>
       </c>
-      <c r="AE5" s="7" t="n">
+      <c r="AE5" s="6" t="n">
         <v>1935767020.7658</v>
       </c>
-      <c r="AF5" s="7" t="n">
+      <c r="AF5" s="6" t="n">
         <v>1573529044.4037</v>
       </c>
-      <c r="AG5" s="7" t="n">
+      <c r="AG5" s="6" t="n">
         <v>1272263116.0617</v>
       </c>
-      <c r="AH5" s="7" t="n">
+      <c r="AH5" s="6" t="n">
         <v>1306791361.9686</v>
       </c>
-      <c r="AI5" s="7" t="n">
+      <c r="AI5" s="6" t="n">
         <v>842499427.8217</v>
       </c>
-      <c r="AJ5" s="7" t="n">
+      <c r="AJ5" s="6" t="n">
         <v>899154855.6525</v>
       </c>
-      <c r="AK5" s="7" t="n">
+      <c r="AK5" s="6" t="n">
         <v>827739777.4789</v>
       </c>
-      <c r="AL5" s="7" t="n">
+      <c r="AL5" s="6" t="n">
         <v>1312506665.2578</v>
       </c>
-      <c r="AM5" s="7" t="n">
+      <c r="AM5" s="6" t="n">
         <v>1089618122.1955</v>
       </c>
-      <c r="AN5" s="7" t="n">
+      <c r="AN5" s="6" t="n">
         <v>1358565914.8838</v>
       </c>
-      <c r="AO5" s="7" t="n">
+      <c r="AO5" s="6" t="n">
         <v>1503974143.9543</v>
       </c>
-      <c r="AP5" s="7" t="n">
+      <c r="AP5" s="6" t="n">
         <v>1215736290.1054</v>
       </c>
-      <c r="AQ5" s="7" t="n">
+      <c r="AQ5" s="6" t="n">
         <v>1420162060.8661</v>
       </c>
-      <c r="AR5" s="7" t="n">
+      <c r="AR5" s="6" t="n">
         <v>1576402107.8467</v>
       </c>
-      <c r="AS5" s="7" t="n">
+      <c r="AS5" s="6" t="n">
         <v>1148006821.1669</v>
       </c>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3244,106 +3290,106 @@
       <c r="K6" t="s">
         <v>351</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="6" t="n">
         <v>601266000</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="6" t="n">
         <v>277217000</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="6" t="n">
         <v>166579811</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="6" t="n">
         <v>179043130</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="P6" s="6" t="n">
         <v>109382045</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="Q6" s="6" t="n">
         <v>88692807</v>
       </c>
-      <c r="R6" s="7" t="n">
+      <c r="R6" s="6" t="n">
         <v>180230924</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="S6" s="6" t="n">
         <v>3936620</v>
       </c>
-      <c r="T6" s="7" t="n">
+      <c r="T6" s="6" t="n">
         <v>6022185</v>
       </c>
-      <c r="U6" s="7" t="n">
+      <c r="U6" s="6" t="n">
         <v>4562991</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7" t="n">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="n">
         <v>52407</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="X6" s="6" t="n">
         <v>1153946.5625</v>
       </c>
-      <c r="Y6" s="7" t="n">
+      <c r="Y6" s="6" t="n">
         <v>29105</v>
       </c>
-      <c r="Z6" s="7" t="n">
+      <c r="Z6" s="6" t="n">
         <v>297028</v>
       </c>
-      <c r="AA6" s="7" t="n">
+      <c r="AA6" s="6" t="n">
         <v>366189</v>
       </c>
-      <c r="AB6" s="7" t="n">
+      <c r="AB6" s="6" t="n">
         <v>313582</v>
       </c>
-      <c r="AC6" s="7" t="n">
+      <c r="AC6" s="6" t="n">
         <v>596459.9488</v>
       </c>
-      <c r="AD6" s="7" t="n">
+      <c r="AD6" s="6" t="n">
         <v>1636880</v>
       </c>
-      <c r="AE6" s="7" t="n">
+      <c r="AE6" s="6" t="n">
         <v>92923616.6167</v>
       </c>
-      <c r="AF6" s="7" t="n">
+      <c r="AF6" s="6" t="n">
         <v>55664724.7773</v>
       </c>
-      <c r="AG6" s="7" t="n">
+      <c r="AG6" s="6" t="n">
         <v>127480528.279</v>
       </c>
-      <c r="AH6" s="7" t="n">
+      <c r="AH6" s="6" t="n">
         <v>26886703.2535</v>
       </c>
-      <c r="AI6" s="7" t="n">
+      <c r="AI6" s="6" t="n">
         <v>11377229.61</v>
       </c>
-      <c r="AJ6" s="7" t="n">
+      <c r="AJ6" s="6" t="n">
         <v>-2075005.9</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="6" t="n">
         <v>3859334.9492</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="6" t="n">
         <v>-484430.8467</v>
       </c>
-      <c r="AM6" s="7" t="n">
+      <c r="AM6" s="6" t="n">
         <v>607112.4199</v>
       </c>
-      <c r="AN6" s="7" t="n">
+      <c r="AN6" s="6" t="n">
         <v>42603.4709</v>
       </c>
-      <c r="AO6" s="7" t="n">
+      <c r="AO6" s="6" t="n">
         <v>209909.9131</v>
       </c>
-      <c r="AP6" s="7" t="n">
+      <c r="AP6" s="6" t="n">
         <v>635078.6699</v>
       </c>
-      <c r="AQ6" s="7" t="n">
+      <c r="AQ6" s="6" t="n">
         <v>259542.6485</v>
       </c>
-      <c r="AR6" s="7" t="n">
+      <c r="AR6" s="6" t="n">
         <v>120085</v>
       </c>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3352,110 +3398,110 @@
       <c r="K7" t="s">
         <v>352</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="L7" s="6" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="M7" s="6" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="7" t="str">
+      <c r="N7" s="6" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="7" t="str">
+      <c r="O7" s="6" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="7" t="str">
+      <c r="P7" s="6" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="7" t="str">
+      <c r="Q7" s="6" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="7" t="str">
+      <c r="R7" s="6" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="7" t="str">
+      <c r="S7" s="6" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="7" t="str">
+      <c r="T7" s="6" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="7" t="str">
+      <c r="U7" s="6" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="7" t="str">
+      <c r="V7" s="6" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="7" t="str">
+      <c r="W7" s="6" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="7" t="str">
+      <c r="X7" s="6" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="7" t="str">
+      <c r="Y7" s="6" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="7" t="str">
+      <c r="Z7" s="6" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="7" t="str">
+      <c r="AA7" s="6" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="7" t="str">
+      <c r="AB7" s="6" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="7" t="str">
+      <c r="AC7" s="6" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="7" t="str">
+      <c r="AD7" s="6" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="7" t="str">
+      <c r="AE7" s="6" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="7" t="str">
+      <c r="AF7" s="6" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="7" t="str">
+      <c r="AG7" s="6" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="7" t="str">
+      <c r="AH7" s="6" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="7" t="str">
+      <c r="AI7" s="6" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="7" t="str">
+      <c r="AJ7" s="6" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="7" t="str">
+      <c r="AK7" s="6" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="7" t="str">
+      <c r="AL7" s="6" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="7" t="str">
+      <c r="AM7" s="6" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="7" t="str">
+      <c r="AN7" s="6" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="7" t="str">
+      <c r="AO7" s="6" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="7" t="str">
+      <c r="AP7" s="6" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="7" t="str">
+      <c r="AQ7" s="6" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="7" t="str">
+      <c r="AR7" s="6" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="7" t="str">
+      <c r="AS7" s="6" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3574,110 +3620,110 @@
       <c r="K11" t="s">
         <v>347</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="6" t="n">
         <v>7807872669.3785</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="M11" s="6" t="n">
         <v>7447598332.48952</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="6" t="n">
         <v>7844372186.24571</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="6" t="n">
         <v>5842555426.5145</v>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="6" t="n">
         <v>4855530701.47797</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="6" t="n">
         <v>4966601035.80064</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="6" t="n">
         <v>5174837474.45454</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="6" t="n">
         <v>6260617322.21694</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="T11" s="6" t="n">
         <v>7868089263.52582</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="U11" s="6" t="n">
         <v>8922243613.48025</v>
       </c>
-      <c r="V11" s="7" t="n">
+      <c r="V11" s="6" t="n">
         <v>8176690462.61373</v>
       </c>
-      <c r="W11" s="7" t="n">
+      <c r="W11" s="6" t="n">
         <v>8174985485.347</v>
       </c>
-      <c r="X11" s="7" t="n">
+      <c r="X11" s="6" t="n">
         <v>11448066129.1625</v>
       </c>
-      <c r="Y11" s="7" t="n">
+      <c r="Y11" s="6" t="n">
         <v>14000186969.2494</v>
       </c>
-      <c r="Z11" s="7" t="n">
+      <c r="Z11" s="6" t="n">
         <v>13225329540.3192</v>
       </c>
-      <c r="AA11" s="7" t="n">
+      <c r="AA11" s="6" t="n">
         <v>12169936093.9486</v>
       </c>
-      <c r="AB11" s="7" t="n">
+      <c r="AB11" s="6" t="n">
         <v>12992875929.9543</v>
       </c>
-      <c r="AC11" s="7" t="n">
+      <c r="AC11" s="6" t="n">
         <v>13985724110.3352</v>
       </c>
-      <c r="AD11" s="7" t="n">
+      <c r="AD11" s="6" t="n">
         <v>14106872178.015</v>
       </c>
-      <c r="AE11" s="7" t="n">
+      <c r="AE11" s="6" t="n">
         <v>13491831837.9447</v>
       </c>
-      <c r="AF11" s="7" t="n">
+      <c r="AF11" s="6" t="n">
         <v>12690450072.2591</v>
       </c>
-      <c r="AG11" s="7" t="n">
+      <c r="AG11" s="6" t="n">
         <v>10826965165.6658</v>
       </c>
-      <c r="AH11" s="7" t="n">
+      <c r="AH11" s="6" t="n">
         <v>11428405075.7027</v>
       </c>
-      <c r="AI11" s="7" t="n">
+      <c r="AI11" s="6" t="n">
         <v>10076169846.8213</v>
       </c>
-      <c r="AJ11" s="7" t="n">
+      <c r="AJ11" s="6" t="n">
         <v>9390735751.39392</v>
       </c>
-      <c r="AK11" s="7" t="n">
+      <c r="AK11" s="6" t="n">
         <v>10141250154.1388</v>
       </c>
-      <c r="AL11" s="7" t="n">
+      <c r="AL11" s="6" t="n">
         <v>13072988551.1366</v>
       </c>
-      <c r="AM11" s="7" t="n">
+      <c r="AM11" s="6" t="n">
         <v>13030077781.0901</v>
       </c>
-      <c r="AN11" s="7" t="n">
+      <c r="AN11" s="6" t="n">
         <v>16016631783.4251</v>
       </c>
-      <c r="AO11" s="7" t="n">
+      <c r="AO11" s="6" t="n">
         <v>18311408706.2618</v>
       </c>
-      <c r="AP11" s="7" t="n">
+      <c r="AP11" s="6" t="n">
         <v>18716363318.2234</v>
       </c>
-      <c r="AQ11" s="7" t="n">
+      <c r="AQ11" s="6" t="n">
         <v>16641096997.9057</v>
       </c>
-      <c r="AR11" s="7" t="n">
+      <c r="AR11" s="6" t="n">
         <v>13539272278.6027</v>
       </c>
-      <c r="AS11" s="7" t="n">
+      <c r="AS11" s="6" t="n">
         <v>9991442326.3718</v>
       </c>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3686,110 +3732,110 @@
       <c r="K12" t="s">
         <v>348</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="6" t="n">
         <v>9114462008.50603</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="6" t="n">
         <v>10082576895.3442</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="6" t="n">
         <v>8359833458.23046</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="6" t="n">
         <v>7710075288.32253</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="P12" s="6" t="n">
         <v>5570782408.17411</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="Q12" s="6" t="n">
         <v>5291413343.64869</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="6" t="n">
         <v>4955959924.88893</v>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="S12" s="6" t="n">
         <v>3398812686.03873</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="T12" s="6" t="n">
         <v>2318259884.73182</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="U12" s="6" t="n">
         <v>2245313093.21937</v>
       </c>
-      <c r="V12" s="7" t="n">
+      <c r="V12" s="6" t="n">
         <v>3682936106.90846</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="W12" s="6" t="n">
         <v>3287632894.0884</v>
       </c>
-      <c r="X12" s="7" t="n">
+      <c r="X12" s="6" t="n">
         <v>3867074275.57789</v>
       </c>
-      <c r="Y12" s="7" t="n">
+      <c r="Y12" s="6" t="n">
         <v>2740279755.12595</v>
       </c>
-      <c r="Z12" s="7" t="n">
+      <c r="Z12" s="6" t="n">
         <v>3440757021.36727</v>
       </c>
-      <c r="AA12" s="7" t="n">
+      <c r="AA12" s="6" t="n">
         <v>3741742517.76467</v>
       </c>
-      <c r="AB12" s="7" t="n">
+      <c r="AB12" s="6" t="n">
         <v>3045877949.98599</v>
       </c>
-      <c r="AC12" s="7" t="n">
+      <c r="AC12" s="6" t="n">
         <v>3823148622.52883</v>
       </c>
-      <c r="AD12" s="7" t="n">
+      <c r="AD12" s="6" t="n">
         <v>4677512298.66518</v>
       </c>
-      <c r="AE12" s="7" t="n">
+      <c r="AE12" s="6" t="n">
         <v>3760164046.05109</v>
       </c>
-      <c r="AF12" s="7" t="n">
+      <c r="AF12" s="6" t="n">
         <v>3606544476.59946</v>
       </c>
-      <c r="AG12" s="7" t="n">
+      <c r="AG12" s="6" t="n">
         <v>3870097583.41446</v>
       </c>
-      <c r="AH12" s="7" t="n">
+      <c r="AH12" s="6" t="n">
         <v>3352665630.45943</v>
       </c>
-      <c r="AI12" s="7" t="n">
+      <c r="AI12" s="6" t="n">
         <v>2929367888.00571</v>
       </c>
-      <c r="AJ12" s="7" t="n">
+      <c r="AJ12" s="6" t="n">
         <v>2641105351.04959</v>
       </c>
-      <c r="AK12" s="7" t="n">
+      <c r="AK12" s="6" t="n">
         <v>2533972626.14489</v>
       </c>
-      <c r="AL12" s="7" t="n">
+      <c r="AL12" s="6" t="n">
         <v>2812035182.31747</v>
       </c>
-      <c r="AM12" s="7" t="n">
+      <c r="AM12" s="6" t="n">
         <v>3913962899.52695</v>
       </c>
-      <c r="AN12" s="7" t="n">
+      <c r="AN12" s="6" t="n">
         <v>3764107658.78774</v>
       </c>
-      <c r="AO12" s="7" t="n">
+      <c r="AO12" s="6" t="n">
         <v>2232902206.86176</v>
       </c>
-      <c r="AP12" s="7" t="n">
+      <c r="AP12" s="6" t="n">
         <v>2586372865.12735</v>
       </c>
-      <c r="AQ12" s="7" t="n">
+      <c r="AQ12" s="6" t="n">
         <v>1966229474.85877</v>
       </c>
-      <c r="AR12" s="7" t="n">
+      <c r="AR12" s="6" t="n">
         <v>1713306558.897</v>
       </c>
-      <c r="AS12" s="7" t="n">
+      <c r="AS12" s="6" t="n">
         <v>851147639.281339</v>
       </c>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3798,110 +3844,110 @@
       <c r="K13" t="s">
         <v>349</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="6" t="n">
         <v>3744998404.14134</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="M13" s="6" t="n">
         <v>8995956029.21262</v>
       </c>
-      <c r="N13" s="7" t="n">
+      <c r="N13" s="6" t="n">
         <v>7305354144.42351</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="6" t="n">
         <v>5351325278.43052</v>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="P13" s="6" t="n">
         <v>3856677786.9982</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="6" t="n">
         <v>3749130055.64419</v>
       </c>
-      <c r="R13" s="7" t="n">
+      <c r="R13" s="6" t="n">
         <v>3724909533.75849</v>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="S13" s="6" t="n">
         <v>3128536461.81327</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="T13" s="6" t="n">
         <v>3469324585.89253</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="U13" s="6" t="n">
         <v>3106747125.21025</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="V13" s="6" t="n">
         <v>1355732748.19993</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="W13" s="6" t="n">
         <v>1966074713.43692</v>
       </c>
-      <c r="X13" s="7" t="n">
+      <c r="X13" s="6" t="n">
         <v>2760229504.63494</v>
       </c>
-      <c r="Y13" s="7" t="n">
+      <c r="Y13" s="6" t="n">
         <v>2678790484.13353</v>
       </c>
-      <c r="Z13" s="7" t="n">
+      <c r="Z13" s="6" t="n">
         <v>2557890092.72649</v>
       </c>
-      <c r="AA13" s="7" t="n">
+      <c r="AA13" s="6" t="n">
         <v>3089798881.53559</v>
       </c>
-      <c r="AB13" s="7" t="n">
+      <c r="AB13" s="6" t="n">
         <v>2711799897.34111</v>
       </c>
-      <c r="AC13" s="7" t="n">
+      <c r="AC13" s="6" t="n">
         <v>3849214727.49064</v>
       </c>
-      <c r="AD13" s="7" t="n">
+      <c r="AD13" s="6" t="n">
         <v>4162944488.0529</v>
       </c>
-      <c r="AE13" s="7" t="n">
+      <c r="AE13" s="6" t="n">
         <v>3712387013.92645</v>
       </c>
-      <c r="AF13" s="7" t="n">
+      <c r="AF13" s="6" t="n">
         <v>3401908317.79633</v>
       </c>
-      <c r="AG13" s="7" t="n">
+      <c r="AG13" s="6" t="n">
         <v>3290124947.6372</v>
       </c>
-      <c r="AH13" s="7" t="n">
+      <c r="AH13" s="6" t="n">
         <v>3285169613.1551</v>
       </c>
-      <c r="AI13" s="7" t="n">
+      <c r="AI13" s="6" t="n">
         <v>2065420295.77463</v>
       </c>
-      <c r="AJ13" s="7" t="n">
+      <c r="AJ13" s="6" t="n">
         <v>2139558509.05371</v>
       </c>
-      <c r="AK13" s="7" t="n">
+      <c r="AK13" s="6" t="n">
         <v>2221190478.42754</v>
       </c>
-      <c r="AL13" s="7" t="n">
+      <c r="AL13" s="6" t="n">
         <v>2153951383.20282</v>
       </c>
-      <c r="AM13" s="7" t="n">
+      <c r="AM13" s="6" t="n">
         <v>2871073891.83803</v>
       </c>
-      <c r="AN13" s="7" t="n">
+      <c r="AN13" s="6" t="n">
         <v>3415748307.95808</v>
       </c>
-      <c r="AO13" s="7" t="n">
+      <c r="AO13" s="6" t="n">
         <v>3692361405.32303</v>
       </c>
-      <c r="AP13" s="7" t="n">
+      <c r="AP13" s="6" t="n">
         <v>3727865336.59594</v>
       </c>
-      <c r="AQ13" s="7" t="n">
+      <c r="AQ13" s="6" t="n">
         <v>3367163499.28454</v>
       </c>
-      <c r="AR13" s="7" t="n">
+      <c r="AR13" s="6" t="n">
         <v>3650924951.5715</v>
       </c>
-      <c r="AS13" s="7" t="n">
+      <c r="AS13" s="6" t="n">
         <v>2520772704.22382</v>
       </c>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3910,110 +3956,110 @@
       <c r="K14" t="s">
         <v>350</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="6" t="n">
         <v>658904477.410345</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="6" t="n">
         <v>1409648332.87516</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="6" t="n">
         <v>1388061615.08127</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="6" t="n">
         <v>1211783216.69277</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="6" t="n">
         <v>797879086.368075</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="Q14" s="6" t="n">
         <v>815826361.706178</v>
       </c>
-      <c r="R14" s="7" t="n">
+      <c r="R14" s="6" t="n">
         <v>1007423458.2084</v>
       </c>
-      <c r="S14" s="7" t="n">
+      <c r="S14" s="6" t="n">
         <v>786756945.220834</v>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="T14" s="6" t="n">
         <v>747224784.017943</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="U14" s="6" t="n">
         <v>829469620.049711</v>
       </c>
-      <c r="V14" s="7" t="n">
+      <c r="V14" s="6" t="n">
         <v>811443149.560682</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="W14" s="6" t="n">
         <v>959035905.222195</v>
       </c>
-      <c r="X14" s="7" t="n">
+      <c r="X14" s="6" t="n">
         <v>1115974212.16967</v>
       </c>
-      <c r="Y14" s="7" t="n">
+      <c r="Y14" s="6" t="n">
         <v>1255887340.43355</v>
       </c>
-      <c r="Z14" s="7" t="n">
+      <c r="Z14" s="6" t="n">
         <v>1739360417.93796</v>
       </c>
-      <c r="AA14" s="7" t="n">
+      <c r="AA14" s="6" t="n">
         <v>2419860865.2064</v>
       </c>
-      <c r="AB14" s="7" t="n">
+      <c r="AB14" s="6" t="n">
         <v>2257095071.74183</v>
       </c>
-      <c r="AC14" s="7" t="n">
+      <c r="AC14" s="6" t="n">
         <v>2763225570.23864</v>
       </c>
-      <c r="AD14" s="7" t="n">
+      <c r="AD14" s="6" t="n">
         <v>2652453679.46565</v>
       </c>
-      <c r="AE14" s="7" t="n">
+      <c r="AE14" s="6" t="n">
         <v>2554449765.0111</v>
       </c>
-      <c r="AF14" s="7" t="n">
+      <c r="AF14" s="6" t="n">
         <v>2058534307.95683</v>
       </c>
-      <c r="AG14" s="7" t="n">
+      <c r="AG14" s="6" t="n">
         <v>1631528453.4862</v>
       </c>
-      <c r="AH14" s="7" t="n">
+      <c r="AH14" s="6" t="n">
         <v>1645642361.81307</v>
       </c>
-      <c r="AI14" s="7" t="n">
+      <c r="AI14" s="6" t="n">
         <v>1041892889.11343</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="6" t="n">
         <v>1090853285.12305</v>
       </c>
-      <c r="AK14" s="7" t="n">
+      <c r="AK14" s="6" t="n">
         <v>992830462.268748</v>
       </c>
-      <c r="AL14" s="7" t="n">
+      <c r="AL14" s="6" t="n">
         <v>1561344837.01679</v>
       </c>
-      <c r="AM14" s="7" t="n">
+      <c r="AM14" s="6" t="n">
         <v>1273462739.64283</v>
       </c>
-      <c r="AN14" s="7" t="n">
+      <c r="AN14" s="6" t="n">
         <v>1551362038.84365</v>
       </c>
-      <c r="AO14" s="7" t="n">
+      <c r="AO14" s="6" t="n">
         <v>1684413589.30331</v>
       </c>
-      <c r="AP14" s="7" t="n">
+      <c r="AP14" s="6" t="n">
         <v>1343669221.48958</v>
       </c>
-      <c r="AQ14" s="7" t="n">
+      <c r="AQ14" s="6" t="n">
         <v>1518561674.46624</v>
       </c>
-      <c r="AR14" s="7" t="n">
+      <c r="AR14" s="6" t="n">
         <v>1576402107.8467</v>
       </c>
-      <c r="AS14" s="7" t="n">
+      <c r="AS14" s="6" t="n">
         <v>1094967045.60968</v>
       </c>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4022,147 +4068,147 @@
       <c r="K15" t="s">
         <v>351</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="6" t="n">
         <v>1195035154.8919</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" s="6" t="n">
         <v>532001475.749145</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="6" t="n">
         <v>311885155.809354</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="6" t="n">
         <v>327526167.600954</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="6" t="n">
         <v>195827138.477859</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="Q15" s="6" t="n">
         <v>155493320.106879</v>
       </c>
-      <c r="R15" s="7" t="n">
+      <c r="R15" s="6" t="n">
         <v>310145945.2124</v>
       </c>
-      <c r="S15" s="7" t="n">
+      <c r="S15" s="6" t="n">
         <v>6655995.65469811</v>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="T15" s="6" t="n">
         <v>10056673.6100003</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="6" t="n">
         <v>7526096.35763136</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="n">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6" t="n">
         <v>82670.8444655369</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="X15" s="6" t="n">
         <v>1792039.5932306</v>
       </c>
-      <c r="Y15" s="7" t="n">
+      <c r="Y15" s="6" t="n">
         <v>44351.3147597921</v>
       </c>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="6" t="n">
         <v>441823.010040857</v>
       </c>
-      <c r="AA15" s="7" t="n">
+      <c r="AA15" s="6" t="n">
         <v>528650.473183166</v>
       </c>
-      <c r="AB15" s="7" t="n">
+      <c r="AB15" s="6" t="n">
         <v>438429.901628984</v>
       </c>
-      <c r="AC15" s="7" t="n">
+      <c r="AC15" s="6" t="n">
         <v>811672.804694997</v>
       </c>
-      <c r="AD15" s="7" t="n">
+      <c r="AD15" s="6" t="n">
         <v>2181986.85630186</v>
       </c>
-      <c r="AE15" s="7" t="n">
+      <c r="AE15" s="6" t="n">
         <v>122622561.539769</v>
       </c>
-      <c r="AF15" s="7" t="n">
+      <c r="AF15" s="6" t="n">
         <v>72822135.7620194</v>
       </c>
-      <c r="AG15" s="7" t="n">
+      <c r="AG15" s="6" t="n">
         <v>163478848.460584</v>
       </c>
-      <c r="AH15" s="7" t="n">
+      <c r="AH15" s="6" t="n">
         <v>33858425.4006724</v>
       </c>
-      <c r="AI15" s="7" t="n">
+      <c r="AI15" s="6" t="n">
         <v>14069866.6812369</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="6" t="n">
         <v>-2517393.95993376</v>
       </c>
-      <c r="AK15" s="7" t="n">
+      <c r="AK15" s="6" t="n">
         <v>4629069.91534769</v>
       </c>
-      <c r="AL15" s="7" t="n">
+      <c r="AL15" s="6" t="n">
         <v>-576274.103140006</v>
       </c>
-      <c r="AM15" s="7" t="n">
+      <c r="AM15" s="6" t="n">
         <v>709546.794210098</v>
       </c>
-      <c r="AN15" s="7" t="n">
+      <c r="AN15" s="6" t="n">
         <v>48649.3932706189</v>
       </c>
-      <c r="AO15" s="7" t="n">
+      <c r="AO15" s="6" t="n">
         <v>235093.875500735</v>
       </c>
-      <c r="AP15" s="7" t="n">
+      <c r="AP15" s="6" t="n">
         <v>701908.521538983</v>
       </c>
-      <c r="AQ15" s="7" t="n">
+      <c r="AQ15" s="6" t="n">
         <v>277525.734394847</v>
       </c>
-      <c r="AR15" s="7" t="n">
+      <c r="AR15" s="6" t="n">
         <v>120085</v>
       </c>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="7"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5824,2075 +5870,2003 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <f t="shared" ref="A1:A10" si="0">N1</f>
-        <v>PricingUCA.sumlong</v>
+        <f>N1</f>
       </c>
       <c r="B1" t="str">
-        <f t="shared" ref="B1:B10" si="1">O1</f>
-        <v>PricingUCA</v>
+        <f>O1</f>
       </c>
       <c r="M1" t="s">
         <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="R1" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="T1" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="V1" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="W1" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="X1" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="Y1" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="Z1" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="AA1" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="AB1" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="AC1" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="AD1" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="AE1" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="AF1" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="AG1" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="AH1" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="AI1" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="AJ1" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="AK1" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="AL1" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="AM1" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="AN1" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="AO1" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="AP1" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="AQ1" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="AR1" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="AS1" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="AT1" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="AU1" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="AV1" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="AW1" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <f t="shared" si="0"/>
-        <v>Firm-Fixed-Price</v>
+        <f>N2</f>
       </c>
       <c r="B2" t="str">
-        <f t="shared" si="1"/>
-        <v>FFP</v>
+        <f>O2</f>
       </c>
       <c r="M2" t="s">
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="n">
         <v>3140043239</v>
       </c>
-      <c r="AA2" s="1" t="n">
-        <v>4201842517.2399998</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>6906249606.6484003</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>6554613572.8095999</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>7542935888.7852001</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>8065828322.8783998</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>8945938179.3539009</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>10480041815.817301</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>12891702943.184</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>11228379316.9394</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>10150811886.151199</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>9223565415.3386002</v>
-      </c>
-      <c r="AL2" s="1" t="n">
-        <v>8701955622.3239994</v>
-      </c>
-      <c r="AM2" s="1" t="n">
-        <v>7452142339.9020004</v>
-      </c>
-      <c r="AN2" s="1" t="n">
-        <v>6711117831.7236996</v>
-      </c>
-      <c r="AO2" s="1" t="n">
-        <v>6839610509.5986996</v>
-      </c>
-      <c r="AP2" s="1" t="n">
-        <v>7560792264.6859999</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>8784997403.6140995</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>9249124906.0079002</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>9751300208.1095009</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>10921196830.372</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>10061930650.582199</v>
-      </c>
-      <c r="AV2" s="1" t="n">
-        <v>10547189343.442699</v>
-      </c>
-      <c r="AW2" s="1" t="n">
-        <v>7513222430.9843998</v>
-      </c>
-      <c r="AX2" s="1"/>
+      <c r="AA2" s="7" t="n">
+        <v>4201842529.24</v>
+      </c>
+      <c r="AB2" s="7" t="n">
+        <v>6882899730.65</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>6554613569.8096</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>7542935903.7852</v>
+      </c>
+      <c r="AE2" s="7" t="n">
+        <v>8065808291.4479</v>
+      </c>
+      <c r="AF2" s="7" t="n">
+        <v>8945938179.6011</v>
+      </c>
+      <c r="AG2" s="7" t="n">
+        <v>10480041823.1032</v>
+      </c>
+      <c r="AH2" s="7" t="n">
+        <v>12891702967.8382</v>
+      </c>
+      <c r="AI2" s="7" t="n">
+        <v>11228379336.1362</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
+        <v>10150811886.1512</v>
+      </c>
+      <c r="AK2" s="7" t="n">
+        <v>9223565415.3386</v>
+      </c>
+      <c r="AL2" s="7" t="n">
+        <v>8701955622.324</v>
+      </c>
+      <c r="AM2" s="7" t="n">
+        <v>7452142339.902</v>
+      </c>
+      <c r="AN2" s="7" t="n">
+        <v>6711117831.7237</v>
+      </c>
+      <c r="AO2" s="7" t="n">
+        <v>6839748009.5987</v>
+      </c>
+      <c r="AP2" s="7" t="n">
+        <v>7560792264.686</v>
+      </c>
+      <c r="AQ2" s="7" t="n">
+        <v>8784997403.6141</v>
+      </c>
+      <c r="AR2" s="7" t="n">
+        <v>9249748103.81</v>
+      </c>
+      <c r="AS2" s="7" t="n">
+        <v>9748242199.3651</v>
+      </c>
+      <c r="AT2" s="7" t="n">
+        <v>10984850275.7495</v>
+      </c>
+      <c r="AU2" s="7" t="n">
+        <v>10060275877.7159</v>
+      </c>
+      <c r="AV2" s="7" t="n">
+        <v>10545599531.6296</v>
+      </c>
+      <c r="AW2" s="7" t="n">
+        <v>16457031050.544</v>
+      </c>
+      <c r="AX2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Less Common</v>
+        <f>N3</f>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="1"/>
-        <v>Other FP</v>
+        <f>O3</f>
       </c>
       <c r="M3" t="s">
         <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7" t="n">
         <v>243308654</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v>291318567</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>169640369</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>140427185</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>339189597</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>301198254.65869999</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>420823299.6473</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>404555833.0535</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>464221392.17640001</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>1134434106.4638</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>1134217345.7130001</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>944939774.33469999</v>
-      </c>
-      <c r="AL3" s="1" t="n">
-        <v>1215854579.8417001</v>
-      </c>
-      <c r="AM3" s="1" t="n">
-        <v>974383093.80999994</v>
-      </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AA3" s="7" t="n">
+        <v>291318570</v>
+      </c>
+      <c r="AB3" s="7" t="n">
+        <v>169640370</v>
+      </c>
+      <c r="AC3" s="7" t="n">
+        <v>140427187</v>
+      </c>
+      <c r="AD3" s="7" t="n">
+        <v>339189596</v>
+      </c>
+      <c r="AE3" s="7" t="n">
+        <v>301198255.3862</v>
+      </c>
+      <c r="AF3" s="7" t="n">
+        <v>420823302.1099</v>
+      </c>
+      <c r="AG3" s="7" t="n">
+        <v>404555828.8084</v>
+      </c>
+      <c r="AH3" s="7" t="n">
+        <v>464221393.9554</v>
+      </c>
+      <c r="AI3" s="7" t="n">
+        <v>1134434101.0051</v>
+      </c>
+      <c r="AJ3" s="7" t="n">
+        <v>1134217345.713</v>
+      </c>
+      <c r="AK3" s="7" t="n">
+        <v>944939774.3347</v>
+      </c>
+      <c r="AL3" s="7" t="n">
+        <v>1215854579.8417</v>
+      </c>
+      <c r="AM3" s="7" t="n">
+        <v>974383093.81</v>
+      </c>
+      <c r="AN3" s="7" t="n">
         <v>489522688.06</v>
       </c>
-      <c r="AO3" s="1" t="n">
-        <v>498305939.22710001</v>
-      </c>
-      <c r="AP3" s="1" t="n">
+      <c r="AO3" s="7" t="n">
+        <v>498305939.2271</v>
+      </c>
+      <c r="AP3" s="7" t="n">
         <v>498483386.2324</v>
       </c>
-      <c r="AQ3" s="1" t="n">
-        <v>476897525.55339998</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>606038775.40840006</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>380975668.16350001</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>399848951.50599998</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>544037931.45679998</v>
-      </c>
-      <c r="AV3" s="1" t="n">
-        <v>485660871.50529999</v>
-      </c>
-      <c r="AW3" s="1" t="n">
-        <v>54933350.803199999</v>
-      </c>
-      <c r="AX3" s="1"/>
+      <c r="AQ3" s="7" t="n">
+        <v>476897525.5534</v>
+      </c>
+      <c r="AR3" s="7" t="n">
+        <v>606038775.4084</v>
+      </c>
+      <c r="AS3" s="7" t="n">
+        <v>380975668.1635</v>
+      </c>
+      <c r="AT3" s="7" t="n">
+        <v>399848951.506</v>
+      </c>
+      <c r="AU3" s="7" t="n">
+        <v>544037931.4568</v>
+      </c>
+      <c r="AV3" s="7" t="n">
+        <v>485660873.1652</v>
+      </c>
+      <c r="AW3" s="7" t="n">
+        <v>867633102.4515</v>
+      </c>
+      <c r="AX3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Less Common</v>
+        <f>N4</f>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>T&amp;M/LH/FPLOE</v>
+        <f>O4</f>
       </c>
       <c r="M4" t="s">
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="n">
         <v>85991847</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="7" t="n">
         <v>51375522</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AB4" s="7" t="n">
         <v>86996030</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AC4" s="7" t="n">
         <v>57538828</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AD4" s="7" t="n">
         <v>91668428</v>
       </c>
-      <c r="AE4" s="1" t="n">
-        <v>90291331.4375</v>
-      </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AE4" s="7" t="n">
+        <v>90291331.4369</v>
+      </c>
+      <c r="AF4" s="7" t="n">
         <v>124552842.7969</v>
       </c>
-      <c r="AG4" s="1" t="n">
-        <v>120471078.7933</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>104147609.3629</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>90614598.600899994</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AG4" s="7" t="n">
+        <v>120471078.7351</v>
+      </c>
+      <c r="AH4" s="7" t="n">
+        <v>104147609.2926</v>
+      </c>
+      <c r="AI4" s="7" t="n">
+        <v>90614598.6195</v>
+      </c>
+      <c r="AJ4" s="7" t="n">
         <v>124597994.3127</v>
       </c>
-      <c r="AK4" s="1" t="n">
-        <v>544336276.37090003</v>
-      </c>
-      <c r="AL4" s="1" t="n">
-        <v>513247921.95850003</v>
-      </c>
-      <c r="AM4" s="1" t="n">
-        <v>49840782.201899998</v>
-      </c>
-      <c r="AN4" s="1" t="n">
-        <v>81774892.783800006</v>
-      </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AK4" s="7" t="n">
+        <v>544336276.3709</v>
+      </c>
+      <c r="AL4" s="7" t="n">
+        <v>513247921.9585</v>
+      </c>
+      <c r="AM4" s="7" t="n">
+        <v>49840782.2019</v>
+      </c>
+      <c r="AN4" s="7" t="n">
+        <v>81774892.7838</v>
+      </c>
+      <c r="AO4" s="7" t="n">
         <v>125096728.956</v>
       </c>
-      <c r="AP4" s="1" t="n">
-        <v>131702863.87019999</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>143739130.00549999</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>184328152.38249999</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>168844940.91499999</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>178341984.66819999</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>186023807.74790001</v>
-      </c>
-      <c r="AV4" s="1" t="n">
-        <v>198001000.23460001</v>
-      </c>
-      <c r="AW4" s="1" t="n">
-        <v>361697052.93540001</v>
-      </c>
-      <c r="AX4" s="1"/>
+      <c r="AP4" s="7" t="n">
+        <v>131702863.8702</v>
+      </c>
+      <c r="AQ4" s="7" t="n">
+        <v>143739130.0055</v>
+      </c>
+      <c r="AR4" s="7" t="n">
+        <v>184328152.3918</v>
+      </c>
+      <c r="AS4" s="7" t="n">
+        <v>168844940.9642</v>
+      </c>
+      <c r="AT4" s="7" t="n">
+        <v>178341984.6682</v>
+      </c>
+      <c r="AU4" s="7" t="n">
+        <v>186023807.9772</v>
+      </c>
+      <c r="AV4" s="7" t="n">
+        <v>198001001.3261</v>
+      </c>
+      <c r="AW4" s="7" t="n">
+        <v>586344871.7629</v>
+      </c>
+      <c r="AX4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Incentive</v>
+        <f>N5</f>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Incentive</v>
+        <f>O5</f>
       </c>
       <c r="M5" t="s">
         <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7" t="n">
         <v>1347721151</v>
       </c>
-      <c r="AA5" s="1" t="n">
-        <v>1316111608</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>1630834274</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>2168931643</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>1387107713</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>1465344953</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>1758595351</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>2184704912.8867002</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>1998198608.9447999</v>
-      </c>
-      <c r="AI5" s="1" t="n">
-        <v>1110007994.5969999</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AA5" s="7" t="n">
+        <v>1316111602</v>
+      </c>
+      <c r="AB5" s="7" t="n">
+        <v>1630834278</v>
+      </c>
+      <c r="AC5" s="7" t="n">
+        <v>2168931638</v>
+      </c>
+      <c r="AD5" s="7" t="n">
+        <v>1387107710</v>
+      </c>
+      <c r="AE5" s="7" t="n">
+        <v>1465344970</v>
+      </c>
+      <c r="AF5" s="7" t="n">
+        <v>1758595339</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <v>2184704917.3788</v>
+      </c>
+      <c r="AH5" s="7" t="n">
+        <v>1998198588.98</v>
+      </c>
+      <c r="AI5" s="7" t="n">
+        <v>1110007987.709</v>
+      </c>
+      <c r="AJ5" s="7" t="n">
         <v>1258453770.7495</v>
       </c>
-      <c r="AK5" s="1" t="n">
-        <v>1254027140.1484001</v>
-      </c>
-      <c r="AL5" s="1" t="n">
+      <c r="AK5" s="7" t="n">
+        <v>1254027140.1484</v>
+      </c>
+      <c r="AL5" s="7" t="n">
         <v>1620729916.701</v>
       </c>
-      <c r="AM5" s="1" t="n">
-        <v>2156750833.4949999</v>
-      </c>
-      <c r="AN5" s="1" t="n">
-        <v>2452088850.8274999</v>
-      </c>
-      <c r="AO5" s="1" t="n">
-        <v>3102874745.4956002</v>
-      </c>
-      <c r="AP5" s="1" t="n">
-        <v>3326671265.0440001</v>
-      </c>
-      <c r="AQ5" s="1" t="n">
-        <v>4062354945.6279001</v>
-      </c>
-      <c r="AR5" s="1" t="n">
-        <v>5586764507.9498997</v>
-      </c>
-      <c r="AS5" s="1" t="n">
-        <v>7646849912.6752005</v>
-      </c>
-      <c r="AT5" s="1" t="n">
-        <v>7266363992.2004995</v>
-      </c>
-      <c r="AU5" s="1" t="n">
-        <v>6435793243.0657997</v>
-      </c>
-      <c r="AV5" s="1" t="n">
-        <v>4852503484.7870998</v>
-      </c>
-      <c r="AW5" s="1" t="n">
-        <v>2960825801.9074998</v>
-      </c>
-      <c r="AX5" s="1"/>
+      <c r="AM5" s="7" t="n">
+        <v>2156750833.495</v>
+      </c>
+      <c r="AN5" s="7" t="n">
+        <v>2452088850.8275</v>
+      </c>
+      <c r="AO5" s="7" t="n">
+        <v>3102874745.4956</v>
+      </c>
+      <c r="AP5" s="7" t="n">
+        <v>3326671265.044</v>
+      </c>
+      <c r="AQ5" s="7" t="n">
+        <v>4062354945.6279</v>
+      </c>
+      <c r="AR5" s="7" t="n">
+        <v>5586764504.1314</v>
+      </c>
+      <c r="AS5" s="7" t="n">
+        <v>7646849899.2957</v>
+      </c>
+      <c r="AT5" s="7" t="n">
+        <v>7266364052.1123</v>
+      </c>
+      <c r="AU5" s="7" t="n">
+        <v>6435801654.5804</v>
+      </c>
+      <c r="AV5" s="7" t="n">
+        <v>4852503462.7917</v>
+      </c>
+      <c r="AW5" s="7" t="n">
+        <v>6489140174.717</v>
+      </c>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Other Cost-Based</v>
+        <f>N6</f>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Other CB</v>
+        <f>O6</f>
       </c>
       <c r="M6" t="s">
         <v>54</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7" t="n">
         <v>2795926985.375</v>
       </c>
-      <c r="AA6" s="1" t="n">
-        <v>2796157381.2188001</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>3282611241.5858998</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>3852412548.4102001</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>3045985592.375</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>2999908419.2031002</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>2789079776.7198</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>3535252956.1704998</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>2275036551.4738998</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>2079536007.4360001</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>2279444999.8506999</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>2203933568.9899998</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>2330897469.2119002</v>
-      </c>
-      <c r="AM6" s="1" t="n">
+      <c r="AA6" s="7" t="n">
+        <v>2796033607.22</v>
+      </c>
+      <c r="AB6" s="7" t="n">
+        <v>3282758673.8734</v>
+      </c>
+      <c r="AC6" s="7" t="n">
+        <v>3858124563.4102</v>
+      </c>
+      <c r="AD6" s="7" t="n">
+        <v>3045941019.3</v>
+      </c>
+      <c r="AE6" s="7" t="n">
+        <v>3001814121.0081</v>
+      </c>
+      <c r="AF6" s="7" t="n">
+        <v>2789079775.7688</v>
+      </c>
+      <c r="AG6" s="7" t="n">
+        <v>3535252941.74</v>
+      </c>
+      <c r="AH6" s="7" t="n">
+        <v>2276365663.8819</v>
+      </c>
+      <c r="AI6" s="7" t="n">
+        <v>2085044126.9844</v>
+      </c>
+      <c r="AJ6" s="7" t="n">
+        <v>2279444999.8507</v>
+      </c>
+      <c r="AK6" s="7" t="n">
+        <v>2203933568.99</v>
+      </c>
+      <c r="AL6" s="7" t="n">
+        <v>2330897469.2119</v>
+      </c>
+      <c r="AM6" s="7" t="n">
         <v>2051997608.9233</v>
       </c>
-      <c r="AN6" s="1" t="n">
-        <v>2487580121.9208002</v>
-      </c>
-      <c r="AO6" s="1" t="n">
+      <c r="AN6" s="7" t="n">
+        <v>2487580121.9208</v>
+      </c>
+      <c r="AO6" s="7" t="n">
         <v>2526669998.6822</v>
       </c>
-      <c r="AP6" s="1" t="n">
+      <c r="AP6" s="7" t="n">
         <v>2640395378.7156</v>
       </c>
-      <c r="AQ6" s="1" t="n">
+      <c r="AQ6" s="7" t="n">
         <v>2629351175.7988</v>
       </c>
-      <c r="AR6" s="1" t="n">
-        <v>3255666918.1855001</v>
-      </c>
-      <c r="AS6" s="1" t="n">
-        <v>3214395561.8442998</v>
-      </c>
-      <c r="AT6" s="1" t="n">
-        <v>3199090831.8449001</v>
-      </c>
-      <c r="AU6" s="1" t="n">
-        <v>3037362587.6587</v>
-      </c>
-      <c r="AV6" s="1" t="n">
-        <v>2823137497.5384002</v>
-      </c>
-      <c r="AW6" s="1" t="n">
-        <v>1665758909.8611</v>
-      </c>
-      <c r="AX6" s="1"/>
+      <c r="AR6" s="7" t="n">
+        <v>3255666915.9603</v>
+      </c>
+      <c r="AS6" s="7" t="n">
+        <v>3214395563.2155</v>
+      </c>
+      <c r="AT6" s="7" t="n">
+        <v>3199300832.259</v>
+      </c>
+      <c r="AU6" s="7" t="n">
+        <v>3037907817.1096</v>
+      </c>
+      <c r="AV6" s="7" t="n">
+        <v>2822034616.5204</v>
+      </c>
+      <c r="AW6" s="7" t="n">
+        <v>3200329488.4263</v>
+      </c>
+      <c r="AX6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Undefinitized
-Contract Award</v>
+        <f>N7</f>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>UCA</v>
+        <f>O7</f>
       </c>
       <c r="M7" t="s">
         <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7" t="n">
         <v>225135523</v>
       </c>
-      <c r="AA7" s="1" t="n">
-        <v>447692754</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>246831216</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>755204057.25</v>
-      </c>
-      <c r="AD7" s="1" t="n">
-        <v>1614643024</v>
-      </c>
-      <c r="AE7" s="1" t="n">
-        <v>1673662914</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>860491200.85940003</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>726343565.15040004</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>651681537.08759999</v>
-      </c>
-      <c r="AI7" s="1" t="n">
-        <v>699221803.38269997</v>
-      </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="AA7" s="7" t="n">
+        <v>447816520</v>
+      </c>
+      <c r="AB7" s="7" t="n">
+        <v>270033672</v>
+      </c>
+      <c r="AC7" s="7" t="n">
+        <v>755092399.25</v>
+      </c>
+      <c r="AD7" s="7" t="n">
+        <v>1614687578</v>
+      </c>
+      <c r="AE7" s="7" t="n">
+        <v>1673682935</v>
+      </c>
+      <c r="AF7" s="7" t="n">
+        <v>860491193.86</v>
+      </c>
+      <c r="AG7" s="7" t="n">
+        <v>726343555.82</v>
+      </c>
+      <c r="AH7" s="7" t="n">
+        <v>651681541.0188</v>
+      </c>
+      <c r="AI7" s="7" t="n">
+        <v>699221796.1302</v>
+      </c>
+      <c r="AJ7" s="7" t="n">
         <v>1736977845.217</v>
       </c>
-      <c r="AK7" s="1" t="n">
+      <c r="AK7" s="7" t="n">
         <v>1255951571.2465</v>
       </c>
-      <c r="AL7" s="1" t="n">
-        <v>1287154104.6417999</v>
-      </c>
-      <c r="AM7" s="1" t="n">
+      <c r="AL7" s="7" t="n">
+        <v>1287154104.6418</v>
+      </c>
+      <c r="AM7" s="7" t="n">
         <v>356226972.0625</v>
       </c>
-      <c r="AN7" s="1" t="n">
-        <v>345046632.16049999</v>
-      </c>
-      <c r="AO7" s="1" t="n">
-        <v>155057056.77000001</v>
-      </c>
-      <c r="AP7" s="1" t="n">
-        <v>2317662899.2179999</v>
-      </c>
-      <c r="AQ7" s="1" t="n">
-        <v>1914361156.6814001</v>
-      </c>
-      <c r="AR7" s="1" t="n">
-        <v>2790183121.6121998</v>
-      </c>
-      <c r="AS7" s="1" t="n">
-        <v>1982248508.6542001</v>
-      </c>
-      <c r="AT7" s="1" t="n">
-        <v>1898728139.1465001</v>
-      </c>
-      <c r="AU7" s="1" t="n">
-        <v>1705788877.2460001</v>
-      </c>
-      <c r="AV7" s="1" t="n">
-        <v>1573458292.8081999</v>
-      </c>
-      <c r="AW7" s="1" t="n">
-        <v>2602349630.0032001</v>
-      </c>
-      <c r="AX7" s="1"/>
+      <c r="AN7" s="7" t="n">
+        <v>345046632.1605</v>
+      </c>
+      <c r="AO7" s="7" t="n">
+        <v>155057056.77</v>
+      </c>
+      <c r="AP7" s="7" t="n">
+        <v>2317662899.218</v>
+      </c>
+      <c r="AQ7" s="7" t="n">
+        <v>1914361156.6814</v>
+      </c>
+      <c r="AR7" s="7" t="n">
+        <v>2789785181.8322</v>
+      </c>
+      <c r="AS7" s="7" t="n">
+        <v>1981949284.4604</v>
+      </c>
+      <c r="AT7" s="7" t="n">
+        <v>1832144919.0515</v>
+      </c>
+      <c r="AU7" s="7" t="n">
+        <v>1705711094.5126</v>
+      </c>
+      <c r="AV7" s="7" t="n">
+        <v>1573458317.8004</v>
+      </c>
+      <c r="AW7" s="7" t="n">
+        <v>6506710024.0896</v>
+      </c>
+      <c r="AX7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Unclear</v>
+        <f>N8</f>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>Combination/Other</v>
+        <f>O8</f>
       </c>
       <c r="M8" t="s">
         <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>365</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="n">
-        <v>24429.580099999999</v>
-      </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7" t="n">
+        <v>24429.5801</v>
+      </c>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7" t="n">
         <v>33531281</v>
       </c>
-      <c r="AG8" s="1" t="n">
-        <v>492856836.45310003</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>621569325.36880004</v>
-      </c>
-      <c r="AI8" s="1" t="n">
-        <v>1441905486.7423</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>1203725.9901999999</v>
-      </c>
-      <c r="AK8" s="1" t="n">
-        <v>-631696.42000000004</v>
-      </c>
-      <c r="AL8" s="1" t="n">
-        <v>-591936.27489999996</v>
-      </c>
-      <c r="AM8" s="1" t="n">
-        <v>-1068232.8500000001</v>
-      </c>
-      <c r="AN8" s="1" t="n">
-        <v>-1066664.3999999999</v>
-      </c>
-      <c r="AO8" s="1" t="n">
+      <c r="AG8" s="7" t="n">
+        <v>492856840.39</v>
+      </c>
+      <c r="AH8" s="7" t="n">
+        <v>620240206.2953</v>
+      </c>
+      <c r="AI8" s="7" t="n">
+        <v>1436397365.1891</v>
+      </c>
+      <c r="AJ8" s="7" t="n">
+        <v>1203725.9902</v>
+      </c>
+      <c r="AK8" s="7" t="n">
+        <v>-631696.42</v>
+      </c>
+      <c r="AL8" s="7" t="n">
+        <v>-591936.2749</v>
+      </c>
+      <c r="AM8" s="7" t="n">
+        <v>-1068232.85</v>
+      </c>
+      <c r="AN8" s="7" t="n">
+        <v>-1066664.4</v>
+      </c>
+      <c r="AO8" s="7" t="n">
         <v>-252</v>
       </c>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1" t="n">
-        <v>65050.421900000001</v>
-      </c>
-      <c r="AU8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7" t="n">
+        <v>65050.4219</v>
+      </c>
+      <c r="AU8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>Unclear</v>
-      </c>
-      <c r="B9" t="n">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
       </c>
       <c r="M9" t="s">
         <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9" s="7" t="n">
         <v>11331278000</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="7" t="n">
         <v>14834080775</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="7" t="n">
         <v>13464555013</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="7" t="n">
         <v>11175370345</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="7" t="n">
         <v>8533017359</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="7" t="n">
         <v>8543659793</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="7" t="n">
         <v>8817441132</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="W9" s="7" t="n">
         <v>8032566815</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="X9" s="7" t="n">
         <v>8630834203</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Y9" s="7" t="n">
         <v>9161817835</v>
       </c>
-      <c r="Z9" s="1" t="n">
-        <v>843274836.89999998</v>
-      </c>
-      <c r="AA9" s="1" t="n">
+      <c r="Z9" s="7" t="n">
+        <v>843274836.9</v>
+      </c>
+      <c r="AA9" s="7" t="n">
         <v>16275134.9395</v>
       </c>
-      <c r="AB9" s="1" t="n">
-        <v>35857443.125</v>
-      </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AB9" s="7" t="n">
+        <v>35857443.12</v>
+      </c>
+      <c r="AC9" s="7" t="n">
         <v>38683914</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AD9" s="7" t="n">
         <v>71962346</v>
       </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AE9" s="7" t="n">
         <v>242402023</v>
       </c>
-      <c r="AF9" s="1" t="n">
-        <v>92783527.880899996</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>2437182.0153999999</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>199489834.31549999</v>
-      </c>
-      <c r="AI9" s="1" t="n">
-        <v>131441626.7057</v>
-      </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AF9" s="7" t="n">
+        <v>92783527.88</v>
+      </c>
+      <c r="AG9" s="7" t="n">
+        <v>2437182.0154</v>
+      </c>
+      <c r="AH9" s="7" t="n">
+        <v>199489835.3954</v>
+      </c>
+      <c r="AI9" s="7" t="n">
+        <v>131441626.68</v>
+      </c>
+      <c r="AJ9" s="7" t="n">
         <v>1188025.1387</v>
       </c>
-      <c r="AK9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="n">
-        <v>10686499.550799999</v>
-      </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AK9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7" t="n">
+        <v>10686499.5508</v>
+      </c>
+      <c r="AM9" s="7" t="n">
         <v>339200</v>
       </c>
-      <c r="AN9" s="1" t="n">
+      <c r="AN9" s="7" t="n">
         <v>12038917.376</v>
       </c>
-      <c r="AO9" s="1" t="n">
-        <v>3242003.5950000002</v>
-      </c>
-      <c r="AP9" s="1" t="n">
+      <c r="AO9" s="7" t="n">
+        <v>3242003.595</v>
+      </c>
+      <c r="AP9" s="7" t="n">
         <v>341055.0821</v>
       </c>
-      <c r="AQ9" s="1" t="n">
-        <v>33011264.261700001</v>
-      </c>
-      <c r="AR9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1"/>
+      <c r="AQ9" s="7" t="n">
+        <v>33011264.2617</v>
+      </c>
+      <c r="AR9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>Grand Total</v>
+        <f>N10</f>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="1"/>
+        <f>O10</f>
       </c>
       <c r="N10" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="O10" t="s">
-        <v>310</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <f t="shared" ref="P10:AV10" si="2">SUM(P2:P9)</f>
-        <v>11331278000</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>14834080775</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>13464555013</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>11175370345</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>8533017359</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>8543659793</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>8817441132</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>8032566815</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>8630834203</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>9161817835</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>8681402236.2749996</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>9120773484.3983002</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>12359020180.359299</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>13567836178.0499</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>14093492589.1602</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>14838636218.1777</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>15025795459.258202</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>17946664180.340199</v>
-      </c>
-      <c r="AH10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>19206047801.913898</v>
-      </c>
-      <c r="AI10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>17915540940.867802</v>
-      </c>
-      <c r="AJ10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>16686895593.122999</v>
-      </c>
-      <c r="AK10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>15426122050.009098</v>
-      </c>
-      <c r="AL10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>15679934177.9548</v>
-      </c>
-      <c r="AM10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>13040612597.544699</v>
-      </c>
-      <c r="AN10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>12578103270.452299</v>
-      </c>
-      <c r="AO10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>13250856730.3246</v>
-      </c>
-      <c r="AP10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>16476049112.848299</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>18044712601.542797</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>21672106381.546402</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>23144614800.361702</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>23863635780.16</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>21970937097.757397</v>
-      </c>
-      <c r="AV10" s="1" t="n">
-        <f t="shared" si="2"/>
-        <v>20479950490.316299</v>
-      </c>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
+        <v>367</v>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="7" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="7" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="7" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="7" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="7" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="7" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="7" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="7" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="7" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="7" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="7" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="7" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="7" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="7" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="7" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="7" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="7" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="7" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="7" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="7" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="7" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="7" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="7" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="7" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="7" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="7" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="7" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="7" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="7" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="7" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <f t="shared" ref="A13:A22" si="3">N13</f>
-        <v>PricingUCA.sumlong</v>
+        <f>N13</f>
       </c>
       <c r="B13" t="str">
-        <f t="shared" ref="B13:B22" si="4">O13</f>
-        <v>PricingUCA</v>
+        <f>O13</f>
       </c>
       <c r="M13" t="s">
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="P13" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Q13" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="R13" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="S13" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="T13" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="U13" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="V13" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="W13" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="X13" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="Y13" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="Z13" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="AA13" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="AB13" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="AC13" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="AD13" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="AE13" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="AF13" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="AG13" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="AH13" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="AI13" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="AJ13" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="AL13" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="AM13" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="AN13" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="AO13" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="AP13" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="AQ13" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="AR13" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="AS13" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="AT13" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="AU13" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="AV13" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="AW13" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <f t="shared" si="3"/>
-        <v>Firm-Fixed-Price</v>
+        <f>N14</f>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="4"/>
-        <v>FFP</v>
+        <f>O14</f>
       </c>
       <c r="M14" t="s">
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="n">
-        <v>5073462218.8268204</v>
-      </c>
-      <c r="AA14" s="1" t="n">
-        <v>6628310515.9888601</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>10725169724.527201</v>
-      </c>
-      <c r="AC14" s="1" t="n">
-        <v>9988171437.7764606</v>
-      </c>
-      <c r="AD14" s="1" t="n">
-        <v>11219961212.1695</v>
-      </c>
-      <c r="AE14" s="1" t="n">
-        <v>11644271017.162901</v>
-      </c>
-      <c r="AF14" s="1" t="n">
-        <v>12507627338.154301</v>
-      </c>
-      <c r="AG14" s="1" t="n">
-        <v>14261418475.9245</v>
-      </c>
-      <c r="AH14" s="1" t="n">
-        <v>17184843346.717899</v>
-      </c>
-      <c r="AI14" s="1" t="n">
-        <v>14817036657.7815</v>
-      </c>
-      <c r="AJ14" s="1" t="n">
-        <v>13279573450.248501</v>
-      </c>
-      <c r="AK14" s="1" t="n">
-        <v>11828142486.987301</v>
-      </c>
-      <c r="AL14" s="1" t="n">
-        <v>10958372713.101801</v>
-      </c>
-      <c r="AM14" s="1" t="n">
-        <v>9215833098.7592907</v>
-      </c>
-      <c r="AN14" s="1" t="n">
-        <v>8141917810.4433203</v>
-      </c>
-      <c r="AO14" s="1" t="n">
-        <v>8203754185.4827204</v>
-      </c>
-      <c r="AP14" s="1" t="n">
-        <v>8994243060.7811604</v>
-      </c>
-      <c r="AQ14" s="1" t="n">
-        <v>10267236413.818001</v>
-      </c>
-      <c r="AR14" s="1" t="n">
-        <v>10561682075.566601</v>
-      </c>
-      <c r="AS14" s="1" t="n">
-        <v>10921213406.455299</v>
-      </c>
-      <c r="AT14" s="1" t="n">
-        <v>12070443370.188601</v>
-      </c>
-      <c r="AU14" s="1" t="n">
-        <v>10759097625.656099</v>
-      </c>
-      <c r="AV14" s="1" t="n">
-        <v>10547189343.442699</v>
-      </c>
-      <c r="AW14" s="1" t="n">
-        <v>7166099379.0100098</v>
-      </c>
-      <c r="AX14" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7" t="n">
+        <v>5073462218.82682</v>
+      </c>
+      <c r="AA14" s="7" t="n">
+        <v>6628310534.91859</v>
+      </c>
+      <c r="AB14" s="7" t="n">
+        <v>10688908164.7237</v>
+      </c>
+      <c r="AC14" s="7" t="n">
+        <v>9988171433.20494</v>
+      </c>
+      <c r="AD14" s="7" t="n">
+        <v>11219961234.4817</v>
+      </c>
+      <c r="AE14" s="7" t="n">
+        <v>11644242098.6939</v>
+      </c>
+      <c r="AF14" s="7" t="n">
+        <v>12507627338.4999</v>
+      </c>
+      <c r="AG14" s="7" t="n">
+        <v>14261418485.8392</v>
+      </c>
+      <c r="AH14" s="7" t="n">
+        <v>17184843379.5823</v>
+      </c>
+      <c r="AI14" s="7" t="n">
+        <v>14817036683.1137</v>
+      </c>
+      <c r="AJ14" s="7" t="n">
+        <v>13279573450.2485</v>
+      </c>
+      <c r="AK14" s="7" t="n">
+        <v>11828142486.9873</v>
+      </c>
+      <c r="AL14" s="7" t="n">
+        <v>10958372713.1018</v>
+      </c>
+      <c r="AM14" s="7" t="n">
+        <v>9215833098.75929</v>
+      </c>
+      <c r="AN14" s="7" t="n">
+        <v>8141917810.44332</v>
+      </c>
+      <c r="AO14" s="7" t="n">
+        <v>8203919109.52319</v>
+      </c>
+      <c r="AP14" s="7" t="n">
+        <v>8994243060.78116</v>
+      </c>
+      <c r="AQ14" s="7" t="n">
+        <v>10267236413.818</v>
+      </c>
+      <c r="AR14" s="7" t="n">
+        <v>10562393712.3023</v>
+      </c>
+      <c r="AS14" s="7" t="n">
+        <v>10917788512.812</v>
+      </c>
+      <c r="AT14" s="7" t="n">
+        <v>12140795120.0636</v>
+      </c>
+      <c r="AU14" s="7" t="n">
+        <v>10757328197.5577</v>
+      </c>
+      <c r="AV14" s="7" t="n">
+        <v>10545599531.6296</v>
+      </c>
+      <c r="AW14" s="7" t="n">
+        <v>15696689546.3256</v>
+      </c>
+      <c r="AX14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <f t="shared" si="3"/>
-        <v>Less Common</v>
+        <f>N15</f>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="4"/>
-        <v>Other FP</v>
+        <f>O15</f>
       </c>
       <c r="M15" t="s">
         <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="n">
-        <v>393121103.63669002</v>
-      </c>
-      <c r="AA15" s="1" t="n">
-        <v>459548379.84200799</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>263445698.212953</v>
-      </c>
-      <c r="AC15" s="1" t="n">
-        <v>213988327.873786</v>
-      </c>
-      <c r="AD15" s="1" t="n">
-        <v>504537514.04273498</v>
-      </c>
-      <c r="AE15" s="1" t="n">
-        <v>434826277.81627899</v>
-      </c>
-      <c r="AF15" s="1" t="n">
-        <v>588367692.87634599</v>
-      </c>
-      <c r="AG15" s="1" t="n">
-        <v>550526432.37972105</v>
-      </c>
-      <c r="AH15" s="1" t="n">
-        <v>618814437.30942905</v>
-      </c>
-      <c r="AI15" s="1" t="n">
-        <v>1497006047.5204401</v>
-      </c>
-      <c r="AJ15" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7" t="n">
+        <v>393121103.63669</v>
+      </c>
+      <c r="AA15" s="7" t="n">
+        <v>459548384.574439</v>
+      </c>
+      <c r="AB15" s="7" t="n">
+        <v>263445699.765918</v>
+      </c>
+      <c r="AC15" s="7" t="n">
+        <v>213988330.921463</v>
+      </c>
+      <c r="AD15" s="7" t="n">
+        <v>504537512.555255</v>
+      </c>
+      <c r="AE15" s="7" t="n">
+        <v>434826278.866538</v>
+      </c>
+      <c r="AF15" s="7" t="n">
+        <v>588367696.319393</v>
+      </c>
+      <c r="AG15" s="7" t="n">
+        <v>550526426.602917</v>
+      </c>
+      <c r="AH15" s="7" t="n">
+        <v>618814439.680864</v>
+      </c>
+      <c r="AI15" s="7" t="n">
+        <v>1497006040.31711</v>
+      </c>
+      <c r="AJ15" s="7" t="n">
         <v>1483814567.72839</v>
       </c>
-      <c r="AK15" s="1" t="n">
-        <v>1211774600.0766201</v>
-      </c>
-      <c r="AL15" s="1" t="n">
+      <c r="AK15" s="7" t="n">
+        <v>1211774600.07662</v>
+      </c>
+      <c r="AL15" s="7" t="n">
         <v>1531125672.10251</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="AM15" s="7" t="n">
         <v>1204989324.84477</v>
       </c>
-      <c r="AN15" s="1" t="n">
-        <v>593888170.71449304</v>
-      </c>
-      <c r="AO15" s="1" t="n">
-        <v>597691846.46525598</v>
-      </c>
-      <c r="AP15" s="1" t="n">
-        <v>592990863.99666595</v>
-      </c>
-      <c r="AQ15" s="1" t="n">
-        <v>557361535.24725997</v>
-      </c>
-      <c r="AR15" s="1" t="n">
-        <v>692042645.80441904</v>
-      </c>
-      <c r="AS15" s="1" t="n">
-        <v>426683261.29681498</v>
-      </c>
-      <c r="AT15" s="1" t="n">
-        <v>441925386.08591801</v>
-      </c>
-      <c r="AU15" s="1" t="n">
-        <v>581733011.27503002</v>
-      </c>
-      <c r="AV15" s="1" t="n">
-        <v>485660871.50529999</v>
-      </c>
-      <c r="AW15" s="1" t="n">
-        <v>52395340.973044097</v>
-      </c>
-      <c r="AX15" s="1"/>
+      <c r="AN15" s="7" t="n">
+        <v>593888170.714493</v>
+      </c>
+      <c r="AO15" s="7" t="n">
+        <v>597691846.465256</v>
+      </c>
+      <c r="AP15" s="7" t="n">
+        <v>592990863.996666</v>
+      </c>
+      <c r="AQ15" s="7" t="n">
+        <v>557361535.24726</v>
+      </c>
+      <c r="AR15" s="7" t="n">
+        <v>692042645.804419</v>
+      </c>
+      <c r="AS15" s="7" t="n">
+        <v>426683261.296815</v>
+      </c>
+      <c r="AT15" s="7" t="n">
+        <v>441925386.085918</v>
+      </c>
+      <c r="AU15" s="7" t="n">
+        <v>581733011.27503</v>
+      </c>
+      <c r="AV15" s="7" t="n">
+        <v>485660873.1652</v>
+      </c>
+      <c r="AW15" s="7" t="n">
+        <v>827547047.062679</v>
+      </c>
+      <c r="AX15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <f t="shared" si="3"/>
-        <v>Less Common</v>
+        <f>N16</f>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="4"/>
-        <v>T&amp;M/LH/FPLOE</v>
+        <f>O16</f>
       </c>
       <c r="M16" t="s">
         <v>50</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>357</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7" t="n">
         <v>138939611.233053</v>
       </c>
-      <c r="AA16" s="1" t="n">
-        <v>81043711.500329494</v>
-      </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AA16" s="7" t="n">
+        <v>81043711.5003295</v>
+      </c>
+      <c r="AB16" s="7" t="n">
         <v>135101862.842004</v>
       </c>
-      <c r="AC16" s="1" t="n">
-        <v>87679871.896153107</v>
-      </c>
-      <c r="AD16" s="1" t="n">
-        <v>136354891.74311399</v>
-      </c>
-      <c r="AE16" s="1" t="n">
-        <v>130349505.552522</v>
-      </c>
-      <c r="AF16" s="1" t="n">
-        <v>174141661.87808999</v>
-      </c>
-      <c r="AG16" s="1" t="n">
-        <v>163939085.27390099</v>
-      </c>
-      <c r="AH16" s="1" t="n">
-        <v>138830405.86060601</v>
-      </c>
-      <c r="AI16" s="1" t="n">
-        <v>119575567.52417099</v>
-      </c>
-      <c r="AJ16" s="1" t="n">
-        <v>163002549.52872601</v>
-      </c>
-      <c r="AK16" s="1" t="n">
-        <v>698047528.02468598</v>
-      </c>
-      <c r="AL16" s="1" t="n">
-        <v>646333107.99901903</v>
-      </c>
-      <c r="AM16" s="1" t="n">
-        <v>61636548.167484798</v>
-      </c>
-      <c r="AN16" s="1" t="n">
-        <v>99209173.895924196</v>
-      </c>
-      <c r="AO16" s="1" t="n">
-        <v>150046967.19538701</v>
-      </c>
-      <c r="AP16" s="1" t="n">
-        <v>156672413.15202901</v>
-      </c>
-      <c r="AQ16" s="1" t="n">
+      <c r="AC16" s="7" t="n">
+        <v>87679871.8961531</v>
+      </c>
+      <c r="AD16" s="7" t="n">
+        <v>136354891.743114</v>
+      </c>
+      <c r="AE16" s="7" t="n">
+        <v>130349505.551656</v>
+      </c>
+      <c r="AF16" s="7" t="n">
+        <v>174141661.87809</v>
+      </c>
+      <c r="AG16" s="7" t="n">
+        <v>163939085.194701</v>
+      </c>
+      <c r="AH16" s="7" t="n">
+        <v>138830405.766895</v>
+      </c>
+      <c r="AI16" s="7" t="n">
+        <v>119575567.548715</v>
+      </c>
+      <c r="AJ16" s="7" t="n">
+        <v>163002549.528726</v>
+      </c>
+      <c r="AK16" s="7" t="n">
+        <v>698047528.024686</v>
+      </c>
+      <c r="AL16" s="7" t="n">
+        <v>646333107.999019</v>
+      </c>
+      <c r="AM16" s="7" t="n">
+        <v>61636548.1674848</v>
+      </c>
+      <c r="AN16" s="7" t="n">
+        <v>99209173.8959242</v>
+      </c>
+      <c r="AO16" s="7" t="n">
+        <v>150046967.195387</v>
+      </c>
+      <c r="AP16" s="7" t="n">
+        <v>156672413.152029</v>
+      </c>
+      <c r="AQ16" s="7" t="n">
         <v>167991356.386269</v>
       </c>
-      <c r="AR16" s="1" t="n">
-        <v>210486436.58990699</v>
-      </c>
-      <c r="AS16" s="1" t="n">
-        <v>189102129.252417</v>
-      </c>
-      <c r="AT16" s="1" t="n">
-        <v>197109058.64071101</v>
-      </c>
-      <c r="AU16" s="1" t="n">
-        <v>198912949.98541099</v>
-      </c>
-      <c r="AV16" s="1" t="n">
-        <v>198001000.23460001</v>
-      </c>
-      <c r="AW16" s="1" t="n">
-        <v>344986062.936315</v>
-      </c>
-      <c r="AX16" s="1"/>
+      <c r="AR16" s="7" t="n">
+        <v>210486436.600527</v>
+      </c>
+      <c r="AS16" s="7" t="n">
+        <v>189102129.30752</v>
+      </c>
+      <c r="AT16" s="7" t="n">
+        <v>197109058.640711</v>
+      </c>
+      <c r="AU16" s="7" t="n">
+        <v>198912950.230599</v>
+      </c>
+      <c r="AV16" s="7" t="n">
+        <v>198001001.3261</v>
+      </c>
+      <c r="AW16" s="7" t="n">
+        <v>559254788.477664</v>
+      </c>
+      <c r="AX16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <f t="shared" si="3"/>
-        <v>Incentive</v>
+        <f>N17</f>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="4"/>
-        <v>Incentive</v>
+        <f>O17</f>
       </c>
       <c r="M17" t="s">
         <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1" t="n">
-        <v>2177553562.3801899</v>
-      </c>
-      <c r="AA17" s="1" t="n">
-        <v>2076135975.04638</v>
-      </c>
-      <c r="AB17" s="1" t="n">
-        <v>2532629918.9053502</v>
-      </c>
-      <c r="AC17" s="1" t="n">
-        <v>3305101185.0598202</v>
-      </c>
-      <c r="AD17" s="1" t="n">
-        <v>2063294049.7479999</v>
-      </c>
-      <c r="AE17" s="1" t="n">
-        <v>2115452137.5028</v>
-      </c>
-      <c r="AF17" s="1" t="n">
-        <v>2458753330.0512099</v>
-      </c>
-      <c r="AG17" s="1" t="n">
-        <v>2972983462.9152699</v>
-      </c>
-      <c r="AH17" s="1" t="n">
-        <v>2663630260.6166701</v>
-      </c>
-      <c r="AI17" s="1" t="n">
-        <v>1464773203.8729701</v>
-      </c>
-      <c r="AJ17" s="1" t="n">
-        <v>1646344102.3087101</v>
-      </c>
-      <c r="AK17" s="1" t="n">
-        <v>1608142949.9657199</v>
-      </c>
-      <c r="AL17" s="1" t="n">
-        <v>2040985183.7121501</v>
-      </c>
-      <c r="AM17" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7" t="n">
+        <v>2177553562.38019</v>
+      </c>
+      <c r="AA17" s="7" t="n">
+        <v>2076135965.58152</v>
+      </c>
+      <c r="AB17" s="7" t="n">
+        <v>2532629925.11721</v>
+      </c>
+      <c r="AC17" s="7" t="n">
+        <v>3305101177.44062</v>
+      </c>
+      <c r="AD17" s="7" t="n">
+        <v>2063294045.28556</v>
+      </c>
+      <c r="AE17" s="7" t="n">
+        <v>2115452162.04493</v>
+      </c>
+      <c r="AF17" s="7" t="n">
+        <v>2458753313.27359</v>
+      </c>
+      <c r="AG17" s="7" t="n">
+        <v>2972983469.02819</v>
+      </c>
+      <c r="AH17" s="7" t="n">
+        <v>2663630234.00328</v>
+      </c>
+      <c r="AI17" s="7" t="n">
+        <v>1464773194.78352</v>
+      </c>
+      <c r="AJ17" s="7" t="n">
+        <v>1646344102.30871</v>
+      </c>
+      <c r="AK17" s="7" t="n">
+        <v>1608142949.96572</v>
+      </c>
+      <c r="AL17" s="7" t="n">
+        <v>2040985183.71215</v>
+      </c>
+      <c r="AM17" s="7" t="n">
         <v>2667186804.88345</v>
       </c>
-      <c r="AN17" s="1" t="n">
-        <v>2974870414.7270398</v>
-      </c>
-      <c r="AO17" s="1" t="n">
-        <v>3721735564.4249501</v>
-      </c>
-      <c r="AP17" s="1" t="n">
+      <c r="AN17" s="7" t="n">
+        <v>2974870414.72704</v>
+      </c>
+      <c r="AO17" s="7" t="n">
+        <v>3721735564.42495</v>
+      </c>
+      <c r="AP17" s="7" t="n">
         <v>3957374954.06041</v>
       </c>
-      <c r="AQ17" s="1" t="n">
-        <v>4747771309.1235905</v>
-      </c>
-      <c r="AR17" s="1" t="n">
-        <v>6379590627.61693</v>
-      </c>
-      <c r="AS17" s="1" t="n">
-        <v>8564281480.5360699</v>
-      </c>
-      <c r="AT17" s="1" t="n">
-        <v>8031009461.4461699</v>
-      </c>
-      <c r="AU17" s="1" t="n">
-        <v>6881713878.3078604</v>
-      </c>
-      <c r="AV17" s="1" t="n">
-        <v>4852503484.7870998</v>
-      </c>
-      <c r="AW17" s="1" t="n">
-        <v>2824030851.6496501</v>
-      </c>
-      <c r="AX17" s="1"/>
+      <c r="AQ17" s="7" t="n">
+        <v>4747771309.12359</v>
+      </c>
+      <c r="AR17" s="7" t="n">
+        <v>6379590623.25654</v>
+      </c>
+      <c r="AS17" s="7" t="n">
+        <v>8564281465.55137</v>
+      </c>
+      <c r="AT17" s="7" t="n">
+        <v>8031009527.66254</v>
+      </c>
+      <c r="AU17" s="7" t="n">
+        <v>6881722872.63608</v>
+      </c>
+      <c r="AV17" s="7" t="n">
+        <v>4852503462.7917</v>
+      </c>
+      <c r="AW17" s="7" t="n">
+        <v>6189331382.5737</v>
+      </c>
+      <c r="AX17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <f t="shared" si="3"/>
-        <v>Other Cost-Based</v>
+        <f>N18</f>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="4"/>
-        <v>Other CB</v>
+        <f>O18</f>
       </c>
       <c r="M18" t="s">
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1" t="n">
-        <v>4517463247.2309198</v>
-      </c>
-      <c r="AA18" s="1" t="n">
-        <v>4410874348.1577396</v>
-      </c>
-      <c r="AB18" s="1" t="n">
-        <v>5097783125.5559502</v>
-      </c>
-      <c r="AC18" s="1" t="n">
-        <v>5870453926.0990696</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>4530840604.1322899</v>
-      </c>
-      <c r="AE18" s="1" t="n">
-        <v>4330831907.3426104</v>
-      </c>
-      <c r="AF18" s="1" t="n">
-        <v>3899509449.3390899</v>
-      </c>
-      <c r="AG18" s="1" t="n">
-        <v>4810832123.79002</v>
-      </c>
-      <c r="AH18" s="1" t="n">
-        <v>3032659604.1996799</v>
-      </c>
-      <c r="AI18" s="1" t="n">
-        <v>2744168181.6779399</v>
-      </c>
-      <c r="AJ18" s="1" t="n">
-        <v>2982033126.1006398</v>
-      </c>
-      <c r="AK18" s="1" t="n">
-        <v>2826286702.8098302</v>
-      </c>
-      <c r="AL18" s="1" t="n">
-        <v>2935299182.4184899</v>
-      </c>
-      <c r="AM18" s="1" t="n">
-        <v>2537641743.8557601</v>
-      </c>
-      <c r="AN18" s="1" t="n">
-        <v>3017928370.1191902</v>
-      </c>
-      <c r="AO18" s="1" t="n">
-        <v>3030608182.7222199</v>
-      </c>
-      <c r="AP18" s="1" t="n">
-        <v>3140988005.1396599</v>
-      </c>
-      <c r="AQ18" s="1" t="n">
-        <v>3072985556.6912799</v>
-      </c>
-      <c r="AR18" s="1" t="n">
-        <v>3717683487.16748</v>
-      </c>
-      <c r="AS18" s="1" t="n">
-        <v>3600042984.4698801</v>
-      </c>
-      <c r="AT18" s="1" t="n">
-        <v>3535733795.6299801</v>
-      </c>
-      <c r="AU18" s="1" t="n">
-        <v>3247814136.2706099</v>
-      </c>
-      <c r="AV18" s="1" t="n">
-        <v>2823137497.5384002</v>
-      </c>
-      <c r="AW18" s="1" t="n">
-        <v>1588798148.75546</v>
-      </c>
-      <c r="AX18" s="1"/>
+        <v>362</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7" t="n">
+        <v>4517463247.23092</v>
+      </c>
+      <c r="AA18" s="7" t="n">
+        <v>4410679097.50413</v>
+      </c>
+      <c r="AB18" s="7" t="n">
+        <v>5098012082.86221</v>
+      </c>
+      <c r="AC18" s="7" t="n">
+        <v>5879158113.53002</v>
+      </c>
+      <c r="AD18" s="7" t="n">
+        <v>4530774302.60461</v>
+      </c>
+      <c r="AE18" s="7" t="n">
+        <v>4333583082.72188</v>
+      </c>
+      <c r="AF18" s="7" t="n">
+        <v>3899509448.00947</v>
+      </c>
+      <c r="AG18" s="7" t="n">
+        <v>4810832104.15275</v>
+      </c>
+      <c r="AH18" s="7" t="n">
+        <v>3034431332.00184</v>
+      </c>
+      <c r="AI18" s="7" t="n">
+        <v>2751436729.25372</v>
+      </c>
+      <c r="AJ18" s="7" t="n">
+        <v>2982033126.10064</v>
+      </c>
+      <c r="AK18" s="7" t="n">
+        <v>2826286702.80983</v>
+      </c>
+      <c r="AL18" s="7" t="n">
+        <v>2935299182.41849</v>
+      </c>
+      <c r="AM18" s="7" t="n">
+        <v>2537641743.85576</v>
+      </c>
+      <c r="AN18" s="7" t="n">
+        <v>3017928370.11919</v>
+      </c>
+      <c r="AO18" s="7" t="n">
+        <v>3030608182.72222</v>
+      </c>
+      <c r="AP18" s="7" t="n">
+        <v>3140988005.13966</v>
+      </c>
+      <c r="AQ18" s="7" t="n">
+        <v>3072985556.69128</v>
+      </c>
+      <c r="AR18" s="7" t="n">
+        <v>3717683484.6265</v>
+      </c>
+      <c r="AS18" s="7" t="n">
+        <v>3600042986.00559</v>
+      </c>
+      <c r="AT18" s="7" t="n">
+        <v>3535965894.56067</v>
+      </c>
+      <c r="AU18" s="7" t="n">
+        <v>3248397143.35884</v>
+      </c>
+      <c r="AV18" s="7" t="n">
+        <v>2822034616.5204</v>
+      </c>
+      <c r="AW18" s="7" t="n">
+        <v>3052469079.72007</v>
+      </c>
+      <c r="AX18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <f t="shared" si="3"/>
-        <v>Undefinitized
-Contract Award</v>
+        <f>N19</f>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="4"/>
-        <v>UCA</v>
+        <f>O19</f>
       </c>
       <c r="M19" t="s">
         <v>56</v>
       </c>
       <c r="N19" t="s">
-        <v>56</v>
+        <v>363</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="n">
-        <v>363758229.78159797</v>
-      </c>
-      <c r="AA19" s="1" t="n">
-        <v>706225085.089432</v>
-      </c>
-      <c r="AB19" s="1" t="n">
-        <v>383320446.79690701</v>
-      </c>
-      <c r="AC19" s="1" t="n">
-        <v>1150808893.6940999</v>
-      </c>
-      <c r="AD19" s="1" t="n">
-        <v>2401748121.40658</v>
-      </c>
-      <c r="AE19" s="1" t="n">
-        <v>2416191342.2719302</v>
-      </c>
-      <c r="AF19" s="1" t="n">
-        <v>1203082678.6786001</v>
-      </c>
-      <c r="AG19" s="1" t="n">
-        <v>988420630.56185603</v>
-      </c>
-      <c r="AH19" s="1" t="n">
-        <v>868701767.03224301</v>
-      </c>
-      <c r="AI19" s="1" t="n">
-        <v>922697283.392591</v>
-      </c>
-      <c r="AJ19" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7" t="n">
+        <v>363758229.781598</v>
+      </c>
+      <c r="AA19" s="7" t="n">
+        <v>706420323.125117</v>
+      </c>
+      <c r="AB19" s="7" t="n">
+        <v>419353068.378715</v>
+      </c>
+      <c r="AC19" s="7" t="n">
+        <v>1150638744.95322</v>
+      </c>
+      <c r="AD19" s="7" t="n">
+        <v>2401814394.56059</v>
+      </c>
+      <c r="AE19" s="7" t="n">
+        <v>2416220245.6828</v>
+      </c>
+      <c r="AF19" s="7" t="n">
+        <v>1203082668.8925</v>
+      </c>
+      <c r="AG19" s="7" t="n">
+        <v>988420617.86489</v>
+      </c>
+      <c r="AH19" s="7" t="n">
+        <v>868701772.272595</v>
+      </c>
+      <c r="AI19" s="7" t="n">
+        <v>922697273.822149</v>
+      </c>
+      <c r="AJ19" s="7" t="n">
         <v>2272362559.34198</v>
       </c>
-      <c r="AK19" s="1" t="n">
+      <c r="AK19" s="7" t="n">
         <v>1610610807.48174</v>
       </c>
-      <c r="AL19" s="1" t="n">
-        <v>1620913163.6661501</v>
-      </c>
-      <c r="AM19" s="1" t="n">
+      <c r="AL19" s="7" t="n">
+        <v>1620913163.66615</v>
+      </c>
+      <c r="AM19" s="7" t="n">
         <v>440534838.180179</v>
       </c>
-      <c r="AN19" s="1" t="n">
-        <v>418610042.36003703</v>
-      </c>
-      <c r="AO19" s="1" t="n">
-        <v>185982809.50067601</v>
-      </c>
-      <c r="AP19" s="1" t="n">
-        <v>2757068666.7169199</v>
-      </c>
-      <c r="AQ19" s="1" t="n">
-        <v>2237359634.1635699</v>
-      </c>
-      <c r="AR19" s="1" t="n">
-        <v>3186142187.78018</v>
-      </c>
-      <c r="AS19" s="1" t="n">
-        <v>2220068967.7912502</v>
-      </c>
-      <c r="AT19" s="1" t="n">
-        <v>2098532865.48364</v>
-      </c>
-      <c r="AU19" s="1" t="n">
-        <v>1823978885.9989901</v>
-      </c>
-      <c r="AV19" s="1" t="n">
-        <v>1573458292.8081999</v>
-      </c>
-      <c r="AW19" s="1" t="n">
-        <v>2482116859.8211598</v>
-      </c>
-      <c r="AX19" s="1"/>
+      <c r="AN19" s="7" t="n">
+        <v>418610042.360037</v>
+      </c>
+      <c r="AO19" s="7" t="n">
+        <v>185982809.500676</v>
+      </c>
+      <c r="AP19" s="7" t="n">
+        <v>2757068666.71692</v>
+      </c>
+      <c r="AQ19" s="7" t="n">
+        <v>2237359634.16357</v>
+      </c>
+      <c r="AR19" s="7" t="n">
+        <v>3185687775.76993</v>
+      </c>
+      <c r="AS19" s="7" t="n">
+        <v>2219733844.14546</v>
+      </c>
+      <c r="AT19" s="7" t="n">
+        <v>2024943038.28389</v>
+      </c>
+      <c r="AU19" s="7" t="n">
+        <v>1823895713.88707</v>
+      </c>
+      <c r="AV19" s="7" t="n">
+        <v>1573458317.8004</v>
+      </c>
+      <c r="AW19" s="7" t="n">
+        <v>6206089476.43221</v>
+      </c>
+      <c r="AX19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <f t="shared" si="3"/>
-        <v>Unclear</v>
+        <f>N20</f>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="4"/>
-        <v>Combination/Other</v>
+        <f>O20</f>
       </c>
       <c r="M20" t="s">
         <v>58</v>
       </c>
       <c r="N20" t="s">
-        <v>58</v>
+        <v>365</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1" t="n">
-        <v>37226.730680798901</v>
-      </c>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1" t="n">
-        <v>46881250.296011299</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>670687933.970783</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>828561713.89175606</v>
-      </c>
-      <c r="AI20" s="1" t="n">
-        <v>1902747124.1451099</v>
-      </c>
-      <c r="AJ20" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7" t="n">
+        <v>37226.7306807989</v>
+      </c>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7" t="n">
+        <v>46881250.2960113</v>
+      </c>
+      <c r="AG20" s="7" t="n">
+        <v>670687939.328183</v>
+      </c>
+      <c r="AH20" s="7" t="n">
+        <v>826789977.204377</v>
+      </c>
+      <c r="AI20" s="7" t="n">
+        <v>1895478573.92379</v>
+      </c>
+      <c r="AJ20" s="7" t="n">
         <v>1574747.70295392</v>
       </c>
-      <c r="AK20" s="1" t="n">
-        <v>-810076.68161103094</v>
-      </c>
-      <c r="AL20" s="1" t="n">
-        <v>-745425.35083934304</v>
-      </c>
-      <c r="AM20" s="1" t="n">
-        <v>-1321050.4049955399</v>
-      </c>
-      <c r="AN20" s="1" t="n">
+      <c r="AK20" s="7" t="n">
+        <v>-810076.681611031</v>
+      </c>
+      <c r="AL20" s="7" t="n">
+        <v>-745425.350839343</v>
+      </c>
+      <c r="AM20" s="7" t="n">
+        <v>-1321050.40499554</v>
+      </c>
+      <c r="AN20" s="7" t="n">
         <v>-1294075.60616399</v>
       </c>
-      <c r="AO20" s="1" t="n">
-        <v>-302.26078690304598</v>
-      </c>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1" t="n">
-        <v>71895.731387901295</v>
-      </c>
-      <c r="AU20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
+      <c r="AO20" s="7" t="n">
+        <v>-302.260786903046</v>
+      </c>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="7" t="n">
+        <v>71895.7313879013</v>
+      </c>
+      <c r="AU20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <f t="shared" si="3"/>
-        <v>Unclear</v>
-      </c>
-      <c r="B21" t="n">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
       </c>
       <c r="M21" t="s">
         <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>22521272714.328098</v>
-      </c>
-      <c r="Q21" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" s="7" t="n">
+        <v>22521272714.3281</v>
+      </c>
+      <c r="Q21" s="7" t="n">
         <v>28467781065.6707</v>
       </c>
-      <c r="R21" s="1" t="n">
-        <v>25209506559.790298</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>20443265377.561298</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>15276697121.496201</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>14978464116.906601</v>
-      </c>
-      <c r="V21" s="1" t="n">
+      <c r="R21" s="7" t="n">
+        <v>25209506559.7903</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>20443265377.5613</v>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>15276697121.4962</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>14978464116.9066</v>
+      </c>
+      <c r="V21" s="7" t="n">
         <v>15173276336.5228</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="W21" s="7" t="n">
         <v>13581379410.9445</v>
       </c>
-      <c r="X21" s="1" t="n">
-        <v>14412955191.778099</v>
-      </c>
-      <c r="Y21" s="1" t="n">
+      <c r="X21" s="7" t="n">
+        <v>14412955191.7781</v>
+      </c>
+      <c r="Y21" s="7" t="n">
         <v>15111299548.3172</v>
       </c>
-      <c r="Z21" s="1" t="n">
-        <v>1362504494.1935301</v>
-      </c>
-      <c r="AA21" s="1" t="n">
+      <c r="Z21" s="7" t="n">
+        <v>1362504494.19353</v>
+      </c>
+      <c r="AA21" s="7" t="n">
         <v>25673653.3142334</v>
       </c>
-      <c r="AB21" s="1" t="n">
-        <v>55685384.297866397</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>58948031.127116501</v>
-      </c>
-      <c r="AD21" s="1" t="n">
+      <c r="AB21" s="7" t="n">
+        <v>55685384.2901016</v>
+      </c>
+      <c r="AC21" s="7" t="n">
+        <v>58948031.1271165</v>
+      </c>
+      <c r="AD21" s="7" t="n">
         <v>107042502.118728</v>
       </c>
-      <c r="AE21" s="1" t="n">
-        <v>349944821.27946699</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>129723877.651182</v>
-      </c>
-      <c r="AG21" s="1" t="n">
+      <c r="AE21" s="7" t="n">
+        <v>349944821.279467</v>
+      </c>
+      <c r="AF21" s="7" t="n">
+        <v>129723877.649924</v>
+      </c>
+      <c r="AG21" s="7" t="n">
         <v>3316558.58196647</v>
       </c>
-      <c r="AH21" s="1" t="n">
-        <v>265923095.42682299</v>
-      </c>
-      <c r="AI21" s="1" t="n">
-        <v>173451158.558442</v>
-      </c>
-      <c r="AJ21" s="1" t="n">
+      <c r="AH21" s="7" t="n">
+        <v>265923096.866346</v>
+      </c>
+      <c r="AI21" s="7" t="n">
+        <v>173451158.524528</v>
+      </c>
+      <c r="AJ21" s="7" t="n">
         <v>1554207.41385546</v>
       </c>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="n">
+      <c r="AK21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7" t="n">
         <v>13457508.8817547</v>
       </c>
-      <c r="AM21" s="1" t="n">
-        <v>419478.11038996599</v>
-      </c>
-      <c r="AN21" s="1" t="n">
+      <c r="AM21" s="7" t="n">
+        <v>419478.110389966</v>
+      </c>
+      <c r="AN21" s="7" t="n">
         <v>14605596.0064904</v>
       </c>
-      <c r="AO21" s="1" t="n">
-        <v>3888613.3244730299</v>
-      </c>
-      <c r="AP21" s="1" t="n">
-        <v>405715.72371450003</v>
-      </c>
-      <c r="AQ21" s="1" t="n">
-        <v>38581053.462173797</v>
-      </c>
-      <c r="AR21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="1"/>
+      <c r="AO21" s="7" t="n">
+        <v>3888613.32447303</v>
+      </c>
+      <c r="AP21" s="7" t="n">
+        <v>405715.7237145</v>
+      </c>
+      <c r="AQ21" s="7" t="n">
+        <v>38581053.4621738</v>
+      </c>
+      <c r="AR21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="B22" t="n">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="391">
   <si>
     <t>SimpleArea</t>
   </si>
@@ -1201,20 +1201,41 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="164" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1258,17 +1279,17 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,6 +1706,12 @@
       <c r="AU1" t="s">
         <v>346</v>
       </c>
+      <c r="AV1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1694,109 +1721,115 @@
         <v>369</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>8492487000</v>
+        <v>7661626000</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>10698859090</v>
+        <v>9540381090</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>9148334770</v>
+        <v>8238346099</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>7701756762</v>
+        <v>6617617641</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>5208277732</v>
+        <v>4580306603</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>5188044803</v>
+        <v>4466541203</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>5566473679</v>
+        <v>4702737706</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>5286469242</v>
+        <v>5926222956</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>5534108847</v>
+        <v>6482400201</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>5728593520</v>
+        <v>7376368469.01</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>5387457641.9</v>
+        <v>4694449197.9</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>5887092868.24</v>
+        <v>5255672620.24</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>7392887765.3934</v>
+        <v>6505783863.3934</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>8697089077.9405</v>
+        <v>7941247853.9405</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>10201294036.4571</v>
+        <v>9772195964.4721</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>11131407007.4879</v>
+        <v>10433833044.4141</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>11499301317.4383</v>
+        <v>10176487470.8455</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>12474423082.7501</v>
+        <v>11298340706.4668</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>15653297066.4053</v>
+        <v>14215351724.7049</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>13718653848.4062</v>
+        <v>12151593191.08</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>13586202607.7752</v>
+        <v>11884770482.0197</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>12855154794.0245</v>
+        <v>11814301709.7044</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>12892701309.1697</v>
+        <v>11722217890.4735</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>10855286946.7354</v>
+        <v>9769744063.0304</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>10152307688.7663</v>
+        <v>9490410713.635</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>10996839742.881</v>
+        <v>9899975522.005</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>13477801990.1194</v>
+        <v>12643698221.5037</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>14822118119.9571</v>
+        <v>14771734601.8047</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>18082261792.4375</v>
+        <v>16829948622.6938</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>19580052057.3289</v>
+        <v>19509437194.6045</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>20105981584.7278</v>
+        <v>19245305860.9835</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>17760957344.3706</v>
+        <v>16584149395.2119</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>16940866753.5191</v>
+        <v>15882371448.661</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>29102691446.8167</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>28057173434.7479</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>30331209104.24</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>11451482574.81</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1806,109 +1839,115 @@
         <v>370</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1715887000</v>
+        <v>1749979000</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>2116958431</v>
+        <v>2009953660</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1925075675</v>
+        <v>1927270240</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1631485218</v>
+        <v>1543484463</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1914861641</v>
+        <v>2152263701</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1834552095</v>
+        <v>1917480743</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1673273982</v>
+        <v>1800763136</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1585938595</v>
+        <v>1927665606</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1622237408</v>
+        <v>2022701484</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1415598703</v>
+        <v>1790980522</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>1619414843</v>
+        <v>1614098810</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1461712947.9395</v>
+        <v>1459860569.9395</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>2574671741.4</v>
+        <v>2574671117.4</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>2098544169.1094</v>
+        <v>2089977266.1094</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>1639562082</v>
+        <v>1635485817</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>1655616015</v>
+        <v>1623303734</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>1488865387.9515</v>
+        <v>1451946171.9477</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>1661907157.319</v>
+        <v>1573459324.5002</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>1353755506.0058</v>
+        <v>1229206075.8589</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>1428174033.7471</v>
+        <v>1278672275.6353</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>1085571749.9188</v>
+        <v>945053117.9094</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>804505775.4573</v>
+        <v>709337809.5075</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>1055414598.346</v>
+        <v>969863028.4452</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>825630299.8037</v>
+        <v>725888195.4137</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>910420132.2563</v>
+        <v>828911591.3863</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>751726171.4057</v>
+        <v>673027067.2125</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>873391854.279</v>
+        <v>691124287.6625</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>715093906.3429</v>
+        <v>590465202.3486</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>701219628.5455</v>
+        <v>680000448.1809</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>1172316396.9089</v>
+        <v>1057576971.2574</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>859313621.3923</v>
+        <v>792853114.2225</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>1085083372.6233</v>
+        <v>892367686.5464</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>984621572.9566</v>
+        <v>731007229.4155</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>1131404189.4004</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>872156871.1407</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>970171309.72</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>434633001.21</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1918,109 +1957,115 @@
         <v>371</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>1122904000</v>
+        <v>988241000</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>2018263254</v>
+        <v>2041519254</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>2391144568</v>
+        <v>2252043424</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1842128365</v>
+        <v>1766013114</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1409877986</v>
+        <v>1325419733</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>1521062895</v>
+        <v>1481055262</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>1577693471</v>
+        <v>1556785496</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>1160158978</v>
+        <v>1314645155</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>1474487948</v>
+        <v>1783477301</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>2017625612</v>
+        <v>2583050083</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>1674529751.375</v>
+        <v>1659176140.375</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1771967669.22</v>
+        <v>1759461359.22</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>2391460690.85</v>
+        <v>2361928358.86</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>2777803282</v>
+        <v>2751241534</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>2252636462.6281</v>
+        <v>1827552996.6281</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>2053518904.7912</v>
+        <v>2034126137.7912</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>2037628736.6269</v>
+        <v>2022656794.45</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>3810333927.9218</v>
+        <v>3784366457.84</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>2198995234.2465</v>
+        <v>2165788079.2445</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>2768713056.3002</v>
+        <v>2736925537.0046</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>2015121235.429</v>
+        <v>1985411615.5983</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>1766461480.5273</v>
+        <v>1729484539.4859</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>1731818270.4391</v>
+        <v>1690583622.0544</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>1359695351.0056</v>
+        <v>1316636343.4794</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>1515375449.4297</v>
+        <v>1470883445.3997</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>1502428316.0379</v>
+        <v>1485816362.2688</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>2124855268.4499</v>
+        <v>2145048839.2439</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>2507500575.2428</v>
+        <v>2471577472.699</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>2888850212.5511</v>
+        <v>2833636022.8241</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>2388889101.2266</v>
+        <v>2332160866.1152</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>2895620859.6483</v>
+        <v>2816050916.0173</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>3123717466.3586</v>
+        <v>3058488993.4321</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>2551769476.7577</v>
+        <v>2470223194.9804</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>3873093075.7742</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>3690729011.5868</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>4184983085.01</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>1835061740.53</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2034,7 +2079,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -2071,6 +2118,8 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2181,8 +2230,16 @@
       <c r="AU6" s="1" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
+      <c r="AV6" s="1" t="str">
+        <f>Sum(AV2:AV5)</f>
+      </c>
+      <c r="AW6" s="1" t="str">
+        <f>Sum(AW2:AW5)</f>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f>Sum(AX2:AX5)</f>
+      </c>
+      <c r="AY6" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2293,6 +2350,12 @@
       <c r="AU9" t="s">
         <v>346</v>
       </c>
+      <c r="AV9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2302,109 +2365,115 @@
         <v>369</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>16879085990.9964</v>
+        <v>15846402665.562</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>20531961693.2301</v>
+        <v>19051109432.9853</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>17128305032.9405</v>
+        <v>16049392091.5947</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>14088934191.7369</v>
+        <v>12596485034.9899</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>9324401684.53163</v>
+        <v>8532245190.08899</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>9095509980.66516</v>
+        <v>8147499776.8328</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>9578929089.18006</v>
+        <v>8419818005.41093</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>8938306543.03621</v>
+        <v>10425335588.928</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>9241616854.42978</v>
+        <v>11262547582.8678</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>9448615354.53885</v>
+        <v>12658980719.2589</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>8704677203.87639</v>
+        <v>7892183078.67947</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>9286754419.53252</v>
+        <v>8626596159.61247</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>11480902161.7022</v>
+        <v>10513119359.9643</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>13252957745.7375</v>
+        <v>12591091374.4377</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>15174214005.0747</v>
+        <v>15124787136.2348</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>16069908112.2122</v>
+        <v>15671933067.798</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>16077573156.0055</v>
+        <v>14804478906.7892</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>16975406296.5976</v>
+        <v>15996154608.7748</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>20866091867.8736</v>
+        <v>19716713831.7511</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>18103217858.0387</v>
+        <v>16683668653.5272</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>17773846807.8652</v>
+        <v>16177229395.7226</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>16485230575.0593</v>
+        <v>15764886430.1103</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>16235778755.5396</v>
+        <v>15363228885.9611</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>13424396391.9735</v>
+        <v>12576111540.2961</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>12316764041.5332</v>
+        <v>11997663999.9546</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>13190132675.1187</v>
+        <v>12387146493.9635</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>16033058809.2475</v>
+        <v>15694694351.8312</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>17322963673.1056</v>
+        <v>18031856431.8869</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>20648342648.5934</v>
+        <v>20098139578.0787</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>21929170722.2549</v>
+        <v>22875007197.4277</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>22221750591.07</v>
+        <v>22274338542.7314</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>18991571362.315</v>
+        <v>18555702260.9583</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>16940866753.5191</v>
+        <v>16608935858.4937</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>27758099939.1799</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>28057173434.7479</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>29542254022.8138</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>10914135524.3537</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -2414,109 +2483,115 @@
         <v>370</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>3410379577.12893</v>
+        <v>3619449956.22047</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>4062611634.17682</v>
+        <v>4013660122.2383</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>3604293480.93193</v>
+        <v>3754578331.19884</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>2984499326.77756</v>
+        <v>2937987655.77832</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>3428184906.74633</v>
+        <v>4009260340.48302</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>3216276559.61526</v>
+        <v>3497711812.25879</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>2879412307.43902</v>
+        <v>3224100263.26335</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>2681488281.04771</v>
+        <v>3391124666.58675</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>2709035363.44183</v>
+        <v>3514249506.83746</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>2334857167.70337</v>
+        <v>3073597528.6236</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>2616537224.87732</v>
+        <v>2713579970.4249</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>2305818760.3253</v>
+        <v>2396197118.08356</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>3998377264.68446</v>
+        <v>4160578546.45055</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>3197842053.99407</v>
+        <v>3313722882.35825</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>2438814705.0719</v>
+        <v>2531301555.59588</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>2390137851.59952</v>
+        <v>2438251346.33282</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>2081634486.60438</v>
+        <v>2112252045.50928</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>2261551418.89688</v>
+        <v>2227698675.33889</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>1804577440.46658</v>
+        <v>1704910642.19256</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>1884627016.45624</v>
+        <v>1755567704.39045</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>1420175051.04485</v>
+        <v>1286380843.6766</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>1031684442.53548</v>
+        <v>946533301.945678</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>1329083603.44353</v>
+        <v>1271109941.2462</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>1021031362.15318</v>
+        <v>934400210.733394</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>1104520301.33702</v>
+        <v>1047900144.59884</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>901656127.399606</v>
+        <v>842111665.572629</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>1038978237.95294</v>
+        <v>857896500.213997</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>835747338.0109</v>
+        <v>720780872.645398</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>800730756.3804</v>
+        <v>812049057.729585</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>1312965171.54516</v>
+        <v>1240019411.5306</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>949739901.711314</v>
+        <v>917640842.313347</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>1160266189.80471</v>
+        <v>998453927.55783</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>984621572.9566</v>
+        <v>764448320.875961</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>1079131482.33643</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>872156871.1407</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>944935863.878491</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>414238370.23489</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2526,109 +2601,115 @@
         <v>371</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>2231807146.20274</v>
+        <v>2043961009.9237</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>3873207738.26379</v>
+        <v>4076693200.26089</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>4476908045.91783</v>
+        <v>4387279617.1383</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>3369831859.04682</v>
+        <v>3361565894.08742</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>2524110530.21826</v>
+        <v>2469006361.78619</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>2666677576.62615</v>
+        <v>2701620083.23514</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>2714934939.90369</v>
+        <v>2787280807.31777</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>1961584586.86055</v>
+        <v>2312706933.74049</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>2462302973.9065</v>
+        <v>3098620471.22276</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>3327827026.07499</v>
+        <v>4432910494.50051</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2705588038.52909</v>
+        <v>2789362778.80565</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>2795238490.66053</v>
+        <v>2887958155.1525</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>3713856761.59316</v>
+        <v>3816793683.55588</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>4232923130.07268</v>
+        <v>4362177605.44434</v>
       </c>
       <c r="AB12" s="1" t="n">
-        <v>3350750173.20299</v>
+        <v>2828570994.14309</v>
       </c>
       <c r="AC12" s="1" t="n">
-        <v>2964572231.02945</v>
+        <v>3055319032.53798</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>2848879612.209</v>
+        <v>2942506433.07881</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>5185166971.09838</v>
+        <v>5357893918.10619</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>2931295329.03835</v>
+        <v>3003951263.79247</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>3653610346.79228</v>
+        <v>3757693174.11649</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>2636237451.46372</v>
+        <v>2702488802.71246</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>2265279981.06949</v>
+        <v>2307806929.05709</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>2180878747.54785</v>
+        <v>2215691892.02554</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>1681493032.26961</v>
+        <v>1694841278.00872</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>1838451159.79007</v>
+        <v>1859473303.4733</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>1802083988.37712</v>
+        <v>1859098025.20644</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>2527706632.37016</v>
+        <v>2662661296.71034</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>2930575847.77554</v>
+        <v>3017054621.50325</v>
       </c>
       <c r="AP12" s="1" t="n">
-        <v>3298811273.3864</v>
+        <v>3383896978.94842</v>
       </c>
       <c r="AQ12" s="1" t="n">
-        <v>2675496305.31874</v>
+        <v>2734481577.59765</v>
       </c>
       <c r="AR12" s="1" t="n">
-        <v>3200329428.24738</v>
+        <v>3259271217.09734</v>
       </c>
       <c r="AS12" s="1" t="n">
-        <v>3340152336.8256</v>
+        <v>3422087547.45838</v>
       </c>
       <c r="AT12" s="1" t="n">
-        <v>2551769476.7577</v>
+        <v>2583227494.34573</v>
       </c>
       <c r="AU12" s="1" t="n">
-        <v>3694149899.07559</v>
-      </c>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+        <v>3690729011.5868</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>4076126110.02908</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>1748953674.85054</v>
+      </c>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -2642,7 +2723,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -2679,6 +2762,8 @@
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -2720,6 +2805,8 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4244,1623 +4331,1645 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <f t="shared" ref="A1:B7" si="0">M1</f>
-        <v>SubCustomer.JPO</v>
+        <f>M1</f>
       </c>
       <c r="B1" t="str">
-        <f t="shared" si="0"/>
-        <v>SubCustomer.sum</v>
+        <f>N1</f>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="O1" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="P1" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="Q1" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="R1" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="S1" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="T1" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="U1" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="V1" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="W1" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="X1" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="Y1" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="Z1" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="AA1" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="AB1" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="AC1" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="AD1" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="AE1" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="AF1" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="AG1" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="AH1" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="AI1" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="AJ1" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="AK1" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="AL1" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="AM1" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="AN1" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="AO1" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="AP1" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="AQ1" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="AR1" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="AS1" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="AT1" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="AU1" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="AV1" t="s">
-        <v>34</v>
+        <v>346</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <f t="shared" si="0"/>
-        <v>Air Force</v>
+        <f>M2</f>
       </c>
       <c r="B2" t="str">
-        <f t="shared" si="0"/>
-        <v>Air Force</v>
+        <f>N2</f>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>3002082000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>2953319000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>2122935963</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>2415777815</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>2148994656</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1534704890</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>1662965505</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>1663203398</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>1674051122</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>1825333019</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>2326050045</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>2442446384</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>3747183656</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>3443369642.1093998</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>3519570083</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>3572906289.1954002</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>3196191988.1406999</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>4616007564.7889004</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>3134716316.0061002</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>3320684876.3367</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>3472097891.013</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>3166322163.6877999</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>3250496361.0675001</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>3098309641.9292002</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>2489754350.0121002</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>2896844490.0328999</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>4636803254.6567001</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>3278078082.7389998</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>5664534254.9595003</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>4726264507.9939003</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>5554087256.8613997</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>5635270163.8797998</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>4850965005.4583998</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>2192669299.7076998</v>
-      </c>
-      <c r="AW2" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>2356963000</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>1742190000</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>1325270171</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>1491540518</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>1486161430</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>1040583142</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>1195993018</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>1426201586</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>1684257834</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>1677664082</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>2091692827</v>
+      </c>
+      <c r="Z2" s="11" t="n">
+        <v>2154241489</v>
+      </c>
+      <c r="AA2" s="11" t="n">
+        <v>3349622011</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>3232481046.1094</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>3332080973</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>3311358158.1991</v>
+      </c>
+      <c r="AE2" s="11" t="n">
+        <v>2848597036.84</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>4105287928.1176</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>2553129517.3246</v>
+      </c>
+      <c r="AH2" s="11" t="n">
+        <v>2358299067.5504</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>2721075248.832</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>2503370066.6091</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>2595587631.3433</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>2494564491.2242</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>2246170353.9146</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>1752215301.9876</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>3761259967.6649</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>3100231070.9865</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>4325005925.2884</v>
+      </c>
+      <c r="AR2" s="11" t="n">
+        <v>4473848089.8961</v>
+      </c>
+      <c r="AS2" s="11" t="n">
+        <v>4545163880.8258</v>
+      </c>
+      <c r="AT2" s="11" t="n">
+        <v>4266354381.935</v>
+      </c>
+      <c r="AU2" s="11" t="n">
+        <v>3585758648.9183</v>
+      </c>
+      <c r="AV2" s="11" t="n">
+        <v>5363870476.7603</v>
+      </c>
+      <c r="AW2" s="11" t="n">
+        <v>8361561368.09</v>
+      </c>
+      <c r="AX2" s="11" t="n">
+        <v>4729264263.86</v>
+      </c>
+      <c r="AY2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Army</v>
+        <f>M3</f>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>Army</v>
+        <f>N3</f>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>1875929000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>5724307000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>5408245502</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>3836481421</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>1534992742</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>3117275635</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>3512257509</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>3287359149</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>3332777588</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>3729919098</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3164886780.9000001</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>3790427842.1795001</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>4991019383.375</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>5147669364.3896999</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>5561606614.2227001</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>6751623928.0658998</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>6088258236.6350002</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>7497062736.7916002</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>10320162710.2859</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>9256329937.5147991</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>8033368824.9356003</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>7242877611.9456997</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>6784074169.2560997</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>4540381153.8469</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>4251446011.2754998</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>4211841837.9123001</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>5630615191.9496002</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>7806440708.3097</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>8169778688.7126999</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>8844716617.2865009</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>8500035221.6733999</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>8372029645.0430002</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>7846864812.5085001</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>6580123423.9673996</v>
-      </c>
-      <c r="AW3" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>1754521000</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>5760661000</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>5342432105</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>3850429829</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>1565644804</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>3171493465</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>3500773528</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>4121607687</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>4029330202</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>5328954672.01</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>3127915111.9</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>3763484654.1795</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>4948564567.38</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>5105336384.3897</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>5555490294.2377</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>6724939162.7662</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>6048292015.0509</v>
+      </c>
+      <c r="AF3" s="11" t="n">
+        <v>7427890474.3093</v>
+      </c>
+      <c r="AG3" s="11" t="n">
+        <v>10224436498.4789</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>9150799705.0046</v>
+      </c>
+      <c r="AI3" s="11" t="n">
+        <v>7940228572.2188</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>7181779590.0035</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>6702210538.209</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>4499834280.2069</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>4198461318.6017</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>4213690181.9822</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>5556036162.4639</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>7801927964.0675</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>8172295690.2056</v>
+      </c>
+      <c r="AR3" s="11" t="n">
+        <v>8844253844.7058</v>
+      </c>
+      <c r="AS3" s="11" t="n">
+        <v>8498055962.7483</v>
+      </c>
+      <c r="AT3" s="11" t="n">
+        <v>8245665531.372</v>
+      </c>
+      <c r="AU3" s="11" t="n">
+        <v>7665179472.1684</v>
+      </c>
+      <c r="AV3" s="11" t="n">
+        <v>17434030672.3715</v>
+      </c>
+      <c r="AW3" s="11" t="n">
+        <v>16113017815.38</v>
+      </c>
+      <c r="AX3" s="11" t="n">
+        <v>3840485150.54</v>
+      </c>
+      <c r="AY3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>DLA</v>
+        <f>M4</f>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Other DoD</v>
+        <f>N4</f>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="O4" s="11" t="n">
         <v>5220000</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>48903000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>8849003</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>8415801</v>
-      </c>
-      <c r="S4" s="2" t="n">
+      <c r="P4" s="11" t="n">
+        <v>47621000</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>8163062</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>8248125</v>
+      </c>
+      <c r="S4" s="11" t="n">
         <v>10230324</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="11" t="n">
         <v>17010707</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="11" t="n">
         <v>14148246</v>
       </c>
-      <c r="V4" s="2" t="n">
-        <v>16446431</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>18967382</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>16956537</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>24454737</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>28897408</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>44042612</v>
-      </c>
-      <c r="AB4" s="2" t="n">
+      <c r="V4" s="11" t="n">
+        <v>16990167</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>26114547</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>25320680</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>24369470</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>28843132</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>44035745</v>
+      </c>
+      <c r="AB4" s="11" t="n">
         <v>56370201</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="11" t="n">
         <v>68584504</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AD4" s="11" t="n">
         <v>63157766</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AE4" s="11" t="n">
         <v>94406671</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="11" t="n">
         <v>111300429.5509</v>
       </c>
-      <c r="AG4" s="2" t="n">
-        <v>160710067.91999999</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>133992386.0758</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>181353540.25850001</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>186169564.1688</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>201810265.9937</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>163522038.85730001</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>125773946.5869</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>143347601.50929999</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>147858299.37959999</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>222256376.47830001</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>312453271.48000002</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>339966647.28009999</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>330581559.889</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>258404520.90180001</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>366645955.54220003</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>589716021.02129996</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AG4" s="11" t="n">
+        <v>160710067.92</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>133992386.0792</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>177966845.2887</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>185534739.3948</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>200860223.0342</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>160910616.6573</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>125593146.4269</v>
+      </c>
+      <c r="AN4" s="11" t="n">
+        <v>142904064.7505</v>
+      </c>
+      <c r="AO4" s="11" t="n">
+        <v>147518804.4917</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>222287746.751</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>312521409.8699</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>329083169.3596</v>
+      </c>
+      <c r="AS4" s="11" t="n">
+        <v>330722195.6125</v>
+      </c>
+      <c r="AT4" s="11" t="n">
+        <v>258001277.3737</v>
+      </c>
+      <c r="AU4" s="11" t="n">
+        <v>368494111.8572</v>
+      </c>
+      <c r="AV4" s="11" t="n">
+        <v>1085632871.6061</v>
+      </c>
+      <c r="AW4" s="11" t="n">
+        <v>1252367495.71</v>
+      </c>
+      <c r="AX4" s="11" t="n">
+        <v>844343544.93</v>
+      </c>
+      <c r="AY4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Navy</v>
+        <f>M5</f>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Navy</v>
+        <f>N5</f>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>6446972000</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>6104762775</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>5920871462</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>4830077969</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>4603271857</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>3873563560</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>3576651597</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>3048709858</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>3599015956</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>3585558759</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>3151114616.375</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>2817171117.2188001</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>3440061119.9843001</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>4812344701.5508003</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>4749731174.9375</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>4369279592.2757998</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>5503843412.9825001</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>5637306312.0507002</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>5535600452.7470999</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>5148302087.1775999</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>4986179184.9520998</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>4789600996.4320002</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>5412112363.2901001</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>5231884529.5284996</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>5673631079.4001999</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>5933409132.3237</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>5923354299.2556</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>6654119566.8198996</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>7505187361.7916002</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>9120467584.1707993</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>9433039452.5748997</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>7649507762.7224998</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>7401616398.4084997</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>5783194207.6859999</v>
-      </c>
-      <c r="AW5" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>6282067000</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>6038593004</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>5738141342</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>4492279407</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>4762297664</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>3634884893</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>3297953271</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>3586526871</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>4541759212</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>4713311299</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>2708850682.375</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>2486594541.22</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>2963447607.2734</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>4280196753.5508</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>4085078793.8625</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>3910139186.6</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>4516699563.8523</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>4926700519.6711</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>4617211541.1218</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>4467031304.7309</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>3959566503.9235</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>4338219101.0791</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>4850378466.7291</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>4649454548.6623</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>5180263533.0202</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>5846526477.0637</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>5877876586.6245</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>6617737576.6558</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>7511351576.3053</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>9135121012.0196</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>9432002427.6723</v>
+      </c>
+      <c r="AT5" s="11" t="n">
+        <v>7693284346.4787</v>
+      </c>
+      <c r="AU5" s="11" t="n">
+        <v>7450077734.2689</v>
+      </c>
+      <c r="AV5" s="11" t="n">
+        <v>8677742034.1519</v>
+      </c>
+      <c r="AW5" s="11" t="n">
+        <v>9728405488.88</v>
+      </c>
+      <c r="AX5" s="11" t="n">
+        <v>4247349141.74</v>
+      </c>
+      <c r="AY5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Other DoD</v>
+        <f>M6</f>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Other DoD</v>
+        <f>N6</f>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="O6" s="11" t="n">
         <v>1075000</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="11" t="n">
         <v>2789000</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="11" t="n">
         <v>3653083</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="11" t="n">
         <v>84617339</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <v>235527780</v>
-      </c>
-      <c r="T6" s="2" t="n">
+      <c r="S6" s="11" t="n">
+        <v>233655815</v>
+      </c>
+      <c r="T6" s="11" t="n">
         <v>1105001</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="11" t="n">
         <v>51418275</v>
       </c>
-      <c r="V6" s="2" t="n">
-        <v>16847979</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>6022155</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>4050422</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="V6" s="11" t="n">
+        <v>17207406</v>
+      </c>
+      <c r="W6" s="11" t="n">
+        <v>7117191</v>
+      </c>
+      <c r="X6" s="11" t="n">
+        <v>5148341</v>
+      </c>
+      <c r="Y6" s="11" t="n">
         <v>14896057</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="11" t="n">
         <v>41830733</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="11" t="n">
         <v>136713409</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AB6" s="11" t="n">
         <v>108082269</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AC6" s="11" t="n">
         <v>194000213</v>
       </c>
-      <c r="AD6" s="2" t="n">
-        <v>81668642.640599996</v>
-      </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AD6" s="11" t="n">
+        <v>81668642.64</v>
+      </c>
+      <c r="AE6" s="11" t="n">
         <v>143095150.5</v>
       </c>
-      <c r="AF6" s="2" t="n">
-        <v>84987137.158099994</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>54858254.954800002</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>56231653.762900002</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>13896151.9638</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>41151713.774800003</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>31441018.347399998</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>6515233.3827999998</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>37497883.177599996</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>65413668.546400003</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>137418067.60679999</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>83817867.195899993</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>20152804.602600001</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>113199443.6304</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>45892289.161300004</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>55725005.210299999</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>13858318.398700001</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>13084224.112400001</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AF6" s="11" t="n">
+        <v>84987137.1581</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>54858254.963</v>
+      </c>
+      <c r="AH6" s="11" t="n">
+        <v>57068540.3548</v>
+      </c>
+      <c r="AI6" s="11" t="n">
+        <v>16398045.2644</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>44220561.6113</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>33627681.6575</v>
+      </c>
+      <c r="AL6" s="11" t="n">
+        <v>7504665.1728</v>
+      </c>
+      <c r="AM6" s="11" t="n">
+        <v>39717398.4576</v>
+      </c>
+      <c r="AN6" s="11" t="n">
+        <v>103482925.7023</v>
+      </c>
+      <c r="AO6" s="11" t="n">
+        <v>137179827.1651</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>91592918.3915</v>
+      </c>
+      <c r="AQ6" s="11" t="n">
+        <v>22410492.0296</v>
+      </c>
+      <c r="AR6" s="11" t="n">
+        <v>116868915.996</v>
+      </c>
+      <c r="AS6" s="11" t="n">
+        <v>48265424.3644</v>
+      </c>
+      <c r="AT6" s="11" t="n">
+        <v>71700538.031</v>
+      </c>
+      <c r="AU6" s="11" t="n">
+        <v>14091905.8441</v>
+      </c>
+      <c r="AV6" s="11" t="n">
+        <v>58783262.5856</v>
+      </c>
+      <c r="AW6" s="11" t="n">
+        <v>31011330.91</v>
+      </c>
+      <c r="AX6" s="11" t="n">
+        <v>59735215.48</v>
+      </c>
+      <c r="AY6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Grand Total</v>
+        <f>M7</f>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>N7</f>
       </c>
       <c r="M7" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="N7" t="s">
-        <v>310</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <f t="shared" ref="O7:AU7" si="1">SUM(O2:O6)</f>
-        <v>11331278000</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>14834080775</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>13464555013</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>11175370345</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>8533017359</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>8543659793</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>8817441132</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>8032566815</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>8630834203</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>9161817835</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>8681402236.2749996</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>9120773484.3983002</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>12359020180.359301</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>13567836178.0499</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>14093492589.1602</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>14838636218.177698</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>15025795459.2582</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>17946664180.340202</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>19206047801.913898</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>17915540940.867802</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>16686895593.122999</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>15426122050.009098</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>15679934177.954802</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>13040612597.544699</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>12578103270.452301</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>13250856730.3246</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>16476049112.848301</v>
-      </c>
-      <c r="AP7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>18044712601.542801</v>
-      </c>
-      <c r="AQ7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>21672106381.546398</v>
-      </c>
-      <c r="AR7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>23144614800.361702</v>
-      </c>
-      <c r="AS7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>23863635780.16</v>
-      </c>
-      <c r="AT7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>21970937097.757401</v>
-      </c>
-      <c r="AU7" s="2" t="n">
-        <f t="shared" si="1"/>
-        <v>20479950490.316299</v>
-      </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="11" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="11" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="11" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="11" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:B16" si="2">M10</f>
-        <v>SubCustomer.JPO</v>
+        <f>M10</f>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
-        <v>SubCustomer.sum</v>
+        <f>N10</f>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="O10" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="P10" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="Q10" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="R10" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="S10" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="T10" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="U10" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
       <c r="V10" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="W10" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="X10" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="Y10" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="Z10" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="AA10" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="AB10" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="AC10" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="AD10" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="AE10" t="s">
-        <v>17</v>
+        <v>329</v>
       </c>
       <c r="AF10" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="AG10" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="AH10" t="s">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="AI10" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="AJ10" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="AK10" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="AL10" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="AM10" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="AN10" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="AO10" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="AP10" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="AQ10" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="AR10" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="AS10" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
       <c r="AT10" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="AU10" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="AV10" t="s">
-        <v>34</v>
+        <v>346</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <f t="shared" si="2"/>
-        <v>Air Force</v>
+        <f>M11</f>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
-        <v>Air Force</v>
+        <f>N11</f>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>5966732740.3648195</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>5667654098.9837904</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>3974744656.1428599</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>4419217031.7976303</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>3847354235.2283802</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>2690594274.8024902</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>2861673218.76373</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>2812126796.5836501</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>2795561036.46913</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>3010663879.4071999</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3758268954.9734302</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>3852903335.9489598</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>5819248215.5416899</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>5247138664.5424004</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>5235287744.3231297</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>5158042978.9596596</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>4468707192.8486795</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>6281541307.4144897</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>4178626288.8912501</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>4381995669.4367399</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>4542294693.9904699</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>4060437371.5964298</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>4093350066.7112899</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>3831583354.9512801</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>3020566140.2886901</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>3474613075.7662601</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>5515894900.6166801</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>3831168196.4288602</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>6468396795.9149799</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>5293298555.6357603</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>6138548434.5993605</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>6025724480.2836704</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>4850965005.4583998</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>2091364424.6987801</v>
-      </c>
-      <c r="AW11" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>4874863999.60415</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>3478965046.56846</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>2581802262.98766</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>2839113535.00758</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>2768437751.41777</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>1898146805.74905</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>2141315160.83797</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>2508955579.61713</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>2926236179.35786</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>2879129121.14618</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>3516498323.68604</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>3535945386.7651</v>
+      </c>
+      <c r="AA11" s="11" t="n">
+        <v>5412872107.62617</v>
+      </c>
+      <c r="AB11" s="11" t="n">
+        <v>5125197571.75261</v>
+      </c>
+      <c r="AC11" s="11" t="n">
+        <v>5157184282.8927</v>
+      </c>
+      <c r="AD11" s="11" t="n">
+        <v>4973760189.36645</v>
+      </c>
+      <c r="AE11" s="11" t="n">
+        <v>4144061972.92121</v>
+      </c>
+      <c r="AF11" s="11" t="n">
+        <v>5812253508.52796</v>
+      </c>
+      <c r="AG11" s="11" t="n">
+        <v>3541194410.33606</v>
+      </c>
+      <c r="AH11" s="11" t="n">
+        <v>3237853638.63355</v>
+      </c>
+      <c r="AI11" s="11" t="n">
+        <v>3703854320.95424</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>3340472061.94276</v>
+      </c>
+      <c r="AK11" s="11" t="n">
+        <v>3401797104.13879</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>3211130310.44607</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>2839581763.74905</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>2192424373.822</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>4668873341.96896</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>3784452069.08021</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>5164874516.92237</v>
+      </c>
+      <c r="AR11" s="11" t="n">
+        <v>5245630934.18574</v>
+      </c>
+      <c r="AS11" s="11" t="n">
+        <v>5260530528.58757</v>
+      </c>
+      <c r="AT11" s="11" t="n">
+        <v>4773546099.01046</v>
+      </c>
+      <c r="AU11" s="11" t="n">
+        <v>3749794896.58919</v>
+      </c>
+      <c r="AV11" s="11" t="n">
+        <v>5363870476.7603</v>
+      </c>
+      <c r="AW11" s="11" t="n">
+        <v>8144066038.20255</v>
+      </c>
+      <c r="AX11" s="11" t="n">
+        <v>4507349224.78869</v>
+      </c>
+      <c r="AY11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <f t="shared" si="2"/>
-        <v>Army</v>
+        <f>M12</f>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
-        <v>Army</v>
+        <f>N12</f>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>3728468104.1023598</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>10985400504.4466</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>10125785837.5557</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>7018130530.2939701</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>2748104007.83916</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>5465105396.5901604</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>6043981802.8017998</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>5558232242.6792698</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>5565530852.5460701</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>6152046001.7820396</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5113602676.0173502</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>5979313271.1023798</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>7750882611.2468996</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>7844215916.8316898</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>8272774872.9379501</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>9747013657.7745991</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>8512205610.5890503</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>10202130001.835899</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>13756939658.826799</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>12214708474.781099</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>10509475750.330099</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>9288142334.5723591</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>8543184599.7141705</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>5614948428.2603502</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>5157847748.6591301</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>5051883445.3910398</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>6698123668.1583204</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>9123573817.9836807</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>9329164219.8360291</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>9905862360.4548092</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>9394500930.7484798</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>8952107443.7829304</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>7846864812.5085001</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>6276111058.2644901</v>
-      </c>
-      <c r="AW12" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>3628844092.77934</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>11503417115.3147</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>10407767110.7161</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>7329205818.53802</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>2916500249.03733</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>5785179431.67269</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>6267812033.4701</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>7250679500.57062</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>7000574126.86596</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>9145304322.87814</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>5258567656.61155</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>6177337252.60513</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>7996707399.10192</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>8094666996.34557</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>8598436671.06635</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>10101062188.2922</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>8798891740.9322</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>10516383558.5246</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>14181308520.2157</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>12563694965.1309</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>10808025216.9435</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>9583295093.05568</v>
+      </c>
+      <c r="AK12" s="11" t="n">
+        <v>8783968656.9967</v>
+      </c>
+      <c r="AL12" s="11" t="n">
+        <v>5792415589.97161</v>
+      </c>
+      <c r="AM12" s="11" t="n">
+        <v>5307644709.73</v>
+      </c>
+      <c r="AN12" s="11" t="n">
+        <v>5272295618.14295</v>
+      </c>
+      <c r="AO12" s="11" t="n">
+        <v>6896739217.42979</v>
+      </c>
+      <c r="AP12" s="11" t="n">
+        <v>9523813467.56672</v>
+      </c>
+      <c r="AQ12" s="11" t="n">
+        <v>9759265648.23904</v>
+      </c>
+      <c r="AR12" s="11" t="n">
+        <v>10369974712.0062</v>
+      </c>
+      <c r="AS12" s="11" t="n">
+        <v>9835571169.2316</v>
+      </c>
+      <c r="AT12" s="11" t="n">
+        <v>9225924760.89005</v>
+      </c>
+      <c r="AU12" s="11" t="n">
+        <v>8015835330.92726</v>
+      </c>
+      <c r="AV12" s="11" t="n">
+        <v>17434030672.3715</v>
+      </c>
+      <c r="AW12" s="11" t="n">
+        <v>15693896795.8761</v>
+      </c>
+      <c r="AX12" s="11" t="n">
+        <v>3660275002.68515</v>
+      </c>
+      <c r="AY12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <f t="shared" si="2"/>
-        <v>DLA</v>
+        <f>M13</f>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
-        <v>Other DoD</v>
+        <f>N13</f>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>10374914.7773793</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>93848747.257781699</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>16567870.156920999</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>15395145.5653299</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>18315392.390235201</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>29822613.560931999</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>24346660.558470801</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>27807452.4011188</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>31674345.774863299</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>27967736.809855901</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>39512253.430101998</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>45585000.519494802</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>68396671.958796397</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>85899073.273449406</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>102018031.968162</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>91178006.114579305</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>131993250.504333</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>151459510.39812201</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>214229055.200638</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>176817155.91435</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>237251727.77667201</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>238740664.00255001</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>254139667.917377</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>202222629.324808</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>152588758.15962401</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>171937931.87644899</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>175890758.08699</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>259756338.78303099</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>356793983.25552797</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>380754179.11299199</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>365368929.78357399</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>276308748.67265099</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>366645955.54220003</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>562470185.17716098</v>
-      </c>
-      <c r="AW13" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>10796431.7123067</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>95093987.7296027</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>15902728.6704913</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>15700118.7988742</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>19057159.336207</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>31029542.8133921</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>25331129.1981682</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>29888884.3707098</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>45371516.5791779</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>43454174.1325923</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>40969304.5259543</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>47342760.8074708</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>71160224.9645709</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>89376677.9026085</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>106150759.523812</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>94864876.3355047</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>137340273.201709</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>157578791.910587</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>222905101.500449</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>183966376.777807</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>242243675.250101</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>247575706.738263</v>
+      </c>
+      <c r="AK13" s="11" t="n">
+        <v>263248952.492808</v>
+      </c>
+      <c r="AL13" s="11" t="n">
+        <v>207132331.209947</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>158773357.338706</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>178805854.692537</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>183115929.143824</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>271346652.511071</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>373209631.087861</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>385853256.173634</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>382774802.43132</v>
+      </c>
+      <c r="AT13" s="11" t="n">
+        <v>288672923.271873</v>
+      </c>
+      <c r="AU13" s="11" t="n">
+        <v>385351462.648533</v>
+      </c>
+      <c r="AV13" s="11" t="n">
+        <v>1085632871.6061</v>
+      </c>
+      <c r="AW13" s="11" t="n">
+        <v>1219791751.82331</v>
+      </c>
+      <c r="AX13" s="11" t="n">
+        <v>804723739.33051</v>
+      </c>
+      <c r="AY13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <f t="shared" si="2"/>
-        <v>Navy</v>
+        <f>M14</f>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
-        <v>Navy</v>
+        <f>N14</f>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>12813560358.6495</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>11715525402.116199</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>11085568577.4132</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>8835730957.1183796</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>8241257103.8690205</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>6791004580.44384</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>6154792782.6581202</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>5154726533.7480602</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>6010132333.4761896</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>5913941253.9238195</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>5091350575.9439402</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>4444023036.31954</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>5342297408.2866802</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>7333235340.7008104</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>7065126939.5335903</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>6307731045.78825</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>7695114917.7416096</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>7671341947.4897003</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>7379042709.0762997</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>6793730296.9415798</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>6523057807.1304903</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>6142102374.7934504</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>6815473097.7908297</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>6470109186.9844103</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>6883240481.4726105</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>7116813148.2296801</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>7046363190.19942</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>7776828561.1838198</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>8570259742.2286196</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>10214696576.6217</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>10425685965.5172</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>8179523757.9562702</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>7401616398.4084997</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>5516001263.2506304</v>
-      </c>
-      <c r="AW14" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>12993085704.5279</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>12058417274.447</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>11178661246.8158</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>8550951927.57581</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>8871260127.17626</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>6630460239.4889</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>5904681074.75814</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>6309372176.25715</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>7890870302.51345</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>8088765780.69234</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>4554047688.42164</v>
+      </c>
+      <c r="Z14" s="11" t="n">
+        <v>4081465583.90889</v>
+      </c>
+      <c r="AA14" s="11" t="n">
+        <v>4788827767.17629</v>
+      </c>
+      <c r="AB14" s="11" t="n">
+        <v>6786382872.78593</v>
+      </c>
+      <c r="AC14" s="11" t="n">
+        <v>6322626707.09292</v>
+      </c>
+      <c r="AD14" s="11" t="n">
+        <v>5873147419.2963</v>
+      </c>
+      <c r="AE14" s="11" t="n">
+        <v>6570772441.17116</v>
+      </c>
+      <c r="AF14" s="11" t="n">
+        <v>6975206826.49292</v>
+      </c>
+      <c r="AG14" s="11" t="n">
+        <v>6404079225.04971</v>
+      </c>
+      <c r="AH14" s="11" t="n">
+        <v>6133061647.23902</v>
+      </c>
+      <c r="AI14" s="11" t="n">
+        <v>5389655251.52524</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
+        <v>5788876322.77663</v>
+      </c>
+      <c r="AK14" s="11" t="n">
+        <v>6356943307.49947</v>
+      </c>
+      <c r="AL14" s="11" t="n">
+        <v>5985014410.64128</v>
+      </c>
+      <c r="AM14" s="11" t="n">
+        <v>6548827355.92265</v>
+      </c>
+      <c r="AN14" s="11" t="n">
+        <v>7315349395.68793</v>
+      </c>
+      <c r="AO14" s="11" t="n">
+        <v>7296241562.29543</v>
+      </c>
+      <c r="AP14" s="11" t="n">
+        <v>8078272261.37557</v>
+      </c>
+      <c r="AQ14" s="11" t="n">
+        <v>8969973455.3582</v>
+      </c>
+      <c r="AR14" s="11" t="n">
+        <v>10711019329.5126</v>
+      </c>
+      <c r="AS14" s="11" t="n">
+        <v>10916512147.2952</v>
+      </c>
+      <c r="AT14" s="11" t="n">
+        <v>8607875528.62766</v>
+      </c>
+      <c r="AU14" s="11" t="n">
+        <v>7790893421.0008</v>
+      </c>
+      <c r="AV14" s="11" t="n">
+        <v>8677742034.1519</v>
+      </c>
+      <c r="AW14" s="11" t="n">
+        <v>9475356725.86337</v>
+      </c>
+      <c r="AX14" s="11" t="n">
+        <v>4048047390.31505</v>
+      </c>
+      <c r="AY14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <f t="shared" si="2"/>
-        <v>Other DoD</v>
+        <f>M15</f>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
-        <v>Other DoD</v>
+        <f>N15</f>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>2136596.4340388398</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>5352312.8663262604</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>6839618.5215956597</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>154791712.78596801</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>421666382.16942102</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>1937251.50914912</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>88481871.740646005</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>28486385.5323717</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>10056623.511870099</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>6680676.3942926703</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>24068006.917974401</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>65987025.048608102</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>212311254.10413301</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>164699904.908831</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>288571306.59812403</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>117901320.29138</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>200066307.24116701</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>115651936.259753</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>73126919.060059503</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>74203627.399334505</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>18179331.146000098</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>52772253.699485801</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>39593674.397326298</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>8057186.8754910603</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>45492374.080281802</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>78460265.591467798</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>163471162.50915101</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>97959944.512705803</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>23012719.290385999</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>126780557.97641</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>50721572.557805598</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>59586056.798465498</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>13858318.398700001</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>12479711.7545757</v>
-      </c>
-      <c r="AW15" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="O15" s="11" t="n">
+        <v>2223403.08251528</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>5569331.42474668</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>7116690.7417565</v>
+      </c>
+      <c r="R15" s="11" t="n">
+        <v>161067184.935317</v>
+      </c>
+      <c r="S15" s="11" t="n">
+        <v>435256605.390631</v>
+      </c>
+      <c r="T15" s="11" t="n">
+        <v>2015652.60270141</v>
+      </c>
+      <c r="U15" s="11" t="n">
+        <v>92059677.7276804</v>
+      </c>
+      <c r="V15" s="11" t="n">
+        <v>30271048.4395979</v>
+      </c>
+      <c r="W15" s="11" t="n">
+        <v>12365435.6115645</v>
+      </c>
+      <c r="X15" s="11" t="n">
+        <v>8835343.53374256</v>
+      </c>
+      <c r="Y15" s="11" t="n">
+        <v>25042854.6648316</v>
+      </c>
+      <c r="Z15" s="11" t="n">
+        <v>68660448.7619505</v>
+      </c>
+      <c r="AA15" s="11" t="n">
+        <v>220924091.101749</v>
+      </c>
+      <c r="AB15" s="11" t="n">
+        <v>171367743.453604</v>
+      </c>
+      <c r="AC15" s="11" t="n">
+        <v>300261265.397957</v>
+      </c>
+      <c r="AD15" s="11" t="n">
+        <v>122668773.378275</v>
+      </c>
+      <c r="AE15" s="11" t="n">
+        <v>208170957.151001</v>
+      </c>
+      <c r="AF15" s="11" t="n">
+        <v>120324516.763776</v>
+      </c>
+      <c r="AG15" s="11" t="n">
+        <v>76088480.6342818</v>
+      </c>
+      <c r="AH15" s="11" t="n">
+        <v>78352904.2528215</v>
+      </c>
+      <c r="AI15" s="11" t="n">
+        <v>22320577.4385775</v>
+      </c>
+      <c r="AJ15" s="11" t="n">
+        <v>59007476.5997561</v>
+      </c>
+      <c r="AK15" s="11" t="n">
+        <v>44072698.1050459</v>
+      </c>
+      <c r="AL15" s="11" t="n">
+        <v>9660386.76927565</v>
+      </c>
+      <c r="AM15" s="11" t="n">
+        <v>50210261.2863724</v>
+      </c>
+      <c r="AN15" s="11" t="n">
+        <v>129480942.397191</v>
+      </c>
+      <c r="AO15" s="11" t="n">
+        <v>170282097.917489</v>
+      </c>
+      <c r="AP15" s="11" t="n">
+        <v>111807475.501982</v>
+      </c>
+      <c r="AQ15" s="11" t="n">
+        <v>26762363.1492839</v>
+      </c>
+      <c r="AR15" s="11" t="n">
+        <v>137029954.677699</v>
+      </c>
+      <c r="AS15" s="11" t="n">
+        <v>55861954.5964599</v>
+      </c>
+      <c r="AT15" s="11" t="n">
+        <v>80224424.1744394</v>
+      </c>
+      <c r="AU15" s="11" t="n">
+        <v>14736562.5495632</v>
+      </c>
+      <c r="AV15" s="11" t="n">
+        <v>58783262.5856</v>
+      </c>
+      <c r="AW15" s="11" t="n">
+        <v>30204684.9560207</v>
+      </c>
+      <c r="AX15" s="11" t="n">
+        <v>56932212.3197668</v>
+      </c>
+      <c r="AY15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5999,6 +6108,12 @@
       <c r="AW1" t="s">
         <v>346</v>
       </c>
+      <c r="AX1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -6011,94 +6126,116 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="O2" t="s">
-        <v>356</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>-8000</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>21442000</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>828000</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>902813117</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>695251814</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>634144244</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>3140043239</v>
+        <v>1349200787</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>4201842529.24</v>
+        <v>1325824390</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>6882899730.65</v>
+        <v>1629847872</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>6554613569.8096</v>
+        <v>2167313012</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>7542935903.7852</v>
+        <v>1376982242</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>8065808291.4479</v>
+        <v>1330121118</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>8945938179.6011</v>
+        <v>1754177686</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>10480041823.1032</v>
+        <v>2182268455.5</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>12891702967.8382</v>
+        <v>1997490046.98</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>11228379336.1362</v>
+        <v>1110007987.709</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>10150811886.1512</v>
+        <v>1254733321.5732</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>9223565415.3386</v>
+        <v>1241137415.1484</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>8701955622.324</v>
+        <v>1620729915.701</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>7452142339.902</v>
+        <v>2152432000.61</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>6711117831.7237</v>
+        <v>1897733236.14</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>6839748009.5987</v>
+        <v>2009900468.77</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>7560792264.686</v>
+        <v>2553564175.607</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>8784997403.6141</v>
+        <v>3945003655.9443</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>9249748103.81</v>
+        <v>4285056315.4299</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>9748242199.3651</v>
+        <v>7457893941.0451</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>10984850275.7495</v>
+        <v>6334469825.1253</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>10060275877.7159</v>
+        <v>5145722116.6602</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>10545599531.6296</v>
+        <v>3673477566.6807</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>16457031050.544</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>5221934810.399</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>5964843129.13</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1437051462.06</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -6110,11 +6247,9 @@
       <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>357</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -6126,79 +6261,67 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
-        <v>243308654</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>291318570</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>169640370</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="n">
-        <v>140427187</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>339189596</v>
-      </c>
+        <v>24429.5801</v>
+      </c>
+      <c r="AD3" s="3"/>
       <c r="AE3" s="3" t="n">
-        <v>301198255.3862</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>420823302.1099</v>
+        <v>33531281</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>404555828.8084</v>
+        <v>489977336.39</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>464221393.9554</v>
+        <v>598848845.2957</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>1134434101.0051</v>
+        <v>1329136947.1648</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>1134217345.713</v>
+        <v>1452932.9902</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>944939774.3347</v>
+        <v>-1245452.42</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>1215854579.8417</v>
+        <v>-605936.2749</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>974383093.81</v>
+        <v>-1068232.85</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>489522688.06</v>
+        <v>-1066664.4</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>498305939.2271</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>498483386.2324</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>476897525.5534</v>
-      </c>
+        <v>-252</v>
+      </c>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
       <c r="AR3" s="3" t="n">
-        <v>606038775.4084</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="3" t="n">
-        <v>380975668.1635</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="3" t="n">
-        <v>399848951.506</v>
+        <v>65050.4219</v>
       </c>
       <c r="AU3" s="3" t="n">
-        <v>544037931.4568</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>485660873.1652</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>867633102.4515</v>
-      </c>
-      <c r="AX3" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -6210,95 +6333,119 @@
       <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>357</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>359</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>96143000</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>204852000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>213139000</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>2924000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>3872000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>10187000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>6171000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>729151436</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>1177978215</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1686219529</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>85991847</v>
+        <v>2837001076</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>51375522</v>
+        <v>3922654888.24</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>86996030</v>
+        <v>6273874062.66</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>57538828</v>
+        <v>6031124160.8096</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>91668428</v>
+        <v>6833327572.8002</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>90291331.4369</v>
+        <v>7513302719.3741</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>124552842.7969</v>
+        <v>7686318336.0917</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>120471078.7351</v>
+        <v>9328606648.1249</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>104147609.2926</v>
+        <v>11479357142.5517</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>90614598.6195</v>
+        <v>9794862211.5114</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>124597994.3127</v>
+        <v>8640447050.6622</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>544336276.3709</v>
+        <v>8374324283.2199</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>513247921.9585</v>
+        <v>7770908367.4249</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>49840782.2019</v>
+        <v>6487185289.492</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>81774892.7838</v>
+        <v>6539517614.1637</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>125096728.956</v>
+        <v>6486818686.8427</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>131702863.8702</v>
+        <v>7539172534.817</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>143739130.0055</v>
+        <v>8778653684.6657</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>184328152.3918</v>
+        <v>9252891576.8361</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>168844940.9642</v>
+        <v>9741662543.0398</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>178341984.6682</v>
+        <v>10981418539.6266</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>186023807.9772</v>
+        <v>10057418064.6768</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>198001001.3261</v>
+        <v>10472834011.91</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>586344871.7629</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>16298971824.1697</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>13870796264.36</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>8011785860.17</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -6310,95 +6457,119 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
-        <v>360</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>360</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+        <v>362</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>187572000</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>3156000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>167799000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>114651000</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>331088000</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>272618000</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>185269000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>402490308</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>852674569</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>632723246.01</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>1347721151</v>
+        <v>2580215049.375</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>1316111602</v>
+        <v>2637593279.22</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>1630834278</v>
+        <v>3032648008.8734</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>2168931638</v>
+        <v>3729995724.4102</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>1387107710</v>
+        <v>2959082504.3</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>1465344970</v>
+        <v>2961407333.0081</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>1758595339</v>
+        <v>2698074261.7716</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>2184704917.3788</v>
+        <v>3417243027.5061</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>1998198588.98</v>
+        <v>2151266356.1703</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>1110007987.709</v>
+        <v>1958085995.7533</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>1258453770.7495</v>
+        <v>2058858956.6031</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>1254027140.1484</v>
+        <v>1964311153.1571</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>1620729916.701</v>
+        <v>2070357158.6261</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>2156750833.495</v>
+        <v>1860223782.0971</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>2452088850.8275</v>
+        <v>2258327169.757</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>3102874745.4956</v>
+        <v>2276568905.6986</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>3326671265.044</v>
+        <v>2534192487.8651</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>4062354945.6279</v>
+        <v>2562565726.0754</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>5586764504.1314</v>
+        <v>3225458912.482</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>7646849899.2957</v>
+        <v>3167222634.1388</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>7266364052.1123</v>
+        <v>3127920629.9692</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>6435801654.5804</v>
+        <v>3007685382.9475</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>4852503462.7917</v>
+        <v>2790951651.2592</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>6489140174.717</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>3144881985.4088</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>4427218014.44</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>2189154035.66</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -6410,11 +6581,9 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
-        <v>361</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -6422,83 +6591,97 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="V6" s="3" t="n">
+        <v>129000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>5412213</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>182838</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>96694791</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>2795926985.375</v>
+        <v>125616065</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>2796033607.22</v>
+        <v>163138476</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>3282758673.8734</v>
+        <v>164715131</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>3858124563.4102</v>
+        <v>135108709</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>3045941019.3</v>
+        <v>335088333</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>3001814121.0081</v>
+        <v>300520993.3862</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>2789079775.7688</v>
+        <v>418884780.2599</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>3535252941.74</v>
+        <v>404555828.8084</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>2276365663.8819</v>
+        <v>464221393.7429</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>2085044126.9844</v>
+        <v>1134434100.5888</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>2279444999.8507</v>
+        <v>1134180203.224</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>2203933568.99</v>
+        <v>944939774.3347</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>2330897469.2119</v>
+        <v>1215678248.8417</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>2051997608.9233</v>
+        <v>974412223.95</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>2487580121.9208</v>
+        <v>489522688.06</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>2526669998.6822</v>
+        <v>498405112.34</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>2640395378.7156</v>
+        <v>498483385.8308</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>2629351175.7988</v>
+        <v>476897525.5025</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>3255666915.9603</v>
+        <v>606038778.5019</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>3214395563.2155</v>
+        <v>380975668.3345</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>3199300832.259</v>
+        <v>399848952.859</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>3037907817.1096</v>
+        <v>544037928.8788</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>2822034616.5204</v>
+        <v>485660869.2914</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>3200329488.4263</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>867611015.5352</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>1292881896.86</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>66555656.77</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -6510,95 +6693,111 @@
       <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" t="s">
-        <v>363</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="Q7" s="3" t="n">
+        <v>175000</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>135000</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>-46000</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>6721157</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>6228617</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>3774257</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>225135523</v>
+        <v>73932300</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>447816520</v>
+        <v>46048918</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>270033672</v>
+        <v>81959845</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>755092399.25</v>
+        <v>50360716</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>1614687578</v>
+        <v>77461776</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>1673682935</v>
+        <v>74646484.4369</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>860491193.86</v>
+        <v>111853011.5</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>726343555.82</v>
+        <v>111400058.5622</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>651681541.0188</v>
+        <v>91971090.3162</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>699221796.1302</v>
+        <v>78036895.4734</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>1736977845.217</v>
+        <v>107798580.0837</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>1255951571.2465</v>
+        <v>542387424.3162</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>1287154104.6418</v>
+        <v>512873296.1967</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>356226972.0625</v>
+        <v>50942339.7919</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>345046632.1605</v>
+        <v>81774892.7838</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>155057056.77</v>
+        <v>125096728.94</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>2317662899.218</v>
+        <v>131586090.0511</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>1914361156.6814</v>
+        <v>145706653.5224</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>2789785181.8322</v>
+        <v>184354345.3686</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>1981949284.4604</v>
+        <v>168844941.976</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>1832144919.0515</v>
+        <v>178341984.8004</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>1705711094.5126</v>
+        <v>186023807.3227</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>1573458317.8004</v>
+        <v>198001001.3385</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>6506710024.0896</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>586344866.7315</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>651001141.22</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>340861091.78</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6610,79 +6809,119 @@
       <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
-        <v>365</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>366</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>162391000</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>33184000</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>72869000</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>153204000</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>123872000</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>80098000</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>113826000</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>121944006</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>110600874</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>211458343</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>172309271</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>363745618</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>223732361</v>
+      </c>
       <c r="AC8" s="3" t="n">
-        <v>24429.5801</v>
-      </c>
-      <c r="AD8" s="3"/>
+        <v>630023678.25</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>1597102853</v>
+      </c>
       <c r="AE8" s="3" t="n">
-        <v>0</v>
+        <v>1673179811</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>33531281</v>
+        <v>857154074.62</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>492856840.39</v>
+        <v>719913428.82</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>620240206.2953</v>
+        <v>646869054.7207</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>1436397365.1891</v>
+        <v>679471059.0002</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>1203725.9902</v>
+        <v>1616576145.2523</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>-631696.42</v>
+        <v>1187269460.9415</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>-591936.2749</v>
+        <v>1182036990.9068</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>-1068232.85</v>
+        <v>287801998.8325</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-1066664.4</v>
+        <v>512357896.5405</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>-252</v>
-      </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
+        <v>659235111.23</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>2222531619.157</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>1924512444.642</v>
+      </c>
       <c r="AR8" s="3" t="n">
-        <v>0</v>
+        <v>2789785165.0803</v>
       </c>
       <c r="AS8" s="3" t="n">
-        <v>0</v>
+        <v>1982575303.4429</v>
       </c>
       <c r="AT8" s="3" t="n">
-        <v>65050.4219</v>
+        <v>1832144908.4209</v>
       </c>
       <c r="AU8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>1594118774.7044</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>1462676772.5771</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>6500314815.2312</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>9279623052.96</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>1675769210.11</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -6694,69 +6933,67 @@
       <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
-        <v>365</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
-        <v>11331278000</v>
+        <v>9953748000</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>14834080775</v>
+        <v>13329045004</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>13464555013</v>
+        <v>11962889763</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>11175370345</v>
+        <v>9656382218</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>8533017359</v>
+        <v>7599158037</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>8543659793</v>
+        <v>7502174208</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>8817441132</v>
+        <v>7754891338</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>8032566815</v>
+        <v>7000001480</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>8630834203</v>
+        <v>7445662059</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>9161817835</v>
+        <v>8485384664</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>843274836.9</v>
+        <v>829449599.9</v>
       </c>
       <c r="AA9" s="3" t="n">
-        <v>16275134.9395</v>
+        <v>15988979.9395</v>
       </c>
       <c r="AB9" s="3" t="n">
-        <v>35857443.12</v>
+        <v>35606059.12</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>38683914</v>
+        <v>38516224</v>
       </c>
       <c r="AD9" s="3" t="n">
-        <v>71962346</v>
+        <v>56189497</v>
       </c>
       <c r="AE9" s="3" t="n">
-        <v>242402023</v>
+        <v>238084457</v>
       </c>
       <c r="AF9" s="3" t="n">
-        <v>92783527.88</v>
+        <v>91097006</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>2437182.0154</v>
+        <v>2201705.0954</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>199489835.3954</v>
+        <v>180321950.0308</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>131441626.68</v>
+        <v>83155806.519</v>
       </c>
       <c r="AJ9" s="3" t="n">
         <v>1188025.1387</v>
@@ -6774,13 +7011,13 @@
         <v>12038917.376</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>3242003.595</v>
+        <v>2794189.665</v>
       </c>
       <c r="AP9" s="3" t="n">
         <v>341055.0821</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>33011264.2617</v>
+        <v>437586.5</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -6800,7 +7037,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6914,8 +7157,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -7035,6 +7286,12 @@
       <c r="AW13" t="s">
         <v>346</v>
       </c>
+      <c r="AX13" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -7047,94 +7304,116 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="O14" t="s">
-        <v>356</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+        <v>360</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>-16546.2554977881</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>42817355.4712866</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>1613053.94215636</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="n">
+        <v>1588217282.52424</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>1207933233.74916</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>1088288877.07428</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>5073462218.82682</v>
+        <v>2268240462.72899</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>6628310534.91859</v>
+        <v>2176191786.95576</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>10688908164.7237</v>
+        <v>2633777201.44276</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>9988171433.20494</v>
+        <v>3436341072.96613</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>11219961234.4817</v>
+        <v>2131206064.26054</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>11644242098.6939</v>
+        <v>1997882182.37981</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>12507627338.4999</v>
+        <v>2551930282.97313</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>14261418485.8392</v>
+        <v>3089648694.34766</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>17184843379.5823</v>
+        <v>2770521644.54224</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>14817036683.1137</v>
+        <v>1523998143.98819</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>13279573450.2485</v>
+        <v>1707909193.89275</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>11828142486.9873</v>
+        <v>1656161394.44815</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>10958372713.1018</v>
+        <v>2124141087.45364</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>9215833098.75929</v>
+        <v>2770719964.40587</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>8141917810.44332</v>
+        <v>2399091716.44623</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>8203919109.52319</v>
+        <v>2514847788.21935</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>8994243060.78116</v>
+        <v>3169753701.94902</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>10267236413.818</v>
+        <v>4815665963.7363</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>10562393712.3023</v>
+        <v>5117167132.12719</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>10917788512.812</v>
+        <v>8744454075.08933</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>12140795120.0636</v>
+        <v>7331456636.37415</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>10757328197.5577</v>
+        <v>5757454617.5966</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>10545599531.6296</v>
+        <v>3841526656.13163</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>15696689546.3256</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>5221934810.399</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>5809689627.65025</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>1369619550.12657</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -7146,11 +7425,9 @@
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
-        <v>357</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -7162,79 +7439,67 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>393121103.63669</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>459548384.574439</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>263445699.765918</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="3" t="n">
-        <v>213988330.921463</v>
-      </c>
-      <c r="AD15" s="3" t="n">
-        <v>504537512.555255</v>
-      </c>
+        <v>38733.8464855513</v>
+      </c>
+      <c r="AD15" s="3"/>
       <c r="AE15" s="3" t="n">
-        <v>434826278.866538</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>588367696.319393</v>
+        <v>48780401.2636274</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>550526426.602917</v>
+        <v>693708344.553995</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>618814439.680864</v>
+        <v>830604232.651517</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>1497006040.31711</v>
+        <v>1824853751.51761</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>1483814567.72839</v>
+        <v>1977693.24318362</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>1211774600.07662</v>
+        <v>-1661919.29390784</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>1531125672.10251</v>
+        <v>-794144.740233906</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>1204989324.84477</v>
+        <v>-1375083.66503117</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>593888170.714493</v>
+        <v>-1348464.40876651</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>597691846.465256</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>592990863.996666</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>557361535.24726</v>
-      </c>
+        <v>-315.309963094395</v>
+      </c>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
       <c r="AR15" s="3" t="n">
-        <v>692042645.804419</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="3" t="n">
-        <v>426683261.296815</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="3" t="n">
-        <v>441925386.085918</v>
+        <v>75288.7550977101</v>
       </c>
       <c r="AU15" s="3" t="n">
-        <v>581733011.27503</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>485660873.1652</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>827547047.062679</v>
-      </c>
-      <c r="AX15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -7246,95 +7511,119 @@
       <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>357</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>359</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>356</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>198850830.29048</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>409067293.303051</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>415223072.677856</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>5565767.65845671</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>7212803.9101981</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>18582293.6483489</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>11048606.1863708</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>1282713875.58115</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>2046623979.7988</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>2893811581.63777</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>138939611.233053</v>
+        <v>4769490720.27845</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>81043711.5003295</v>
+        <v>6438597309.89694</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>135101862.842004</v>
+        <v>10138361226.7323</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>87679871.8961531</v>
+        <v>9562531833.28758</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>136354891.743114</v>
+        <v>10576192428.6534</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>130349505.551656</v>
+        <v>11285208114.3059</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>174141661.87809</v>
+        <v>11181848157.6809</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>163939085.194701</v>
+        <v>13207411433.6489</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>138830405.766895</v>
+        <v>15921885306.4896</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>119575567.548715</v>
+        <v>13447967939.1972</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>163002549.528726</v>
+        <v>11761143745.4031</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>698047528.024686</v>
+        <v>11174614843.7562</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>646333107.999019</v>
+        <v>10184612247.9606</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>61636548.1674848</v>
+        <v>8350634904.75037</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>99209173.8959242</v>
+        <v>8267180148.88419</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>150046967.195387</v>
+        <v>8116502225.19208</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>156672413.152029</v>
+        <v>9358417650.18026</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>167991356.386269</v>
+        <v>10716102554.93</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>210486436.600527</v>
+        <v>11049701373.498</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>189102129.30752</v>
+        <v>11422195246.5433</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>197109058.640711</v>
+        <v>12709791987.612</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>198912950.230599</v>
+        <v>11253061623.7699</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>198001001.3261</v>
+        <v>10951930505.0083</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>559254788.477664</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>16298971824.1697</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>13509998408.97</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>7635842442.12563</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -7346,95 +7635,119 @@
       <c r="M17" t="s">
         <v>53</v>
       </c>
-      <c r="N17" t="s">
-        <v>360</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>360</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+        <v>362</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>387951779.528889</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>6302190.74094677</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>326894732.415332</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>218235577.226306</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>616754344.271609</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>497287496.792539</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>331707052.267499</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>708055799.342252</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>1481440146.90459</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>1085850226.3706</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>2177553562.38019</v>
+        <v>4337788885.03913</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>2076135965.58152</v>
+        <v>4329313048.44096</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>2532629925.11721</v>
+        <v>4900653197.75535</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>3305101177.44062</v>
+        <v>5914022311.87214</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>2063294045.28556</v>
+        <v>4579880833.2137</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>2115452162.04493</v>
+        <v>4448123456.81876</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>2458753313.27359</v>
+        <v>3925085508.31339</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>2972983469.02819</v>
+        <v>4838121740.51877</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>2663630234.00328</v>
+        <v>2983809612.4466</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>1464773194.78352</v>
+        <v>2688376530.92602</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>1646344102.30871</v>
+        <v>2802463344.56315</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>1608142949.96572</v>
+        <v>2621157221.46185</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>2040985183.71215</v>
+        <v>2713426008.70013</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>2667186804.88345</v>
+        <v>2394574681.03909</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>2974870414.72704</v>
+        <v>2854950265.30156</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>3721735564.42495</v>
+        <v>2848511339.83204</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>3957374954.06041</v>
+        <v>3145707516.02604</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>4747771309.12359</v>
+        <v>3128123982.42115</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>6379590623.25654</v>
+        <v>3851807565.17635</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>8564281465.55137</v>
+        <v>3713599722.48802</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>8031009527.66254</v>
+        <v>3620226332.07282</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>6881722872.63608</v>
+        <v>3365244314.35255</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>4852503462.7917</v>
+        <v>2918628185.32865</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>6189331382.5737</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>3144881985.4088</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>4312060186.8351</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>2086430614.79536</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -7446,11 +7759,9 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="N18" t="s">
-        <v>361</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -7458,83 +7769,97 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="V18" s="3" t="n">
+        <v>230962.598937261</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>9521095.85189199</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>317663.459691785</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>165943106.02356</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>4517463247.23092</v>
+        <v>211182386.007454</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>4410679097.50413</v>
+        <v>267773480.624896</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>5098012082.86221</v>
+        <v>266173895.253249</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>5879158113.53002</v>
+        <v>214218990.741762</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>4530774302.60461</v>
+        <v>518628538.241203</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>4333583082.72188</v>
+        <v>451391628.921848</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>3899509448.00947</v>
+        <v>609382256.058286</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>4810832104.15275</v>
+        <v>572768847.534949</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>3034431332.00184</v>
+        <v>643875758.564492</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>2751436729.25372</v>
+        <v>1557534254.63411</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>2982033126.10064</v>
+        <v>1543815536.98493</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>2826286702.80983</v>
+        <v>1260918215.20388</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>2935299182.41849</v>
+        <v>1593277258.88953</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>2537641743.85576</v>
+        <v>1254312982.56774</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>3017928370.11919</v>
+        <v>618848742.052911</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>3030608182.72222</v>
+        <v>623619434.833267</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>3140988005.13966</v>
+        <v>618770255.586651</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>3072985556.69128</v>
+        <v>582148809.492733</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>3717683484.6265</v>
+        <v>723724845.103536</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>3600042986.00559</v>
+        <v>446697722.146831</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>3535965894.56067</v>
+        <v>462781470.259412</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>3248397143.35884</v>
+        <v>608714115.289988</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>2822034616.5204</v>
+        <v>507878200.249572</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>3052469079.72007</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>867611015.5352</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>1259252319.52577</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>63432612.6031942</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -7546,95 +7871,111 @@
       <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
-        <v>363</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="Q19" s="3" t="n">
+        <v>349456.077207124</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>262997.925351581</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>-87559.9563231903</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>11823773.3867116</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>10821623.6521679</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>6477204.43918392</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>363758229.781598</v>
+        <v>124293015.523284</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>706420323.125117</v>
+        <v>75584125.5490852</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>419353068.378715</v>
+        <v>132444245.198108</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>1150638744.95322</v>
+        <v>79848455.6206699</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>2401814394.56059</v>
+        <v>119890439.923038</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>2416220245.6828</v>
+        <v>112121279.194497</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>1203082668.8925</v>
+        <v>162720737.794513</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>988420617.86489</v>
+        <v>157719846.345895</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>868701772.272595</v>
+        <v>127564038.067887</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>922697273.822149</v>
+        <v>107141646.889878</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>2272362559.34198</v>
+        <v>146732523.037401</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>1610610807.48174</v>
+        <v>723756372.197718</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>1620913163.66615</v>
+        <v>672175684.890714</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>440534838.180179</v>
+        <v>65575571.1934052</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>418610042.360037</v>
+        <v>103378843.851592</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>185982809.500676</v>
+        <v>156524781.687702</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>2757068666.71692</v>
+        <v>163338560.294975</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>2237359634.16357</v>
+        <v>177864111.988961</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>3185687775.76993</v>
+        <v>220153932.023733</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>2219733844.14546</v>
+        <v>197972356.886769</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>2024943038.28389</v>
+        <v>206411359.451565</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>1823895713.88707</v>
+        <v>208138644.911537</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>1573458317.8004</v>
+        <v>207058872.900616</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>6206089476.43221</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>586344866.7315</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>634067735.874547</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>324866594.902697</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -7646,79 +7987,119 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" t="s">
-        <v>365</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>366</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>335870372.067664</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>66264859.8059498</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>141958487.573662</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>291620338.011697</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>230750115.176668</v>
+      </c>
+      <c r="U20" s="3" t="n">
+        <v>146108231.731172</v>
+      </c>
+      <c r="V20" s="3" t="n">
+        <v>203794951.834361</v>
+      </c>
+      <c r="W20" s="3" t="n">
+        <v>214522334.891419</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>192158393.111799</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>362894979.854863</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>289681761.492728</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>597047567.085976</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>361543676.406851</v>
+      </c>
       <c r="AC20" s="3" t="n">
-        <v>37226.7306807989</v>
-      </c>
-      <c r="AD20" s="3"/>
+        <v>998921812.64294</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>2471894830.40654</v>
+      </c>
       <c r="AE20" s="3" t="n">
-        <v>0</v>
+        <v>2513166723.74983</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>46881250.2960113</v>
+        <v>1246964579.275</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>670687939.328183</v>
+        <v>1019251128.24281</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>826789977.204377</v>
+        <v>897208334.02792</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>1895478573.92379</v>
+        <v>932887550.608748</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>1574747.70295392</v>
+        <v>2200439897.17462</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>-810076.681611031</v>
+        <v>1584280533.33923</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>-745425.350839343</v>
+        <v>1549186767.61095</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>-1321050.40499554</v>
+        <v>370473373.251807</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-1294075.60616399</v>
+        <v>647716740.181205</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>-302.260786903046</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
+        <v>824854756.319289</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>2758841111.10974</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>2349252341.62578</v>
+      </c>
       <c r="AR20" s="3" t="n">
-        <v>0</v>
+        <v>3331530766.8279</v>
       </c>
       <c r="AS20" s="3" t="n">
-        <v>0</v>
+        <v>2324589063.40163</v>
       </c>
       <c r="AT20" s="3" t="n">
-        <v>71895.7313879013</v>
+        <v>2120507527.61709</v>
       </c>
       <c r="AU20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>1783630420.0539</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>1529589254.09654</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>6500314815.2312</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>9038247717.86565</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>1597135754.88571</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7730,93 +8111,91 @@
       <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="N21" t="s">
-        <v>365</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>22521272714.3281</v>
+        <v>20587157196.0747</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>28467781065.6707</v>
+        <v>26616661600.0861</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>25209506559.7903</v>
+        <v>23305297695.3975</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>20443265377.5613</v>
+        <v>18380704461.9155</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>15276697121.4962</v>
+        <v>14155794628.9997</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>14978464116.9066</v>
+        <v>13684853650.1547</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>15173276336.5228</v>
+        <v>13884417503.1049</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>13581379410.9445</v>
+        <v>12314313027.6775</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>14412955191.7781</v>
+        <v>12936122520.2518</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>15111299548.3172</v>
+        <v>14562222766.9827</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>1362504494.19353</v>
+        <v>1394448596.83998</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>25673653.3142334</v>
+        <v>26244114.2949107</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>55685384.2901016</v>
+        <v>57538147.1820452</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>58948031.1271165</v>
+        <v>61068651.2626187</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>107042502.118728</v>
+        <v>86966551.2753572</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>349944821.279467</v>
+        <v>357610061.298096</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>129723877.649924</v>
+        <v>132525462.018438</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>3316558.58196647</v>
+        <v>3117167.02690578</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>265923096.866346</v>
+        <v>250106810.945926</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>173451158.524528</v>
+        <v>114169714.272381</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>1554207.41385546</v>
+        <v>1617107.81253295</v>
       </c>
       <c r="AK21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>13457508.8817547</v>
+        <v>14005808.467533</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>419478.110389966</v>
+        <v>436635.494947168</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>14605596.0064904</v>
+        <v>15219455.7178591</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>3888613.32447303</v>
+        <v>3496173.96884877</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>405715.7237145</v>
+        <v>423353.608803674</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>38581053.4621738</v>
+        <v>534161.840652613</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -7836,7 +8215,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7880,6 +8265,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8035,115 +8422,115 @@
       <c r="O2" t="s">
         <v>377</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="4" t="n">
         <v>274497000</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="4" t="n">
         <v>233218000</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="4" t="n">
         <v>218971000</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="4" t="n">
         <v>153526000</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="4" t="n">
         <v>124305000</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="4" t="n">
         <v>90664000</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="4" t="n">
         <v>119962000</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="4" t="n">
         <v>2045203093</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="4" t="n">
         <v>2344998382</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="4" t="n">
         <v>2347500755.01</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="4" t="n">
         <v>6895833947.375</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="4" t="n">
         <v>7139230289.22</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="4" t="n">
         <v>9295278262.98</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="4" t="n">
         <v>10275659189</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="4" t="n">
         <v>10422558213.44</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="4" t="n">
         <v>10360971698.73</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="4" t="n">
         <v>9728398050.19</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="4" t="n">
         <v>11691253023.66</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="4" t="n">
         <v>11531086134.87</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="4" t="n">
         <v>11165699179.64</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>10857051662.4746</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="4" t="n">
         <v>10361636939.6474</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="4" t="n">
         <v>10994705434.455</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="4" t="n">
         <v>8997928827.4711</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="4" t="n">
         <v>8705808141.8791</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="4" t="n">
         <v>8649534068.514</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="4" t="n">
         <v>10190817340.9725</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>12452188960.0655</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="4" t="n">
         <v>12749798722.83</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="4" t="n">
         <v>14556490293.35</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="4" t="n">
         <v>15679403633.6</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="4" t="n">
         <v>12959605129.27</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="4" t="n">
         <v>10956431415.64</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="4" t="n">
         <v>17060657140.08</v>
       </c>
-      <c r="AX2" s="11" t="n">
+      <c r="AX2" s="4" t="n">
         <v>18257464232.52</v>
       </c>
-      <c r="AY2" s="11" t="n">
+      <c r="AY2" s="4" t="n">
         <v>7863372392.17</v>
       </c>
-      <c r="AZ2" s="11"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -8158,115 +8545,115 @@
       <c r="O3" t="s">
         <v>378</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="4" t="n">
         <v>177015000</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="4" t="n">
         <v>33915000</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="4" t="n">
         <v>257213000</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="4" t="n">
         <v>117315000</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="4" t="n">
         <v>334233000</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="4" t="n">
         <v>272402000</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="4" t="n">
         <v>186254000</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="4" t="n">
         <v>5449635</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="4" t="n">
         <v>16685247</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="4" t="n">
         <v>16729772</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="4" t="n">
         <v>33051387</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="4" t="n">
         <v>50584741</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="4" t="n">
         <v>68590390.4</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="4" t="n">
         <v>96529183</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="4" t="n">
         <v>132949641</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="4" t="n">
         <v>179814906.9</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="4" t="n">
         <v>142436368.32</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="4" t="n">
         <v>145794647.86</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="4" t="n">
         <v>167322546.51</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="4" t="n">
         <v>156809280.67</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>163175903.7304</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="4" t="n">
         <v>177327031.3744</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="4" t="n">
         <v>113599779.7459</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="4" t="n">
         <v>121134738.7732</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="4" t="n">
         <v>104508809.0493</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="4" t="n">
         <v>110327791.2286</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="4" t="n">
         <v>121213864.6832</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>123608352.7961</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="4" t="n">
         <v>184433252.76</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="4" t="n">
         <v>189484940.51</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="4" t="n">
         <v>178466616.28</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="4" t="n">
         <v>128899944.92</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="4" t="n">
         <v>123430573.78</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="4" t="n">
         <v>161600552.63</v>
       </c>
-      <c r="AX3" s="11" t="n">
+      <c r="AX3" s="4" t="n">
         <v>169804502.54</v>
       </c>
-      <c r="AY3" s="11" t="n">
+      <c r="AY3" s="4" t="n">
         <v>74475604.36</v>
       </c>
-      <c r="AZ3" s="11"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -8281,99 +8668,99 @@
       <c r="O4" t="s">
         <v>380</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="n">
         <v>100000</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="4" t="n">
         <v>100000</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11" t="n">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>11001200</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="4" t="n">
         <v>28041251</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="4" t="n">
         <v>408989</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="4" t="n">
         <v>-288054</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="4" t="n">
         <v>159145</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="4" t="n">
         <v>-140884</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="4" t="n">
         <v>-353647</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="4" t="n">
         <v>-6216</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="4" t="n">
         <v>-390251</v>
       </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11" t="n">
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4" t="n">
         <v>20152.6498</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>39025476.8882</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="4" t="n">
         <v>150437236.8621</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="4" t="n">
         <v>326774250.6583</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="4" t="n">
         <v>129547804.477</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="4" t="n">
         <v>200512297.6948</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="4" t="n">
         <v>231252918.4617</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="4" t="n">
         <v>417493457.588</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>687664750.8897</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="4" t="n">
         <v>607057915.5261</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="4" t="n">
         <v>615965522.8359</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="4" t="n">
         <v>480297616.8618</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="4" t="n">
         <v>363969060.496</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="4" t="n">
         <v>380361963.6171</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="4" t="n">
         <v>585901105.3008</v>
       </c>
-      <c r="AX4" s="11" t="n">
+      <c r="AX4" s="4" t="n">
         <v>761769989.03</v>
       </c>
-      <c r="AY4" s="11" t="n">
+      <c r="AY4" s="4" t="n">
         <v>406896237.53</v>
       </c>
-      <c r="AZ4" s="11"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -8388,105 +8775,105 @@
       <c r="O5" t="s">
         <v>381</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="n">
         <v>294000</v>
       </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11" t="n">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="n">
         <v>129000</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="4" t="n">
         <v>216189</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="4" t="n">
         <v>1569638</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="4" t="n">
         <v>3168646</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="4" t="n">
         <v>12662858</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="4" t="n">
         <v>10284824</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="4" t="n">
         <v>33278559</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="4" t="n">
         <v>36979344</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="4" t="n">
         <v>45744960.5625</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="4" t="n">
         <v>63694740.6672</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="4" t="n">
         <v>60659734.1997</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="4" t="n">
         <v>43982593.7564</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="4" t="n">
         <v>35029752.963</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="4" t="n">
         <v>40784367.3397</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>43073636.7487</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="4" t="n">
         <v>40470563.1637</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="4" t="n">
         <v>29012404.2818</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="4" t="n">
         <v>21711323.2067</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="4" t="n">
         <v>28293520.2231</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="4" t="n">
         <v>34320963.0805</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="4" t="n">
         <v>25010422.5589</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>16744504.6631</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="4" t="n">
         <v>26041215.9076</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="4" t="n">
         <v>13144862.2171</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="4" t="n">
         <v>19734226.0417</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="4" t="n">
         <v>14907568.6628</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="4" t="n">
         <v>17124048.0237</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="4" t="n">
         <v>17392736.3602</v>
       </c>
-      <c r="AX5" s="11" t="n">
+      <c r="AX5" s="4" t="n">
         <v>24193809.01</v>
       </c>
-      <c r="AY5" s="11" t="n">
+      <c r="AY5" s="4" t="n">
         <v>7862274.53</v>
       </c>
-      <c r="AZ5" s="11"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -8501,101 +8888,101 @@
       <c r="O6" t="s">
         <v>382</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>254337</v>
       </c>
-      <c r="X6" s="11" t="n">
+      <c r="X6" s="4" t="n">
         <v>5761396</v>
       </c>
-      <c r="Y6" s="11" t="n">
+      <c r="Y6" s="4" t="n">
         <v>75918027</v>
       </c>
-      <c r="Z6" s="11" t="n">
+      <c r="Z6" s="4" t="n">
         <v>31624005</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="4" t="n">
         <v>172656581</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="4" t="n">
         <v>140200642</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="4" t="n">
         <v>456392251.1094</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="4" t="n">
         <v>446512073</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="4" t="n">
         <v>443099224</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="4" t="n">
         <v>424243449.1465</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="4" t="n">
         <v>582518080.1063</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="4" t="n">
         <v>642485005.2076</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="4" t="n">
         <v>512414055.4109</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>331864049.2243</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="4" t="n">
         <v>616755539.9505</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="4" t="n">
         <v>345191706.2651</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="4" t="n">
         <v>556200807.5387</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="4" t="n">
         <v>898699692.7676</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="4" t="n">
         <v>747009623.3654</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="4" t="n">
         <v>1275235409.7362</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>1240370730.714</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="4" t="n">
         <v>1374707412.0842</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="4" t="n">
         <v>1398684976.7373</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="4" t="n">
         <v>1199620482.7232</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="4" t="n">
         <v>1046947010.496</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="4" t="n">
         <v>1625081416.4088</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="4" t="n">
         <v>3359142637.1437</v>
       </c>
-      <c r="AX6" s="11" t="n">
+      <c r="AX6" s="4" t="n">
         <v>4063741454.56</v>
       </c>
-      <c r="AY6" s="11" t="n">
+      <c r="AY6" s="4" t="n">
         <v>836703703.31</v>
       </c>
-      <c r="AZ6" s="11"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -8610,105 +8997,105 @@
       <c r="O7" t="s">
         <v>383</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11" t="n">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4" t="n">
         <v>630000</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11" t="n">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="n">
         <v>1205000</v>
       </c>
-      <c r="W7" s="11" t="n">
+      <c r="W7" s="4" t="n">
         <v>108630748</v>
       </c>
-      <c r="X7" s="11" t="n">
+      <c r="X7" s="4" t="n">
         <v>450014666</v>
       </c>
-      <c r="Y7" s="11" t="n">
+      <c r="Y7" s="4" t="n">
         <v>828220354</v>
       </c>
-      <c r="Z7" s="11" t="n">
+      <c r="Z7" s="4" t="n">
         <v>993921104.9</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="4" t="n">
         <v>1101446061.1795</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="4" t="n">
         <v>1902657109.2734</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="4" t="n">
         <v>1917246152.9405</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="4" t="n">
         <v>2187547978.0977</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="4" t="n">
         <v>3044404983.9081</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="4" t="n">
         <v>3295352835.387</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="4" t="n">
         <v>4192613759.4243</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="4" t="n">
         <v>5234341508.2577</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="4" t="n">
         <v>4291463968.0095</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>3381044486.4612</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="4" t="n">
         <v>2906496747.6997</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="4" t="n">
         <v>2573380965.567</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="4" t="n">
         <v>1985702590.4568</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="4" t="n">
         <v>1852383288.8071</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="4" t="n">
         <v>2286373586.8361</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="4" t="n">
         <v>3450100852.8713</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>3313199977.7239</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="4" t="n">
         <v>5401546574.5909</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="4" t="n">
         <v>6125404436.3268</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="4" t="n">
         <v>5296687315.7166</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="4" t="n">
         <v>6020677361.3456</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="4" t="n">
         <v>5981172455.5873</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="4" t="n">
         <v>11435365145.9607</v>
       </c>
-      <c r="AX7" s="11" t="n">
+      <c r="AX7" s="4" t="n">
         <v>12209389511.31</v>
       </c>
-      <c r="AY7" s="11" t="n">
+      <c r="AY7" s="4" t="n">
         <v>4531867104.65</v>
       </c>
-      <c r="AZ7" s="11"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -8723,67 +9110,67 @@
       <c r="O8" t="s">
         <v>384</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="n">
         <v>133849</v>
       </c>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11" t="n">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="n">
         <v>565282</v>
       </c>
-      <c r="Z8" s="11" t="n">
+      <c r="Z8" s="4" t="n">
         <v>918900</v>
       </c>
-      <c r="AA8" s="11" t="n">
+      <c r="AA8" s="4" t="n">
         <v>632908</v>
       </c>
-      <c r="AB8" s="11" t="n">
+      <c r="AB8" s="4" t="n">
         <v>2519260</v>
       </c>
-      <c r="AC8" s="11" t="n">
+      <c r="AC8" s="4" t="n">
         <v>14181</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="4" t="n">
         <v>-71872</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="4" t="n">
         <v>-332387</v>
       </c>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11" t="n">
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4" t="n">
         <v>4384</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="4" t="n">
         <v>80932</v>
       </c>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11" t="n">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4" t="n">
         <v>42510</v>
       </c>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -8794,67 +9181,67 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="4" t="n">
         <v>9948334000</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="4" t="n">
         <v>13324621004</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="4" t="n">
         <v>11940745763</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="4" t="n">
         <v>9656274218</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="4" t="n">
         <v>7599158037</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="4" t="n">
         <v>7502011208</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="4" t="n">
         <v>7752736338</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="4" t="n">
         <v>6997644666</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="4" t="n">
         <v>7441508406</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="4" t="n">
         <v>8477887249</v>
       </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="11"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -8869,115 +9256,115 @@
       <c r="O10" t="s">
         <v>367</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="11" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="11" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="11"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -9114,115 +9501,115 @@
       <c r="O14" t="s">
         <v>377</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="4" t="n">
         <v>567737186.922043</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="4" t="n">
         <v>465711128.080521</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="4" t="n">
         <v>426584583.053044</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="4" t="n">
         <v>292233257.705959</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="4" t="n">
         <v>231556712.308155</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="4" t="n">
         <v>165381866.2348</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="4" t="n">
         <v>214780893.749703</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="4" t="n">
         <v>3597895109.64165</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="4" t="n">
         <v>4074209403.94096</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="4" t="n">
         <v>4028671685.93405</v>
       </c>
-      <c r="Z14" s="11" t="n">
+      <c r="Z14" s="4" t="n">
         <v>11593092543.6794</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="4" t="n">
         <v>11718244465.684</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="4" t="n">
         <v>15020844822.8125</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="4" t="n">
         <v>16292371949.7156</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="4" t="n">
         <v>16131376710.6605</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="4" t="n">
         <v>15562493121.0468</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="4" t="n">
         <v>14152610529.2714</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="4" t="n">
         <v>16552438609.8332</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="4" t="n">
         <v>15993633495.2152</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="4" t="n">
         <v>15330074210.7478</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>14778326226.0539</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="4" t="n">
         <v>13826465041.8907</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="4" t="n">
         <v>14409745468.0933</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="4" t="n">
         <v>11582591707.2</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="4" t="n">
         <v>11005778789.349</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="4" t="n">
         <v>10822556618.7574</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="4" t="n">
         <v>12649919395.4095</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>15200387066.472</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="4" t="n">
         <v>15225669434.2084</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="4" t="n">
         <v>17067628189.795</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="4" t="n">
         <v>18147196371.193</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="4" t="n">
         <v>14500265794.0208</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="4" t="n">
         <v>11457650843.1738</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="4" t="n">
         <v>17060657140.08</v>
       </c>
-      <c r="AX14" s="11" t="n">
+      <c r="AX14" s="4" t="n">
         <v>17782563310.1499</v>
       </c>
-      <c r="AY14" s="11" t="n">
+      <c r="AY14" s="4" t="n">
         <v>7494393097.65783</v>
       </c>
-      <c r="AZ14" s="11"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -9237,115 +9624,115 @@
       <c r="O15" t="s">
         <v>378</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="4" t="n">
         <v>366116927.11762</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="4" t="n">
         <v>67724587.7627407</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="4" t="n">
         <v>501085076.840416</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="4" t="n">
         <v>223306440.783806</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="4" t="n">
         <v>622612884.637717</v>
       </c>
-      <c r="U15" s="11" t="n">
+      <c r="U15" s="4" t="n">
         <v>496893487.22858</v>
       </c>
-      <c r="V15" s="11" t="n">
+      <c r="V15" s="4" t="n">
         <v>333470603.895043</v>
       </c>
-      <c r="W15" s="11" t="n">
+      <c r="W15" s="4" t="n">
         <v>9586928.15541912</v>
       </c>
-      <c r="X15" s="11" t="n">
+      <c r="X15" s="4" t="n">
         <v>28989013.7052034</v>
       </c>
-      <c r="Y15" s="11" t="n">
+      <c r="Y15" s="4" t="n">
         <v>28710857.1210002</v>
       </c>
-      <c r="Z15" s="11" t="n">
+      <c r="Z15" s="4" t="n">
         <v>55565112.3724959</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="4" t="n">
         <v>83029169.4283014</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="4" t="n">
         <v>110839673.79845</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="4" t="n">
         <v>153049972.2219</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="4" t="n">
         <v>205771049.544488</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="4" t="n">
         <v>270087433.212074</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="4" t="n">
         <v>207212578.642117</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="4" t="n">
         <v>206415595.784396</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="4" t="n">
         <v>232076619.068391</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="4" t="n">
         <v>215293092.79516</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>222110644.079718</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="4" t="n">
         <v>236623422.974693</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="4" t="n">
         <v>148884744.673564</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="4" t="n">
         <v>155930797.817017</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="4" t="n">
         <v>132118789.570137</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="4" t="n">
         <v>138045443.573714</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="4" t="n">
         <v>150463458.0863</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>150888716.287185</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="4" t="n">
         <v>220248162.362854</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="4" t="n">
         <v>222172958.385962</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="4" t="n">
         <v>206555606.770352</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="4" t="n">
         <v>144223797.216877</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="4" t="n">
         <v>129077102.214602</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="4" t="n">
         <v>161600552.63</v>
       </c>
-      <c r="AX15" s="11" t="n">
+      <c r="AX15" s="4" t="n">
         <v>165387661.633079</v>
       </c>
-      <c r="AY15" s="11" t="n">
+      <c r="AY15" s="4" t="n">
         <v>70980926.1755503</v>
       </c>
-      <c r="AZ15" s="11"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -9360,99 +9747,99 @@
       <c r="O16" t="s">
         <v>380</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11" t="n">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="n">
         <v>199689.1869755</v>
       </c>
-      <c r="R16" s="11" t="n">
+      <c r="R16" s="4" t="n">
         <v>194813.278038208</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11" t="n">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
         <v>19353170.2624849</v>
       </c>
-      <c r="X16" s="11" t="n">
+      <c r="X16" s="4" t="n">
         <v>48718979.6800759</v>
       </c>
-      <c r="Y16" s="11" t="n">
+      <c r="Y16" s="4" t="n">
         <v>701887.912343381</v>
       </c>
-      <c r="Z16" s="11" t="n">
+      <c r="Z16" s="4" t="n">
         <v>-484268.720079642</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="4" t="n">
         <v>261218.638416415</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="4" t="n">
         <v>-227663.620404483</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="4" t="n">
         <v>-560718.135637369</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="4" t="n">
         <v>-9620.73183761764</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="4" t="n">
         <v>-586168.815008546</v>
       </c>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11" t="n">
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4" t="n">
         <v>27668.8107038159</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="4" t="n">
         <v>53120427.7653491</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="4" t="n">
         <v>200741949.229427</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="4" t="n">
         <v>428272845.105688</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="4" t="n">
         <v>166760523.95971</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="4" t="n">
         <v>253485254.55751</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="4" t="n">
         <v>289350592.006468</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="4" t="n">
         <v>518236998.063496</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>839432361.572312</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="4" t="n">
         <v>724941887.3311</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="4" t="n">
         <v>722225640.221711</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="4" t="n">
         <v>555892007.979765</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="4" t="n">
         <v>407238342.939336</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="4" t="n">
         <v>397762228.213074</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="4" t="n">
         <v>585901105.3008</v>
       </c>
-      <c r="AX16" s="11" t="n">
+      <c r="AX16" s="4" t="n">
         <v>741955338.659231</v>
       </c>
-      <c r="AY16" s="11" t="n">
+      <c r="AY16" s="4" t="n">
         <v>387803120.839638</v>
       </c>
-      <c r="AZ16" s="11"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -9467,105 +9854,105 @@
       <c r="O17" t="s">
         <v>381</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="n">
         <v>547666.412602852</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11" t="n">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="n">
         <v>230962.598937261</v>
       </c>
-      <c r="W17" s="11" t="n">
+      <c r="W17" s="4" t="n">
         <v>380316.922324505</v>
       </c>
-      <c r="X17" s="11" t="n">
+      <c r="X17" s="4" t="n">
         <v>2727095.2293489</v>
       </c>
-      <c r="Y17" s="11" t="n">
+      <c r="Y17" s="4" t="n">
         <v>5437882.98926183</v>
       </c>
-      <c r="Z17" s="11" t="n">
+      <c r="Z17" s="4" t="n">
         <v>21288459.9283824</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="4" t="n">
         <v>16881383.1514183</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="4" t="n">
         <v>53776988.3292935</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="4" t="n">
         <v>58631881.0134765</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="4" t="n">
         <v>70801158.0589136</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="4" t="n">
         <v>95671428.5400147</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="4" t="n">
         <v>88246141.7088822</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="4" t="n">
         <v>62270415.4619463</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="4" t="n">
         <v>48586319.0826357</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="4" t="n">
         <v>55995362.932226</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>58630673.9070765</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="4" t="n">
         <v>54003516.0532819</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="4" t="n">
         <v>38023880.0948722</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="4" t="n">
         <v>27947919.6766373</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="4" t="n">
         <v>35768330.7135459</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="4" t="n">
         <v>42943419.056653</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="4" t="n">
         <v>31045579.4495699</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>20440016.8461727</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="4" t="n">
         <v>31098133.6798672</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="4" t="n">
         <v>15412480.3717308</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="4" t="n">
         <v>22840210.22616</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="4" t="n">
         <v>16679806.6605438</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="4" t="n">
         <v>17907414.9085826</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="4" t="n">
         <v>17392736.3602</v>
       </c>
-      <c r="AX17" s="11" t="n">
+      <c r="AX17" s="4" t="n">
         <v>23564495.866172</v>
       </c>
-      <c r="AY17" s="11" t="n">
+      <c r="AY17" s="4" t="n">
         <v>7493346.75135008</v>
       </c>
-      <c r="AZ17" s="11"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -9580,101 +9967,101 @@
       <c r="O18" t="s">
         <v>382</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>447426.395761337</v>
       </c>
-      <c r="X18" s="11" t="n">
+      <c r="X18" s="4" t="n">
         <v>10009872.0507466</v>
       </c>
-      <c r="Y18" s="11" t="n">
+      <c r="Y18" s="4" t="n">
         <v>130286989.332863</v>
       </c>
-      <c r="Z18" s="11" t="n">
+      <c r="Z18" s="4" t="n">
         <v>53165435.7347657</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="4" t="n">
         <v>283396380.674564</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="4" t="n">
         <v>226559337.758389</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="4" t="n">
         <v>723623873.979999</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="4" t="n">
         <v>691083159.039857</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="4" t="n">
         <v>665548447.187288</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="4" t="n">
         <v>617177902.712145</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="4" t="n">
         <v>824727233.305479</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="4" t="n">
         <v>891127650.880011</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="4" t="n">
         <v>703524729.593566</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>451724403.144091</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="4" t="n">
         <v>822992444.358718</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="4" t="n">
         <v>452410904.01468</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="4" t="n">
         <v>715969973.141729</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="4" t="n">
         <v>1136125429.76639</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="4" t="n">
         <v>934680860.216279</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="4" t="n">
         <v>1582956950.7126</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>1514120551.27344</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="4" t="n">
         <v>1641660474.81762</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="4" t="n">
         <v>1639971906.44988</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="4" t="n">
         <v>1388429622.68234</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="4" t="n">
         <v>1171409913.57525</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="4" t="n">
         <v>1699423357.35003</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="4" t="n">
         <v>3359142637.1437</v>
       </c>
-      <c r="AX18" s="11" t="n">
+      <c r="AX18" s="4" t="n">
         <v>3958038135.60694</v>
       </c>
-      <c r="AY18" s="11" t="n">
+      <c r="AY18" s="4" t="n">
         <v>797442388.092313</v>
       </c>
-      <c r="AZ18" s="11"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -9689,105 +10076,105 @@
       <c r="O19" t="s">
         <v>383</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11" t="n">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="n">
         <v>1227323.65164071</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11" t="n">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="n">
         <v>2157441.33115813</v>
       </c>
-      <c r="W19" s="11" t="n">
+      <c r="W19" s="4" t="n">
         <v>191101821.781723</v>
       </c>
-      <c r="X19" s="11" t="n">
+      <c r="X19" s="4" t="n">
         <v>781857249.114533</v>
       </c>
-      <c r="Y19" s="11" t="n">
+      <c r="Y19" s="4" t="n">
         <v>1421353276.56577</v>
       </c>
-      <c r="Z19" s="11" t="n">
+      <c r="Z19" s="4" t="n">
         <v>1670953714.68567</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="4" t="n">
         <v>1807899967.89364</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="4" t="n">
         <v>3074627394.77521</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="4" t="n">
         <v>3039852419.03569</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="4" t="n">
         <v>3385748468.33987</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="4" t="n">
         <v>4572788440.83301</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="4" t="n">
         <v>4793990233.0427</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="4" t="n">
         <v>5935889140.98169</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="4" t="n">
         <v>7260039400.68645</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="4" t="n">
         <v>5892014467.15467</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>4602186667.16152</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="4" t="n">
         <v>3878400286.6063</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="4" t="n">
         <v>3372692877.25075</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="4" t="n">
         <v>2556097386.20866</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="4" t="n">
         <v>2341760854.07016</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="4" t="n">
         <v>2860779251.13211</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="4" t="n">
         <v>4282629767.03404</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>4044423213.5845</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="4" t="n">
         <v>6450467522.35687</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="4" t="n">
         <v>7182097011.33161</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="4" t="n">
         <v>6130336783.29048</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="4" t="n">
         <v>6736426081.56168</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="4" t="n">
         <v>6254790727.8553</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="4" t="n">
         <v>11435365145.9607</v>
       </c>
-      <c r="AX19" s="11" t="n">
+      <c r="AX19" s="4" t="n">
         <v>11891807054.806</v>
       </c>
-      <c r="AY19" s="11" t="n">
+      <c r="AY19" s="4" t="n">
         <v>4319214689.92248</v>
       </c>
-      <c r="AZ19" s="11"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -9802,67 +10189,67 @@
       <c r="O20" t="s">
         <v>384</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="n">
         <v>235465.44799325</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11" t="n">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4" t="n">
         <v>970110.694579295</v>
       </c>
-      <c r="Z20" s="11" t="n">
+      <c r="Z20" s="4" t="n">
         <v>1544830.22933611</v>
       </c>
-      <c r="AA20" s="11" t="n">
+      <c r="AA20" s="4" t="n">
         <v>1038847.37819508</v>
       </c>
-      <c r="AB20" s="11" t="n">
+      <c r="AB20" s="4" t="n">
         <v>4071036.1172326</v>
       </c>
-      <c r="AC20" s="11" t="n">
+      <c r="AC20" s="4" t="n">
         <v>22484.4092597238</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="4" t="n">
         <v>-111238.938004063</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="4" t="n">
         <v>-499255.335448841</v>
       </c>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11" t="n">
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4" t="n">
         <v>6206.85316780456</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="4" t="n">
         <v>112252.80349962</v>
       </c>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11" t="n">
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4" t="n">
         <v>54721.0344640451</v>
       </c>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -9873,67 +10260,67 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="4" t="n">
         <v>20575959517.6666</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="4" t="n">
         <v>26607827350.4543</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="4" t="n">
         <v>23262158243.1087</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="4" t="n">
         <v>18380498886.3658</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="4" t="n">
         <v>14155794628.9997</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="4" t="n">
         <v>13684556318.8634</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="4" t="n">
         <v>13880559174.4172</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="4" t="n">
         <v>12310166950.6479</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="4" t="n">
         <v>12928905947.2071</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="4" t="n">
         <v>14549356051.8331</v>
       </c>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="11"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -9942,43 +10329,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
